--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$274</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$275</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="279">
   <si>
     <t>date</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>10/20/2020</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -997,9 +999,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$274</c:f>
+              <c:f>data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1818,16 +1820,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>10/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$274</c:f>
+              <c:f>data!$D$2:$D$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2645,7 +2650,10 @@
                   <c:v>64218</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>60590</c:v>
+                  <c:v>60598</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>62557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,11 +2670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128695680"/>
-        <c:axId val="128730240"/>
+        <c:axId val="64454016"/>
+        <c:axId val="64291968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128695680"/>
+        <c:axId val="64454016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128730240"/>
+        <c:crossAx val="64291968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2683,7 +2691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128730240"/>
+        <c:axId val="64291968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,14 +2702,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128695680"/>
+        <c:crossAx val="64454016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2751,9 +2758,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$274</c:f>
+              <c:f>data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3572,16 +3579,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>10/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$274</c:f>
+              <c:f>data!$E$2:$E$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4400,6 +4410,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4416,11 +4429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128783872"/>
-        <c:axId val="128785408"/>
+        <c:axId val="64947712"/>
+        <c:axId val="64949248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128783872"/>
+        <c:axId val="64947712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128785408"/>
+        <c:crossAx val="64949248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4437,7 +4450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128785408"/>
+        <c:axId val="64949248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,7 +4461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128783872"/>
+        <c:crossAx val="64947712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4555,8 +4568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E274" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E274"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E275" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E275"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4855,7 +4868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A261" sqref="A261:E274"/>
@@ -9522,10 +9535,27 @@
         <v>220058</v>
       </c>
       <c r="D274">
-        <v>60590</v>
+        <v>60598</v>
       </c>
       <c r="E274">
         <v>929</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275">
+        <v>8316027</v>
+      </c>
+      <c r="C275">
+        <v>220987</v>
+      </c>
+      <c r="D275">
+        <v>62557</v>
+      </c>
+      <c r="E275">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$276</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="280">
   <si>
     <t>date</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
   </si>
 </sst>
 </file>
@@ -999,9 +1002,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$275</c:f>
+              <c:f>data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1823,16 +1826,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$275</c:f>
+              <c:f>data!$D$2:$D$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2647,13 +2653,16 @@
                   <c:v>47882</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>64218</c:v>
+                  <c:v>64228</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>60598</c:v>
+                  <c:v>60588</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>62557</c:v>
+                  <c:v>64191</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>75049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,11 +2679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64454016"/>
-        <c:axId val="64291968"/>
+        <c:axId val="80117120"/>
+        <c:axId val="79959168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64454016"/>
+        <c:axId val="80117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64291968"/>
+        <c:crossAx val="79959168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64291968"/>
+        <c:axId val="79959168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64454016"/>
+        <c:crossAx val="80117120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2758,9 +2767,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$275</c:f>
+              <c:f>data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3582,16 +3591,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$275</c:f>
+              <c:f>data!$E$2:$E$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4412,7 +4424,10 @@
                   <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1170</c:v>
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4429,11 +4444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64947712"/>
-        <c:axId val="64949248"/>
+        <c:axId val="80549376"/>
+        <c:axId val="80550912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64947712"/>
+        <c:axId val="80549376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64949248"/>
+        <c:crossAx val="80550912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +4465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64949248"/>
+        <c:axId val="80550912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +4476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64947712"/>
+        <c:crossAx val="80549376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4568,8 +4583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E275"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E276"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4868,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A261" sqref="A261:E274"/>
@@ -9518,7 +9533,7 @@
         <v>219541</v>
       </c>
       <c r="D273">
-        <v>64218</v>
+        <v>64228</v>
       </c>
       <c r="E273">
         <v>517</v>
@@ -9529,13 +9544,13 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>8255429</v>
+        <v>8255439</v>
       </c>
       <c r="C274">
         <v>220058</v>
       </c>
       <c r="D274">
-        <v>60598</v>
+        <v>60588</v>
       </c>
       <c r="E274">
         <v>929</v>
@@ -9552,10 +9567,27 @@
         <v>220987</v>
       </c>
       <c r="D275">
-        <v>62557</v>
+        <v>64191</v>
       </c>
       <c r="E275">
-        <v>1170</v>
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276">
+        <v>8380218</v>
+      </c>
+      <c r="C276">
+        <v>222195</v>
+      </c>
+      <c r="D276">
+        <v>75049</v>
+      </c>
+      <c r="E276">
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$277</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="281">
   <si>
     <t>date</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
   </si>
 </sst>
 </file>
@@ -1002,9 +1005,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$276</c:f>
+              <c:f>data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1829,16 +1832,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$276</c:f>
+              <c:f>data!$D$2:$D$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2662,7 +2668,10 @@
                   <c:v>64191</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>75049</c:v>
+                  <c:v>75064</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>85085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,11 +2688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80117120"/>
-        <c:axId val="79959168"/>
+        <c:axId val="67865984"/>
+        <c:axId val="67703936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80117120"/>
+        <c:axId val="67865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79959168"/>
+        <c:crossAx val="67703936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79959168"/>
+        <c:axId val="67703936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80117120"/>
+        <c:crossAx val="67865984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2767,9 +2776,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$276</c:f>
+              <c:f>data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3594,16 +3603,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$276</c:f>
+              <c:f>data!$E$2:$E$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4428,6 +4440,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4444,11 +4459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80549376"/>
-        <c:axId val="80550912"/>
+        <c:axId val="70723072"/>
+        <c:axId val="70724608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80549376"/>
+        <c:axId val="70723072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,7 +4472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80550912"/>
+        <c:crossAx val="70724608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4465,7 +4480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80550912"/>
+        <c:axId val="70724608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,7 +4491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80549376"/>
+        <c:crossAx val="70723072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4583,8 +4598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E276"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E277"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4883,7 +4898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A261" sqref="A261:E274"/>
@@ -9584,10 +9599,27 @@
         <v>222195</v>
       </c>
       <c r="D276">
-        <v>75049</v>
+        <v>75064</v>
       </c>
       <c r="E276">
         <v>828</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277">
+        <v>8455282</v>
+      </c>
+      <c r="C277">
+        <v>223023</v>
+      </c>
+      <c r="D277">
+        <v>85085</v>
+      </c>
+      <c r="E277">
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$278</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="282">
   <si>
     <t>date</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
   </si>
 </sst>
 </file>
@@ -1005,9 +1008,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$277</c:f>
+              <c:f>data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1835,16 +1838,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$277</c:f>
+              <c:f>data!$D$2:$D$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2617,7 +2623,7 @@
                   <c:v>35063</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>41686</c:v>
+                  <c:v>62294</c:v>
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>42864</c:v>
@@ -2638,7 +2644,7 @@
                   <c:v>44766</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>45921</c:v>
+                  <c:v>48006</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>54359</c:v>
@@ -2659,7 +2665,7 @@
                   <c:v>47882</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>64228</c:v>
+                  <c:v>65375</c:v>
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>60588</c:v>
@@ -2672,6 +2678,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>85085</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>78586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,11 +2697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67865984"/>
-        <c:axId val="67703936"/>
+        <c:axId val="70356352"/>
+        <c:axId val="70198400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67865984"/>
+        <c:axId val="70356352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67703936"/>
+        <c:crossAx val="70198400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2709,7 +2718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67703936"/>
+        <c:axId val="70198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,7 +2729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67865984"/>
+        <c:crossAx val="70356352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2776,9 +2785,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$277</c:f>
+              <c:f>data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3606,16 +3615,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$277</c:f>
+              <c:f>data!$E$2:$E$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4443,6 +4455,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4459,11 +4474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70723072"/>
-        <c:axId val="70724608"/>
+        <c:axId val="70796800"/>
+        <c:axId val="70798336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70723072"/>
+        <c:axId val="70796800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4472,7 +4487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70724608"/>
+        <c:crossAx val="70798336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4480,7 +4495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70724608"/>
+        <c:axId val="70798336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70723072"/>
+        <c:crossAx val="70796800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4598,8 +4613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E277"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E278"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4898,7 +4913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A261" sqref="A261:E274"/>
@@ -9310,7 +9325,7 @@
         <v>209606</v>
       </c>
       <c r="D259">
-        <v>41686</v>
+        <v>62294</v>
       </c>
       <c r="E259">
         <v>429</v>
@@ -9321,7 +9336,7 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>7487091</v>
+        <v>7507699</v>
       </c>
       <c r="C260">
         <v>210035</v>
@@ -9338,7 +9353,7 @@
         <v>264</v>
       </c>
       <c r="B261">
-        <v>7529955</v>
+        <v>7550563</v>
       </c>
       <c r="C261">
         <v>210756</v>
@@ -9355,7 +9370,7 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>7582939</v>
+        <v>7603547</v>
       </c>
       <c r="C262">
         <v>211752</v>
@@ -9372,7 +9387,7 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>7639314</v>
+        <v>7659922</v>
       </c>
       <c r="C263">
         <v>212680</v>
@@ -9389,7 +9404,7 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>7698273</v>
+        <v>7718881</v>
       </c>
       <c r="C264">
         <v>213595</v>
@@ -9406,7 +9421,7 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>7749859</v>
+        <v>7770467</v>
       </c>
       <c r="C265">
         <v>214187</v>
@@ -9423,13 +9438,13 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>7794625</v>
+        <v>7815233</v>
       </c>
       <c r="C266">
         <v>214606</v>
       </c>
       <c r="D266">
-        <v>45921</v>
+        <v>48006</v>
       </c>
       <c r="E266">
         <v>351</v>
@@ -9440,7 +9455,7 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>7840546</v>
+        <v>7863239</v>
       </c>
       <c r="C267">
         <v>214957</v>
@@ -9457,7 +9472,7 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>7894905</v>
+        <v>7917598</v>
       </c>
       <c r="C268">
         <v>215783</v>
@@ -9474,7 +9489,7 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>7954777</v>
+        <v>7977470</v>
       </c>
       <c r="C269">
         <v>216792</v>
@@ -9491,7 +9506,7 @@
         <v>273</v>
       </c>
       <c r="B270">
-        <v>8020104</v>
+        <v>8042797</v>
       </c>
       <c r="C270">
         <v>217585</v>
@@ -9508,7 +9523,7 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>8090568</v>
+        <v>8113261</v>
       </c>
       <c r="C271">
         <v>218494</v>
@@ -9525,7 +9540,7 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>8143329</v>
+        <v>8166022</v>
       </c>
       <c r="C272">
         <v>219173</v>
@@ -9542,13 +9557,13 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>8191211</v>
+        <v>8213904</v>
       </c>
       <c r="C273">
         <v>219541</v>
       </c>
       <c r="D273">
-        <v>64228</v>
+        <v>65375</v>
       </c>
       <c r="E273">
         <v>517</v>
@@ -9559,7 +9574,7 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>8255439</v>
+        <v>8279279</v>
       </c>
       <c r="C274">
         <v>220058</v>
@@ -9576,7 +9591,7 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>8316027</v>
+        <v>8339867</v>
       </c>
       <c r="C275">
         <v>220987</v>
@@ -9593,7 +9608,7 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>8380218</v>
+        <v>8404058</v>
       </c>
       <c r="C276">
         <v>222195</v>
@@ -9610,7 +9625,7 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>8455282</v>
+        <v>8479122</v>
       </c>
       <c r="C277">
         <v>223023</v>
@@ -9620,6 +9635,23 @@
       </c>
       <c r="E277">
         <v>925</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278">
+        <v>8564207</v>
+      </c>
+      <c r="C278">
+        <v>223948</v>
+      </c>
+      <c r="D278">
+        <v>78586</v>
+      </c>
+      <c r="E278">
+        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$279</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="283">
   <si>
     <t>date</t>
   </si>
@@ -874,6 +874,9 @@
   </si>
   <si>
     <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
   </si>
 </sst>
 </file>
@@ -1008,9 +1011,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$278</c:f>
+              <c:f>data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1841,16 +1844,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$278</c:f>
+              <c:f>data!$D$2:$D$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2680,7 +2686,10 @@
                   <c:v>85085</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>78586</c:v>
+                  <c:v>78702</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>59691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70356352"/>
-        <c:axId val="70198400"/>
+        <c:axId val="72916352"/>
+        <c:axId val="72758400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70356352"/>
+        <c:axId val="72916352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70198400"/>
+        <c:crossAx val="72758400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2718,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70198400"/>
+        <c:axId val="72758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,7 +2738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70356352"/>
+        <c:crossAx val="72916352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2785,9 +2794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$278</c:f>
+              <c:f>data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3618,16 +3627,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$278</c:f>
+              <c:f>data!$E$2:$E$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4458,6 +4470,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4474,11 +4489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70796800"/>
-        <c:axId val="70798336"/>
+        <c:axId val="73352704"/>
+        <c:axId val="73354240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70796800"/>
+        <c:axId val="73352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,7 +4502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70798336"/>
+        <c:crossAx val="73354240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4495,7 +4510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70798336"/>
+        <c:axId val="73354240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +4521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70796800"/>
+        <c:crossAx val="73352704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4613,8 +4628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E278"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E279"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4913,7 +4928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A261" sqref="A261:E274"/>
@@ -9648,10 +9663,27 @@
         <v>223948</v>
       </c>
       <c r="D278">
-        <v>78586</v>
+        <v>78702</v>
       </c>
       <c r="E278">
         <v>871</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279">
+        <v>8642909</v>
+      </c>
+      <c r="C279">
+        <v>224819</v>
+      </c>
+      <c r="D279">
+        <v>59691</v>
+      </c>
+      <c r="E279">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -2706,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72916352"/>
-        <c:axId val="72758400"/>
+        <c:axId val="111132672"/>
+        <c:axId val="111134208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72916352"/>
+        <c:axId val="111132672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72758400"/>
+        <c:crossAx val="111134208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72758400"/>
+        <c:axId val="111134208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72916352"/>
+        <c:crossAx val="111132672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4489,11 +4489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73352704"/>
-        <c:axId val="73354240"/>
+        <c:axId val="111667072"/>
+        <c:axId val="111668608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73352704"/>
+        <c:axId val="111667072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4502,7 +4502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73354240"/>
+        <c:crossAx val="111668608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4510,7 +4510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73354240"/>
+        <c:axId val="111668608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73352704"/>
+        <c:crossAx val="111667072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4938,9 +4938,9 @@
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -2706,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111132672"/>
-        <c:axId val="111134208"/>
+        <c:axId val="90169344"/>
+        <c:axId val="90170880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111132672"/>
+        <c:axId val="90169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111134208"/>
+        <c:crossAx val="90170880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111134208"/>
+        <c:axId val="90170880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111132672"/>
+        <c:crossAx val="90169344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4489,11 +4489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111667072"/>
-        <c:axId val="111668608"/>
+        <c:axId val="90699648"/>
+        <c:axId val="90701184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111667072"/>
+        <c:axId val="90699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4502,7 +4502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111668608"/>
+        <c:crossAx val="90701184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4510,7 +4510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111668608"/>
+        <c:axId val="90701184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111667072"/>
+        <c:crossAx val="90699648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$280</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="284">
   <si>
     <t>date</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
   </si>
 </sst>
 </file>
@@ -1011,9 +1014,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$279</c:f>
+              <c:f>data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1847,16 +1850,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$279</c:f>
+              <c:f>data!$D$2:$D$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2690,6 +2696,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>59691</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>74323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,11 +2715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90169344"/>
-        <c:axId val="90170880"/>
+        <c:axId val="69574016"/>
+        <c:axId val="69420160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90169344"/>
+        <c:axId val="69574016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90170880"/>
+        <c:crossAx val="69420160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90170880"/>
+        <c:axId val="69420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90169344"/>
+        <c:crossAx val="69574016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,9 +2803,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$279</c:f>
+              <c:f>data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3630,16 +3639,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$279</c:f>
+              <c:f>data!$E$2:$E$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4473,6 +4485,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4489,11 +4504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90699648"/>
-        <c:axId val="90701184"/>
+        <c:axId val="70014464"/>
+        <c:axId val="70016000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90699648"/>
+        <c:axId val="70014464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4502,7 +4517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90701184"/>
+        <c:crossAx val="70016000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4510,7 +4525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90701184"/>
+        <c:axId val="70016000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90699648"/>
+        <c:crossAx val="70014464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4628,8 +4643,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E279"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E280"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4928,7 +4943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
     <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A261" sqref="A261:E274"/>
@@ -4938,9 +4953,9 @@
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9684,6 +9699,23 @@
       </c>
       <c r="E279">
         <v>339</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280">
+        <v>8702600</v>
+      </c>
+      <c r="C280">
+        <v>225158</v>
+      </c>
+      <c r="D280">
+        <v>74323</v>
+      </c>
+      <c r="E280">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$281</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="285">
   <si>
     <t>date</t>
   </si>
@@ -880,6 +880,9 @@
   </si>
   <si>
     <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
   </si>
 </sst>
 </file>
@@ -995,6 +998,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1014,9 +1018,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$280</c:f>
+              <c:f>data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1853,16 +1857,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$280</c:f>
+              <c:f>data!$D$2:$D$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2692,13 +2699,16 @@
                   <c:v>85085</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>78702</c:v>
+                  <c:v>78756</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>59691</c:v>
+                  <c:v>59712</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>74323</c:v>
+                  <c:v>74443</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>74410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,11 +2725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69574016"/>
-        <c:axId val="69420160"/>
+        <c:axId val="92188032"/>
+        <c:axId val="92095616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69574016"/>
+        <c:axId val="92188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69420160"/>
+        <c:crossAx val="92095616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69420160"/>
+        <c:axId val="92095616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,13 +2757,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69574016"/>
+        <c:crossAx val="92188032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2783,7 +2794,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2803,9 +2813,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$280</c:f>
+              <c:f>data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3642,16 +3652,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$280</c:f>
+              <c:f>data!$E$2:$E$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4457,13 +4470,13 @@
                   <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>909</c:v>
+                  <c:v>891</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>679</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>368</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>517</c:v>
@@ -4481,13 +4494,16 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>871</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>534</c:v>
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4504,11 +4520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70014464"/>
-        <c:axId val="70016000"/>
+        <c:axId val="92689920"/>
+        <c:axId val="92691456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70014464"/>
+        <c:axId val="92689920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70016000"/>
+        <c:crossAx val="92691456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4525,7 +4541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70016000"/>
+        <c:axId val="92691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,14 +4552,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70014464"/>
+        <c:crossAx val="92689920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4643,8 +4658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E280"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E281"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4943,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261:E274"/>
+    <sheetView topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267:E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9545,7 +9560,7 @@
         <v>70464</v>
       </c>
       <c r="E270">
-        <v>909</v>
+        <v>891</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -9556,13 +9571,13 @@
         <v>8113261</v>
       </c>
       <c r="C271">
-        <v>218494</v>
+        <v>218476</v>
       </c>
       <c r="D271">
         <v>52761</v>
       </c>
       <c r="E271">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -9573,13 +9588,13 @@
         <v>8166022</v>
       </c>
       <c r="C272">
-        <v>219173</v>
+        <v>219154</v>
       </c>
       <c r="D272">
         <v>47882</v>
       </c>
       <c r="E272">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,10 +9693,10 @@
         <v>223948</v>
       </c>
       <c r="D278">
-        <v>78702</v>
+        <v>78756</v>
       </c>
       <c r="E278">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -9689,13 +9704,13 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>8642909</v>
+        <v>8642963</v>
       </c>
       <c r="C279">
-        <v>224819</v>
+        <v>224821</v>
       </c>
       <c r="D279">
-        <v>59691</v>
+        <v>59712</v>
       </c>
       <c r="E279">
         <v>339</v>
@@ -9706,16 +9721,33 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>8702600</v>
+        <v>8702675</v>
       </c>
       <c r="C280">
-        <v>225158</v>
+        <v>225160</v>
       </c>
       <c r="D280">
-        <v>74323</v>
+        <v>74443</v>
       </c>
       <c r="E280">
-        <v>534</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281">
+        <v>8777118</v>
+      </c>
+      <c r="C281">
+        <v>225698</v>
+      </c>
+      <c r="D281">
+        <v>74410</v>
+      </c>
+      <c r="E281">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -9730,7 +9762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9745,7 +9777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -9768,240 +9800,240 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2">
-        <v>7529955</v>
+        <v>7863239</v>
       </c>
       <c r="C1" s="2">
-        <v>210756</v>
+        <v>214957</v>
       </c>
       <c r="D1" s="2">
-        <v>52984</v>
+        <v>54359</v>
       </c>
       <c r="E1" s="3">
-        <v>996</v>
+        <v>826</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B2" s="5">
-        <v>7582939</v>
+        <v>7917598</v>
       </c>
       <c r="C2" s="5">
-        <v>211752</v>
+        <v>215783</v>
       </c>
       <c r="D2" s="5">
-        <v>56375</v>
+        <v>59872</v>
       </c>
       <c r="E2" s="6">
-        <v>928</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2">
-        <v>7639314</v>
+        <v>7977470</v>
       </c>
       <c r="C3" s="2">
-        <v>212680</v>
+        <v>216792</v>
       </c>
       <c r="D3" s="2">
-        <v>58959</v>
+        <v>65327</v>
       </c>
       <c r="E3" s="3">
-        <v>915</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B4" s="5">
-        <v>7698273</v>
+        <v>8042797</v>
       </c>
       <c r="C4" s="5">
-        <v>213595</v>
+        <v>217585</v>
       </c>
       <c r="D4" s="5">
-        <v>51586</v>
+        <v>70464</v>
       </c>
       <c r="E4" s="6">
-        <v>592</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2">
-        <v>7749859</v>
+        <v>8113261</v>
       </c>
       <c r="C5" s="2">
-        <v>214187</v>
+        <v>218494</v>
       </c>
       <c r="D5" s="2">
-        <v>44766</v>
+        <v>52761</v>
       </c>
       <c r="E5" s="3">
-        <v>419</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B6" s="5">
-        <v>7794625</v>
+        <v>8166022</v>
       </c>
       <c r="C6" s="5">
-        <v>214606</v>
+        <v>219173</v>
       </c>
       <c r="D6" s="5">
-        <v>45921</v>
+        <v>47882</v>
       </c>
       <c r="E6" s="6">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B7" s="2">
-        <v>7840546</v>
+        <v>8213904</v>
       </c>
       <c r="C7" s="2">
-        <v>214957</v>
+        <v>219541</v>
       </c>
       <c r="D7" s="2">
-        <v>54359</v>
+        <v>65375</v>
       </c>
       <c r="E7" s="3">
-        <v>826</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5">
-        <v>7894905</v>
+        <v>8279279</v>
       </c>
       <c r="C8" s="5">
-        <v>215783</v>
+        <v>220058</v>
       </c>
       <c r="D8" s="5">
-        <v>59872</v>
+        <v>60588</v>
       </c>
       <c r="E8" s="6">
-        <v>1009</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B9" s="2">
-        <v>7954777</v>
+        <v>8339867</v>
       </c>
       <c r="C9" s="2">
-        <v>216792</v>
+        <v>220987</v>
       </c>
       <c r="D9" s="2">
-        <v>65327</v>
+        <v>64191</v>
       </c>
       <c r="E9" s="3">
-        <v>793</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B10" s="5">
-        <v>8020104</v>
+        <v>8404058</v>
       </c>
       <c r="C10" s="5">
-        <v>217585</v>
+        <v>222195</v>
       </c>
       <c r="D10" s="5">
-        <v>70464</v>
+        <v>75064</v>
       </c>
       <c r="E10" s="6">
-        <v>909</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B11" s="2">
-        <v>8090568</v>
+        <v>8479122</v>
       </c>
       <c r="C11" s="2">
-        <v>218494</v>
+        <v>223023</v>
       </c>
       <c r="D11" s="2">
-        <v>52761</v>
+        <v>85085</v>
       </c>
       <c r="E11" s="3">
-        <v>679</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B12" s="5">
-        <v>8143329</v>
+        <v>8564207</v>
       </c>
       <c r="C12" s="5">
-        <v>219173</v>
+        <v>223948</v>
       </c>
       <c r="D12" s="5">
-        <v>47882</v>
+        <v>78702</v>
       </c>
       <c r="E12" s="6">
-        <v>368</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B13" s="2">
-        <v>8191211</v>
+        <v>8642909</v>
       </c>
       <c r="C13" s="2">
-        <v>219541</v>
+        <v>224819</v>
       </c>
       <c r="D13" s="2">
-        <v>64218</v>
+        <v>59691</v>
       </c>
       <c r="E13" s="3">
-        <v>517</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B14" s="5">
-        <v>8255429</v>
+        <v>8702600</v>
       </c>
       <c r="C14" s="5">
-        <v>220058</v>
+        <v>225158</v>
       </c>
       <c r="D14" s="5">
-        <v>60590</v>
+        <v>74323</v>
       </c>
       <c r="E14" s="6">
-        <v>929</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10011,37 +10043,37 @@
       </c>
       <c r="B15">
         <f>B14-B1</f>
-        <v>725474</v>
+        <v>839361</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:E15" si="0">C14-C1</f>
-        <v>9302</v>
+        <v>10201</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7606</v>
+        <v>19964</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-67</v>
+        <v>-292</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>B15/$A$15</f>
-        <v>55805.692307692305</v>
+        <v>64566.230769230766</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:E17" si="1">C15/$A$15</f>
-        <v>715.53846153846155</v>
+        <v>784.69230769230774</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>585.07692307692309</v>
+        <v>1535.6923076923076</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>-5.1538461538461542</v>
+        <v>-22.46153846153846</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$282</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="286">
   <si>
     <t>date</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
   </si>
 </sst>
 </file>
@@ -1018,9 +1021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$281</c:f>
+              <c:f>data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1860,16 +1863,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>10/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$281</c:f>
+              <c:f>data!$D$2:$D$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2709,6 +2715,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>74410</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>81181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,11 +2734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92188032"/>
-        <c:axId val="92095616"/>
+        <c:axId val="73186688"/>
+        <c:axId val="73094272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92188032"/>
+        <c:axId val="73186688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92095616"/>
+        <c:crossAx val="73094272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2746,7 +2755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92095616"/>
+        <c:axId val="73094272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92188032"/>
+        <c:crossAx val="73186688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2813,9 +2822,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$281</c:f>
+              <c:f>data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3655,16 +3664,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>10/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$281</c:f>
+              <c:f>data!$E$2:$E$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4504,6 +4516,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,11 +4535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92689920"/>
-        <c:axId val="92691456"/>
+        <c:axId val="73692672"/>
+        <c:axId val="73694208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92689920"/>
+        <c:axId val="73692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4533,7 +4548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92691456"/>
+        <c:crossAx val="73694208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4541,7 +4556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92691456"/>
+        <c:axId val="73694208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92689920"/>
+        <c:crossAx val="73692672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4658,8 +4673,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E281"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E282"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4958,7 +4973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
     <sheetView topLeftCell="A248" workbookViewId="0">
       <selection activeCell="A267" sqref="A267:E280"/>
@@ -9748,6 +9763,23 @@
       </c>
       <c r="E281">
         <v>983</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282">
+        <v>8851528</v>
+      </c>
+      <c r="C282">
+        <v>226681</v>
+      </c>
+      <c r="D282">
+        <v>81181</v>
+      </c>
+      <c r="E282">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$283</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="287">
   <si>
     <t>date</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1021,9 +1023,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$282</c:f>
+              <c:f>data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1866,16 +1868,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>10/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$282</c:f>
+              <c:f>data!$D$2:$D$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2714,10 +2719,13 @@
                   <c:v>74443</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>74410</c:v>
+                  <c:v>74428</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>81181</c:v>
+                  <c:v>81902</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>90446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,11 +2742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73186688"/>
-        <c:axId val="73094272"/>
+        <c:axId val="67554688"/>
+        <c:axId val="67462272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73186688"/>
+        <c:axId val="67554688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73094272"/>
+        <c:crossAx val="67462272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2755,7 +2763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73094272"/>
+        <c:axId val="67462272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,14 +2774,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73186688"/>
+        <c:crossAx val="67554688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2822,9 +2829,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$282</c:f>
+              <c:f>data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3667,16 +3674,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>10/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$282</c:f>
+              <c:f>data!$E$2:$E$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4519,6 +4529,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,11 +4548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73692672"/>
-        <c:axId val="73694208"/>
+        <c:axId val="68056576"/>
+        <c:axId val="68058112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73692672"/>
+        <c:axId val="68056576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73694208"/>
+        <c:crossAx val="68058112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4556,7 +4569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73694208"/>
+        <c:axId val="68058112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73692672"/>
+        <c:crossAx val="68056576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4673,8 +4686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E282"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E283"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4973,10 +4986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:E280"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269:E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9759,7 +9772,7 @@
         <v>225698</v>
       </c>
       <c r="D281">
-        <v>74410</v>
+        <v>74428</v>
       </c>
       <c r="E281">
         <v>983</v>
@@ -9770,16 +9783,33 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>8851528</v>
+        <v>8851546</v>
       </c>
       <c r="C282">
         <v>226681</v>
       </c>
       <c r="D282">
-        <v>81181</v>
+        <v>81902</v>
       </c>
       <c r="E282">
         <v>1016</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283">
+        <v>8933448</v>
+      </c>
+      <c r="C283">
+        <v>227697</v>
+      </c>
+      <c r="D283">
+        <v>90446</v>
+      </c>
+      <c r="E283">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -9794,7 +9824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9824,7 +9854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
@@ -9832,240 +9862,240 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2">
-        <v>7863239</v>
+        <v>7977470</v>
       </c>
       <c r="C1" s="2">
-        <v>214957</v>
+        <v>216792</v>
       </c>
       <c r="D1" s="2">
-        <v>54359</v>
+        <v>65327</v>
       </c>
       <c r="E1" s="3">
-        <v>826</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B2" s="5">
-        <v>7917598</v>
+        <v>8042797</v>
       </c>
       <c r="C2" s="5">
-        <v>215783</v>
+        <v>217585</v>
       </c>
       <c r="D2" s="5">
-        <v>59872</v>
+        <v>70464</v>
       </c>
       <c r="E2" s="6">
-        <v>1009</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2">
-        <v>7977470</v>
+        <v>8113261</v>
       </c>
       <c r="C3" s="2">
-        <v>216792</v>
+        <v>218476</v>
       </c>
       <c r="D3" s="2">
-        <v>65327</v>
+        <v>52761</v>
       </c>
       <c r="E3" s="3">
-        <v>793</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B4" s="5">
-        <v>8042797</v>
+        <v>8166022</v>
       </c>
       <c r="C4" s="5">
-        <v>217585</v>
+        <v>219154</v>
       </c>
       <c r="D4" s="5">
-        <v>70464</v>
+        <v>47882</v>
       </c>
       <c r="E4" s="6">
-        <v>909</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B5" s="2">
-        <v>8113261</v>
+        <v>8213904</v>
       </c>
       <c r="C5" s="2">
-        <v>218494</v>
+        <v>219541</v>
       </c>
       <c r="D5" s="2">
-        <v>52761</v>
+        <v>65375</v>
       </c>
       <c r="E5" s="3">
-        <v>679</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B6" s="5">
-        <v>8166022</v>
+        <v>8279279</v>
       </c>
       <c r="C6" s="5">
-        <v>219173</v>
+        <v>220058</v>
       </c>
       <c r="D6" s="5">
-        <v>47882</v>
+        <v>60588</v>
       </c>
       <c r="E6" s="6">
-        <v>368</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B7" s="2">
-        <v>8213904</v>
+        <v>8339867</v>
       </c>
       <c r="C7" s="2">
-        <v>219541</v>
+        <v>220987</v>
       </c>
       <c r="D7" s="2">
-        <v>65375</v>
+        <v>64191</v>
       </c>
       <c r="E7" s="3">
-        <v>517</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B8" s="5">
-        <v>8279279</v>
+        <v>8404058</v>
       </c>
       <c r="C8" s="5">
-        <v>220058</v>
+        <v>222195</v>
       </c>
       <c r="D8" s="5">
-        <v>60588</v>
+        <v>75064</v>
       </c>
       <c r="E8" s="6">
-        <v>929</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B9" s="2">
-        <v>8339867</v>
+        <v>8479122</v>
       </c>
       <c r="C9" s="2">
-        <v>220987</v>
+        <v>223023</v>
       </c>
       <c r="D9" s="2">
-        <v>64191</v>
+        <v>85085</v>
       </c>
       <c r="E9" s="3">
-        <v>1208</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B10" s="5">
-        <v>8404058</v>
+        <v>8564207</v>
       </c>
       <c r="C10" s="5">
-        <v>222195</v>
+        <v>223948</v>
       </c>
       <c r="D10" s="5">
-        <v>75064</v>
+        <v>78756</v>
       </c>
       <c r="E10" s="6">
-        <v>828</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B11" s="2">
-        <v>8479122</v>
+        <v>8642963</v>
       </c>
       <c r="C11" s="2">
-        <v>223023</v>
+        <v>224821</v>
       </c>
       <c r="D11" s="2">
-        <v>85085</v>
+        <v>59712</v>
       </c>
       <c r="E11" s="3">
-        <v>925</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B12" s="5">
-        <v>8564207</v>
+        <v>8702675</v>
       </c>
       <c r="C12" s="5">
-        <v>223948</v>
+        <v>225160</v>
       </c>
       <c r="D12" s="5">
-        <v>78702</v>
+        <v>74443</v>
       </c>
       <c r="E12" s="6">
-        <v>871</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B13" s="2">
-        <v>8642909</v>
+        <v>8777118</v>
       </c>
       <c r="C13" s="2">
-        <v>224819</v>
+        <v>225698</v>
       </c>
       <c r="D13" s="2">
-        <v>59691</v>
+        <v>74410</v>
       </c>
       <c r="E13" s="3">
-        <v>339</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B14" s="5">
-        <v>8702600</v>
+        <v>8851528</v>
       </c>
       <c r="C14" s="5">
-        <v>225158</v>
+        <v>226681</v>
       </c>
       <c r="D14" s="5">
-        <v>74323</v>
+        <v>81181</v>
       </c>
       <c r="E14" s="6">
-        <v>534</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10075,37 +10105,37 @@
       </c>
       <c r="B15">
         <f>B14-B1</f>
-        <v>839361</v>
+        <v>874058</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:E15" si="0">C14-C1</f>
-        <v>10201</v>
+        <v>9889</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>19964</v>
+        <v>15854</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-292</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>B15/$A$15</f>
-        <v>64566.230769230766</v>
+        <v>67235.230769230766</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:E17" si="1">C15/$A$15</f>
-        <v>784.69230769230774</v>
+        <v>760.69230769230774</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1535.6923076923076</v>
+        <v>1219.5384615384614</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>-22.46153846153846</v>
+        <v>17.153846153846153</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$284</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="288">
   <si>
     <t>date</t>
   </si>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
   </si>
 </sst>
 </file>
@@ -1023,9 +1026,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$283</c:f>
+              <c:f>data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1871,16 +1874,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$283</c:f>
+              <c:f>data!$D$2:$D$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2725,7 +2731,10 @@
                   <c:v>81902</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>90446</c:v>
+                  <c:v>90728</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>98859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,11 +2751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67554688"/>
-        <c:axId val="67462272"/>
+        <c:axId val="67231104"/>
+        <c:axId val="67138688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67554688"/>
+        <c:axId val="67231104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,7 +2764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67462272"/>
+        <c:crossAx val="67138688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2763,7 +2772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67462272"/>
+        <c:axId val="67138688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +2783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67554688"/>
+        <c:crossAx val="67231104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,9 +2838,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$283</c:f>
+              <c:f>data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3677,16 +3686,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$283</c:f>
+              <c:f>data!$E$2:$E$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4532,6 +4544,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4548,11 +4563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68056576"/>
-        <c:axId val="68058112"/>
+        <c:axId val="70223360"/>
+        <c:axId val="70224896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68056576"/>
+        <c:axId val="70223360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +4576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68058112"/>
+        <c:crossAx val="70224896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4569,7 +4584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68058112"/>
+        <c:axId val="70224896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,7 +4595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68056576"/>
+        <c:crossAx val="70223360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4686,8 +4701,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E283"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E284"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -4986,7 +5001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView topLeftCell="A257" workbookViewId="0">
       <selection activeCell="A269" sqref="A269:E282"/>
@@ -9806,10 +9821,27 @@
         <v>227697</v>
       </c>
       <c r="D283">
-        <v>90446</v>
+        <v>90728</v>
       </c>
       <c r="E283">
         <v>1004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284">
+        <v>9024176</v>
+      </c>
+      <c r="C284">
+        <v>228701</v>
+      </c>
+      <c r="D284">
+        <v>98859</v>
+      </c>
+      <c r="E284">
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$285</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="289">
   <si>
     <t>date</t>
   </si>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
   </si>
 </sst>
 </file>
@@ -1026,9 +1029,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$284</c:f>
+              <c:f>data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1877,16 +1880,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$284</c:f>
+              <c:f>data!$D$2:$D$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2734,7 +2740,10 @@
                   <c:v>90728</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>98859</c:v>
+                  <c:v>99784</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>84285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,11 +2760,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67231104"/>
-        <c:axId val="67138688"/>
+        <c:axId val="104988672"/>
+        <c:axId val="104990208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67231104"/>
+        <c:axId val="104988672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67138688"/>
+        <c:crossAx val="104990208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2772,7 +2781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67138688"/>
+        <c:axId val="104990208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67231104"/>
+        <c:crossAx val="104988672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2838,9 +2847,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$284</c:f>
+              <c:f>data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3689,16 +3698,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$284</c:f>
+              <c:f>data!$E$2:$E$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4547,6 +4559,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4563,11 +4578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70223360"/>
-        <c:axId val="70224896"/>
+        <c:axId val="105650048"/>
+        <c:axId val="105651584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70223360"/>
+        <c:axId val="105650048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4576,7 +4591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70224896"/>
+        <c:crossAx val="105651584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4584,7 +4599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70224896"/>
+        <c:axId val="105651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70223360"/>
+        <c:crossAx val="105650048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4701,8 +4716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E284"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E285"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5001,7 +5016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
     <sheetView topLeftCell="A257" workbookViewId="0">
       <selection activeCell="A269" sqref="A269:E282"/>
@@ -5011,9 +5026,9 @@
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9838,10 +9853,27 @@
         <v>228701</v>
       </c>
       <c r="D284">
-        <v>98859</v>
+        <v>99784</v>
       </c>
       <c r="E284">
         <v>971</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285">
+        <v>9123960</v>
+      </c>
+      <c r="C285">
+        <v>229672</v>
+      </c>
+      <c r="D285">
+        <v>84285</v>
+      </c>
+      <c r="E285">
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Case Delta" sheetId="2" r:id="rId2"/>
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
-    <sheet name="Slope Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$286</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>date</t>
   </si>
@@ -895,6 +894,9 @@
   </si>
   <si>
     <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
   </si>
 </sst>
 </file>
@@ -910,21 +912,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -932,55 +928,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,9 +982,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$285</c:f>
+              <c:f>data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1883,16 +1836,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$285</c:f>
+              <c:f>data!$D$2:$D$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2744,6 +2700,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>84285</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>74113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,11 +2719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104988672"/>
-        <c:axId val="104990208"/>
+        <c:axId val="65522688"/>
+        <c:axId val="65426176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104988672"/>
+        <c:axId val="65522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104990208"/>
+        <c:crossAx val="65426176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104990208"/>
+        <c:axId val="65426176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104988672"/>
+        <c:crossAx val="65522688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2828,6 +2787,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2847,9 +2807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$285</c:f>
+              <c:f>data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3701,16 +3661,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$285</c:f>
+              <c:f>data!$E$2:$E$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4561,7 +4524,10 @@
                   <c:v>971</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>848</c:v>
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4578,11 +4544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105650048"/>
-        <c:axId val="105651584"/>
+        <c:axId val="66024576"/>
+        <c:axId val="66026112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105650048"/>
+        <c:axId val="66024576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105651584"/>
+        <c:crossAx val="66026112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4599,7 +4565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105651584"/>
+        <c:axId val="66026112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4610,13 +4576,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105650048"/>
+        <c:crossAx val="66024576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4716,8 +4683,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E285"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E286"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5016,19 +4983,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269:E282"/>
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9873,7 +9840,24 @@
         <v>84285</v>
       </c>
       <c r="E285">
-        <v>848</v>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286">
+        <v>9208245</v>
+      </c>
+      <c r="C286">
+        <v>230510</v>
+      </c>
+      <c r="D286">
+        <v>74113</v>
+      </c>
+      <c r="E286">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -9903,7 +9887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -9912,297 +9896,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7977470</v>
-      </c>
-      <c r="C1" s="2">
-        <v>216792</v>
-      </c>
-      <c r="D1" s="2">
-        <v>65327</v>
-      </c>
-      <c r="E1" s="3">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8042797</v>
-      </c>
-      <c r="C2" s="5">
-        <v>217585</v>
-      </c>
-      <c r="D2" s="5">
-        <v>70464</v>
-      </c>
-      <c r="E2" s="6">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8113261</v>
-      </c>
-      <c r="C3" s="2">
-        <v>218476</v>
-      </c>
-      <c r="D3" s="2">
-        <v>52761</v>
-      </c>
-      <c r="E3" s="3">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8166022</v>
-      </c>
-      <c r="C4" s="5">
-        <v>219154</v>
-      </c>
-      <c r="D4" s="5">
-        <v>47882</v>
-      </c>
-      <c r="E4" s="6">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8213904</v>
-      </c>
-      <c r="C5" s="2">
-        <v>219541</v>
-      </c>
-      <c r="D5" s="2">
-        <v>65375</v>
-      </c>
-      <c r="E5" s="3">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8279279</v>
-      </c>
-      <c r="C6" s="5">
-        <v>220058</v>
-      </c>
-      <c r="D6" s="5">
-        <v>60588</v>
-      </c>
-      <c r="E6" s="6">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8339867</v>
-      </c>
-      <c r="C7" s="2">
-        <v>220987</v>
-      </c>
-      <c r="D7" s="2">
-        <v>64191</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8404058</v>
-      </c>
-      <c r="C8" s="5">
-        <v>222195</v>
-      </c>
-      <c r="D8" s="5">
-        <v>75064</v>
-      </c>
-      <c r="E8" s="6">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8479122</v>
-      </c>
-      <c r="C9" s="2">
-        <v>223023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>85085</v>
-      </c>
-      <c r="E9" s="3">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="5">
-        <v>8564207</v>
-      </c>
-      <c r="C10" s="5">
-        <v>223948</v>
-      </c>
-      <c r="D10" s="5">
-        <v>78756</v>
-      </c>
-      <c r="E10" s="6">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8642963</v>
-      </c>
-      <c r="C11" s="2">
-        <v>224821</v>
-      </c>
-      <c r="D11" s="2">
-        <v>59712</v>
-      </c>
-      <c r="E11" s="3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8702675</v>
-      </c>
-      <c r="C12" s="5">
-        <v>225160</v>
-      </c>
-      <c r="D12" s="5">
-        <v>74443</v>
-      </c>
-      <c r="E12" s="6">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8777118</v>
-      </c>
-      <c r="C13" s="2">
-        <v>225698</v>
-      </c>
-      <c r="D13" s="2">
-        <v>74410</v>
-      </c>
-      <c r="E13" s="3">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="5">
-        <v>8851528</v>
-      </c>
-      <c r="C14" s="5">
-        <v>226681</v>
-      </c>
-      <c r="D14" s="5">
-        <v>81181</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A14-A1</f>
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f>B14-B1</f>
-        <v>874058</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:E15" si="0">C14-C1</f>
-        <v>9889</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>15854</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>B15/$A$15</f>
-        <v>67235.230769230766</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:E17" si="1">C15/$A$15</f>
-        <v>760.69230769230774</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>1219.5384615384614</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>17.153846153846153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -2702,7 +2702,7 @@
                   <c:v>84285</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>74113</c:v>
+                  <c:v>74236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,11 +2719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65522688"/>
-        <c:axId val="65426176"/>
+        <c:axId val="88046976"/>
+        <c:axId val="87884928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65522688"/>
+        <c:axId val="88046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65426176"/>
+        <c:crossAx val="87884928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2740,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65426176"/>
+        <c:axId val="87884928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65522688"/>
+        <c:crossAx val="88046976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4544,11 +4544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66024576"/>
-        <c:axId val="66026112"/>
+        <c:axId val="87946752"/>
+        <c:axId val="87948288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66024576"/>
+        <c:axId val="87946752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +4557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66026112"/>
+        <c:crossAx val="87948288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4565,7 +4565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66026112"/>
+        <c:axId val="87948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4576,7 +4576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66024576"/>
+        <c:crossAx val="87946752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4993,9 +4993,9 @@
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>230510</v>
       </c>
       <c r="D286">
-        <v>74113</v>
+        <v>74236</v>
       </c>
       <c r="E286">
         <v>427</v>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D93AB-9D09-4EF1-9594-21CB9954BE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="15480" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;usdeltas&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -902,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,12 +950,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2708,6 +2717,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E76D-4E08-8A2E-232E0FEA90E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2717,7 +2731,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="88046976"/>
         <c:axId val="87884928"/>
@@ -2729,6 +2742,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2773,7 +2787,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2787,7 +2801,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4533,6 +4546,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F796-4407-965E-F2A7B1D78AC6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4542,7 +4560,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="87946752"/>
         <c:axId val="87948288"/>
@@ -4554,6 +4571,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4583,7 +4601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4615,7 +4632,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4650,7 +4673,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4669,7 +4698,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 usdeltas" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -4683,14 +4712,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E286"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E286" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cases" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="deaths" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="casedelta" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="deathdelta" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="deaths" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="casedelta" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="deathdelta" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4739,7 +4768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4772,9 +4801,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4807,6 +4853,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4982,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView topLeftCell="A257" workbookViewId="0">
@@ -9869,7 +9932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9884,7 +9947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D93AB-9D09-4EF1-9594-21CB9954BE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761C78B-1E30-4C06-9115-0CF382298AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$288</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>date</t>
   </si>
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
   </si>
 </sst>
 </file>
@@ -991,9 +997,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$286</c:f>
+              <c:f>data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1848,16 +1854,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$286</c:f>
+              <c:f>data!$D$2:$D$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2712,6 +2724,12 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>74236</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>93581</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>92660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,9 +2838,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$286</c:f>
+              <c:f>data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3677,16 +3695,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$286</c:f>
+              <c:f>data!$E$2:$E$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4541,6 +4565,12 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,8 +4742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E286" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E288" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E288" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5046,9 +5076,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -9921,6 +9951,40 @@
       </c>
       <c r="E286">
         <v>427</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287">
+        <v>9282481</v>
+      </c>
+      <c r="C287">
+        <v>230937</v>
+      </c>
+      <c r="D287">
+        <v>93581</v>
+      </c>
+      <c r="E287">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288">
+        <v>9376062</v>
+      </c>
+      <c r="C288">
+        <v>231477</v>
+      </c>
+      <c r="D288">
+        <v>92660</v>
+      </c>
+      <c r="E288">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -9950,7 +10014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761C78B-1E30-4C06-9115-0CF382298AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03E81AF-E33C-4839-8959-872594F50C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$288</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$289</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>date</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
   </si>
 </sst>
 </file>
@@ -997,9 +1000,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$288</c:f>
+              <c:f>data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1860,16 +1863,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$288</c:f>
+              <c:f>data!$D$2:$D$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2730,6 +2736,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>92660</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>107872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2838,9 +2847,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$288</c:f>
+              <c:f>data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3701,16 +3710,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$288</c:f>
+              <c:f>data!$E$2:$E$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4571,6 +4583,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,8 +4757,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E288" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E288" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5076,7 +5091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -9985,6 +10000,23 @@
       </c>
       <c r="E288">
         <v>1130</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289">
+        <v>9468722</v>
+      </c>
+      <c r="C289">
+        <v>232607</v>
+      </c>
+      <c r="D289">
+        <v>107872</v>
+      </c>
+      <c r="E289">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03E81AF-E33C-4839-8959-872594F50C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6FBD1-BC7D-4009-8827-6563859B5C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -995,9 +995,6 @@
           <c:tx>
             <c:v>Case Delta</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>data!$A$2:$A$289</c:f>
@@ -2758,6 +2755,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="88046976"/>
         <c:axId val="87884928"/>
@@ -2842,9 +2840,6 @@
           <c:tx>
             <c:v>Death Deltas</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>data!$A$2:$A$289</c:f>
@@ -4605,6 +4600,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="87946752"/>
         <c:axId val="87948288"/>
@@ -5093,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+    <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10031,7 +10027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -10046,7 +10042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6FBD1-BC7D-4009-8827-6563859B5C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0362AF-64B6-4A12-89F9-F4971EDE519D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$290</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>date</t>
   </si>
@@ -912,6 +912,9 @@
   </si>
   <si>
     <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -997,9 +1000,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$289</c:f>
+              <c:f>data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1863,16 +1866,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$289</c:f>
+              <c:f>data!$D$2:$D$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2736,6 +2742,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>107872</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>121504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,9 +2851,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$289</c:f>
+              <c:f>data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3708,16 +3717,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$289</c:f>
+              <c:f>data!$E$2:$E$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4581,6 +4593,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,8 +4768,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E290" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5087,7 +5102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10013,6 +10028,23 @@
       </c>
       <c r="E289">
         <v>1616</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290">
+        <v>9576594</v>
+      </c>
+      <c r="C290">
+        <v>234223</v>
+      </c>
+      <c r="D290">
+        <v>121504</v>
+      </c>
+      <c r="E290">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0362AF-64B6-4A12-89F9-F4971EDE519D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4E4C9-8C34-4743-B20C-F7082C8EA9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$291</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>date</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
   </si>
 </sst>
 </file>
@@ -1000,9 +1003,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$290</c:f>
+              <c:f>data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1869,16 +1872,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$290</c:f>
+              <c:f>data!$D$2:$D$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2735,16 +2741,19 @@
                   <c:v>74236</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>93581</c:v>
+                  <c:v>93642</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>92660</c:v>
+                  <c:v>92599</c:v>
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>107872</c:v>
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>121504</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>132797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,9 +2860,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$290</c:f>
+              <c:f>data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3720,16 +3729,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$290</c:f>
+              <c:f>data!$E$2:$E$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4596,6 +4608,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,8 +4783,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E290" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E291" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5102,7 +5117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -9990,7 +10005,7 @@
         <v>230937</v>
       </c>
       <c r="D287">
-        <v>93581</v>
+        <v>93642</v>
       </c>
       <c r="E287">
         <v>540</v>
@@ -10001,13 +10016,13 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>9376062</v>
+        <v>9376123</v>
       </c>
       <c r="C288">
         <v>231477</v>
       </c>
       <c r="D288">
-        <v>92660</v>
+        <v>92599</v>
       </c>
       <c r="E288">
         <v>1130</v>
@@ -10045,6 +10060,23 @@
       </c>
       <c r="E290">
         <v>1108</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291">
+        <v>9698098</v>
+      </c>
+      <c r="C291">
+        <v>235331</v>
+      </c>
+      <c r="D291">
+        <v>132797</v>
+      </c>
+      <c r="E291">
+        <v>1223</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4E4C9-8C34-4743-B20C-F7082C8EA9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA7D0C-17EE-4B0C-ADF6-F8F40F03C538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$292</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>date</t>
   </si>
@@ -918,6 +918,9 @@
   </si>
   <si>
     <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
   </si>
 </sst>
 </file>
@@ -1003,9 +1006,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$291</c:f>
+              <c:f>data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1875,16 +1878,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$291</c:f>
+              <c:f>data!$D$2:$D$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2754,6 +2760,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>132797</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>126156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,9 +2869,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$291</c:f>
+              <c:f>data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3732,16 +3741,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$291</c:f>
+              <c:f>data!$E$2:$E$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4611,6 +4623,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,8 +4798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E291" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E292" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5117,7 +5132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10077,6 +10092,23 @@
       </c>
       <c r="E291">
         <v>1223</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292">
+        <v>9830895</v>
+      </c>
+      <c r="C292">
+        <v>236554</v>
+      </c>
+      <c r="D292">
+        <v>126156</v>
+      </c>
+      <c r="E292">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA7D0C-17EE-4B0C-ADF6-F8F40F03C538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4969845-AF46-48F6-AC9A-9E0C36C287FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$293</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>date</t>
   </si>
@@ -921,6 +921,9 @@
   </si>
   <si>
     <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
   </si>
 </sst>
 </file>
@@ -1006,9 +1009,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$292</c:f>
+              <c:f>data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1881,16 +1884,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$292</c:f>
+              <c:f>data!$D$2:$D$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2763,6 +2769,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>126156</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>103657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,9 +2878,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$292</c:f>
+              <c:f>data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3744,16 +3753,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$292</c:f>
+              <c:f>data!$E$2:$E$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4626,6 +4638,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,8 +4813,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E292" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E293" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5132,7 +5147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10109,6 +10124,23 @@
       </c>
       <c r="E292">
         <v>1013</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293">
+        <v>9957051</v>
+      </c>
+      <c r="C293">
+        <v>237567</v>
+      </c>
+      <c r="D293">
+        <v>103657</v>
+      </c>
+      <c r="E293">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4969845-AF46-48F6-AC9A-9E0C36C287FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E429E5-586D-4639-B786-CE0F6B545B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$294</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>date</t>
   </si>
@@ -924,6 +924,9 @@
   </si>
   <si>
     <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
   </si>
 </sst>
 </file>
@@ -1009,9 +1012,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$293</c:f>
+              <c:f>data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1887,16 +1890,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$293</c:f>
+              <c:f>data!$D$2:$D$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2772,6 +2778,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>103657</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>130553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,9 +2887,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$293</c:f>
+              <c:f>data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3756,16 +3765,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$293</c:f>
+              <c:f>data!$E$2:$E$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4641,6 +4653,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,8 +4828,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E293" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5147,7 +5162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -5156,7 +5171,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -10141,6 +10156,23 @@
       </c>
       <c r="E293">
         <v>464</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294">
+        <v>10060708</v>
+      </c>
+      <c r="C294">
+        <v>238031</v>
+      </c>
+      <c r="D294">
+        <v>130553</v>
+      </c>
+      <c r="E294">
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E429E5-586D-4639-B786-CE0F6B545B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70A815-6A5A-43CE-8AA4-6FDDEFF5442C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$295</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>date</t>
   </si>
@@ -927,6 +927,9 @@
   </si>
   <si>
     <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,9 +1015,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$294</c:f>
+              <c:f>data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1893,16 +1896,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$294</c:f>
+              <c:f>data!$D$2:$D$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2771,16 +2777,19 @@
                   <c:v>121504</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>132797</c:v>
+                  <c:v>132811</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>126156</c:v>
+                  <c:v>125932</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>103657</c:v>
+                  <c:v>103867</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>130553</c:v>
+                  <c:v>131366</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>139855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,9 +2896,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$294</c:f>
+              <c:f>data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3768,16 +3777,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$294</c:f>
+              <c:f>data!$E$2:$E$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4646,16 +4658,19 @@
                   <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1223</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1013</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,8 +4843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5162,9 +5177,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10118,10 +10133,10 @@
         <v>235331</v>
       </c>
       <c r="D291">
-        <v>132797</v>
+        <v>132811</v>
       </c>
       <c r="E291">
-        <v>1223</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -10129,16 +10144,16 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>9830895</v>
+        <v>9830909</v>
       </c>
       <c r="C292">
-        <v>236554</v>
+        <v>236577</v>
       </c>
       <c r="D292">
-        <v>126156</v>
+        <v>125932</v>
       </c>
       <c r="E292">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -10146,13 +10161,13 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>9957051</v>
+        <v>9956841</v>
       </c>
       <c r="C293">
-        <v>237567</v>
+        <v>237584</v>
       </c>
       <c r="D293">
-        <v>103657</v>
+        <v>103867</v>
       </c>
       <c r="E293">
         <v>464</v>
@@ -10166,13 +10181,30 @@
         <v>10060708</v>
       </c>
       <c r="C294">
-        <v>238031</v>
+        <v>238048</v>
       </c>
       <c r="D294">
-        <v>130553</v>
+        <v>131366</v>
       </c>
       <c r="E294">
         <v>745</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295">
+        <v>10192074</v>
+      </c>
+      <c r="C295">
+        <v>238793</v>
+      </c>
+      <c r="D295">
+        <v>139855</v>
+      </c>
+      <c r="E295">
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -10187,7 +10219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70A815-6A5A-43CE-8AA4-6FDDEFF5442C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B5EF8-0589-4770-98F6-6C3869616C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,15 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">'data'!$A$1:$E$295</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;usdeltas&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -936,7 +936,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4829,7 +4830,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -5185,5030 +5186,5031 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>14</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>15</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>15</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>15</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>25</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>27</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>30</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>30</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>13</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>43</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>45</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>15</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>60</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>60</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>5</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>65</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>0</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>5</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>70</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>18</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>88</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>104</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>6</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>21</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>125</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>10</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>36</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>161</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>12</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>67</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>228</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>12</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>83</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>311</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>15</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>117</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>428</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>19</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>119</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>547</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>22</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>201</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>748</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>26</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>270</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>1018</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>31</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>245</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>1263</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>37</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>405</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>1668</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>43</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>556</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>2224</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>50</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>674</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>2898</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>60</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>702</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>3600</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>68</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>907</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>4507</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>91</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>1399</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>5906</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>117</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>2444</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>8350</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>162</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>4043</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>12393</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>212</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>5619</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>18012</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>277</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>6516</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>24528</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>360</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0">
         <v>8545</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>33073</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>458</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0">
         <v>10432</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>43505</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>579</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0">
         <v>10433</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>53938</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>785</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0">
         <v>14634</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>68572</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>1054</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0">
         <v>16998</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0">
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>85570</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>1353</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0">
         <v>17330</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>417</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>102900</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>1770</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>21066</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0">
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>123966</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>2300</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0">
         <v>18520</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0">
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>142486</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>2718</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>21469</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>163955</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>3368</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>24506</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0">
         <v>936</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>188461</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>4304</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0">
         <v>26930</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0">
         <v>1021</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>215391</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>5325</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0">
         <v>29717</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0">
         <v>1216</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>245108</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>6541</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>32318</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0">
         <v>1391</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>277426</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>7932</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>35099</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>1556</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>312525</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>9488</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>25616</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>1368</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>338141</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>10856</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>30916</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>1526</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>369057</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>12382</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>30337</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0">
         <v>2234</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>399394</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>14616</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>31820</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0">
         <v>2085</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>431214</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0">
         <v>16701</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0">
         <v>34699</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0">
         <v>2120</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>465913</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0">
         <v>18821</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0">
         <v>33473</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0">
         <v>2263</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>499386</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>21084</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>31720</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0">
         <v>2084</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>531106</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>23168</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>27143</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0">
         <v>1681</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>558249</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>24849</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>25769</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0">
         <v>1764</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>584018</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>26613</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>26691</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0">
         <v>2705</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>610709</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>29318</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0">
         <v>30033</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0">
         <v>2752</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>640742</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <v>32070</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>31613</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0">
         <v>2349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>672355</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <v>34419</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>31509</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>2289</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>703864</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <v>36708</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0">
         <v>28398</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0">
         <v>1951</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>732262</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>38659</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0">
         <v>25334</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0">
         <v>1520</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>757596</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>40179</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0">
         <v>27395</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0">
         <v>1837</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>784991</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>42016</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0">
         <v>25514</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0">
         <v>2672</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0">
         <v>810505</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0">
         <v>44688</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>28831</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>2371</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>839336</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0">
         <v>47059</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0">
         <v>33776</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0">
         <v>2169</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>873112</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0">
         <v>49228</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0">
         <v>36741</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0">
         <v>2132</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96">
+      <c r="A96" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>909853</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0">
         <v>51360</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0">
         <v>34408</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0">
         <v>1967</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97">
+      <c r="A97" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>944261</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0">
         <v>53327</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0">
         <v>26735</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0">
         <v>1253</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98">
+      <c r="A98" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>970996</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0">
         <v>54580</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0">
         <v>23197</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0">
         <v>1442</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99">
+      <c r="A99" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>994193</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0">
         <v>56022</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0">
         <v>24651</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0">
         <v>2394</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100">
+      <c r="A100" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>1018844</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0">
         <v>58416</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0">
         <v>26555</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0">
         <v>2514</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101">
+      <c r="A101" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>1045399</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0">
         <v>60930</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0">
         <v>30357</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0">
         <v>2210</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>1075756</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0">
         <v>63140</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0">
         <v>33970</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0">
         <v>1762</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103">
+      <c r="A103" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>1109726</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0">
         <v>64902</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>29474</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0">
         <v>1583</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104">
+      <c r="A104" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>1139200</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0">
         <v>66485</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>26140</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0">
         <v>1331</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0">
         <v>1165340</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0">
         <v>67816</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0">
         <v>21962</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0">
         <v>1089</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>1187302</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0">
         <v>68905</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0">
         <v>23709</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0">
         <v>2234</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0">
         <v>1211011</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0">
         <v>71139</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0">
         <v>24506</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0">
         <v>2708</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108">
+      <c r="A108" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0">
         <v>1235517</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0">
         <v>73847</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0">
         <v>28478</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0">
         <v>1958</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109">
+      <c r="A109" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>1263995</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0">
         <v>75805</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>27648</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0">
         <v>1575</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110">
+      <c r="A110" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>1291643</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0">
         <v>77380</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>24868</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0">
         <v>1454</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111">
+      <c r="A111" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>1316511</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0">
         <v>78834</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>20317</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0">
         <v>932</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112">
+      <c r="A112" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>1336828</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>79766</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>17621</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0">
         <v>982</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113">
+      <c r="A113" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>1354449</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>80748</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0">
         <v>22300</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0">
         <v>1652</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114">
+      <c r="A114" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>1376749</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>82400</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0">
         <v>21145</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0">
         <v>1768</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115">
+      <c r="A115" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>1397894</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>84168</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0">
         <v>26962</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="0">
         <v>1738</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116">
+      <c r="A116" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>1424856</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>85906</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0">
         <v>26237</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0">
         <v>1593</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117">
+      <c r="A117" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>1451093</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>87499</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="0">
         <v>23659</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="0">
         <v>1225</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118">
+      <c r="A118" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>1474752</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>88724</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="0">
         <v>19014</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="0">
         <v>844</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119">
+      <c r="A119" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>1493766</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>89568</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="0">
         <v>21827</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="0">
         <v>846</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120">
+      <c r="A120" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>1515593</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0">
         <v>90414</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="0">
         <v>20977</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="0">
         <v>1520</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121">
+      <c r="A121" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>1536570</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0">
         <v>91934</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="0">
         <v>23070</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="0">
         <v>1477</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122">
+      <c r="A122" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>1559640</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0">
         <v>93411</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="0">
         <v>25733</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="0">
         <v>1311</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123">
+      <c r="A123" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>1585373</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0">
         <v>94722</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="0">
         <v>23799</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="0">
         <v>1288</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124">
+      <c r="A124" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>1609172</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0">
         <v>96010</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="0">
         <v>22268</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="0">
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125">
+      <c r="A125" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>1631440</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0">
         <v>97060</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="0">
         <v>20031</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="0">
         <v>620</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126">
+      <c r="A126" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>1651471</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0">
         <v>97680</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="0">
         <v>19100</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="0">
         <v>510</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127">
+      <c r="A127" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>1670571</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0">
         <v>98190</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="0">
         <v>18896</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="0">
         <v>747</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128">
+      <c r="A128" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>1689467</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>98937</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="0">
         <v>18744</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="0">
         <v>1485</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129">
+      <c r="A129" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>1708211</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>100422</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="0">
         <v>22512</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="0">
         <v>1200</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130">
+      <c r="A130" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>1730723</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>101622</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="0">
         <v>24548</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="0">
         <v>1190</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131">
+      <c r="A131" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>1755271</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>102812</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="0">
         <v>23397</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="0">
         <v>963</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132">
+      <c r="A132" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>1778668</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>103775</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="0">
         <v>20634</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="0">
         <v>604</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133">
+      <c r="A133" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>1799302</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>104379</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="0">
         <v>21897</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="0">
         <v>734</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134">
+      <c r="A134" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>1821199</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>105113</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="0">
         <v>20791</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="0">
         <v>1082</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135">
+      <c r="A135" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>1841990</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>106195</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="0">
         <v>19987</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="0">
         <v>989</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136">
+      <c r="A136" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>1861977</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>107184</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="0">
         <v>21616</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="0">
         <v>1008</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137">
+      <c r="A137" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>1883593</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>108192</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="0">
         <v>28709</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="0">
         <v>1112</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138">
+      <c r="A138" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>1912302</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>109304</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="0">
         <v>22516</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="0">
         <v>728</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139">
+      <c r="A139" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>1934818</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>110032</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="0">
         <v>18616</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="0">
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140">
+      <c r="A140" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>1953434</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0">
         <v>110422</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="0">
         <v>18207</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="0">
         <v>722</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141">
+      <c r="A141" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>1971641</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0">
         <v>111144</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="0">
         <v>18805</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="0">
         <v>1030</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142">
+      <c r="A142" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>1990446</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0">
         <v>112174</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="0">
         <v>22852</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="0">
         <v>929</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143">
+      <c r="A143" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>2013298</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0">
         <v>113103</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="0">
         <v>23202</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="0">
         <v>877</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144">
+      <c r="A144" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>2036500</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0">
         <v>113980</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="0">
         <v>25493</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="0">
         <v>779</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145">
+      <c r="A145" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>2061993</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0">
         <v>114759</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="0">
         <v>25334</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="0">
         <v>692</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146">
+      <c r="A146" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>2087327</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0">
         <v>115451</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="0">
         <v>19130</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="0">
         <v>317</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147">
+      <c r="A147" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>2106457</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0">
         <v>115768</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="0">
         <v>20117</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="0">
         <v>448</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148">
+      <c r="A148" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>2126574</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>116216</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="0">
         <v>24885</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="0">
         <v>769</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149">
+      <c r="A149" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>2151459</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0">
         <v>116985</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="0">
         <v>25655</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="0">
         <v>761</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150">
+      <c r="A150" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>2177114</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0">
         <v>117746</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="0">
         <v>28059</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="0">
         <v>727</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151">
+      <c r="A151" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>2205173</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>118473</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="0">
         <v>30836</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="0">
         <v>698</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152">
+      <c r="A152" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>2236009</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0">
         <v>119171</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="0">
         <v>32025</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="0">
         <v>546</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153">
+      <c r="A153" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>2268034</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0">
         <v>119717</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="0">
         <v>26379</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="0">
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154">
+      <c r="A154" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>2294413</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>119974</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="0">
         <v>30466</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="0">
         <v>360</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155">
+      <c r="A155" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>2324879</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0">
         <v>120334</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="0">
         <v>35060</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="0">
         <v>833</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156">
+      <c r="A156" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>2359939</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0">
         <v>121167</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="0">
         <v>36989</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="0">
         <v>767</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157">
+      <c r="A157" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>2396928</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>121934</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="0">
         <v>41173</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="0">
         <v>2466</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158">
+      <c r="A158" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0">
         <v>2438101</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0">
         <v>124400</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="0">
         <v>45528</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="0">
         <v>633</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159">
+      <c r="A159" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0">
         <v>2483629</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0">
         <v>125033</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="0">
         <v>42299</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="0">
         <v>511</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160">
+      <c r="A160" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0">
         <v>2525928</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0">
         <v>125544</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="0">
         <v>39508</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="0">
         <v>271</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161">
+      <c r="A161" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0">
         <v>2565436</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0">
         <v>125815</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="0">
         <v>39496</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="0">
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162">
+      <c r="A162" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0">
         <v>2604932</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0">
         <v>126162</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="0">
         <v>48389</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="0">
         <v>1300</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163">
+      <c r="A163" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0">
         <v>2653321</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0">
         <v>127462</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="0">
         <v>49975</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="0">
         <v>642</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164">
+      <c r="A164" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0">
         <v>2703296</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0">
         <v>128104</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="0">
         <v>55559</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="0">
         <v>723</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165">
+      <c r="A165" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0">
         <v>2758855</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0">
         <v>128827</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="0">
         <v>57154</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="0">
         <v>591</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166">
+      <c r="A166" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0">
         <v>2816009</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0">
         <v>129418</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="0">
         <v>50006</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="0">
         <v>261</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167">
+      <c r="A167" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0">
         <v>2866015</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0">
         <v>129679</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="0">
         <v>44767</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="0">
         <v>262</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168">
+      <c r="A168" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0">
         <v>2910782</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0">
         <v>129941</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="0">
         <v>47316</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="0">
         <v>391</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169">
+      <c r="A169" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0">
         <v>2958098</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0">
         <v>130332</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="0">
         <v>54084</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="0">
         <v>958</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170">
+      <c r="A170" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0">
         <v>3012182</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0">
         <v>131290</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="0">
         <v>59455</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="0">
         <v>948</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171">
+      <c r="A171" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0">
         <v>3071637</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0">
         <v>132238</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="0">
         <v>59889</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="0">
         <v>841</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172">
+      <c r="A172" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0">
         <v>3131526</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0">
         <v>133079</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="0">
         <v>68227</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="0">
         <v>828</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173">
+      <c r="A173" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0">
         <v>3199753</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0">
         <v>133907</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="0">
         <v>60721</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="0">
         <v>675</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174">
+      <c r="A174" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0">
         <v>3260474</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0">
         <v>134582</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="0">
         <v>57805</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="0">
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175">
+      <c r="A175" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0">
         <v>3318279</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0">
         <v>134977</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="0">
         <v>61567</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="0">
         <v>425</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176">
+      <c r="A176" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0">
         <v>3379846</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0">
         <v>135402</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="0">
         <v>65602</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="0">
         <v>954</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177">
+      <c r="A177" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0">
         <v>3445448</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0">
         <v>136356</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="0">
         <v>68342</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="0">
         <v>971</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178">
+      <c r="A178" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0">
         <v>3513790</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0">
         <v>137327</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="0">
         <v>75687</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="0">
         <v>958</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179">
+      <c r="A179" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0">
         <v>3589477</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0">
         <v>138285</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="0">
         <v>70923</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="0">
         <v>901</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180">
+      <c r="A180" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0">
         <v>3660400</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0">
         <v>139186</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="0">
         <v>62451</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="0">
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181">
+      <c r="A181" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0">
         <v>3722851</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0">
         <v>139961</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="0">
         <v>62275</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="0">
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182">
+      <c r="A182" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0">
         <v>3785126</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0">
         <v>140373</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="0">
         <v>59888</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="0">
         <v>531</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183">
+      <c r="A183" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0">
         <v>3845014</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0">
         <v>140904</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="0">
         <v>65277</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="0">
         <v>1127</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184">
+      <c r="A184" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0">
         <v>3910291</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0">
         <v>142031</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="0">
         <v>69739</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="0">
         <v>1136</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185">
+      <c r="A185" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0">
         <v>3980030</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0">
         <v>143167</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="0">
         <v>70006</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="0">
         <v>1116</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="186">
+      <c r="A186" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0">
         <v>4050036</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0">
         <v>144283</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="0">
         <v>73525</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="0">
         <v>1146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187">
+      <c r="A187" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0">
         <v>4123561</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0">
         <v>145429</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="0">
         <v>66776</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="0">
         <v>884</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188">
+      <c r="A188" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0">
         <v>4190337</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0">
         <v>146313</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="0">
         <v>54217</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="0">
         <v>440</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189">
+      <c r="A189" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0">
         <v>4244554</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0">
         <v>146753</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="0">
         <v>59181</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="0">
         <v>1696</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190">
+      <c r="A190" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0">
         <v>4303735</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0">
         <v>148449</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="0">
         <v>63116</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="0">
         <v>1327</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191">
+      <c r="A191" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0">
         <v>4366851</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0">
         <v>149776</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="0">
         <v>66616</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="0">
         <v>1396</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192">
+      <c r="A192" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0">
         <v>4433467</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0">
         <v>151172</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="0">
         <v>69114</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="0">
         <v>1261</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193">
+      <c r="A193" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0">
         <v>4502581</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0">
         <v>152433</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="0">
         <v>69088</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="0">
         <v>1429</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="194">
+      <c r="A194" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0">
         <v>4571669</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0">
         <v>153862</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="0">
         <v>56828</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="0">
         <v>1055</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="195">
+      <c r="A195" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0">
         <v>4628497</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0">
         <v>154917</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="0">
         <v>50794</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="0">
         <v>420</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196">
+      <c r="A196" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0">
         <v>4679291</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0">
         <v>155337</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="0">
         <v>47484</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="0">
         <v>608</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="197">
+      <c r="A197" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0">
         <v>4726775</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0">
         <v>155945</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="0">
         <v>53549</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="0">
         <v>1356</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198">
+      <c r="A198" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0">
         <v>4780324</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0">
         <v>157301</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="0">
         <v>53723</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="0">
         <v>1253</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199">
+      <c r="A199" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0">
         <v>4834047</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0">
         <v>158554</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="0">
         <v>57514</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="0">
         <v>1071</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="200">
+      <c r="A200" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0">
         <v>4891561</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0">
         <v>159625</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="0">
         <v>61157</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="0">
         <v>1356</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="201">
+      <c r="A201" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0">
         <v>4952718</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0">
         <v>160981</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="0">
         <v>55240</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="0">
         <v>966</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="202">
+      <c r="A202" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0">
         <v>5007958</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0">
         <v>161947</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="0">
         <v>48480</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="0">
         <v>539</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="203">
+      <c r="A203" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0">
         <v>5056438</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0">
         <v>162486</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="0">
         <v>47173</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="0">
         <v>537</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204">
+      <c r="A204" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0">
         <v>5103611</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0">
         <v>163023</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="0">
         <v>53357</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="0">
         <v>1451</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205">
+      <c r="A205" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0">
         <v>5156968</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0">
         <v>164474</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="0">
         <v>54278</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="0">
         <v>1478</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206">
+      <c r="A206" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0">
         <v>5211246</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0">
         <v>165952</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="0">
         <v>54061</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="0">
         <v>1213</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207">
+      <c r="A207" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0">
         <v>5265307</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0">
         <v>167165</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="0">
         <v>59477</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="0">
         <v>1176</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="208">
+      <c r="A208" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0">
         <v>5324784</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0">
         <v>168341</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="0">
         <v>50743</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="0">
         <v>1059</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="209">
+      <c r="A209" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0">
         <v>5375527</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0">
         <v>169400</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="0">
         <v>42137</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="0">
         <v>514</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210">
+      <c r="A210" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0">
         <v>5417664</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0">
         <v>169914</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="0">
         <v>37523</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="0">
         <v>535</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="211">
+      <c r="A211" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0">
         <v>5455187</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0">
         <v>170449</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="0">
         <v>43233</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="0">
         <v>1349</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212">
+      <c r="A212" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0">
         <v>5498420</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0">
         <v>171798</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="0">
         <v>43013</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="0">
         <v>1295</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="213">
+      <c r="A213" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0">
         <v>5541433</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0">
         <v>173093</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="0">
         <v>46029</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="0">
         <v>1043</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="214">
+      <c r="A214" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0">
         <v>5587462</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0">
         <v>174136</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="0">
         <v>49029</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="0">
         <v>1161</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="215">
+      <c r="A215" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0">
         <v>5636491</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0">
         <v>175297</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="0">
         <v>45026</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="0">
         <v>950</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="216">
+      <c r="A216" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0">
         <v>5681517</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0">
         <v>176247</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="0">
         <v>32333</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="0">
         <v>446</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="217">
+      <c r="A217" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0">
         <v>5713850</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0">
         <v>176693</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="0">
         <v>40404</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="0">
         <v>504</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="218">
+      <c r="A218" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0">
         <v>5754254</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0">
         <v>177197</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="0">
         <v>39183</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="0">
         <v>1213</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="219">
+      <c r="A219" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0">
         <v>5793437</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0">
         <v>178410</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="0">
         <v>45319</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="0">
         <v>1193</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="220">
+      <c r="A220" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0">
         <v>5838756</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0">
         <v>179603</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="0">
         <v>45610</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="0">
         <v>1126</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="221">
+      <c r="A221" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0">
         <v>5884366</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0">
         <v>180729</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="0">
         <v>46564</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="0">
         <v>1010</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="222">
+      <c r="A222" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0">
         <v>5930930</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0">
         <v>181739</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="0">
         <v>44610</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="0">
         <v>871</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="223">
+      <c r="A223" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0">
         <v>5975540</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0">
         <v>182610</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="0">
         <v>33430</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="0">
         <v>374</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="224">
+      <c r="A224" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0">
         <v>6008970</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0">
         <v>182984</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="0">
         <v>36485</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="0">
         <v>488</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="225">
+      <c r="A225" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0">
         <v>6045455</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0">
         <v>183472</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="0">
         <v>44049</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="0">
         <v>1091</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="226">
+      <c r="A226" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0">
         <v>6089504</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0">
         <v>184563</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="0">
         <v>32444</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="0">
         <v>1076</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227">
+      <c r="A227" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0">
         <v>6121948</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0">
         <v>185639</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="0">
         <v>46394</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="0">
         <v>1078</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="228">
+      <c r="A228" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0">
         <v>6168342</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0">
         <v>186717</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="0">
         <v>52104</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="0">
         <v>980</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229">
+      <c r="A229" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0">
         <v>6220446</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0">
         <v>187697</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="0">
         <v>42254</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="0">
         <v>712</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="230">
+      <c r="A230" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0">
         <v>6262700</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0">
         <v>188409</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="0">
         <v>29999</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="0">
         <v>411</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231">
+      <c r="A231" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0">
         <v>6292699</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0">
         <v>188820</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="0">
         <v>25166</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="0">
         <v>263</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232">
+      <c r="A232" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0">
         <v>6317865</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0">
         <v>189083</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="0">
         <v>28941</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="0">
         <v>458</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="233">
+      <c r="A233" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0">
         <v>6346806</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0">
         <v>189541</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="0">
         <v>33332</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="0">
         <v>1175</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="234">
+      <c r="A234" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0">
         <v>6380138</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0">
         <v>190716</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="0">
         <v>38060</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="0">
         <v>915</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="235">
+      <c r="A235" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0">
         <v>6418198</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0">
         <v>191631</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="0">
         <v>47568</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="0">
         <v>1227</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="236">
+      <c r="A236" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0">
         <v>6465766</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0">
         <v>192858</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="0">
         <v>39104</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="0">
         <v>701</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="237">
+      <c r="A237" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0">
         <v>6504870</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0">
         <v>193559</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="0">
         <v>33343</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="0">
         <v>399</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="238">
+      <c r="A238" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0">
         <v>6538213</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0">
         <v>193958</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="0">
         <v>36887</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="0">
         <v>450</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239">
+      <c r="A239" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0">
         <v>6575100</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0">
         <v>194408</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="0">
         <v>39217</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="0">
         <v>1281</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="240">
+      <c r="A240" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0">
         <v>6614317</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0">
         <v>195689</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="0">
         <v>39268</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="0">
         <v>997</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="241">
+      <c r="A241" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0">
         <v>6653585</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0">
         <v>196686</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="0">
         <v>45310</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="0">
         <v>849</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="242">
+      <c r="A242" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0">
         <v>6698895</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0">
         <v>197535</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="0">
         <v>48887</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="0">
         <v>949</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="243">
+      <c r="A243" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0">
         <v>6747782</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0">
         <v>198484</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="0">
         <v>41811</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="0">
         <v>670</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="244">
+      <c r="A244" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0">
         <v>6789593</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0">
         <v>199154</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="0">
         <v>36356</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="0">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="245">
+      <c r="A245" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0">
         <v>6825949</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0">
         <v>199367</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="0">
         <v>54950</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="0">
         <v>430</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="246">
+      <c r="A246" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0">
         <v>6880899</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0">
         <v>199797</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="0">
         <v>37391</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="0">
         <v>941</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="247">
+      <c r="A247" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0">
         <v>6918290</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0">
         <v>200738</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="0">
         <v>41551</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="0">
         <v>1090</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="248">
+      <c r="A248" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0">
         <v>6959841</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0">
         <v>201828</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="0">
         <v>45202</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="0">
         <v>885</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="249">
+      <c r="A249" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0">
         <v>7005043</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0">
         <v>202713</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="0">
         <v>54581</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="0">
         <v>853</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="250">
+      <c r="A250" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0">
         <v>7059624</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0">
         <v>203566</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="0">
         <v>42697</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="0">
         <v>769</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="251">
+      <c r="A251" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0">
         <v>7102321</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0">
         <v>204335</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="0">
         <v>37298</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="0">
         <v>267</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="252">
+      <c r="A252" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0">
         <v>7139619</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0">
         <v>204602</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="0">
         <v>37360</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="0">
         <v>350</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="253">
+      <c r="A253" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0">
         <v>7176979</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0">
         <v>204952</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="0">
         <v>43697</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="0">
         <v>926</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="254">
+      <c r="A254" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0">
         <v>7220676</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0">
         <v>205878</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="0">
         <v>42058</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="0">
         <v>974</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="255">
+      <c r="A255" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0">
         <v>7262734</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0">
         <v>206852</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="0">
         <v>46418</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="0">
         <v>847</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="256">
+      <c r="A256" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0">
         <v>7309152</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0">
         <v>207699</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="0">
         <v>53411</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="0">
         <v>865</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257">
+      <c r="A257" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0">
         <v>7362563</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0">
         <v>208564</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="0">
         <v>47779</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="0">
         <v>709</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="258">
+      <c r="A258" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0">
         <v>7410342</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0">
         <v>209273</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="0">
         <v>35063</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="0">
         <v>333</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="259">
+      <c r="A259" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0">
         <v>7445405</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0">
         <v>209606</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="0">
         <v>62294</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="0">
         <v>429</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="260">
+      <c r="A260" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0">
         <v>7507699</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0">
         <v>210035</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="0">
         <v>42864</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="0">
         <v>721</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="261">
+      <c r="A261" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0">
         <v>7550563</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0">
         <v>210756</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="0">
         <v>52984</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="0">
         <v>996</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262">
+      <c r="A262" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0">
         <v>7603547</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0">
         <v>211752</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="0">
         <v>56375</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="0">
         <v>928</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="263">
+      <c r="A263" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0">
         <v>7659922</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0">
         <v>212680</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="0">
         <v>58959</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="0">
         <v>915</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264">
+      <c r="A264" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0">
         <v>7718881</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0">
         <v>213595</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="0">
         <v>51586</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="0">
         <v>592</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="265">
+      <c r="A265" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0">
         <v>7770467</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0">
         <v>214187</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="0">
         <v>44766</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="0">
         <v>419</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="266">
+      <c r="A266" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0">
         <v>7815233</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0">
         <v>214606</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="0">
         <v>48006</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="0">
         <v>351</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="267">
+      <c r="A267" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0">
         <v>7863239</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0">
         <v>214957</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="0">
         <v>54359</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="0">
         <v>826</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="268">
+      <c r="A268" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0">
         <v>7917598</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0">
         <v>215783</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="0">
         <v>59872</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="0">
         <v>1009</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269">
+      <c r="A269" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0">
         <v>7977470</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0">
         <v>216792</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="0">
         <v>65327</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="0">
         <v>793</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="270">
+      <c r="A270" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0">
         <v>8042797</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0">
         <v>217585</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="0">
         <v>70464</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="0">
         <v>891</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="271">
+      <c r="A271" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0">
         <v>8113261</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0">
         <v>218476</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="0">
         <v>52761</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="0">
         <v>678</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="272">
+      <c r="A272" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0">
         <v>8166022</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0">
         <v>219154</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="0">
         <v>47882</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="0">
         <v>387</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="273">
+      <c r="A273" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0">
         <v>8213904</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0">
         <v>219541</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="0">
         <v>65375</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="0">
         <v>517</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274">
+      <c r="A274" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="0">
         <v>8279279</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0">
         <v>220058</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="0">
         <v>60588</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="0">
         <v>929</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="275">
+      <c r="A275" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0">
         <v>8339867</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0">
         <v>220987</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="0">
         <v>64191</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="0">
         <v>1208</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="276">
+      <c r="A276" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0">
         <v>8404058</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0">
         <v>222195</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="0">
         <v>75064</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="0">
         <v>828</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="277">
+      <c r="A277" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0">
         <v>8479122</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0">
         <v>223023</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="0">
         <v>85085</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="0">
         <v>925</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="278">
+      <c r="A278" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0">
         <v>8564207</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0">
         <v>223948</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="0">
         <v>78756</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="0">
         <v>873</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="279">
+      <c r="A279" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0">
         <v>8642963</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0">
         <v>224821</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="0">
         <v>59712</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="0">
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="280">
+      <c r="A280" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0">
         <v>8702675</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0">
         <v>225160</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="0">
         <v>74443</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="0">
         <v>538</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281">
+      <c r="A281" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0">
         <v>8777118</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0">
         <v>225698</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="0">
         <v>74428</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="0">
         <v>983</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282">
+      <c r="A282" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0">
         <v>8851546</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0">
         <v>226681</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="0">
         <v>81902</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="0">
         <v>1016</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="283">
+      <c r="A283" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0">
         <v>8933448</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0">
         <v>227697</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="0">
         <v>90728</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="0">
         <v>1004</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="284">
+      <c r="A284" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0">
         <v>9024176</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0">
         <v>228701</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="0">
         <v>99784</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="0">
         <v>971</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="285">
+      <c r="A285" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0">
         <v>9123960</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0">
         <v>229672</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="0">
         <v>84285</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="0">
         <v>838</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="286">
+      <c r="A286" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0">
         <v>9208245</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0">
         <v>230510</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="0">
         <v>74236</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="0">
         <v>427</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287">
+      <c r="A287" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0">
         <v>9282481</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0">
         <v>230937</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="0">
         <v>93642</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="0">
         <v>540</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288">
+      <c r="A288" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0">
         <v>9376123</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0">
         <v>231477</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="0">
         <v>92599</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="0">
         <v>1130</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="289">
+      <c r="A289" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0">
         <v>9468722</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0">
         <v>232607</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="0">
         <v>107872</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="0">
         <v>1616</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="290">
+      <c r="A290" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0">
         <v>9576594</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0">
         <v>234223</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="0">
         <v>121504</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="0">
         <v>1108</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="291">
+      <c r="A291" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="0">
         <v>9698098</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0">
         <v>235331</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="0">
         <v>132811</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="0">
         <v>1246</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="292">
+      <c r="A292" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0">
         <v>9830909</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0">
         <v>236577</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="0">
         <v>125932</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="0">
         <v>1007</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="293">
+      <c r="A293" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="0">
         <v>9956841</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0">
         <v>237584</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="0">
         <v>103867</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="0">
         <v>464</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="294">
+      <c r="A294" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0">
         <v>10060708</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0">
         <v>238048</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="0">
         <v>131366</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="0">
         <v>745</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="295">
+      <c r="A295" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0">
         <v>10192074</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0">
         <v>238793</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="0">
         <v>139855</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="0">
         <v>1448</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -10217,7 +10219,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -10226,13 +10227,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -10241,6 +10242,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B5EF8-0589-4770-98F6-6C3869616C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39ED4F-BBA5-4F95-BEB7-1C78ADCB8A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,22 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">'data'!$A$1:$E$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$296</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;usdeltas&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>date</t>
   </si>
@@ -930,14 +930,16 @@
   </si>
   <si>
     <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,9 +1018,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$295</c:f>
+              <c:f>data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1900,16 +1902,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>11/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>11/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$295</c:f>
+              <c:f>data!$D$2:$D$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2673,7 +2678,7 @@
                   <c:v>46418</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>53411</c:v>
+                  <c:v>53580</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>47779</c:v>
@@ -2682,13 +2687,13 @@
                   <c:v>35063</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>62294</c:v>
+                  <c:v>62382</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>42864</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>52984</c:v>
+                  <c:v>53015</c:v>
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>56375</c:v>
@@ -2697,25 +2702,25 @@
                   <c:v>58959</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>51586</c:v>
+                  <c:v>51648</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>44766</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>48006</c:v>
+                  <c:v>48016</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>54359</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>59872</c:v>
+                  <c:v>59893</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>65327</c:v>
+                  <c:v>65340</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>70464</c:v>
+                  <c:v>70477</c:v>
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>52761</c:v>
@@ -2724,19 +2729,19 @@
                   <c:v>47882</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>65375</c:v>
+                  <c:v>65431</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>60588</c:v>
+                  <c:v>60607</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>64191</c:v>
+                  <c:v>64229</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>75064</c:v>
+                  <c:v>75088</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>85085</c:v>
+                  <c:v>85108</c:v>
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>78756</c:v>
@@ -2748,49 +2753,52 @@
                   <c:v>74443</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>74428</c:v>
+                  <c:v>74453</c:v>
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>81902</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>90728</c:v>
+                  <c:v>90766</c:v>
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>99784</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>84285</c:v>
+                  <c:v>84298</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>74236</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>93642</c:v>
+                  <c:v>93659</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>92599</c:v>
+                  <c:v>92612</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>107872</c:v>
+                  <c:v>107913</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>121504</c:v>
+                  <c:v>121529</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>132811</c:v>
+                  <c:v>132847</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>125932</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>103867</c:v>
+                  <c:v>103416</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>131366</c:v>
+                  <c:v>130340</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>139855</c:v>
+                  <c:v>139746</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>142856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,9 +2905,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$295</c:f>
+              <c:f>data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3781,16 +3789,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>11/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>11/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$295</c:f>
+              <c:f>data!$E$2:$E$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4671,7 +4682,10 @@
                   <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1448</c:v>
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,7 +4844,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -4844,8 +4858,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E295" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E296" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E296" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5178,7 +5192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -5186,5031 +5200,5047 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="9" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>12</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>12</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>13</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>13</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>14</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>15</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>15</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>15</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>15</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>25</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>25</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>25</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>27</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>30</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>13</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>43</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>45</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>15</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>60</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>60</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>65</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>5</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>70</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>18</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>2</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>88</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>16</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>3</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>104</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>21</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>125</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>10</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>36</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>161</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>12</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>67</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>228</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>83</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>311</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>15</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>117</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>4</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>428</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>19</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>119</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>3</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>547</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>22</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>201</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>4</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>748</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>26</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>270</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>1018</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>31</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>245</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>6</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>1263</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>37</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>405</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>6</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>1668</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>43</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>556</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>7</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>2224</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>50</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>674</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>10</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>2898</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>60</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>702</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>8</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>3600</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>68</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>907</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>23</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>4507</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>91</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>1399</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>5906</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>117</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>2444</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>45</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>8350</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>162</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>4043</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>50</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>12393</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>212</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>5619</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>65</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>18012</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>277</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61">
         <v>6516</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61">
         <v>83</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>24528</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>360</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62">
         <v>8545</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>98</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>33073</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>458</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63">
         <v>10432</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63">
         <v>121</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>43505</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>579</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64">
         <v>10433</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64">
         <v>206</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>53938</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>785</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65">
         <v>14634</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>269</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>68572</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>1054</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66">
         <v>16998</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66">
         <v>299</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>85570</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>1353</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67">
         <v>17330</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>417</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>102900</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>1770</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68">
         <v>21066</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68">
         <v>530</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>123966</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>2300</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69">
         <v>18520</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>418</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>142486</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>2718</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70">
         <v>21469</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70">
         <v>650</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>163955</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>3368</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71">
         <v>24506</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71">
         <v>936</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>188461</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>4304</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72">
         <v>26930</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72">
         <v>1021</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>215391</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>5325</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73">
         <v>29717</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73">
         <v>1216</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>245108</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>6541</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74">
         <v>32318</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74">
         <v>1391</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>277426</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>7932</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75">
         <v>35099</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>1556</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>312525</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76">
         <v>9488</v>
       </c>
-      <c r="D76" s="0">
+      <c r="D76">
         <v>25616</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76">
         <v>1368</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>338141</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77">
         <v>10856</v>
       </c>
-      <c r="D77" s="0">
+      <c r="D77">
         <v>30916</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77">
         <v>1526</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>369057</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78">
         <v>12382</v>
       </c>
-      <c r="D78" s="0">
+      <c r="D78">
         <v>30337</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78">
         <v>2234</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>399394</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79">
         <v>14616</v>
       </c>
-      <c r="D79" s="0">
+      <c r="D79">
         <v>31820</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79">
         <v>2085</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>431214</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80">
         <v>16701</v>
       </c>
-      <c r="D80" s="0">
+      <c r="D80">
         <v>34699</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80">
         <v>2120</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>465913</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81">
         <v>18821</v>
       </c>
-      <c r="D81" s="0">
+      <c r="D81">
         <v>33473</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81">
         <v>2263</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>499386</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>21084</v>
       </c>
-      <c r="D82" s="0">
+      <c r="D82">
         <v>31720</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82">
         <v>2084</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>531106</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>23168</v>
       </c>
-      <c r="D83" s="0">
+      <c r="D83">
         <v>27143</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83">
         <v>1681</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>558249</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84">
         <v>24849</v>
       </c>
-      <c r="D84" s="0">
+      <c r="D84">
         <v>25769</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84">
         <v>1764</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>584018</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>26613</v>
       </c>
-      <c r="D85" s="0">
+      <c r="D85">
         <v>26691</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85">
         <v>2705</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>610709</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>29318</v>
       </c>
-      <c r="D86" s="0">
+      <c r="D86">
         <v>30033</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86">
         <v>2752</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>640742</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87">
         <v>32070</v>
       </c>
-      <c r="D87" s="0">
+      <c r="D87">
         <v>31613</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87">
         <v>2349</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>672355</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88">
         <v>34419</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88">
         <v>31509</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88">
         <v>2289</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>703864</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89">
         <v>36708</v>
       </c>
-      <c r="D89" s="0">
+      <c r="D89">
         <v>28398</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89">
         <v>1951</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>732262</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>38659</v>
       </c>
-      <c r="D90" s="0">
+      <c r="D90">
         <v>25334</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90">
         <v>1520</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>757596</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>40179</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91">
         <v>27395</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91">
         <v>1837</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92">
         <v>784991</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92">
         <v>42016</v>
       </c>
-      <c r="D92" s="0">
+      <c r="D92">
         <v>25514</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92">
         <v>2672</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93">
         <v>810505</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93">
         <v>44688</v>
       </c>
-      <c r="D93" s="0">
+      <c r="D93">
         <v>28831</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93">
         <v>2371</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94">
         <v>839336</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94">
         <v>47059</v>
       </c>
-      <c r="D94" s="0">
+      <c r="D94">
         <v>33776</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94">
         <v>2169</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95">
         <v>873112</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95">
         <v>49228</v>
       </c>
-      <c r="D95" s="0">
+      <c r="D95">
         <v>36741</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95">
         <v>2132</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96">
         <v>909853</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96">
         <v>51360</v>
       </c>
-      <c r="D96" s="0">
+      <c r="D96">
         <v>34408</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96">
         <v>1967</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97">
         <v>944261</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97">
         <v>53327</v>
       </c>
-      <c r="D97" s="0">
+      <c r="D97">
         <v>26735</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97">
         <v>1253</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98">
         <v>970996</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98">
         <v>54580</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98">
         <v>23197</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98">
         <v>1442</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99">
         <v>994193</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99">
         <v>56022</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99">
         <v>24651</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99">
         <v>2394</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100">
         <v>1018844</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100">
         <v>58416</v>
       </c>
-      <c r="D100" s="0">
+      <c r="D100">
         <v>26555</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100">
         <v>2514</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101">
         <v>1045399</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101">
         <v>60930</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101">
         <v>30357</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101">
         <v>2210</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102">
         <v>1075756</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102">
         <v>63140</v>
       </c>
-      <c r="D102" s="0">
+      <c r="D102">
         <v>33970</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102">
         <v>1762</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103">
         <v>1109726</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103">
         <v>64902</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D103">
         <v>29474</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103">
         <v>1583</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104">
         <v>1139200</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104">
         <v>66485</v>
       </c>
-      <c r="D104" s="0">
+      <c r="D104">
         <v>26140</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104">
         <v>1331</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105">
         <v>1165340</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105">
         <v>67816</v>
       </c>
-      <c r="D105" s="0">
+      <c r="D105">
         <v>21962</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105">
         <v>1089</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106">
         <v>1187302</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106">
         <v>68905</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106">
         <v>23709</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106">
         <v>2234</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107">
         <v>1211011</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107">
         <v>71139</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107">
         <v>24506</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107">
         <v>2708</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108">
         <v>1235517</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108">
         <v>73847</v>
       </c>
-      <c r="D108" s="0">
+      <c r="D108">
         <v>28478</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108">
         <v>1958</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109">
         <v>1263995</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109">
         <v>75805</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109">
         <v>27648</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109">
         <v>1575</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110">
         <v>1291643</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110">
         <v>77380</v>
       </c>
-      <c r="D110" s="0">
+      <c r="D110">
         <v>24868</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110">
         <v>1454</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111">
         <v>1316511</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111">
         <v>78834</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111">
         <v>20317</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111">
         <v>932</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112">
         <v>1336828</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112">
         <v>79766</v>
       </c>
-      <c r="D112" s="0">
+      <c r="D112">
         <v>17621</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112">
         <v>982</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113">
         <v>1354449</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113">
         <v>80748</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113">
         <v>22300</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113">
         <v>1652</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114">
         <v>1376749</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114">
         <v>82400</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114">
         <v>21145</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114">
         <v>1768</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="0">
+      <c r="B115">
         <v>1397894</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115">
         <v>84168</v>
       </c>
-      <c r="D115" s="0">
+      <c r="D115">
         <v>26962</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115">
         <v>1738</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="0">
+      <c r="B116">
         <v>1424856</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116">
         <v>85906</v>
       </c>
-      <c r="D116" s="0">
+      <c r="D116">
         <v>26237</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116">
         <v>1593</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="0">
+      <c r="B117">
         <v>1451093</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117">
         <v>87499</v>
       </c>
-      <c r="D117" s="0">
+      <c r="D117">
         <v>23659</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117">
         <v>1225</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="0">
+      <c r="B118">
         <v>1474752</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118">
         <v>88724</v>
       </c>
-      <c r="D118" s="0">
+      <c r="D118">
         <v>19014</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118">
         <v>844</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="0">
+      <c r="B119">
         <v>1493766</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119">
         <v>89568</v>
       </c>
-      <c r="D119" s="0">
+      <c r="D119">
         <v>21827</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119">
         <v>846</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="0">
+      <c r="B120">
         <v>1515593</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120">
         <v>90414</v>
       </c>
-      <c r="D120" s="0">
+      <c r="D120">
         <v>20977</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120">
         <v>1520</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="0">
+      <c r="B121">
         <v>1536570</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121">
         <v>91934</v>
       </c>
-      <c r="D121" s="0">
+      <c r="D121">
         <v>23070</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121">
         <v>1477</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="0">
+      <c r="B122">
         <v>1559640</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122">
         <v>93411</v>
       </c>
-      <c r="D122" s="0">
+      <c r="D122">
         <v>25733</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122">
         <v>1311</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="0">
+      <c r="B123">
         <v>1585373</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123">
         <v>94722</v>
       </c>
-      <c r="D123" s="0">
+      <c r="D123">
         <v>23799</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123">
         <v>1288</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="0">
+      <c r="B124">
         <v>1609172</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124">
         <v>96010</v>
       </c>
-      <c r="D124" s="0">
+      <c r="D124">
         <v>22268</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124">
         <v>1050</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="0">
+      <c r="B125">
         <v>1631440</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125">
         <v>97060</v>
       </c>
-      <c r="D125" s="0">
+      <c r="D125">
         <v>20031</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125">
         <v>620</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="0">
+      <c r="B126">
         <v>1651471</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126">
         <v>97680</v>
       </c>
-      <c r="D126" s="0">
+      <c r="D126">
         <v>19100</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126">
         <v>510</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>130</v>
       </c>
-      <c r="B127" s="0">
+      <c r="B127">
         <v>1670571</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127">
         <v>98190</v>
       </c>
-      <c r="D127" s="0">
+      <c r="D127">
         <v>18896</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127">
         <v>747</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="0">
+      <c r="B128">
         <v>1689467</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128">
         <v>98937</v>
       </c>
-      <c r="D128" s="0">
+      <c r="D128">
         <v>18744</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128">
         <v>1485</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>132</v>
       </c>
-      <c r="B129" s="0">
+      <c r="B129">
         <v>1708211</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129">
         <v>100422</v>
       </c>
-      <c r="D129" s="0">
+      <c r="D129">
         <v>22512</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129">
         <v>1200</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="0">
+      <c r="B130">
         <v>1730723</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130">
         <v>101622</v>
       </c>
-      <c r="D130" s="0">
+      <c r="D130">
         <v>24548</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130">
         <v>1190</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="0">
+      <c r="B131">
         <v>1755271</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131">
         <v>102812</v>
       </c>
-      <c r="D131" s="0">
+      <c r="D131">
         <v>23397</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131">
         <v>963</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="0">
+      <c r="B132">
         <v>1778668</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132">
         <v>103775</v>
       </c>
-      <c r="D132" s="0">
+      <c r="D132">
         <v>20634</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132">
         <v>604</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>136</v>
       </c>
-      <c r="B133" s="0">
+      <c r="B133">
         <v>1799302</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133">
         <v>104379</v>
       </c>
-      <c r="D133" s="0">
+      <c r="D133">
         <v>21897</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133">
         <v>734</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="0">
+      <c r="B134">
         <v>1821199</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134">
         <v>105113</v>
       </c>
-      <c r="D134" s="0">
+      <c r="D134">
         <v>20791</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134">
         <v>1082</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>138</v>
       </c>
-      <c r="B135" s="0">
+      <c r="B135">
         <v>1841990</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135">
         <v>106195</v>
       </c>
-      <c r="D135" s="0">
+      <c r="D135">
         <v>19987</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135">
         <v>989</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>139</v>
       </c>
-      <c r="B136" s="0">
+      <c r="B136">
         <v>1861977</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136">
         <v>107184</v>
       </c>
-      <c r="D136" s="0">
+      <c r="D136">
         <v>21616</v>
       </c>
-      <c r="E136" s="0">
+      <c r="E136">
         <v>1008</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>140</v>
       </c>
-      <c r="B137" s="0">
+      <c r="B137">
         <v>1883593</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137">
         <v>108192</v>
       </c>
-      <c r="D137" s="0">
+      <c r="D137">
         <v>28709</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137">
         <v>1112</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="0">
+      <c r="B138">
         <v>1912302</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138">
         <v>109304</v>
       </c>
-      <c r="D138" s="0">
+      <c r="D138">
         <v>22516</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138">
         <v>728</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="0">
+      <c r="B139">
         <v>1934818</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139">
         <v>110032</v>
       </c>
-      <c r="D139" s="0">
+      <c r="D139">
         <v>18616</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139">
         <v>390</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="0">
+      <c r="B140">
         <v>1953434</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140">
         <v>110422</v>
       </c>
-      <c r="D140" s="0">
+      <c r="D140">
         <v>18207</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140">
         <v>722</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>144</v>
       </c>
-      <c r="B141" s="0">
+      <c r="B141">
         <v>1971641</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141">
         <v>111144</v>
       </c>
-      <c r="D141" s="0">
+      <c r="D141">
         <v>18805</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141">
         <v>1030</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>145</v>
       </c>
-      <c r="B142" s="0">
+      <c r="B142">
         <v>1990446</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142">
         <v>112174</v>
       </c>
-      <c r="D142" s="0">
+      <c r="D142">
         <v>22852</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142">
         <v>929</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>146</v>
       </c>
-      <c r="B143" s="0">
+      <c r="B143">
         <v>2013298</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143">
         <v>113103</v>
       </c>
-      <c r="D143" s="0">
+      <c r="D143">
         <v>23202</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143">
         <v>877</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>147</v>
       </c>
-      <c r="B144" s="0">
+      <c r="B144">
         <v>2036500</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144">
         <v>113980</v>
       </c>
-      <c r="D144" s="0">
+      <c r="D144">
         <v>25493</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144">
         <v>779</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>148</v>
       </c>
-      <c r="B145" s="0">
+      <c r="B145">
         <v>2061993</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145">
         <v>114759</v>
       </c>
-      <c r="D145" s="0">
+      <c r="D145">
         <v>25334</v>
       </c>
-      <c r="E145" s="0">
+      <c r="E145">
         <v>692</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>149</v>
       </c>
-      <c r="B146" s="0">
+      <c r="B146">
         <v>2087327</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146">
         <v>115451</v>
       </c>
-      <c r="D146" s="0">
+      <c r="D146">
         <v>19130</v>
       </c>
-      <c r="E146" s="0">
+      <c r="E146">
         <v>317</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>150</v>
       </c>
-      <c r="B147" s="0">
+      <c r="B147">
         <v>2106457</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147">
         <v>115768</v>
       </c>
-      <c r="D147" s="0">
+      <c r="D147">
         <v>20117</v>
       </c>
-      <c r="E147" s="0">
+      <c r="E147">
         <v>448</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>151</v>
       </c>
-      <c r="B148" s="0">
+      <c r="B148">
         <v>2126574</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148">
         <v>116216</v>
       </c>
-      <c r="D148" s="0">
+      <c r="D148">
         <v>24885</v>
       </c>
-      <c r="E148" s="0">
+      <c r="E148">
         <v>769</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="0">
+      <c r="B149">
         <v>2151459</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149">
         <v>116985</v>
       </c>
-      <c r="D149" s="0">
+      <c r="D149">
         <v>25655</v>
       </c>
-      <c r="E149" s="0">
+      <c r="E149">
         <v>761</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="0">
+      <c r="B150">
         <v>2177114</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150">
         <v>117746</v>
       </c>
-      <c r="D150" s="0">
+      <c r="D150">
         <v>28059</v>
       </c>
-      <c r="E150" s="0">
+      <c r="E150">
         <v>727</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="0">
+      <c r="B151">
         <v>2205173</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151">
         <v>118473</v>
       </c>
-      <c r="D151" s="0">
+      <c r="D151">
         <v>30836</v>
       </c>
-      <c r="E151" s="0">
+      <c r="E151">
         <v>698</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="0">
+      <c r="B152">
         <v>2236009</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152">
         <v>119171</v>
       </c>
-      <c r="D152" s="0">
+      <c r="D152">
         <v>32025</v>
       </c>
-      <c r="E152" s="0">
+      <c r="E152">
         <v>546</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="0">
+      <c r="B153">
         <v>2268034</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153">
         <v>119717</v>
       </c>
-      <c r="D153" s="0">
+      <c r="D153">
         <v>26379</v>
       </c>
-      <c r="E153" s="0">
+      <c r="E153">
         <v>257</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="0">
+      <c r="B154">
         <v>2294413</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154">
         <v>119974</v>
       </c>
-      <c r="D154" s="0">
+      <c r="D154">
         <v>30466</v>
       </c>
-      <c r="E154" s="0">
+      <c r="E154">
         <v>360</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="0">
+      <c r="B155">
         <v>2324879</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155">
         <v>120334</v>
       </c>
-      <c r="D155" s="0">
+      <c r="D155">
         <v>35060</v>
       </c>
-      <c r="E155" s="0">
+      <c r="E155">
         <v>833</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="0">
+      <c r="B156">
         <v>2359939</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156">
         <v>121167</v>
       </c>
-      <c r="D156" s="0">
+      <c r="D156">
         <v>36989</v>
       </c>
-      <c r="E156" s="0">
+      <c r="E156">
         <v>767</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="0">
+      <c r="B157">
         <v>2396928</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157">
         <v>121934</v>
       </c>
-      <c r="D157" s="0">
+      <c r="D157">
         <v>41173</v>
       </c>
-      <c r="E157" s="0">
+      <c r="E157">
         <v>2466</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>161</v>
       </c>
-      <c r="B158" s="0">
+      <c r="B158">
         <v>2438101</v>
       </c>
-      <c r="C158" s="0">
+      <c r="C158">
         <v>124400</v>
       </c>
-      <c r="D158" s="0">
+      <c r="D158">
         <v>45528</v>
       </c>
-      <c r="E158" s="0">
+      <c r="E158">
         <v>633</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="0">
+      <c r="B159">
         <v>2483629</v>
       </c>
-      <c r="C159" s="0">
+      <c r="C159">
         <v>125033</v>
       </c>
-      <c r="D159" s="0">
+      <c r="D159">
         <v>42299</v>
       </c>
-      <c r="E159" s="0">
+      <c r="E159">
         <v>511</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="0">
+      <c r="B160">
         <v>2525928</v>
       </c>
-      <c r="C160" s="0">
+      <c r="C160">
         <v>125544</v>
       </c>
-      <c r="D160" s="0">
+      <c r="D160">
         <v>39508</v>
       </c>
-      <c r="E160" s="0">
+      <c r="E160">
         <v>271</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="0">
+      <c r="B161">
         <v>2565436</v>
       </c>
-      <c r="C161" s="0">
+      <c r="C161">
         <v>125815</v>
       </c>
-      <c r="D161" s="0">
+      <c r="D161">
         <v>39496</v>
       </c>
-      <c r="E161" s="0">
+      <c r="E161">
         <v>347</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="0">
+      <c r="B162">
         <v>2604932</v>
       </c>
-      <c r="C162" s="0">
+      <c r="C162">
         <v>126162</v>
       </c>
-      <c r="D162" s="0">
+      <c r="D162">
         <v>48389</v>
       </c>
-      <c r="E162" s="0">
+      <c r="E162">
         <v>1300</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="0">
+      <c r="B163">
         <v>2653321</v>
       </c>
-      <c r="C163" s="0">
+      <c r="C163">
         <v>127462</v>
       </c>
-      <c r="D163" s="0">
+      <c r="D163">
         <v>49975</v>
       </c>
-      <c r="E163" s="0">
+      <c r="E163">
         <v>642</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="0">
+      <c r="B164">
         <v>2703296</v>
       </c>
-      <c r="C164" s="0">
+      <c r="C164">
         <v>128104</v>
       </c>
-      <c r="D164" s="0">
+      <c r="D164">
         <v>55559</v>
       </c>
-      <c r="E164" s="0">
+      <c r="E164">
         <v>723</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="0">
+      <c r="B165">
         <v>2758855</v>
       </c>
-      <c r="C165" s="0">
+      <c r="C165">
         <v>128827</v>
       </c>
-      <c r="D165" s="0">
+      <c r="D165">
         <v>57154</v>
       </c>
-      <c r="E165" s="0">
+      <c r="E165">
         <v>591</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>169</v>
       </c>
-      <c r="B166" s="0">
+      <c r="B166">
         <v>2816009</v>
       </c>
-      <c r="C166" s="0">
+      <c r="C166">
         <v>129418</v>
       </c>
-      <c r="D166" s="0">
+      <c r="D166">
         <v>50006</v>
       </c>
-      <c r="E166" s="0">
+      <c r="E166">
         <v>261</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>170</v>
       </c>
-      <c r="B167" s="0">
+      <c r="B167">
         <v>2866015</v>
       </c>
-      <c r="C167" s="0">
+      <c r="C167">
         <v>129679</v>
       </c>
-      <c r="D167" s="0">
+      <c r="D167">
         <v>44767</v>
       </c>
-      <c r="E167" s="0">
+      <c r="E167">
         <v>262</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>171</v>
       </c>
-      <c r="B168" s="0">
+      <c r="B168">
         <v>2910782</v>
       </c>
-      <c r="C168" s="0">
+      <c r="C168">
         <v>129941</v>
       </c>
-      <c r="D168" s="0">
+      <c r="D168">
         <v>47316</v>
       </c>
-      <c r="E168" s="0">
+      <c r="E168">
         <v>391</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>172</v>
       </c>
-      <c r="B169" s="0">
+      <c r="B169">
         <v>2958098</v>
       </c>
-      <c r="C169" s="0">
+      <c r="C169">
         <v>130332</v>
       </c>
-      <c r="D169" s="0">
+      <c r="D169">
         <v>54084</v>
       </c>
-      <c r="E169" s="0">
+      <c r="E169">
         <v>958</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="0">
+      <c r="B170">
         <v>3012182</v>
       </c>
-      <c r="C170" s="0">
+      <c r="C170">
         <v>131290</v>
       </c>
-      <c r="D170" s="0">
+      <c r="D170">
         <v>59455</v>
       </c>
-      <c r="E170" s="0">
+      <c r="E170">
         <v>948</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="0">
+      <c r="B171">
         <v>3071637</v>
       </c>
-      <c r="C171" s="0">
+      <c r="C171">
         <v>132238</v>
       </c>
-      <c r="D171" s="0">
+      <c r="D171">
         <v>59889</v>
       </c>
-      <c r="E171" s="0">
+      <c r="E171">
         <v>841</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="0">
+      <c r="B172">
         <v>3131526</v>
       </c>
-      <c r="C172" s="0">
+      <c r="C172">
         <v>133079</v>
       </c>
-      <c r="D172" s="0">
+      <c r="D172">
         <v>68227</v>
       </c>
-      <c r="E172" s="0">
+      <c r="E172">
         <v>828</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>176</v>
       </c>
-      <c r="B173" s="0">
+      <c r="B173">
         <v>3199753</v>
       </c>
-      <c r="C173" s="0">
+      <c r="C173">
         <v>133907</v>
       </c>
-      <c r="D173" s="0">
+      <c r="D173">
         <v>60721</v>
       </c>
-      <c r="E173" s="0">
+      <c r="E173">
         <v>675</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="0">
+      <c r="B174">
         <v>3260474</v>
       </c>
-      <c r="C174" s="0">
+      <c r="C174">
         <v>134582</v>
       </c>
-      <c r="D174" s="0">
+      <c r="D174">
         <v>57805</v>
       </c>
-      <c r="E174" s="0">
+      <c r="E174">
         <v>395</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>178</v>
       </c>
-      <c r="B175" s="0">
+      <c r="B175">
         <v>3318279</v>
       </c>
-      <c r="C175" s="0">
+      <c r="C175">
         <v>134977</v>
       </c>
-      <c r="D175" s="0">
+      <c r="D175">
         <v>61567</v>
       </c>
-      <c r="E175" s="0">
+      <c r="E175">
         <v>425</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="0">
+      <c r="B176">
         <v>3379846</v>
       </c>
-      <c r="C176" s="0">
+      <c r="C176">
         <v>135402</v>
       </c>
-      <c r="D176" s="0">
+      <c r="D176">
         <v>65602</v>
       </c>
-      <c r="E176" s="0">
+      <c r="E176">
         <v>954</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>180</v>
       </c>
-      <c r="B177" s="0">
+      <c r="B177">
         <v>3445448</v>
       </c>
-      <c r="C177" s="0">
+      <c r="C177">
         <v>136356</v>
       </c>
-      <c r="D177" s="0">
+      <c r="D177">
         <v>68342</v>
       </c>
-      <c r="E177" s="0">
+      <c r="E177">
         <v>971</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>181</v>
       </c>
-      <c r="B178" s="0">
+      <c r="B178">
         <v>3513790</v>
       </c>
-      <c r="C178" s="0">
+      <c r="C178">
         <v>137327</v>
       </c>
-      <c r="D178" s="0">
+      <c r="D178">
         <v>75687</v>
       </c>
-      <c r="E178" s="0">
+      <c r="E178">
         <v>958</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>182</v>
       </c>
-      <c r="B179" s="0">
+      <c r="B179">
         <v>3589477</v>
       </c>
-      <c r="C179" s="0">
+      <c r="C179">
         <v>138285</v>
       </c>
-      <c r="D179" s="0">
+      <c r="D179">
         <v>70923</v>
       </c>
-      <c r="E179" s="0">
+      <c r="E179">
         <v>901</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>183</v>
       </c>
-      <c r="B180" s="0">
+      <c r="B180">
         <v>3660400</v>
       </c>
-      <c r="C180" s="0">
+      <c r="C180">
         <v>139186</v>
       </c>
-      <c r="D180" s="0">
+      <c r="D180">
         <v>62451</v>
       </c>
-      <c r="E180" s="0">
+      <c r="E180">
         <v>775</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>184</v>
       </c>
-      <c r="B181" s="0">
+      <c r="B181">
         <v>3722851</v>
       </c>
-      <c r="C181" s="0">
+      <c r="C181">
         <v>139961</v>
       </c>
-      <c r="D181" s="0">
+      <c r="D181">
         <v>62275</v>
       </c>
-      <c r="E181" s="0">
+      <c r="E181">
         <v>412</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>185</v>
       </c>
-      <c r="B182" s="0">
+      <c r="B182">
         <v>3785126</v>
       </c>
-      <c r="C182" s="0">
+      <c r="C182">
         <v>140373</v>
       </c>
-      <c r="D182" s="0">
+      <c r="D182">
         <v>59888</v>
       </c>
-      <c r="E182" s="0">
+      <c r="E182">
         <v>531</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>186</v>
       </c>
-      <c r="B183" s="0">
+      <c r="B183">
         <v>3845014</v>
       </c>
-      <c r="C183" s="0">
+      <c r="C183">
         <v>140904</v>
       </c>
-      <c r="D183" s="0">
+      <c r="D183">
         <v>65277</v>
       </c>
-      <c r="E183" s="0">
+      <c r="E183">
         <v>1127</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="0">
+      <c r="B184">
         <v>3910291</v>
       </c>
-      <c r="C184" s="0">
+      <c r="C184">
         <v>142031</v>
       </c>
-      <c r="D184" s="0">
+      <c r="D184">
         <v>69739</v>
       </c>
-      <c r="E184" s="0">
+      <c r="E184">
         <v>1136</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>188</v>
       </c>
-      <c r="B185" s="0">
+      <c r="B185">
         <v>3980030</v>
       </c>
-      <c r="C185" s="0">
+      <c r="C185">
         <v>143167</v>
       </c>
-      <c r="D185" s="0">
+      <c r="D185">
         <v>70006</v>
       </c>
-      <c r="E185" s="0">
+      <c r="E185">
         <v>1116</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>189</v>
       </c>
-      <c r="B186" s="0">
+      <c r="B186">
         <v>4050036</v>
       </c>
-      <c r="C186" s="0">
+      <c r="C186">
         <v>144283</v>
       </c>
-      <c r="D186" s="0">
+      <c r="D186">
         <v>73525</v>
       </c>
-      <c r="E186" s="0">
+      <c r="E186">
         <v>1146</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>190</v>
       </c>
-      <c r="B187" s="0">
+      <c r="B187">
         <v>4123561</v>
       </c>
-      <c r="C187" s="0">
+      <c r="C187">
         <v>145429</v>
       </c>
-      <c r="D187" s="0">
+      <c r="D187">
         <v>66776</v>
       </c>
-      <c r="E187" s="0">
+      <c r="E187">
         <v>884</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>191</v>
       </c>
-      <c r="B188" s="0">
+      <c r="B188">
         <v>4190337</v>
       </c>
-      <c r="C188" s="0">
+      <c r="C188">
         <v>146313</v>
       </c>
-      <c r="D188" s="0">
+      <c r="D188">
         <v>54217</v>
       </c>
-      <c r="E188" s="0">
+      <c r="E188">
         <v>440</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>192</v>
       </c>
-      <c r="B189" s="0">
+      <c r="B189">
         <v>4244554</v>
       </c>
-      <c r="C189" s="0">
+      <c r="C189">
         <v>146753</v>
       </c>
-      <c r="D189" s="0">
+      <c r="D189">
         <v>59181</v>
       </c>
-      <c r="E189" s="0">
+      <c r="E189">
         <v>1696</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>193</v>
       </c>
-      <c r="B190" s="0">
+      <c r="B190">
         <v>4303735</v>
       </c>
-      <c r="C190" s="0">
+      <c r="C190">
         <v>148449</v>
       </c>
-      <c r="D190" s="0">
+      <c r="D190">
         <v>63116</v>
       </c>
-      <c r="E190" s="0">
+      <c r="E190">
         <v>1327</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>194</v>
       </c>
-      <c r="B191" s="0">
+      <c r="B191">
         <v>4366851</v>
       </c>
-      <c r="C191" s="0">
+      <c r="C191">
         <v>149776</v>
       </c>
-      <c r="D191" s="0">
+      <c r="D191">
         <v>66616</v>
       </c>
-      <c r="E191" s="0">
+      <c r="E191">
         <v>1396</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>195</v>
       </c>
-      <c r="B192" s="0">
+      <c r="B192">
         <v>4433467</v>
       </c>
-      <c r="C192" s="0">
+      <c r="C192">
         <v>151172</v>
       </c>
-      <c r="D192" s="0">
+      <c r="D192">
         <v>69114</v>
       </c>
-      <c r="E192" s="0">
+      <c r="E192">
         <v>1261</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>196</v>
       </c>
-      <c r="B193" s="0">
+      <c r="B193">
         <v>4502581</v>
       </c>
-      <c r="C193" s="0">
+      <c r="C193">
         <v>152433</v>
       </c>
-      <c r="D193" s="0">
+      <c r="D193">
         <v>69088</v>
       </c>
-      <c r="E193" s="0">
+      <c r="E193">
         <v>1429</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>197</v>
       </c>
-      <c r="B194" s="0">
+      <c r="B194">
         <v>4571669</v>
       </c>
-      <c r="C194" s="0">
+      <c r="C194">
         <v>153862</v>
       </c>
-      <c r="D194" s="0">
+      <c r="D194">
         <v>56828</v>
       </c>
-      <c r="E194" s="0">
+      <c r="E194">
         <v>1055</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>198</v>
       </c>
-      <c r="B195" s="0">
+      <c r="B195">
         <v>4628497</v>
       </c>
-      <c r="C195" s="0">
+      <c r="C195">
         <v>154917</v>
       </c>
-      <c r="D195" s="0">
+      <c r="D195">
         <v>50794</v>
       </c>
-      <c r="E195" s="0">
+      <c r="E195">
         <v>420</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>199</v>
       </c>
-      <c r="B196" s="0">
+      <c r="B196">
         <v>4679291</v>
       </c>
-      <c r="C196" s="0">
+      <c r="C196">
         <v>155337</v>
       </c>
-      <c r="D196" s="0">
+      <c r="D196">
         <v>47484</v>
       </c>
-      <c r="E196" s="0">
+      <c r="E196">
         <v>608</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>200</v>
       </c>
-      <c r="B197" s="0">
+      <c r="B197">
         <v>4726775</v>
       </c>
-      <c r="C197" s="0">
+      <c r="C197">
         <v>155945</v>
       </c>
-      <c r="D197" s="0">
+      <c r="D197">
         <v>53549</v>
       </c>
-      <c r="E197" s="0">
+      <c r="E197">
         <v>1356</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>201</v>
       </c>
-      <c r="B198" s="0">
+      <c r="B198">
         <v>4780324</v>
       </c>
-      <c r="C198" s="0">
+      <c r="C198">
         <v>157301</v>
       </c>
-      <c r="D198" s="0">
+      <c r="D198">
         <v>53723</v>
       </c>
-      <c r="E198" s="0">
+      <c r="E198">
         <v>1253</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="0">
+      <c r="B199">
         <v>4834047</v>
       </c>
-      <c r="C199" s="0">
+      <c r="C199">
         <v>158554</v>
       </c>
-      <c r="D199" s="0">
+      <c r="D199">
         <v>57514</v>
       </c>
-      <c r="E199" s="0">
+      <c r="E199">
         <v>1071</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>203</v>
       </c>
-      <c r="B200" s="0">
+      <c r="B200">
         <v>4891561</v>
       </c>
-      <c r="C200" s="0">
+      <c r="C200">
         <v>159625</v>
       </c>
-      <c r="D200" s="0">
+      <c r="D200">
         <v>61157</v>
       </c>
-      <c r="E200" s="0">
+      <c r="E200">
         <v>1356</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>204</v>
       </c>
-      <c r="B201" s="0">
+      <c r="B201">
         <v>4952718</v>
       </c>
-      <c r="C201" s="0">
+      <c r="C201">
         <v>160981</v>
       </c>
-      <c r="D201" s="0">
+      <c r="D201">
         <v>55240</v>
       </c>
-      <c r="E201" s="0">
+      <c r="E201">
         <v>966</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>205</v>
       </c>
-      <c r="B202" s="0">
+      <c r="B202">
         <v>5007958</v>
       </c>
-      <c r="C202" s="0">
+      <c r="C202">
         <v>161947</v>
       </c>
-      <c r="D202" s="0">
+      <c r="D202">
         <v>48480</v>
       </c>
-      <c r="E202" s="0">
+      <c r="E202">
         <v>539</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>206</v>
       </c>
-      <c r="B203" s="0">
+      <c r="B203">
         <v>5056438</v>
       </c>
-      <c r="C203" s="0">
+      <c r="C203">
         <v>162486</v>
       </c>
-      <c r="D203" s="0">
+      <c r="D203">
         <v>47173</v>
       </c>
-      <c r="E203" s="0">
+      <c r="E203">
         <v>537</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>207</v>
       </c>
-      <c r="B204" s="0">
+      <c r="B204">
         <v>5103611</v>
       </c>
-      <c r="C204" s="0">
+      <c r="C204">
         <v>163023</v>
       </c>
-      <c r="D204" s="0">
+      <c r="D204">
         <v>53357</v>
       </c>
-      <c r="E204" s="0">
+      <c r="E204">
         <v>1451</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>208</v>
       </c>
-      <c r="B205" s="0">
+      <c r="B205">
         <v>5156968</v>
       </c>
-      <c r="C205" s="0">
+      <c r="C205">
         <v>164474</v>
       </c>
-      <c r="D205" s="0">
+      <c r="D205">
         <v>54278</v>
       </c>
-      <c r="E205" s="0">
+      <c r="E205">
         <v>1478</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>209</v>
       </c>
-      <c r="B206" s="0">
+      <c r="B206">
         <v>5211246</v>
       </c>
-      <c r="C206" s="0">
+      <c r="C206">
         <v>165952</v>
       </c>
-      <c r="D206" s="0">
+      <c r="D206">
         <v>54061</v>
       </c>
-      <c r="E206" s="0">
+      <c r="E206">
         <v>1213</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>210</v>
       </c>
-      <c r="B207" s="0">
+      <c r="B207">
         <v>5265307</v>
       </c>
-      <c r="C207" s="0">
+      <c r="C207">
         <v>167165</v>
       </c>
-      <c r="D207" s="0">
+      <c r="D207">
         <v>59477</v>
       </c>
-      <c r="E207" s="0">
+      <c r="E207">
         <v>1176</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>211</v>
       </c>
-      <c r="B208" s="0">
+      <c r="B208">
         <v>5324784</v>
       </c>
-      <c r="C208" s="0">
+      <c r="C208">
         <v>168341</v>
       </c>
-      <c r="D208" s="0">
+      <c r="D208">
         <v>50743</v>
       </c>
-      <c r="E208" s="0">
+      <c r="E208">
         <v>1059</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>212</v>
       </c>
-      <c r="B209" s="0">
+      <c r="B209">
         <v>5375527</v>
       </c>
-      <c r="C209" s="0">
+      <c r="C209">
         <v>169400</v>
       </c>
-      <c r="D209" s="0">
+      <c r="D209">
         <v>42137</v>
       </c>
-      <c r="E209" s="0">
+      <c r="E209">
         <v>514</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>213</v>
       </c>
-      <c r="B210" s="0">
+      <c r="B210">
         <v>5417664</v>
       </c>
-      <c r="C210" s="0">
+      <c r="C210">
         <v>169914</v>
       </c>
-      <c r="D210" s="0">
+      <c r="D210">
         <v>37523</v>
       </c>
-      <c r="E210" s="0">
+      <c r="E210">
         <v>535</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>214</v>
       </c>
-      <c r="B211" s="0">
+      <c r="B211">
         <v>5455187</v>
       </c>
-      <c r="C211" s="0">
+      <c r="C211">
         <v>170449</v>
       </c>
-      <c r="D211" s="0">
+      <c r="D211">
         <v>43233</v>
       </c>
-      <c r="E211" s="0">
+      <c r="E211">
         <v>1349</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>215</v>
       </c>
-      <c r="B212" s="0">
+      <c r="B212">
         <v>5498420</v>
       </c>
-      <c r="C212" s="0">
+      <c r="C212">
         <v>171798</v>
       </c>
-      <c r="D212" s="0">
+      <c r="D212">
         <v>43013</v>
       </c>
-      <c r="E212" s="0">
+      <c r="E212">
         <v>1295</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="0">
+      <c r="B213">
         <v>5541433</v>
       </c>
-      <c r="C213" s="0">
+      <c r="C213">
         <v>173093</v>
       </c>
-      <c r="D213" s="0">
+      <c r="D213">
         <v>46029</v>
       </c>
-      <c r="E213" s="0">
+      <c r="E213">
         <v>1043</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>217</v>
       </c>
-      <c r="B214" s="0">
+      <c r="B214">
         <v>5587462</v>
       </c>
-      <c r="C214" s="0">
+      <c r="C214">
         <v>174136</v>
       </c>
-      <c r="D214" s="0">
+      <c r="D214">
         <v>49029</v>
       </c>
-      <c r="E214" s="0">
+      <c r="E214">
         <v>1161</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>218</v>
       </c>
-      <c r="B215" s="0">
+      <c r="B215">
         <v>5636491</v>
       </c>
-      <c r="C215" s="0">
+      <c r="C215">
         <v>175297</v>
       </c>
-      <c r="D215" s="0">
+      <c r="D215">
         <v>45026</v>
       </c>
-      <c r="E215" s="0">
+      <c r="E215">
         <v>950</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>219</v>
       </c>
-      <c r="B216" s="0">
+      <c r="B216">
         <v>5681517</v>
       </c>
-      <c r="C216" s="0">
+      <c r="C216">
         <v>176247</v>
       </c>
-      <c r="D216" s="0">
+      <c r="D216">
         <v>32333</v>
       </c>
-      <c r="E216" s="0">
+      <c r="E216">
         <v>446</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="0">
+      <c r="B217">
         <v>5713850</v>
       </c>
-      <c r="C217" s="0">
+      <c r="C217">
         <v>176693</v>
       </c>
-      <c r="D217" s="0">
+      <c r="D217">
         <v>40404</v>
       </c>
-      <c r="E217" s="0">
+      <c r="E217">
         <v>504</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>221</v>
       </c>
-      <c r="B218" s="0">
+      <c r="B218">
         <v>5754254</v>
       </c>
-      <c r="C218" s="0">
+      <c r="C218">
         <v>177197</v>
       </c>
-      <c r="D218" s="0">
+      <c r="D218">
         <v>39183</v>
       </c>
-      <c r="E218" s="0">
+      <c r="E218">
         <v>1213</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="0">
+      <c r="B219">
         <v>5793437</v>
       </c>
-      <c r="C219" s="0">
+      <c r="C219">
         <v>178410</v>
       </c>
-      <c r="D219" s="0">
+      <c r="D219">
         <v>45319</v>
       </c>
-      <c r="E219" s="0">
+      <c r="E219">
         <v>1193</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>223</v>
       </c>
-      <c r="B220" s="0">
+      <c r="B220">
         <v>5838756</v>
       </c>
-      <c r="C220" s="0">
+      <c r="C220">
         <v>179603</v>
       </c>
-      <c r="D220" s="0">
+      <c r="D220">
         <v>45610</v>
       </c>
-      <c r="E220" s="0">
+      <c r="E220">
         <v>1126</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>224</v>
       </c>
-      <c r="B221" s="0">
+      <c r="B221">
         <v>5884366</v>
       </c>
-      <c r="C221" s="0">
+      <c r="C221">
         <v>180729</v>
       </c>
-      <c r="D221" s="0">
+      <c r="D221">
         <v>46564</v>
       </c>
-      <c r="E221" s="0">
+      <c r="E221">
         <v>1010</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>225</v>
       </c>
-      <c r="B222" s="0">
+      <c r="B222">
         <v>5930930</v>
       </c>
-      <c r="C222" s="0">
+      <c r="C222">
         <v>181739</v>
       </c>
-      <c r="D222" s="0">
+      <c r="D222">
         <v>44610</v>
       </c>
-      <c r="E222" s="0">
+      <c r="E222">
         <v>871</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>226</v>
       </c>
-      <c r="B223" s="0">
+      <c r="B223">
         <v>5975540</v>
       </c>
-      <c r="C223" s="0">
+      <c r="C223">
         <v>182610</v>
       </c>
-      <c r="D223" s="0">
+      <c r="D223">
         <v>33430</v>
       </c>
-      <c r="E223" s="0">
+      <c r="E223">
         <v>374</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>227</v>
       </c>
-      <c r="B224" s="0">
+      <c r="B224">
         <v>6008970</v>
       </c>
-      <c r="C224" s="0">
+      <c r="C224">
         <v>182984</v>
       </c>
-      <c r="D224" s="0">
+      <c r="D224">
         <v>36485</v>
       </c>
-      <c r="E224" s="0">
+      <c r="E224">
         <v>488</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>228</v>
       </c>
-      <c r="B225" s="0">
+      <c r="B225">
         <v>6045455</v>
       </c>
-      <c r="C225" s="0">
+      <c r="C225">
         <v>183472</v>
       </c>
-      <c r="D225" s="0">
+      <c r="D225">
         <v>44049</v>
       </c>
-      <c r="E225" s="0">
+      <c r="E225">
         <v>1091</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>229</v>
       </c>
-      <c r="B226" s="0">
+      <c r="B226">
         <v>6089504</v>
       </c>
-      <c r="C226" s="0">
+      <c r="C226">
         <v>184563</v>
       </c>
-      <c r="D226" s="0">
+      <c r="D226">
         <v>32444</v>
       </c>
-      <c r="E226" s="0">
+      <c r="E226">
         <v>1076</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>230</v>
       </c>
-      <c r="B227" s="0">
+      <c r="B227">
         <v>6121948</v>
       </c>
-      <c r="C227" s="0">
+      <c r="C227">
         <v>185639</v>
       </c>
-      <c r="D227" s="0">
+      <c r="D227">
         <v>46394</v>
       </c>
-      <c r="E227" s="0">
+      <c r="E227">
         <v>1078</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>231</v>
       </c>
-      <c r="B228" s="0">
+      <c r="B228">
         <v>6168342</v>
       </c>
-      <c r="C228" s="0">
+      <c r="C228">
         <v>186717</v>
       </c>
-      <c r="D228" s="0">
+      <c r="D228">
         <v>52104</v>
       </c>
-      <c r="E228" s="0">
+      <c r="E228">
         <v>980</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>232</v>
       </c>
-      <c r="B229" s="0">
+      <c r="B229">
         <v>6220446</v>
       </c>
-      <c r="C229" s="0">
+      <c r="C229">
         <v>187697</v>
       </c>
-      <c r="D229" s="0">
+      <c r="D229">
         <v>42254</v>
       </c>
-      <c r="E229" s="0">
+      <c r="E229">
         <v>712</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>233</v>
       </c>
-      <c r="B230" s="0">
+      <c r="B230">
         <v>6262700</v>
       </c>
-      <c r="C230" s="0">
+      <c r="C230">
         <v>188409</v>
       </c>
-      <c r="D230" s="0">
+      <c r="D230">
         <v>29999</v>
       </c>
-      <c r="E230" s="0">
+      <c r="E230">
         <v>411</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>234</v>
       </c>
-      <c r="B231" s="0">
+      <c r="B231">
         <v>6292699</v>
       </c>
-      <c r="C231" s="0">
+      <c r="C231">
         <v>188820</v>
       </c>
-      <c r="D231" s="0">
+      <c r="D231">
         <v>25166</v>
       </c>
-      <c r="E231" s="0">
+      <c r="E231">
         <v>263</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>235</v>
       </c>
-      <c r="B232" s="0">
+      <c r="B232">
         <v>6317865</v>
       </c>
-      <c r="C232" s="0">
+      <c r="C232">
         <v>189083</v>
       </c>
-      <c r="D232" s="0">
+      <c r="D232">
         <v>28941</v>
       </c>
-      <c r="E232" s="0">
+      <c r="E232">
         <v>458</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>236</v>
       </c>
-      <c r="B233" s="0">
+      <c r="B233">
         <v>6346806</v>
       </c>
-      <c r="C233" s="0">
+      <c r="C233">
         <v>189541</v>
       </c>
-      <c r="D233" s="0">
+      <c r="D233">
         <v>33332</v>
       </c>
-      <c r="E233" s="0">
+      <c r="E233">
         <v>1175</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>237</v>
       </c>
-      <c r="B234" s="0">
+      <c r="B234">
         <v>6380138</v>
       </c>
-      <c r="C234" s="0">
+      <c r="C234">
         <v>190716</v>
       </c>
-      <c r="D234" s="0">
+      <c r="D234">
         <v>38060</v>
       </c>
-      <c r="E234" s="0">
+      <c r="E234">
         <v>915</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>238</v>
       </c>
-      <c r="B235" s="0">
+      <c r="B235">
         <v>6418198</v>
       </c>
-      <c r="C235" s="0">
+      <c r="C235">
         <v>191631</v>
       </c>
-      <c r="D235" s="0">
+      <c r="D235">
         <v>47568</v>
       </c>
-      <c r="E235" s="0">
+      <c r="E235">
         <v>1227</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>239</v>
       </c>
-      <c r="B236" s="0">
+      <c r="B236">
         <v>6465766</v>
       </c>
-      <c r="C236" s="0">
+      <c r="C236">
         <v>192858</v>
       </c>
-      <c r="D236" s="0">
+      <c r="D236">
         <v>39104</v>
       </c>
-      <c r="E236" s="0">
+      <c r="E236">
         <v>701</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>240</v>
       </c>
-      <c r="B237" s="0">
+      <c r="B237">
         <v>6504870</v>
       </c>
-      <c r="C237" s="0">
+      <c r="C237">
         <v>193559</v>
       </c>
-      <c r="D237" s="0">
+      <c r="D237">
         <v>33343</v>
       </c>
-      <c r="E237" s="0">
+      <c r="E237">
         <v>399</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>241</v>
       </c>
-      <c r="B238" s="0">
+      <c r="B238">
         <v>6538213</v>
       </c>
-      <c r="C238" s="0">
+      <c r="C238">
         <v>193958</v>
       </c>
-      <c r="D238" s="0">
+      <c r="D238">
         <v>36887</v>
       </c>
-      <c r="E238" s="0">
+      <c r="E238">
         <v>450</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>242</v>
       </c>
-      <c r="B239" s="0">
+      <c r="B239">
         <v>6575100</v>
       </c>
-      <c r="C239" s="0">
+      <c r="C239">
         <v>194408</v>
       </c>
-      <c r="D239" s="0">
+      <c r="D239">
         <v>39217</v>
       </c>
-      <c r="E239" s="0">
+      <c r="E239">
         <v>1281</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>243</v>
       </c>
-      <c r="B240" s="0">
+      <c r="B240">
         <v>6614317</v>
       </c>
-      <c r="C240" s="0">
+      <c r="C240">
         <v>195689</v>
       </c>
-      <c r="D240" s="0">
+      <c r="D240">
         <v>39268</v>
       </c>
-      <c r="E240" s="0">
+      <c r="E240">
         <v>997</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>244</v>
       </c>
-      <c r="B241" s="0">
+      <c r="B241">
         <v>6653585</v>
       </c>
-      <c r="C241" s="0">
+      <c r="C241">
         <v>196686</v>
       </c>
-      <c r="D241" s="0">
+      <c r="D241">
         <v>45310</v>
       </c>
-      <c r="E241" s="0">
+      <c r="E241">
         <v>849</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>245</v>
       </c>
-      <c r="B242" s="0">
+      <c r="B242">
         <v>6698895</v>
       </c>
-      <c r="C242" s="0">
+      <c r="C242">
         <v>197535</v>
       </c>
-      <c r="D242" s="0">
+      <c r="D242">
         <v>48887</v>
       </c>
-      <c r="E242" s="0">
+      <c r="E242">
         <v>949</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>246</v>
       </c>
-      <c r="B243" s="0">
+      <c r="B243">
         <v>6747782</v>
       </c>
-      <c r="C243" s="0">
+      <c r="C243">
         <v>198484</v>
       </c>
-      <c r="D243" s="0">
+      <c r="D243">
         <v>41811</v>
       </c>
-      <c r="E243" s="0">
+      <c r="E243">
         <v>670</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>247</v>
       </c>
-      <c r="B244" s="0">
+      <c r="B244">
         <v>6789593</v>
       </c>
-      <c r="C244" s="0">
+      <c r="C244">
         <v>199154</v>
       </c>
-      <c r="D244" s="0">
+      <c r="D244">
         <v>36356</v>
       </c>
-      <c r="E244" s="0">
+      <c r="E244">
         <v>213</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>248</v>
       </c>
-      <c r="B245" s="0">
+      <c r="B245">
         <v>6825949</v>
       </c>
-      <c r="C245" s="0">
+      <c r="C245">
         <v>199367</v>
       </c>
-      <c r="D245" s="0">
+      <c r="D245">
         <v>54950</v>
       </c>
-      <c r="E245" s="0">
+      <c r="E245">
         <v>430</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>249</v>
       </c>
-      <c r="B246" s="0">
+      <c r="B246">
         <v>6880899</v>
       </c>
-      <c r="C246" s="0">
+      <c r="C246">
         <v>199797</v>
       </c>
-      <c r="D246" s="0">
+      <c r="D246">
         <v>37391</v>
       </c>
-      <c r="E246" s="0">
+      <c r="E246">
         <v>941</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>250</v>
       </c>
-      <c r="B247" s="0">
+      <c r="B247">
         <v>6918290</v>
       </c>
-      <c r="C247" s="0">
+      <c r="C247">
         <v>200738</v>
       </c>
-      <c r="D247" s="0">
+      <c r="D247">
         <v>41551</v>
       </c>
-      <c r="E247" s="0">
+      <c r="E247">
         <v>1090</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>251</v>
       </c>
-      <c r="B248" s="0">
+      <c r="B248">
         <v>6959841</v>
       </c>
-      <c r="C248" s="0">
+      <c r="C248">
         <v>201828</v>
       </c>
-      <c r="D248" s="0">
+      <c r="D248">
         <v>45202</v>
       </c>
-      <c r="E248" s="0">
+      <c r="E248">
         <v>885</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>252</v>
       </c>
-      <c r="B249" s="0">
+      <c r="B249">
         <v>7005043</v>
       </c>
-      <c r="C249" s="0">
+      <c r="C249">
         <v>202713</v>
       </c>
-      <c r="D249" s="0">
+      <c r="D249">
         <v>54581</v>
       </c>
-      <c r="E249" s="0">
+      <c r="E249">
         <v>853</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>253</v>
       </c>
-      <c r="B250" s="0">
+      <c r="B250">
         <v>7059624</v>
       </c>
-      <c r="C250" s="0">
+      <c r="C250">
         <v>203566</v>
       </c>
-      <c r="D250" s="0">
+      <c r="D250">
         <v>42697</v>
       </c>
-      <c r="E250" s="0">
+      <c r="E250">
         <v>769</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>254</v>
       </c>
-      <c r="B251" s="0">
+      <c r="B251">
         <v>7102321</v>
       </c>
-      <c r="C251" s="0">
+      <c r="C251">
         <v>204335</v>
       </c>
-      <c r="D251" s="0">
+      <c r="D251">
         <v>37298</v>
       </c>
-      <c r="E251" s="0">
+      <c r="E251">
         <v>267</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>255</v>
       </c>
-      <c r="B252" s="0">
+      <c r="B252">
         <v>7139619</v>
       </c>
-      <c r="C252" s="0">
+      <c r="C252">
         <v>204602</v>
       </c>
-      <c r="D252" s="0">
+      <c r="D252">
         <v>37360</v>
       </c>
-      <c r="E252" s="0">
+      <c r="E252">
         <v>350</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>256</v>
       </c>
-      <c r="B253" s="0">
+      <c r="B253">
         <v>7176979</v>
       </c>
-      <c r="C253" s="0">
+      <c r="C253">
         <v>204952</v>
       </c>
-      <c r="D253" s="0">
+      <c r="D253">
         <v>43697</v>
       </c>
-      <c r="E253" s="0">
+      <c r="E253">
         <v>926</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>257</v>
       </c>
-      <c r="B254" s="0">
+      <c r="B254">
         <v>7220676</v>
       </c>
-      <c r="C254" s="0">
+      <c r="C254">
         <v>205878</v>
       </c>
-      <c r="D254" s="0">
+      <c r="D254">
         <v>42058</v>
       </c>
-      <c r="E254" s="0">
+      <c r="E254">
         <v>974</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>258</v>
       </c>
-      <c r="B255" s="0">
+      <c r="B255">
         <v>7262734</v>
       </c>
-      <c r="C255" s="0">
+      <c r="C255">
         <v>206852</v>
       </c>
-      <c r="D255" s="0">
+      <c r="D255">
         <v>46418</v>
       </c>
-      <c r="E255" s="0">
+      <c r="E255">
         <v>847</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>259</v>
       </c>
-      <c r="B256" s="0">
+      <c r="B256">
         <v>7309152</v>
       </c>
-      <c r="C256" s="0">
+      <c r="C256">
         <v>207699</v>
       </c>
-      <c r="D256" s="0">
-        <v>53411</v>
-      </c>
-      <c r="E256" s="0">
+      <c r="D256">
+        <v>53580</v>
+      </c>
+      <c r="E256">
         <v>865</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>260</v>
       </c>
-      <c r="B257" s="0">
-        <v>7362563</v>
-      </c>
-      <c r="C257" s="0">
+      <c r="B257">
+        <v>7362732</v>
+      </c>
+      <c r="C257">
         <v>208564</v>
       </c>
-      <c r="D257" s="0">
+      <c r="D257">
         <v>47779</v>
       </c>
-      <c r="E257" s="0">
+      <c r="E257">
         <v>709</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>261</v>
       </c>
-      <c r="B258" s="0">
-        <v>7410342</v>
-      </c>
-      <c r="C258" s="0">
+      <c r="B258">
+        <v>7410511</v>
+      </c>
+      <c r="C258">
         <v>209273</v>
       </c>
-      <c r="D258" s="0">
+      <c r="D258">
         <v>35063</v>
       </c>
-      <c r="E258" s="0">
+      <c r="E258">
         <v>333</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>262</v>
       </c>
-      <c r="B259" s="0">
-        <v>7445405</v>
-      </c>
-      <c r="C259" s="0">
+      <c r="B259">
+        <v>7445574</v>
+      </c>
+      <c r="C259">
         <v>209606</v>
       </c>
-      <c r="D259" s="0">
-        <v>62294</v>
-      </c>
-      <c r="E259" s="0">
+      <c r="D259">
+        <v>62382</v>
+      </c>
+      <c r="E259">
         <v>429</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>263</v>
       </c>
-      <c r="B260" s="0">
-        <v>7507699</v>
-      </c>
-      <c r="C260" s="0">
+      <c r="B260">
+        <v>7507956</v>
+      </c>
+      <c r="C260">
         <v>210035</v>
       </c>
-      <c r="D260" s="0">
-        <v>42864</v>
-      </c>
-      <c r="E260" s="0">
+      <c r="D260">
+        <v>42885</v>
+      </c>
+      <c r="E260">
         <v>721</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="0" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>264</v>
       </c>
-      <c r="B261" s="0">
-        <v>7550563</v>
-      </c>
-      <c r="C261" s="0">
+      <c r="B261">
+        <v>7550841</v>
+      </c>
+      <c r="C261">
         <v>210756</v>
       </c>
-      <c r="D261" s="0">
-        <v>52984</v>
-      </c>
-      <c r="E261" s="0">
+      <c r="D261">
+        <v>53015</v>
+      </c>
+      <c r="E261">
         <v>996</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="0" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>265</v>
       </c>
-      <c r="B262" s="0">
-        <v>7603547</v>
-      </c>
-      <c r="C262" s="0">
+      <c r="B262">
+        <v>7603856</v>
+      </c>
+      <c r="C262">
         <v>211752</v>
       </c>
-      <c r="D262" s="0">
+      <c r="D262">
         <v>56375</v>
       </c>
-      <c r="E262" s="0">
+      <c r="E262">
         <v>928</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>266</v>
       </c>
-      <c r="B263" s="0">
-        <v>7659922</v>
-      </c>
-      <c r="C263" s="0">
+      <c r="B263">
+        <v>7660231</v>
+      </c>
+      <c r="C263">
         <v>212680</v>
       </c>
-      <c r="D263" s="0">
+      <c r="D263">
         <v>58959</v>
       </c>
-      <c r="E263" s="0">
+      <c r="E263">
         <v>915</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="0" t="s">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>267</v>
       </c>
-      <c r="B264" s="0">
-        <v>7718881</v>
-      </c>
-      <c r="C264" s="0">
+      <c r="B264">
+        <v>7719190</v>
+      </c>
+      <c r="C264">
         <v>213595</v>
       </c>
-      <c r="D264" s="0">
-        <v>51586</v>
-      </c>
-      <c r="E264" s="0">
+      <c r="D264">
+        <v>51648</v>
+      </c>
+      <c r="E264">
         <v>592</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="0" t="s">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>268</v>
       </c>
-      <c r="B265" s="0">
-        <v>7770467</v>
-      </c>
-      <c r="C265" s="0">
+      <c r="B265">
+        <v>7770838</v>
+      </c>
+      <c r="C265">
         <v>214187</v>
       </c>
-      <c r="D265" s="0">
-        <v>44766</v>
-      </c>
-      <c r="E265" s="0">
+      <c r="D265">
+        <v>44783</v>
+      </c>
+      <c r="E265">
         <v>419</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="0" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>269</v>
       </c>
-      <c r="B266" s="0">
-        <v>7815233</v>
-      </c>
-      <c r="C266" s="0">
+      <c r="B266">
+        <v>7815621</v>
+      </c>
+      <c r="C266">
         <v>214606</v>
       </c>
-      <c r="D266" s="0">
-        <v>48006</v>
-      </c>
-      <c r="E266" s="0">
+      <c r="D266">
+        <v>48016</v>
+      </c>
+      <c r="E266">
         <v>351</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="0" t="s">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>270</v>
       </c>
-      <c r="B267" s="0">
-        <v>7863239</v>
-      </c>
-      <c r="C267" s="0">
+      <c r="B267">
+        <v>7863637</v>
+      </c>
+      <c r="C267">
         <v>214957</v>
       </c>
-      <c r="D267" s="0">
+      <c r="D267">
         <v>54359</v>
       </c>
-      <c r="E267" s="0">
+      <c r="E267">
         <v>826</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>271</v>
       </c>
-      <c r="B268" s="0">
-        <v>7917598</v>
-      </c>
-      <c r="C268" s="0">
+      <c r="B268">
+        <v>7917996</v>
+      </c>
+      <c r="C268">
         <v>215783</v>
       </c>
-      <c r="D268" s="0">
-        <v>59872</v>
-      </c>
-      <c r="E268" s="0">
+      <c r="D268">
+        <v>59893</v>
+      </c>
+      <c r="E268">
         <v>1009</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="0" t="s">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>272</v>
       </c>
-      <c r="B269" s="0">
-        <v>7977470</v>
-      </c>
-      <c r="C269" s="0">
+      <c r="B269">
+        <v>7977889</v>
+      </c>
+      <c r="C269">
         <v>216792</v>
       </c>
-      <c r="D269" s="0">
-        <v>65327</v>
-      </c>
-      <c r="E269" s="0">
+      <c r="D269">
+        <v>65340</v>
+      </c>
+      <c r="E269">
         <v>793</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="0" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>273</v>
       </c>
-      <c r="B270" s="0">
-        <v>8042797</v>
-      </c>
-      <c r="C270" s="0">
+      <c r="B270">
+        <v>8043229</v>
+      </c>
+      <c r="C270">
         <v>217585</v>
       </c>
-      <c r="D270" s="0">
-        <v>70464</v>
-      </c>
-      <c r="E270" s="0">
+      <c r="D270">
+        <v>70477</v>
+      </c>
+      <c r="E270">
         <v>891</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="0" t="s">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>274</v>
       </c>
-      <c r="B271" s="0">
-        <v>8113261</v>
-      </c>
-      <c r="C271" s="0">
+      <c r="B271">
+        <v>8113706</v>
+      </c>
+      <c r="C271">
         <v>218476</v>
       </c>
-      <c r="D271" s="0">
+      <c r="D271">
         <v>52761</v>
       </c>
-      <c r="E271" s="0">
+      <c r="E271">
         <v>678</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="0" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>275</v>
       </c>
-      <c r="B272" s="0">
-        <v>8166022</v>
-      </c>
-      <c r="C272" s="0">
+      <c r="B272">
+        <v>8166467</v>
+      </c>
+      <c r="C272">
         <v>219154</v>
       </c>
-      <c r="D272" s="0">
+      <c r="D272">
         <v>47882</v>
       </c>
-      <c r="E272" s="0">
+      <c r="E272">
         <v>387</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="0" t="s">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>276</v>
       </c>
-      <c r="B273" s="0">
-        <v>8213904</v>
-      </c>
-      <c r="C273" s="0">
+      <c r="B273">
+        <v>8214349</v>
+      </c>
+      <c r="C273">
         <v>219541</v>
       </c>
-      <c r="D273" s="0">
-        <v>65375</v>
-      </c>
-      <c r="E273" s="0">
+      <c r="D273">
+        <v>65431</v>
+      </c>
+      <c r="E273">
         <v>517</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="0" t="s">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>277</v>
       </c>
-      <c r="B274" s="0">
-        <v>8279279</v>
-      </c>
-      <c r="C274" s="0">
+      <c r="B274">
+        <v>8279780</v>
+      </c>
+      <c r="C274">
         <v>220058</v>
       </c>
-      <c r="D274" s="0">
-        <v>60588</v>
-      </c>
-      <c r="E274" s="0">
+      <c r="D274">
+        <v>60607</v>
+      </c>
+      <c r="E274">
         <v>929</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="0" t="s">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>278</v>
       </c>
-      <c r="B275" s="0">
-        <v>8339867</v>
-      </c>
-      <c r="C275" s="0">
+      <c r="B275">
+        <v>8340387</v>
+      </c>
+      <c r="C275">
         <v>220987</v>
       </c>
-      <c r="D275" s="0">
-        <v>64191</v>
-      </c>
-      <c r="E275" s="0">
+      <c r="D275">
+        <v>64229</v>
+      </c>
+      <c r="E275">
         <v>1208</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="0" t="s">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>279</v>
       </c>
-      <c r="B276" s="0">
-        <v>8404058</v>
-      </c>
-      <c r="C276" s="0">
+      <c r="B276">
+        <v>8404616</v>
+      </c>
+      <c r="C276">
         <v>222195</v>
       </c>
-      <c r="D276" s="0">
-        <v>75064</v>
-      </c>
-      <c r="E276" s="0">
+      <c r="D276">
+        <v>75088</v>
+      </c>
+      <c r="E276">
         <v>828</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="0" t="s">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>280</v>
       </c>
-      <c r="B277" s="0">
-        <v>8479122</v>
-      </c>
-      <c r="C277" s="0">
+      <c r="B277">
+        <v>8479704</v>
+      </c>
+      <c r="C277">
         <v>223023</v>
       </c>
-      <c r="D277" s="0">
-        <v>85085</v>
-      </c>
-      <c r="E277" s="0">
+      <c r="D277">
+        <v>85108</v>
+      </c>
+      <c r="E277">
         <v>925</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="0" t="s">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>281</v>
       </c>
-      <c r="B278" s="0">
-        <v>8564207</v>
-      </c>
-      <c r="C278" s="0">
+      <c r="B278">
+        <v>8564812</v>
+      </c>
+      <c r="C278">
         <v>223948</v>
       </c>
-      <c r="D278" s="0">
+      <c r="D278">
         <v>78756</v>
       </c>
-      <c r="E278" s="0">
+      <c r="E278">
         <v>873</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="0" t="s">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>282</v>
       </c>
-      <c r="B279" s="0">
-        <v>8642963</v>
-      </c>
-      <c r="C279" s="0">
+      <c r="B279">
+        <v>8643568</v>
+      </c>
+      <c r="C279">
         <v>224821</v>
       </c>
-      <c r="D279" s="0">
+      <c r="D279">
         <v>59712</v>
       </c>
-      <c r="E279" s="0">
+      <c r="E279">
         <v>339</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="0" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>283</v>
       </c>
-      <c r="B280" s="0">
-        <v>8702675</v>
-      </c>
-      <c r="C280" s="0">
+      <c r="B280">
+        <v>8703280</v>
+      </c>
+      <c r="C280">
         <v>225160</v>
       </c>
-      <c r="D280" s="0">
+      <c r="D280">
         <v>74443</v>
       </c>
-      <c r="E280" s="0">
+      <c r="E280">
         <v>538</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="0" t="s">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>284</v>
       </c>
-      <c r="B281" s="0">
-        <v>8777118</v>
-      </c>
-      <c r="C281" s="0">
+      <c r="B281">
+        <v>8777723</v>
+      </c>
+      <c r="C281">
         <v>225698</v>
       </c>
-      <c r="D281" s="0">
-        <v>74428</v>
-      </c>
-      <c r="E281" s="0">
+      <c r="D281">
+        <v>74453</v>
+      </c>
+      <c r="E281">
         <v>983</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="0" t="s">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>285</v>
       </c>
-      <c r="B282" s="0">
-        <v>8851546</v>
-      </c>
-      <c r="C282" s="0">
+      <c r="B282">
+        <v>8852176</v>
+      </c>
+      <c r="C282">
         <v>226681</v>
       </c>
-      <c r="D282" s="0">
+      <c r="D282">
         <v>81902</v>
       </c>
-      <c r="E282" s="0">
+      <c r="E282">
         <v>1016</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="0" t="s">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>286</v>
       </c>
-      <c r="B283" s="0">
-        <v>8933448</v>
-      </c>
-      <c r="C283" s="0">
+      <c r="B283">
+        <v>8934078</v>
+      </c>
+      <c r="C283">
         <v>227697</v>
       </c>
-      <c r="D283" s="0">
-        <v>90728</v>
-      </c>
-      <c r="E283" s="0">
+      <c r="D283">
+        <v>90766</v>
+      </c>
+      <c r="E283">
         <v>1004</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="0" t="s">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>287</v>
       </c>
-      <c r="B284" s="0">
-        <v>9024176</v>
-      </c>
-      <c r="C284" s="0">
+      <c r="B284">
+        <v>9024844</v>
+      </c>
+      <c r="C284">
         <v>228701</v>
       </c>
-      <c r="D284" s="0">
+      <c r="D284">
         <v>99784</v>
       </c>
-      <c r="E284" s="0">
+      <c r="E284">
         <v>971</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="0" t="s">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>288</v>
       </c>
-      <c r="B285" s="0">
-        <v>9123960</v>
-      </c>
-      <c r="C285" s="0">
+      <c r="B285">
+        <v>9124628</v>
+      </c>
+      <c r="C285">
         <v>229672</v>
       </c>
-      <c r="D285" s="0">
-        <v>84285</v>
-      </c>
-      <c r="E285" s="0">
+      <c r="D285">
+        <v>84298</v>
+      </c>
+      <c r="E285">
         <v>838</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="0" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>289</v>
       </c>
-      <c r="B286" s="0">
-        <v>9208245</v>
-      </c>
-      <c r="C286" s="0">
+      <c r="B286">
+        <v>9208926</v>
+      </c>
+      <c r="C286">
         <v>230510</v>
       </c>
-      <c r="D286" s="0">
+      <c r="D286">
         <v>74236</v>
       </c>
-      <c r="E286" s="0">
+      <c r="E286">
         <v>427</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="0" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>290</v>
       </c>
-      <c r="B287" s="0">
-        <v>9282481</v>
-      </c>
-      <c r="C287" s="0">
+      <c r="B287">
+        <v>9283162</v>
+      </c>
+      <c r="C287">
         <v>230937</v>
       </c>
-      <c r="D287" s="0">
-        <v>93642</v>
-      </c>
-      <c r="E287" s="0">
+      <c r="D287">
+        <v>93659</v>
+      </c>
+      <c r="E287">
         <v>540</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="0" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>291</v>
       </c>
-      <c r="B288" s="0">
-        <v>9376123</v>
-      </c>
-      <c r="C288" s="0">
+      <c r="B288">
+        <v>9376821</v>
+      </c>
+      <c r="C288">
         <v>231477</v>
       </c>
-      <c r="D288" s="0">
-        <v>92599</v>
-      </c>
-      <c r="E288" s="0">
+      <c r="D288">
+        <v>92612</v>
+      </c>
+      <c r="E288">
         <v>1130</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="0" t="s">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>292</v>
       </c>
-      <c r="B289" s="0">
-        <v>9468722</v>
-      </c>
-      <c r="C289" s="0">
+      <c r="B289">
+        <v>9469433</v>
+      </c>
+      <c r="C289">
         <v>232607</v>
       </c>
-      <c r="D289" s="0">
-        <v>107872</v>
-      </c>
-      <c r="E289" s="0">
+      <c r="D289">
+        <v>107913</v>
+      </c>
+      <c r="E289">
         <v>1616</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="0" t="s">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>293</v>
       </c>
-      <c r="B290" s="0">
-        <v>9576594</v>
-      </c>
-      <c r="C290" s="0">
+      <c r="B290">
+        <v>9577346</v>
+      </c>
+      <c r="C290">
         <v>234223</v>
       </c>
-      <c r="D290" s="0">
-        <v>121504</v>
-      </c>
-      <c r="E290" s="0">
+      <c r="D290">
+        <v>121529</v>
+      </c>
+      <c r="E290">
         <v>1108</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="0" t="s">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>294</v>
       </c>
-      <c r="B291" s="0">
-        <v>9698098</v>
-      </c>
-      <c r="C291" s="0">
+      <c r="B291">
+        <v>9698875</v>
+      </c>
+      <c r="C291">
         <v>235331</v>
       </c>
-      <c r="D291" s="0">
-        <v>132811</v>
-      </c>
-      <c r="E291" s="0">
+      <c r="D291">
+        <v>132847</v>
+      </c>
+      <c r="E291">
         <v>1246</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="0" t="s">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>295</v>
       </c>
-      <c r="B292" s="0">
-        <v>9830909</v>
-      </c>
-      <c r="C292" s="0">
+      <c r="B292">
+        <v>9831722</v>
+      </c>
+      <c r="C292">
         <v>236577</v>
       </c>
-      <c r="D292" s="0">
+      <c r="D292">
         <v>125932</v>
       </c>
-      <c r="E292" s="0">
+      <c r="E292">
         <v>1007</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="0" t="s">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>296</v>
       </c>
-      <c r="B293" s="0">
-        <v>9956841</v>
-      </c>
-      <c r="C293" s="0">
+      <c r="B293">
+        <v>9957654</v>
+      </c>
+      <c r="C293">
         <v>237584</v>
       </c>
-      <c r="D293" s="0">
-        <v>103867</v>
-      </c>
-      <c r="E293" s="0">
+      <c r="D293">
+        <v>103416</v>
+      </c>
+      <c r="E293">
         <v>464</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="0" t="s">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>297</v>
       </c>
-      <c r="B294" s="0">
-        <v>10060708</v>
-      </c>
-      <c r="C294" s="0">
+      <c r="B294">
+        <v>10061070</v>
+      </c>
+      <c r="C294">
         <v>238048</v>
       </c>
-      <c r="D294" s="0">
-        <v>131366</v>
-      </c>
-      <c r="E294" s="0">
+      <c r="D294">
+        <v>130340</v>
+      </c>
+      <c r="E294">
         <v>745</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="0" t="s">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>298</v>
       </c>
-      <c r="B295" s="0">
-        <v>10192074</v>
-      </c>
-      <c r="C295" s="0">
+      <c r="B295">
+        <v>10191410</v>
+      </c>
+      <c r="C295">
         <v>238793</v>
       </c>
-      <c r="D295" s="0">
-        <v>139855</v>
-      </c>
-      <c r="E295" s="0">
-        <v>1448</v>
+      <c r="D295">
+        <v>139746</v>
+      </c>
+      <c r="E295">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296">
+        <v>10331156</v>
+      </c>
+      <c r="C296">
+        <v>240258</v>
+      </c>
+      <c r="D296">
+        <v>142856</v>
+      </c>
+      <c r="E296">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -10219,6 +10249,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -10227,13 +10258,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -10242,7 +10273,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39ED4F-BBA5-4F95-BEB7-1C78ADCB8A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370C31B-FE49-4872-960B-7BD46D6374A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$296</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$297</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>date</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>11/10/2020</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1018,9 +1021,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$296</c:f>
+              <c:f>data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1905,16 +1908,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$296</c:f>
+              <c:f>data!$D$2:$D$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2798,7 +2804,10 @@
                   <c:v>139746</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>142856</c:v>
+                  <c:v>142860</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>163402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,9 +2914,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$296</c:f>
+              <c:f>data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3792,16 +3801,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$296</c:f>
+              <c:f>data!$E$2:$E$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4686,6 +4698,9 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,8 +4873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E296" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E296" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E297" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5192,9 +5207,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+    <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10233,10 +10248,27 @@
         <v>240258</v>
       </c>
       <c r="D296">
-        <v>142856</v>
+        <v>142860</v>
       </c>
       <c r="E296">
         <v>1431</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297">
+        <v>10474016</v>
+      </c>
+      <c r="C297">
+        <v>241689</v>
+      </c>
+      <c r="D297">
+        <v>163402</v>
+      </c>
+      <c r="E297">
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -10266,7 +10298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370C31B-FE49-4872-960B-7BD46D6374A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CFE0A-BBF0-491C-B939-524E20DB06DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$297</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$298</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -26,14 +26,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;usdeltas&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>date</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
   </si>
 </sst>
 </file>
@@ -1021,9 +1024,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$297</c:f>
+              <c:f>data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1911,16 +1914,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$297</c:f>
+              <c:f>data!$D$2:$D$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2808,6 +2814,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>163402</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>181194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,9 +2923,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$297</c:f>
+              <c:f>data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3804,16 +3813,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$297</c:f>
+              <c:f>data!$E$2:$E$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4701,6 +4713,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,7 +4874,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -4873,8 +4888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E297" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E298" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E298" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5207,9 +5222,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10269,6 +10284,23 @@
       </c>
       <c r="E297">
         <v>1172</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298">
+        <v>10637418</v>
+      </c>
+      <c r="C298">
+        <v>242861</v>
+      </c>
+      <c r="D298">
+        <v>181194</v>
+      </c>
+      <c r="E298">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -10298,7 +10330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CFE0A-BBF0-491C-B939-524E20DB06DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88918380-86E2-4B0F-9290-A1656B88B764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$298</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$299</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>date</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>11/13/2020</t>
   </si>
 </sst>
 </file>
@@ -1024,9 +1027,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$298</c:f>
+              <c:f>data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1917,16 +1920,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>11/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$298</c:f>
+              <c:f>data!$D$2:$D$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2816,7 +2822,10 @@
                   <c:v>163402</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181194</c:v>
+                  <c:v>181196</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>159021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,9 +2932,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$298</c:f>
+              <c:f>data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3816,16 +3825,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>11/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$298</c:f>
+              <c:f>data!$E$2:$E$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4716,6 +4728,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,8 +4903,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E298" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5222,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10297,10 +10312,27 @@
         <v>242861</v>
       </c>
       <c r="D298">
-        <v>181194</v>
+        <v>181196</v>
       </c>
       <c r="E298">
         <v>1389</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299">
+        <v>10818614</v>
+      </c>
+      <c r="C299">
+        <v>244250</v>
+      </c>
+      <c r="D299">
+        <v>159021</v>
+      </c>
+      <c r="E299">
+        <v>1210</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88918380-86E2-4B0F-9290-A1656B88B764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC13FE-FDDE-41E3-AE36-444497627951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$299</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$300</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>11/13/2020</t>
+  </si>
+  <si>
+    <t>11/14/2020</t>
   </si>
 </sst>
 </file>
@@ -1027,9 +1030,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$299</c:f>
+              <c:f>data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1923,16 +1926,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>11/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$299</c:f>
+              <c:f>data!$D$2:$D$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2825,7 +2831,10 @@
                   <c:v>181196</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>159021</c:v>
+                  <c:v>159121</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>135187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,9 +2941,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$299</c:f>
+              <c:f>data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3828,16 +3837,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>11/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$299</c:f>
+              <c:f>data!$E$2:$E$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4731,6 +4743,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4903,8 +4918,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E300" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5237,7 +5252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10329,10 +10344,27 @@
         <v>244250</v>
       </c>
       <c r="D299">
-        <v>159021</v>
+        <v>159121</v>
       </c>
       <c r="E299">
         <v>1210</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300">
+        <v>10977735</v>
+      </c>
+      <c r="C300">
+        <v>245460</v>
+      </c>
+      <c r="D300">
+        <v>135187</v>
+      </c>
+      <c r="E300">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC13FE-FDDE-41E3-AE36-444497627951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD505B2-8A30-40E0-B9C0-E6E759D9888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$300</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$302</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>date</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>11/14/2020</t>
+  </si>
+  <si>
+    <t>11/15/2020</t>
+  </si>
+  <si>
+    <t>11/16/2020</t>
   </si>
 </sst>
 </file>
@@ -1030,9 +1036,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$300</c:f>
+              <c:f>data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1929,16 +1935,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11/16/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$300</c:f>
+              <c:f>data!$D$2:$D$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2828,13 +2840,19 @@
                   <c:v>163402</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181196</c:v>
+                  <c:v>181551</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>159121</c:v>
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>135187</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>166226</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>159508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,9 +2959,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$300</c:f>
+              <c:f>data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3840,16 +3858,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11/16/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$300</c:f>
+              <c:f>data!$E$2:$E$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4746,6 +4770,12 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,8 +4948,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E300" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E302" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E302" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5252,7 +5282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10327,7 +10357,7 @@
         <v>242861</v>
       </c>
       <c r="D298">
-        <v>181196</v>
+        <v>181551</v>
       </c>
       <c r="E298">
         <v>1389</v>
@@ -10338,7 +10368,7 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10818614</v>
+        <v>10818969</v>
       </c>
       <c r="C299">
         <v>244250</v>
@@ -10355,7 +10385,7 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10977735</v>
+        <v>10978090</v>
       </c>
       <c r="C300">
         <v>245460</v>
@@ -10365,6 +10395,40 @@
       </c>
       <c r="E300">
         <v>623</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301">
+        <v>11113277</v>
+      </c>
+      <c r="C301">
+        <v>246083</v>
+      </c>
+      <c r="D301">
+        <v>166226</v>
+      </c>
+      <c r="E301">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302">
+        <v>11279503</v>
+      </c>
+      <c r="C302">
+        <v>246879</v>
+      </c>
+      <c r="D302">
+        <v>159508</v>
+      </c>
+      <c r="E302">
+        <v>1583</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD505B2-8A30-40E0-B9C0-E6E759D9888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CD8D8-E2CD-4DD2-93DF-F2D954F2600A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$302</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$303</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>date</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>11/16/2020</t>
+  </si>
+  <si>
+    <t>11/17/2020</t>
   </si>
 </sst>
 </file>
@@ -1036,9 +1039,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$302</c:f>
+              <c:f>data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1941,16 +1944,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$302</c:f>
+              <c:f>data!$D$2:$D$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2777,7 +2783,7 @@
                   <c:v>75088</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>85108</c:v>
+                  <c:v>85112</c:v>
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>78756</c:v>
@@ -2795,10 +2801,10 @@
                   <c:v>81902</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>90766</c:v>
+                  <c:v>90770</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>99784</c:v>
+                  <c:v>99802</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>84298</c:v>
@@ -2807,19 +2813,19 @@
                   <c:v>74236</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>93659</c:v>
+                  <c:v>93686</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>92612</c:v>
+                  <c:v>92619</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>107913</c:v>
+                  <c:v>107928</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>121529</c:v>
+                  <c:v>121539</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>132847</c:v>
+                  <c:v>132854</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>125932</c:v>
@@ -2828,19 +2834,19 @@
                   <c:v>103416</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>130340</c:v>
+                  <c:v>130387</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>139746</c:v>
+                  <c:v>139754</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>142860</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>163402</c:v>
+                  <c:v>163440</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181551</c:v>
+                  <c:v>181571</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>159121</c:v>
@@ -2849,10 +2855,13 @@
                   <c:v>135187</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>166226</c:v>
+                  <c:v>166265</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>159508</c:v>
+                  <c:v>161737</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>172391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,9 +2968,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$302</c:f>
+              <c:f>data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3864,16 +3873,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$302</c:f>
+              <c:f>data!$E$2:$E$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4775,7 +4787,10 @@
                   <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1583</c:v>
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,8 +4963,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E302" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E302" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E303" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5282,7 +5297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10000,7 +10015,7 @@
         <v>223023</v>
       </c>
       <c r="D277">
-        <v>85108</v>
+        <v>85112</v>
       </c>
       <c r="E277">
         <v>925</v>
@@ -10011,7 +10026,7 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>8564812</v>
+        <v>8564816</v>
       </c>
       <c r="C278">
         <v>223948</v>
@@ -10028,7 +10043,7 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>8643568</v>
+        <v>8643572</v>
       </c>
       <c r="C279">
         <v>224821</v>
@@ -10045,7 +10060,7 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>8703280</v>
+        <v>8703284</v>
       </c>
       <c r="C280">
         <v>225160</v>
@@ -10062,7 +10077,7 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>8777723</v>
+        <v>8777727</v>
       </c>
       <c r="C281">
         <v>225698</v>
@@ -10079,7 +10094,7 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>8852176</v>
+        <v>8852180</v>
       </c>
       <c r="C282">
         <v>226681</v>
@@ -10096,13 +10111,13 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>8934078</v>
+        <v>8934082</v>
       </c>
       <c r="C283">
         <v>227697</v>
       </c>
       <c r="D283">
-        <v>90766</v>
+        <v>90770</v>
       </c>
       <c r="E283">
         <v>1004</v>
@@ -10113,13 +10128,13 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>9024844</v>
+        <v>9024852</v>
       </c>
       <c r="C284">
         <v>228701</v>
       </c>
       <c r="D284">
-        <v>99784</v>
+        <v>99802</v>
       </c>
       <c r="E284">
         <v>971</v>
@@ -10130,7 +10145,7 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>9124628</v>
+        <v>9124654</v>
       </c>
       <c r="C285">
         <v>229672</v>
@@ -10147,7 +10162,7 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>9208926</v>
+        <v>9208952</v>
       </c>
       <c r="C286">
         <v>230510</v>
@@ -10164,13 +10179,13 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>9283162</v>
+        <v>9283188</v>
       </c>
       <c r="C287">
         <v>230937</v>
       </c>
       <c r="D287">
-        <v>93659</v>
+        <v>93686</v>
       </c>
       <c r="E287">
         <v>540</v>
@@ -10181,13 +10196,13 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>9376821</v>
+        <v>9376874</v>
       </c>
       <c r="C288">
         <v>231477</v>
       </c>
       <c r="D288">
-        <v>92612</v>
+        <v>92619</v>
       </c>
       <c r="E288">
         <v>1130</v>
@@ -10198,13 +10213,13 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>9469433</v>
+        <v>9469493</v>
       </c>
       <c r="C289">
         <v>232607</v>
       </c>
       <c r="D289">
-        <v>107913</v>
+        <v>107928</v>
       </c>
       <c r="E289">
         <v>1616</v>
@@ -10215,13 +10230,13 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>9577346</v>
+        <v>9577421</v>
       </c>
       <c r="C290">
         <v>234223</v>
       </c>
       <c r="D290">
-        <v>121529</v>
+        <v>121539</v>
       </c>
       <c r="E290">
         <v>1108</v>
@@ -10232,13 +10247,13 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>9698875</v>
+        <v>9698960</v>
       </c>
       <c r="C291">
         <v>235331</v>
       </c>
       <c r="D291">
-        <v>132847</v>
+        <v>132854</v>
       </c>
       <c r="E291">
         <v>1246</v>
@@ -10249,7 +10264,7 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>9831722</v>
+        <v>9831814</v>
       </c>
       <c r="C292">
         <v>236577</v>
@@ -10266,7 +10281,7 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>9957654</v>
+        <v>9957746</v>
       </c>
       <c r="C293">
         <v>237584</v>
@@ -10283,13 +10298,13 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>10061070</v>
+        <v>10061162</v>
       </c>
       <c r="C294">
         <v>238048</v>
       </c>
       <c r="D294">
-        <v>130340</v>
+        <v>130387</v>
       </c>
       <c r="E294">
         <v>745</v>
@@ -10300,13 +10315,13 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>10191410</v>
+        <v>10191549</v>
       </c>
       <c r="C295">
         <v>238793</v>
       </c>
       <c r="D295">
-        <v>139746</v>
+        <v>139754</v>
       </c>
       <c r="E295">
         <v>1465</v>
@@ -10317,7 +10332,7 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>10331156</v>
+        <v>10331303</v>
       </c>
       <c r="C296">
         <v>240258</v>
@@ -10334,13 +10349,13 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>10474016</v>
+        <v>10474163</v>
       </c>
       <c r="C297">
         <v>241689</v>
       </c>
       <c r="D297">
-        <v>163402</v>
+        <v>163440</v>
       </c>
       <c r="E297">
         <v>1172</v>
@@ -10351,13 +10366,13 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637418</v>
+        <v>10637603</v>
       </c>
       <c r="C298">
         <v>242861</v>
       </c>
       <c r="D298">
-        <v>181551</v>
+        <v>181571</v>
       </c>
       <c r="E298">
         <v>1389</v>
@@ -10368,7 +10383,7 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10818969</v>
+        <v>10819174</v>
       </c>
       <c r="C299">
         <v>244250</v>
@@ -10385,7 +10400,7 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10978090</v>
+        <v>10978295</v>
       </c>
       <c r="C300">
         <v>245460</v>
@@ -10402,13 +10417,13 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>11113277</v>
+        <v>11113482</v>
       </c>
       <c r="C301">
         <v>246083</v>
       </c>
       <c r="D301">
-        <v>166226</v>
+        <v>166265</v>
       </c>
       <c r="E301">
         <v>796</v>
@@ -10419,16 +10434,33 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11279503</v>
+        <v>11279747</v>
       </c>
       <c r="C302">
         <v>246879</v>
       </c>
       <c r="D302">
-        <v>159508</v>
+        <v>161737</v>
       </c>
       <c r="E302">
-        <v>1583</v>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303">
+        <v>11441484</v>
+      </c>
+      <c r="C303">
+        <v>248486</v>
+      </c>
+      <c r="D303">
+        <v>172391</v>
+      </c>
+      <c r="E303">
+        <v>1923</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CD8D8-E2CD-4DD2-93DF-F2D954F2600A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A0A8E-33A7-43A4-B973-A7DED29CD4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$303</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$304</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>date</t>
   </si>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>11/17/2020</t>
+  </si>
+  <si>
+    <t>11/18/2020</t>
   </si>
 </sst>
 </file>
@@ -1039,9 +1042,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$303</c:f>
+              <c:f>data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1947,16 +1950,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$303</c:f>
+              <c:f>data!$D$2:$D$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2855,13 +2861,16 @@
                   <c:v>135187</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>166265</c:v>
+                  <c:v>166544</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>161737</c:v>
+                  <c:v>161702</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>172391</c:v>
+                  <c:v>172348</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>187396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,9 +2977,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$303</c:f>
+              <c:f>data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3876,16 +3885,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$303</c:f>
+              <c:f>data!$E$2:$E$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4790,7 +4802,10 @@
                   <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1923</c:v>
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4963,8 +4978,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5297,9 +5312,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10423,7 +10438,7 @@
         <v>246083</v>
       </c>
       <c r="D301">
-        <v>166265</v>
+        <v>166544</v>
       </c>
       <c r="E301">
         <v>796</v>
@@ -10434,13 +10449,13 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11279747</v>
+        <v>11280026</v>
       </c>
       <c r="C302">
         <v>246879</v>
       </c>
       <c r="D302">
-        <v>161737</v>
+        <v>161702</v>
       </c>
       <c r="E302">
         <v>1607</v>
@@ -10451,16 +10466,33 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>11441484</v>
+        <v>11441728</v>
       </c>
       <c r="C303">
         <v>248486</v>
       </c>
       <c r="D303">
-        <v>172391</v>
+        <v>172348</v>
       </c>
       <c r="E303">
-        <v>1923</v>
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304">
+        <v>11614076</v>
+      </c>
+      <c r="C304">
+        <v>250411</v>
+      </c>
+      <c r="D304">
+        <v>187396</v>
+      </c>
+      <c r="E304">
+        <v>1962</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A0A8E-33A7-43A4-B973-A7DED29CD4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC29B947-215F-431C-A6FE-5D5C7AB9E417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$304</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$305</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>date</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>11/18/2020</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
   </si>
 </sst>
 </file>
@@ -1042,9 +1045,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$304</c:f>
+              <c:f>data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1953,16 +1956,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$304</c:f>
+              <c:f>data!$D$2:$D$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2870,7 +2876,10 @@
                   <c:v>172348</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>187396</c:v>
+                  <c:v>187428</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>198537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,9 +2986,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$304</c:f>
+              <c:f>data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3888,16 +3897,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$304</c:f>
+              <c:f>data!$E$2:$E$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4806,6 +4818,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,8 +4993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E304" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E305" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5312,7 +5327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10489,10 +10504,27 @@
         <v>250411</v>
       </c>
       <c r="D304">
-        <v>187396</v>
+        <v>187428</v>
       </c>
       <c r="E304">
         <v>1962</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305">
+        <v>11801504</v>
+      </c>
+      <c r="C305">
+        <v>252373</v>
+      </c>
+      <c r="D305">
+        <v>198537</v>
+      </c>
+      <c r="E305">
+        <v>1947</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC29B947-215F-431C-A6FE-5D5C7AB9E417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15AD6DE-B42E-4332-AD69-8074A798F7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$305</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$306</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>date</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>11/19/2020</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
   </si>
 </sst>
 </file>
@@ -1045,9 +1048,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$305</c:f>
+              <c:f>data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1959,16 +1962,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$305</c:f>
+              <c:f>data!$D$2:$D$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2879,7 +2885,10 @@
                   <c:v>187428</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>198537</c:v>
+                  <c:v>198585</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>171980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,9 +2995,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$305</c:f>
+              <c:f>data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3900,16 +3909,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$305</c:f>
+              <c:f>data!$E$2:$E$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4820,7 +4832,10 @@
                   <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1947</c:v>
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4993,8 +5008,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E305" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E306" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5327,7 +5342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10521,10 +10536,27 @@
         <v>252373</v>
       </c>
       <c r="D305">
-        <v>198537</v>
+        <v>198585</v>
       </c>
       <c r="E305">
-        <v>1947</v>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306">
+        <v>12000089</v>
+      </c>
+      <c r="C306">
+        <v>254325</v>
+      </c>
+      <c r="D306">
+        <v>171980</v>
+      </c>
+      <c r="E306">
+        <v>1428</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15AD6DE-B42E-4332-AD69-8074A798F7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD97DFF-7809-42E7-8379-06FDF1C16051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$306</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$307</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>date</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>11/20/2020</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
   </si>
 </sst>
 </file>
@@ -1048,9 +1051,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$306</c:f>
+              <c:f>data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1965,16 +1968,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>11/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$306</c:f>
+              <c:f>data!$D$2:$D$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2889,6 +2895,9 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>171980</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>141641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,9 +3004,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$306</c:f>
+              <c:f>data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3912,16 +3921,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>11/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$306</c:f>
+              <c:f>data!$E$2:$E$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4836,6 +4848,9 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5008,8 +5023,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E306" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E307" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5342,9 +5357,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10557,6 +10572,23 @@
       </c>
       <c r="E306">
         <v>1428</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>310</v>
+      </c>
+      <c r="B307">
+        <v>12172069</v>
+      </c>
+      <c r="C307">
+        <v>255753</v>
+      </c>
+      <c r="D307">
+        <v>141641</v>
+      </c>
+      <c r="E307">
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD97DFF-7809-42E7-8379-06FDF1C16051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0457B-2CF5-46B3-8A90-D6B2929D7676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$307</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$308</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>date</t>
   </si>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>11/22/2020</t>
   </si>
 </sst>
 </file>
@@ -1051,9 +1054,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$307</c:f>
+              <c:f>data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1971,16 +1974,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$307</c:f>
+              <c:f>data!$D$2:$D$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2888,16 +2894,19 @@
                   <c:v>172348</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>187428</c:v>
+                  <c:v>187440</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>198585</c:v>
+                  <c:v>198633</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>171980</c:v>
+                  <c:v>171928</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>141641</c:v>
+                  <c:v>141034</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>178945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3004,9 +3013,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$307</c:f>
+              <c:f>data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3924,16 +3933,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$307</c:f>
+              <c:f>data!$E$2:$E$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4847,10 +4859,13 @@
                   <c:v>1952</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1428</c:v>
+                  <c:v>1429</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>834</c:v>
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5023,8 +5038,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E307" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E308" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5357,9 +5372,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10534,7 +10549,7 @@
         <v>250411</v>
       </c>
       <c r="D304">
-        <v>187428</v>
+        <v>187440</v>
       </c>
       <c r="E304">
         <v>1962</v>
@@ -10545,13 +10560,13 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801504</v>
+        <v>11801516</v>
       </c>
       <c r="C305">
         <v>252373</v>
       </c>
       <c r="D305">
-        <v>198585</v>
+        <v>198633</v>
       </c>
       <c r="E305">
         <v>1952</v>
@@ -10562,16 +10577,16 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000089</v>
+        <v>12000149</v>
       </c>
       <c r="C306">
         <v>254325</v>
       </c>
       <c r="D306">
-        <v>171980</v>
+        <v>171928</v>
       </c>
       <c r="E306">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -10579,16 +10594,33 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172069</v>
+        <v>12172077</v>
       </c>
       <c r="C307">
-        <v>255753</v>
+        <v>255754</v>
       </c>
       <c r="D307">
-        <v>141641</v>
+        <v>141034</v>
       </c>
       <c r="E307">
-        <v>834</v>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308">
+        <v>12313111</v>
+      </c>
+      <c r="C308">
+        <v>256597</v>
+      </c>
+      <c r="D308">
+        <v>178945</v>
+      </c>
+      <c r="E308">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0457B-2CF5-46B3-8A90-D6B2929D7676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326931BE-292C-4D72-90CC-E25F3768FC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$308</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$309</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>date</t>
   </si>
@@ -969,6 +969,9 @@
   </si>
   <si>
     <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
   </si>
 </sst>
 </file>
@@ -1054,9 +1057,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$308</c:f>
+              <c:f>data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1977,16 +1980,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>11/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$308</c:f>
+              <c:f>data!$D$2:$D$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2906,7 +2912,10 @@
                   <c:v>141034</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>178945</c:v>
+                  <c:v>179067</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>176439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,9 +3022,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$308</c:f>
+              <c:f>data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3936,16 +3945,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>11/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$308</c:f>
+              <c:f>data!$E$2:$E$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4866,6 +4878,9 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,8 +5053,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E308" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E309" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5372,9 +5387,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10617,10 +10632,27 @@
         <v>256597</v>
       </c>
       <c r="D308">
-        <v>178945</v>
+        <v>179067</v>
       </c>
       <c r="E308">
         <v>1032</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309">
+        <v>12492178</v>
+      </c>
+      <c r="C309">
+        <v>257629</v>
+      </c>
+      <c r="D309">
+        <v>176439</v>
+      </c>
+      <c r="E309">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326931BE-292C-4D72-90CC-E25F3768FC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6272811C-63D4-4299-9DE7-A97F9D5F9336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$309</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$310</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>date</t>
   </si>
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>11/24/2020</t>
   </si>
 </sst>
 </file>
@@ -1057,9 +1060,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$309</c:f>
+              <c:f>data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1983,16 +1986,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>11/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$309</c:f>
+              <c:f>data!$D$2:$D$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2915,7 +2921,10 @@
                   <c:v>179067</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>176439</c:v>
+                  <c:v>178200</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>178434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,9 +3031,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$309</c:f>
+              <c:f>data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3948,16 +3957,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>11/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$309</c:f>
+              <c:f>data!$E$2:$E$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4880,7 +4892,10 @@
                   <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>2203</c:v>
+                  <c:v>2216</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5053,8 +5068,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E309" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E310" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5387,9 +5402,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10649,10 +10664,27 @@
         <v>257629</v>
       </c>
       <c r="D309">
-        <v>176439</v>
+        <v>178200</v>
       </c>
       <c r="E309">
-        <v>2203</v>
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310">
+        <v>12670378</v>
+      </c>
+      <c r="C310">
+        <v>259845</v>
+      </c>
+      <c r="D310">
+        <v>178434</v>
+      </c>
+      <c r="E310">
+        <v>2294</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6272811C-63D4-4299-9DE7-A97F9D5F9336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8EAC5-3FFB-40A2-AE2E-3FC0F5B6BBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$310</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$311</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>date</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>11/24/2020</t>
+  </si>
+  <si>
+    <t>11/25/2020</t>
   </si>
 </sst>
 </file>
@@ -1060,9 +1063,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$310</c:f>
+              <c:f>data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1989,16 +1992,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$310</c:f>
+              <c:f>data!$D$2:$D$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2924,7 +2930,10 @@
                   <c:v>178200</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>178434</c:v>
+                  <c:v>180830</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>103116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3031,9 +3040,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$310</c:f>
+              <c:f>data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3960,16 +3969,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$310</c:f>
+              <c:f>data!$E$2:$E$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4895,7 +4907,10 @@
                   <c:v>2216</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>2294</c:v>
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,8 +5083,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E310" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E311" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5402,9 +5417,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -10681,10 +10696,27 @@
         <v>259845</v>
       </c>
       <c r="D310">
-        <v>178434</v>
+        <v>180830</v>
       </c>
       <c r="E310">
-        <v>2294</v>
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311">
+        <v>12851208</v>
+      </c>
+      <c r="C311">
+        <v>262158</v>
+      </c>
+      <c r="D311">
+        <v>103116</v>
+      </c>
+      <c r="E311">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8EAC5-3FFB-40A2-AE2E-3FC0F5B6BBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BDF8A7-518D-4AF6-A6DB-CAE6430BA2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$311</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$312</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>date</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>11/25/2020</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
   </si>
 </sst>
 </file>
@@ -1063,9 +1066,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$311</c:f>
+              <c:f>data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -1995,16 +1998,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>11/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$311</c:f>
+              <c:f>data!$D$2:$D$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2934,6 +2940,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>103116</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>199104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,9 +3049,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$311</c:f>
+              <c:f>data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3972,16 +3981,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>11/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$311</c:f>
+              <c:f>data!$E$2:$E$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4911,6 +4923,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,8 +5098,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E311" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E312" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5417,7 +5432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10717,6 +10732,23 @@
       </c>
       <c r="E311">
         <v>1178</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>315</v>
+      </c>
+      <c r="B312">
+        <v>12954324</v>
+      </c>
+      <c r="C312">
+        <v>263336</v>
+      </c>
+      <c r="D312">
+        <v>199104</v>
+      </c>
+      <c r="E312">
+        <v>1388</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BDF8A7-518D-4AF6-A6DB-CAE6430BA2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60970FE-8CB7-4FA7-BAC9-7FA2F465329E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$312</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$313</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>date</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>11/26/2020</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
   </si>
 </sst>
 </file>
@@ -1066,9 +1069,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$312</c:f>
+              <c:f>data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2001,16 +2004,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>11/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$312</c:f>
+              <c:f>data!$D$2:$D$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2783,19 +2789,19 @@
                   <c:v>35063</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>62382</c:v>
+                  <c:v>62412</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>42885</c:v>
+                  <c:v>42862</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>53015</c:v>
+                  <c:v>53017</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>56375</c:v>
+                  <c:v>56383</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>58959</c:v>
+                  <c:v>58962</c:v>
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>51648</c:v>
@@ -2807,16 +2813,16 @@
                   <c:v>48016</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>54359</c:v>
+                  <c:v>54394</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>59893</c:v>
+                  <c:v>59853</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>65340</c:v>
+                  <c:v>65353</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>70477</c:v>
+                  <c:v>70463</c:v>
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>52761</c:v>
@@ -2825,61 +2831,61 @@
                   <c:v>47882</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>65431</c:v>
+                  <c:v>65440</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>60607</c:v>
+                  <c:v>60594</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>64229</c:v>
+                  <c:v>64237</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>75088</c:v>
+                  <c:v>75128</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>85112</c:v>
+                  <c:v>85131</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>78756</c:v>
+                  <c:v>78698</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>59712</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>74443</c:v>
+                  <c:v>74497</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>74453</c:v>
+                  <c:v>74397</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>81902</c:v>
+                  <c:v>81924</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>90770</c:v>
+                  <c:v>90794</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>99802</c:v>
+                  <c:v>99814</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>84298</c:v>
+                  <c:v>84235</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>74236</c:v>
+                  <c:v>74224</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>93686</c:v>
+                  <c:v>93739</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>92619</c:v>
+                  <c:v>92630</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>107928</c:v>
+                  <c:v>107883</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>121539</c:v>
+                  <c:v>121541</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>132854</c:v>
+                  <c:v>132872</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>125932</c:v>
@@ -2888,19 +2894,19 @@
                   <c:v>103416</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>130387</c:v>
+                  <c:v>130441</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>139754</c:v>
+                  <c:v>139740</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>142860</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>163440</c:v>
+                  <c:v>163491</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181571</c:v>
+                  <c:v>181593</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>159121</c:v>
@@ -2909,40 +2915,43 @@
                   <c:v>135187</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>166544</c:v>
+                  <c:v>166454</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>161702</c:v>
+                  <c:v>161745</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>172348</c:v>
+                  <c:v>172283</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>187440</c:v>
+                  <c:v>187470</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>198633</c:v>
+                  <c:v>198672</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>171928</c:v>
+                  <c:v>172003</c:v>
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>141034</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>179067</c:v>
+                  <c:v>179099</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>178200</c:v>
+                  <c:v>178290</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>180830</c:v>
+                  <c:v>180536</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>103116</c:v>
+                  <c:v>103104</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>199104</c:v>
+                  <c:v>205460</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>151245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,9 +3058,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$312</c:f>
+              <c:f>data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3984,16 +3993,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>11/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$312</c:f>
+              <c:f>data!$E$2:$E$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4820,10 +4832,10 @@
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>925</c:v>
+                  <c:v>926</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>873</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>339</c:v>
@@ -4913,19 +4925,22 @@
                   <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1032</c:v>
+                  <c:v>1038</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>2216</c:v>
+                  <c:v>2209</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2313</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1178</c:v>
+                  <c:v>1179</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1388</c:v>
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5098,8 +5113,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E312" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E313" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5432,7 +5447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -9844,7 +9859,7 @@
         <v>209606</v>
       </c>
       <c r="D259">
-        <v>62382</v>
+        <v>62412</v>
       </c>
       <c r="E259">
         <v>429</v>
@@ -9855,13 +9870,13 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>7507956</v>
+        <v>7507986</v>
       </c>
       <c r="C260">
         <v>210035</v>
       </c>
       <c r="D260">
-        <v>42885</v>
+        <v>42862</v>
       </c>
       <c r="E260">
         <v>721</v>
@@ -9872,13 +9887,13 @@
         <v>264</v>
       </c>
       <c r="B261">
-        <v>7550841</v>
+        <v>7550848</v>
       </c>
       <c r="C261">
         <v>210756</v>
       </c>
       <c r="D261">
-        <v>53015</v>
+        <v>53017</v>
       </c>
       <c r="E261">
         <v>996</v>
@@ -9889,13 +9904,13 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>7603856</v>
+        <v>7603865</v>
       </c>
       <c r="C262">
         <v>211752</v>
       </c>
       <c r="D262">
-        <v>56375</v>
+        <v>56383</v>
       </c>
       <c r="E262">
         <v>928</v>
@@ -9906,13 +9921,13 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>7660231</v>
+        <v>7660248</v>
       </c>
       <c r="C263">
         <v>212680</v>
       </c>
       <c r="D263">
-        <v>58959</v>
+        <v>58962</v>
       </c>
       <c r="E263">
         <v>915</v>
@@ -9923,7 +9938,7 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>7719190</v>
+        <v>7719210</v>
       </c>
       <c r="C264">
         <v>213595</v>
@@ -9940,7 +9955,7 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>7770838</v>
+        <v>7770858</v>
       </c>
       <c r="C265">
         <v>214187</v>
@@ -9957,7 +9972,7 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>7815621</v>
+        <v>7815641</v>
       </c>
       <c r="C266">
         <v>214606</v>
@@ -9974,13 +9989,13 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>7863637</v>
+        <v>7863657</v>
       </c>
       <c r="C267">
         <v>214957</v>
       </c>
       <c r="D267">
-        <v>54359</v>
+        <v>54394</v>
       </c>
       <c r="E267">
         <v>826</v>
@@ -9991,13 +10006,13 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>7917996</v>
+        <v>7918051</v>
       </c>
       <c r="C268">
         <v>215783</v>
       </c>
       <c r="D268">
-        <v>59893</v>
+        <v>59853</v>
       </c>
       <c r="E268">
         <v>1009</v>
@@ -10008,13 +10023,13 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>7977889</v>
+        <v>7977904</v>
       </c>
       <c r="C269">
         <v>216792</v>
       </c>
       <c r="D269">
-        <v>65340</v>
+        <v>65353</v>
       </c>
       <c r="E269">
         <v>793</v>
@@ -10025,13 +10040,13 @@
         <v>273</v>
       </c>
       <c r="B270">
-        <v>8043229</v>
+        <v>8043257</v>
       </c>
       <c r="C270">
         <v>217585</v>
       </c>
       <c r="D270">
-        <v>70477</v>
+        <v>70463</v>
       </c>
       <c r="E270">
         <v>891</v>
@@ -10042,7 +10057,7 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>8113706</v>
+        <v>8113720</v>
       </c>
       <c r="C271">
         <v>218476</v>
@@ -10059,7 +10074,7 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>8166467</v>
+        <v>8166481</v>
       </c>
       <c r="C272">
         <v>219154</v>
@@ -10076,13 +10091,13 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>8214349</v>
+        <v>8214363</v>
       </c>
       <c r="C273">
         <v>219541</v>
       </c>
       <c r="D273">
-        <v>65431</v>
+        <v>65440</v>
       </c>
       <c r="E273">
         <v>517</v>
@@ -10093,13 +10108,13 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>8279780</v>
+        <v>8279803</v>
       </c>
       <c r="C274">
         <v>220058</v>
       </c>
       <c r="D274">
-        <v>60607</v>
+        <v>60594</v>
       </c>
       <c r="E274">
         <v>929</v>
@@ -10110,13 +10125,13 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>8340387</v>
+        <v>8340397</v>
       </c>
       <c r="C275">
         <v>220987</v>
       </c>
       <c r="D275">
-        <v>64229</v>
+        <v>64237</v>
       </c>
       <c r="E275">
         <v>1208</v>
@@ -10127,13 +10142,13 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>8404616</v>
+        <v>8404634</v>
       </c>
       <c r="C276">
         <v>222195</v>
       </c>
       <c r="D276">
-        <v>75088</v>
+        <v>75128</v>
       </c>
       <c r="E276">
         <v>828</v>
@@ -10144,16 +10159,16 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>8479704</v>
+        <v>8479762</v>
       </c>
       <c r="C277">
         <v>223023</v>
       </c>
       <c r="D277">
-        <v>85112</v>
+        <v>85131</v>
       </c>
       <c r="E277">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -10161,16 +10176,16 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>8564816</v>
+        <v>8564893</v>
       </c>
       <c r="C278">
-        <v>223948</v>
+        <v>223949</v>
       </c>
       <c r="D278">
-        <v>78756</v>
+        <v>78698</v>
       </c>
       <c r="E278">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -10178,7 +10193,7 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>8643572</v>
+        <v>8643591</v>
       </c>
       <c r="C279">
         <v>224821</v>
@@ -10195,13 +10210,13 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>8703284</v>
+        <v>8703303</v>
       </c>
       <c r="C280">
         <v>225160</v>
       </c>
       <c r="D280">
-        <v>74443</v>
+        <v>74497</v>
       </c>
       <c r="E280">
         <v>538</v>
@@ -10212,13 +10227,13 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>8777727</v>
+        <v>8777800</v>
       </c>
       <c r="C281">
         <v>225698</v>
       </c>
       <c r="D281">
-        <v>74453</v>
+        <v>74397</v>
       </c>
       <c r="E281">
         <v>983</v>
@@ -10229,13 +10244,13 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>8852180</v>
+        <v>8852197</v>
       </c>
       <c r="C282">
         <v>226681</v>
       </c>
       <c r="D282">
-        <v>81902</v>
+        <v>81924</v>
       </c>
       <c r="E282">
         <v>1016</v>
@@ -10246,13 +10261,13 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>8934082</v>
+        <v>8934121</v>
       </c>
       <c r="C283">
         <v>227697</v>
       </c>
       <c r="D283">
-        <v>90770</v>
+        <v>90794</v>
       </c>
       <c r="E283">
         <v>1004</v>
@@ -10263,13 +10278,13 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>9024852</v>
+        <v>9024915</v>
       </c>
       <c r="C284">
         <v>228701</v>
       </c>
       <c r="D284">
-        <v>99802</v>
+        <v>99814</v>
       </c>
       <c r="E284">
         <v>971</v>
@@ -10280,13 +10295,13 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>9124654</v>
+        <v>9124729</v>
       </c>
       <c r="C285">
         <v>229672</v>
       </c>
       <c r="D285">
-        <v>84298</v>
+        <v>84235</v>
       </c>
       <c r="E285">
         <v>838</v>
@@ -10297,13 +10312,13 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>9208952</v>
+        <v>9208964</v>
       </c>
       <c r="C286">
         <v>230510</v>
       </c>
       <c r="D286">
-        <v>74236</v>
+        <v>74224</v>
       </c>
       <c r="E286">
         <v>427</v>
@@ -10320,7 +10335,7 @@
         <v>230937</v>
       </c>
       <c r="D287">
-        <v>93686</v>
+        <v>93739</v>
       </c>
       <c r="E287">
         <v>540</v>
@@ -10331,13 +10346,13 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>9376874</v>
+        <v>9376927</v>
       </c>
       <c r="C288">
         <v>231477</v>
       </c>
       <c r="D288">
-        <v>92619</v>
+        <v>92630</v>
       </c>
       <c r="E288">
         <v>1130</v>
@@ -10348,13 +10363,13 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>9469493</v>
+        <v>9469557</v>
       </c>
       <c r="C289">
         <v>232607</v>
       </c>
       <c r="D289">
-        <v>107928</v>
+        <v>107883</v>
       </c>
       <c r="E289">
         <v>1616</v>
@@ -10365,13 +10380,13 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>9577421</v>
+        <v>9577440</v>
       </c>
       <c r="C290">
         <v>234223</v>
       </c>
       <c r="D290">
-        <v>121539</v>
+        <v>121541</v>
       </c>
       <c r="E290">
         <v>1108</v>
@@ -10382,13 +10397,13 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>9698960</v>
+        <v>9698981</v>
       </c>
       <c r="C291">
         <v>235331</v>
       </c>
       <c r="D291">
-        <v>132854</v>
+        <v>132872</v>
       </c>
       <c r="E291">
         <v>1246</v>
@@ -10399,7 +10414,7 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>9831814</v>
+        <v>9831853</v>
       </c>
       <c r="C292">
         <v>236577</v>
@@ -10416,7 +10431,7 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>9957746</v>
+        <v>9957785</v>
       </c>
       <c r="C293">
         <v>237584</v>
@@ -10433,13 +10448,13 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>10061162</v>
+        <v>10061201</v>
       </c>
       <c r="C294">
         <v>238048</v>
       </c>
       <c r="D294">
-        <v>130387</v>
+        <v>130441</v>
       </c>
       <c r="E294">
         <v>745</v>
@@ -10450,13 +10465,13 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>10191549</v>
+        <v>10191642</v>
       </c>
       <c r="C295">
         <v>238793</v>
       </c>
       <c r="D295">
-        <v>139754</v>
+        <v>139740</v>
       </c>
       <c r="E295">
         <v>1465</v>
@@ -10467,7 +10482,7 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>10331303</v>
+        <v>10331382</v>
       </c>
       <c r="C296">
         <v>240258</v>
@@ -10484,13 +10499,13 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>10474163</v>
+        <v>10474242</v>
       </c>
       <c r="C297">
         <v>241689</v>
       </c>
       <c r="D297">
-        <v>163440</v>
+        <v>163491</v>
       </c>
       <c r="E297">
         <v>1172</v>
@@ -10501,13 +10516,13 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637603</v>
+        <v>10637733</v>
       </c>
       <c r="C298">
         <v>242861</v>
       </c>
       <c r="D298">
-        <v>181571</v>
+        <v>181593</v>
       </c>
       <c r="E298">
         <v>1389</v>
@@ -10518,7 +10533,7 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10819174</v>
+        <v>10819326</v>
       </c>
       <c r="C299">
         <v>244250</v>
@@ -10535,7 +10550,7 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10978295</v>
+        <v>10978447</v>
       </c>
       <c r="C300">
         <v>245460</v>
@@ -10552,13 +10567,13 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>11113482</v>
+        <v>11113634</v>
       </c>
       <c r="C301">
         <v>246083</v>
       </c>
       <c r="D301">
-        <v>166544</v>
+        <v>166454</v>
       </c>
       <c r="E301">
         <v>796</v>
@@ -10569,13 +10584,13 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11280026</v>
+        <v>11280088</v>
       </c>
       <c r="C302">
         <v>246879</v>
       </c>
       <c r="D302">
-        <v>161702</v>
+        <v>161745</v>
       </c>
       <c r="E302">
         <v>1607</v>
@@ -10586,13 +10601,13 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>11441728</v>
+        <v>11441833</v>
       </c>
       <c r="C303">
         <v>248486</v>
       </c>
       <c r="D303">
-        <v>172348</v>
+        <v>172283</v>
       </c>
       <c r="E303">
         <v>1925</v>
@@ -10603,13 +10618,13 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>11614076</v>
+        <v>11614116</v>
       </c>
       <c r="C304">
         <v>250411</v>
       </c>
       <c r="D304">
-        <v>187440</v>
+        <v>187470</v>
       </c>
       <c r="E304">
         <v>1962</v>
@@ -10620,13 +10635,13 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801516</v>
+        <v>11801586</v>
       </c>
       <c r="C305">
         <v>252373</v>
       </c>
       <c r="D305">
-        <v>198633</v>
+        <v>198672</v>
       </c>
       <c r="E305">
         <v>1952</v>
@@ -10637,13 +10652,13 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000149</v>
+        <v>12000258</v>
       </c>
       <c r="C306">
         <v>254325</v>
       </c>
       <c r="D306">
-        <v>171928</v>
+        <v>172003</v>
       </c>
       <c r="E306">
         <v>1429</v>
@@ -10654,7 +10669,7 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172077</v>
+        <v>12172261</v>
       </c>
       <c r="C307">
         <v>255754</v>
@@ -10671,16 +10686,16 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>12313111</v>
+        <v>12313295</v>
       </c>
       <c r="C308">
         <v>256597</v>
       </c>
       <c r="D308">
-        <v>179067</v>
+        <v>179099</v>
       </c>
       <c r="E308">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -10688,16 +10703,16 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492178</v>
+        <v>12492394</v>
       </c>
       <c r="C309">
-        <v>257629</v>
+        <v>257635</v>
       </c>
       <c r="D309">
-        <v>178200</v>
+        <v>178290</v>
       </c>
       <c r="E309">
-        <v>2216</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -10705,13 +10720,13 @@
         <v>313</v>
       </c>
       <c r="B310">
-        <v>12670378</v>
+        <v>12670684</v>
       </c>
       <c r="C310">
-        <v>259845</v>
+        <v>259844</v>
       </c>
       <c r="D310">
-        <v>180830</v>
+        <v>180536</v>
       </c>
       <c r="E310">
         <v>2313</v>
@@ -10722,16 +10737,16 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>12851208</v>
+        <v>12851220</v>
       </c>
       <c r="C311">
-        <v>262158</v>
+        <v>262157</v>
       </c>
       <c r="D311">
-        <v>103116</v>
+        <v>103104</v>
       </c>
       <c r="E311">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -10745,10 +10760,27 @@
         <v>263336</v>
       </c>
       <c r="D312">
-        <v>199104</v>
+        <v>205460</v>
       </c>
       <c r="E312">
-        <v>1388</v>
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>316</v>
+      </c>
+      <c r="B313">
+        <v>13159784</v>
+      </c>
+      <c r="C313">
+        <v>264748</v>
+      </c>
+      <c r="D313">
+        <v>151245</v>
+      </c>
+      <c r="E313">
+        <v>1192</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60970FE-8CB7-4FA7-BAC9-7FA2F465329E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD7A78-E8CA-42D3-BCCC-794960ADC19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$313</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$314</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>date</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
   </si>
 </sst>
 </file>
@@ -1069,9 +1072,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$313</c:f>
+              <c:f>data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2007,16 +2010,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$313</c:f>
+              <c:f>data!$D$2:$D$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2951,7 +2957,10 @@
                   <c:v>205460</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>151245</c:v>
+                  <c:v>151247</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>136313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,9 +3067,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$313</c:f>
+              <c:f>data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -3996,16 +4005,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$313</c:f>
+              <c:f>data!$E$2:$E$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4941,6 +4953,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5113,8 +5128,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E313" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E314" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5447,7 +5462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10777,10 +10792,27 @@
         <v>264748</v>
       </c>
       <c r="D313">
-        <v>151245</v>
+        <v>151247</v>
       </c>
       <c r="E313">
         <v>1192</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>317</v>
+      </c>
+      <c r="B314">
+        <v>13311031</v>
+      </c>
+      <c r="C314">
+        <v>265940</v>
+      </c>
+      <c r="D314">
+        <v>136313</v>
+      </c>
+      <c r="E314">
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD7A78-E8CA-42D3-BCCC-794960ADC19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F225593-34F2-463E-8C98-49EF7730C7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$314</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$315</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>date</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>11/29/2020</t>
   </si>
 </sst>
 </file>
@@ -1072,9 +1075,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$314</c:f>
+              <c:f>data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2013,16 +2016,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>11/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$314</c:f>
+              <c:f>data!$D$2:$D$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2961,6 +2967,9 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>136313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>167756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,9 +3076,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$314</c:f>
+              <c:f>data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4008,16 +4017,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>11/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$314</c:f>
+              <c:f>data!$E$2:$E$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4956,6 +4968,9 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5128,8 +5143,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E314" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E315" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5462,7 +5477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E314"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10813,6 +10828,23 @@
       </c>
       <c r="E314">
         <v>818</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>318</v>
+      </c>
+      <c r="B315">
+        <v>13447344</v>
+      </c>
+      <c r="C315">
+        <v>266758</v>
+      </c>
+      <c r="D315">
+        <v>167756</v>
+      </c>
+      <c r="E315">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F225593-34F2-463E-8C98-49EF7730C7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB742C-074E-4CFA-9040-A5641EEB0CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$315</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$316</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>date</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>11/30/2020</t>
   </si>
 </sst>
 </file>
@@ -1075,9 +1078,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$315</c:f>
+              <c:f>data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2019,16 +2022,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>11/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$315</c:f>
+              <c:f>data!$D$2:$D$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2969,7 +2975,10 @@
                   <c:v>136313</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>167756</c:v>
+                  <c:v>167759</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>184174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,9 +3085,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$315</c:f>
+              <c:f>data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4020,16 +4029,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>11/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$315</c:f>
+              <c:f>data!$E$2:$E$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4971,6 +4983,9 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5143,8 +5158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E315" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E316" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5477,7 +5492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10841,10 +10856,27 @@
         <v>266758</v>
       </c>
       <c r="D315">
-        <v>167756</v>
+        <v>167759</v>
       </c>
       <c r="E315">
         <v>1265</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316">
+        <v>13615103</v>
+      </c>
+      <c r="C316">
+        <v>268023</v>
+      </c>
+      <c r="D316">
+        <v>184174</v>
+      </c>
+      <c r="E316">
+        <v>2607</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB742C-074E-4CFA-9040-A5641EEB0CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212D8C8-6417-47E1-98F1-3EF6493DB77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 usdeltas.odc" keepAlive="1" name="howe-hp_howehp Covid19 usdeltas" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;usdeltas&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -5144,7 +5144,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 usdeltas" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="date" tableColumnId="1"/>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212D8C8-6417-47E1-98F1-3EF6493DB77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB377C0-EFF1-40F0-A000-4648638291D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB377C0-EFF1-40F0-A000-4648638291D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25398FFB-AE22-4A26-AC5B-F096B2F28C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$316</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$317</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>date</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>11/30/2020</t>
+  </si>
+  <si>
+    <t>12/01/2020</t>
   </si>
 </sst>
 </file>
@@ -1078,9 +1081,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$316</c:f>
+              <c:f>data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2025,16 +2028,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>11/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>12/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$316</c:f>
+              <c:f>data!$D$2:$D$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2978,7 +2984,10 @@
                   <c:v>167759</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>184174</c:v>
+                  <c:v>184294</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>199988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3085,9 +3094,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$316</c:f>
+              <c:f>data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4032,16 +4041,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>11/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>12/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$316</c:f>
+              <c:f>data!$E$2:$E$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4985,7 +4997,10 @@
                   <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>2607</c:v>
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,8 +5173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E316" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E317" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E317" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5492,7 +5507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10873,10 +10888,27 @@
         <v>268023</v>
       </c>
       <c r="D316">
-        <v>184174</v>
+        <v>184294</v>
       </c>
       <c r="E316">
-        <v>2607</v>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>320</v>
+      </c>
+      <c r="B317">
+        <v>13799397</v>
+      </c>
+      <c r="C317">
+        <v>270633</v>
+      </c>
+      <c r="D317">
+        <v>199988</v>
+      </c>
+      <c r="E317">
+        <v>2885</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25398FFB-AE22-4A26-AC5B-F096B2F28C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD9562-E924-4D0D-81C0-D4D48FDE1760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$317</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$318</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>date</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>12/01/2020</t>
+  </si>
+  <si>
+    <t>12/02/2020</t>
   </si>
 </sst>
 </file>
@@ -1081,9 +1084,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$317</c:f>
+              <c:f>data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2031,16 +2034,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>12/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$317</c:f>
+              <c:f>data!$D$2:$D$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2927,67 +2933,70 @@
                   <c:v>142860</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>163491</c:v>
+                  <c:v>163607</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181593</c:v>
+                  <c:v>181510</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>159121</c:v>
+                  <c:v>159086</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>135187</c:v>
+                  <c:v>135184</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>166454</c:v>
+                  <c:v>166734</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>161745</c:v>
+                  <c:v>161717</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>172283</c:v>
+                  <c:v>172260</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>187470</c:v>
+                  <c:v>187637</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>198672</c:v>
+                  <c:v>198632</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>172003</c:v>
+                  <c:v>171996</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>141034</c:v>
+                  <c:v>141025</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>179099</c:v>
+                  <c:v>179301</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>178290</c:v>
+                  <c:v>177753</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>180536</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>103104</c:v>
+                  <c:v>103597</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>205460</c:v>
+                  <c:v>205667</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>151247</c:v>
+                  <c:v>151232</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>136313</c:v>
+                  <c:v>136286</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>167759</c:v>
+                  <c:v>167804</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>184294</c:v>
+                  <c:v>184280</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>199988</c:v>
+                  <c:v>200472</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>216548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,9 +3103,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$317</c:f>
+              <c:f>data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4044,16 +4053,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>12/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$317</c:f>
+              <c:f>data!$E$2:$E$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5001,6 +5013,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2885</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5173,8 +5188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E317" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E317" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E318" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5507,7 +5522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10565,7 +10580,7 @@
         <v>241689</v>
       </c>
       <c r="D297">
-        <v>163491</v>
+        <v>163607</v>
       </c>
       <c r="E297">
         <v>1172</v>
@@ -10576,13 +10591,13 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637733</v>
+        <v>10637849</v>
       </c>
       <c r="C298">
         <v>242861</v>
       </c>
       <c r="D298">
-        <v>181593</v>
+        <v>181510</v>
       </c>
       <c r="E298">
         <v>1389</v>
@@ -10593,13 +10608,13 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10819326</v>
+        <v>10819359</v>
       </c>
       <c r="C299">
         <v>244250</v>
       </c>
       <c r="D299">
-        <v>159121</v>
+        <v>159086</v>
       </c>
       <c r="E299">
         <v>1210</v>
@@ -10610,13 +10625,13 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10978447</v>
+        <v>10978445</v>
       </c>
       <c r="C300">
         <v>245460</v>
       </c>
       <c r="D300">
-        <v>135187</v>
+        <v>135184</v>
       </c>
       <c r="E300">
         <v>623</v>
@@ -10627,13 +10642,13 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>11113634</v>
+        <v>11113629</v>
       </c>
       <c r="C301">
         <v>246083</v>
       </c>
       <c r="D301">
-        <v>166454</v>
+        <v>166734</v>
       </c>
       <c r="E301">
         <v>796</v>
@@ -10644,13 +10659,13 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11280088</v>
+        <v>11280363</v>
       </c>
       <c r="C302">
         <v>246879</v>
       </c>
       <c r="D302">
-        <v>161745</v>
+        <v>161717</v>
       </c>
       <c r="E302">
         <v>1607</v>
@@ -10661,13 +10676,13 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>11441833</v>
+        <v>11442080</v>
       </c>
       <c r="C303">
         <v>248486</v>
       </c>
       <c r="D303">
-        <v>172283</v>
+        <v>172260</v>
       </c>
       <c r="E303">
         <v>1925</v>
@@ -10678,13 +10693,13 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>11614116</v>
+        <v>11614340</v>
       </c>
       <c r="C304">
         <v>250411</v>
       </c>
       <c r="D304">
-        <v>187470</v>
+        <v>187637</v>
       </c>
       <c r="E304">
         <v>1962</v>
@@ -10695,13 +10710,13 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801586</v>
+        <v>11801977</v>
       </c>
       <c r="C305">
         <v>252373</v>
       </c>
       <c r="D305">
-        <v>198672</v>
+        <v>198632</v>
       </c>
       <c r="E305">
         <v>1952</v>
@@ -10712,13 +10727,13 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000258</v>
+        <v>12000609</v>
       </c>
       <c r="C306">
         <v>254325</v>
       </c>
       <c r="D306">
-        <v>172003</v>
+        <v>171996</v>
       </c>
       <c r="E306">
         <v>1429</v>
@@ -10729,13 +10744,13 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172261</v>
+        <v>12172605</v>
       </c>
       <c r="C307">
         <v>255754</v>
       </c>
       <c r="D307">
-        <v>141034</v>
+        <v>141025</v>
       </c>
       <c r="E307">
         <v>843</v>
@@ -10746,13 +10761,13 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>12313295</v>
+        <v>12313630</v>
       </c>
       <c r="C308">
         <v>256597</v>
       </c>
       <c r="D308">
-        <v>179099</v>
+        <v>179301</v>
       </c>
       <c r="E308">
         <v>1038</v>
@@ -10763,13 +10778,13 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492394</v>
+        <v>12492931</v>
       </c>
       <c r="C309">
         <v>257635</v>
       </c>
       <c r="D309">
-        <v>178290</v>
+        <v>177753</v>
       </c>
       <c r="E309">
         <v>2209</v>
@@ -10803,7 +10818,7 @@
         <v>262157</v>
       </c>
       <c r="D311">
-        <v>103104</v>
+        <v>103597</v>
       </c>
       <c r="E311">
         <v>1179</v>
@@ -10814,13 +10829,13 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>12954324</v>
+        <v>12954817</v>
       </c>
       <c r="C312">
         <v>263336</v>
       </c>
       <c r="D312">
-        <v>205460</v>
+        <v>205667</v>
       </c>
       <c r="E312">
         <v>1412</v>
@@ -10831,13 +10846,13 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>13159784</v>
+        <v>13160484</v>
       </c>
       <c r="C313">
         <v>264748</v>
       </c>
       <c r="D313">
-        <v>151247</v>
+        <v>151232</v>
       </c>
       <c r="E313">
         <v>1192</v>
@@ -10848,13 +10863,13 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>13311031</v>
+        <v>13311716</v>
       </c>
       <c r="C314">
         <v>265940</v>
       </c>
       <c r="D314">
-        <v>136313</v>
+        <v>136286</v>
       </c>
       <c r="E314">
         <v>818</v>
@@ -10865,13 +10880,13 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>13447344</v>
+        <v>13448002</v>
       </c>
       <c r="C315">
         <v>266758</v>
       </c>
       <c r="D315">
-        <v>167759</v>
+        <v>167804</v>
       </c>
       <c r="E315">
         <v>1265</v>
@@ -10882,13 +10897,13 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>13615103</v>
+        <v>13615806</v>
       </c>
       <c r="C316">
         <v>268023</v>
       </c>
       <c r="D316">
-        <v>184294</v>
+        <v>184280</v>
       </c>
       <c r="E316">
         <v>2610</v>
@@ -10899,16 +10914,33 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>13799397</v>
+        <v>13800086</v>
       </c>
       <c r="C317">
         <v>270633</v>
       </c>
       <c r="D317">
-        <v>199988</v>
+        <v>200472</v>
       </c>
       <c r="E317">
         <v>2885</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>321</v>
+      </c>
+      <c r="B318">
+        <v>14000558</v>
+      </c>
+      <c r="C318">
+        <v>273518</v>
+      </c>
+      <c r="D318">
+        <v>216548</v>
+      </c>
+      <c r="E318">
+        <v>2857</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD9562-E924-4D0D-81C0-D4D48FDE1760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504BF96-D108-401E-BE80-A6D7FD0A8B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$318</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$319</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>date</t>
   </si>
@@ -999,6 +999,9 @@
   </si>
   <si>
     <t>12/02/2020</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
   </si>
 </sst>
 </file>
@@ -1084,9 +1087,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$318</c:f>
+              <c:f>data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2037,16 +2040,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>12/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$318</c:f>
+              <c:f>data!$D$2:$D$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2933,70 +2939,73 @@
                   <c:v>142860</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>163607</c:v>
+                  <c:v>163491</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181510</c:v>
+                  <c:v>181593</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>159086</c:v>
+                  <c:v>159121</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>135184</c:v>
+                  <c:v>135187</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>166734</c:v>
+                  <c:v>166454</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>161717</c:v>
+                  <c:v>161745</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>172260</c:v>
+                  <c:v>172283</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>187637</c:v>
+                  <c:v>187470</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>198632</c:v>
+                  <c:v>198672</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>171996</c:v>
+                  <c:v>172003</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>141025</c:v>
+                  <c:v>141034</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>179301</c:v>
+                  <c:v>179099</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>177753</c:v>
+                  <c:v>178290</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>180536</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>103597</c:v>
+                  <c:v>103104</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>205667</c:v>
+                  <c:v>205462</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>151232</c:v>
+                  <c:v>151245</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>136286</c:v>
+                  <c:v>136338</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>167804</c:v>
+                  <c:v>167760</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>184280</c:v>
+                  <c:v>184286</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>200472</c:v>
+                  <c:v>200334</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>216548</c:v>
+                  <c:v>217357</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>229077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,9 +3112,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$318</c:f>
+              <c:f>data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4056,16 +4065,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>12/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$318</c:f>
+              <c:f>data!$E$2:$E$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5016,6 +5028,9 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5188,8 +5203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E318" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E319" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5522,7 +5537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E318"/>
+  <dimension ref="A1:E319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10580,7 +10595,7 @@
         <v>241689</v>
       </c>
       <c r="D297">
-        <v>163607</v>
+        <v>163491</v>
       </c>
       <c r="E297">
         <v>1172</v>
@@ -10591,13 +10606,13 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637849</v>
+        <v>10637733</v>
       </c>
       <c r="C298">
         <v>242861</v>
       </c>
       <c r="D298">
-        <v>181510</v>
+        <v>181593</v>
       </c>
       <c r="E298">
         <v>1389</v>
@@ -10608,13 +10623,13 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10819359</v>
+        <v>10819326</v>
       </c>
       <c r="C299">
         <v>244250</v>
       </c>
       <c r="D299">
-        <v>159086</v>
+        <v>159121</v>
       </c>
       <c r="E299">
         <v>1210</v>
@@ -10625,13 +10640,13 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10978445</v>
+        <v>10978447</v>
       </c>
       <c r="C300">
         <v>245460</v>
       </c>
       <c r="D300">
-        <v>135184</v>
+        <v>135187</v>
       </c>
       <c r="E300">
         <v>623</v>
@@ -10642,13 +10657,13 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>11113629</v>
+        <v>11113634</v>
       </c>
       <c r="C301">
         <v>246083</v>
       </c>
       <c r="D301">
-        <v>166734</v>
+        <v>166454</v>
       </c>
       <c r="E301">
         <v>796</v>
@@ -10659,13 +10674,13 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11280363</v>
+        <v>11280088</v>
       </c>
       <c r="C302">
         <v>246879</v>
       </c>
       <c r="D302">
-        <v>161717</v>
+        <v>161745</v>
       </c>
       <c r="E302">
         <v>1607</v>
@@ -10676,13 +10691,13 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>11442080</v>
+        <v>11441833</v>
       </c>
       <c r="C303">
         <v>248486</v>
       </c>
       <c r="D303">
-        <v>172260</v>
+        <v>172283</v>
       </c>
       <c r="E303">
         <v>1925</v>
@@ -10693,13 +10708,13 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>11614340</v>
+        <v>11614116</v>
       </c>
       <c r="C304">
         <v>250411</v>
       </c>
       <c r="D304">
-        <v>187637</v>
+        <v>187470</v>
       </c>
       <c r="E304">
         <v>1962</v>
@@ -10710,13 +10725,13 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801977</v>
+        <v>11801586</v>
       </c>
       <c r="C305">
         <v>252373</v>
       </c>
       <c r="D305">
-        <v>198632</v>
+        <v>198672</v>
       </c>
       <c r="E305">
         <v>1952</v>
@@ -10727,13 +10742,13 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000609</v>
+        <v>12000258</v>
       </c>
       <c r="C306">
         <v>254325</v>
       </c>
       <c r="D306">
-        <v>171996</v>
+        <v>172003</v>
       </c>
       <c r="E306">
         <v>1429</v>
@@ -10744,13 +10759,13 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172605</v>
+        <v>12172261</v>
       </c>
       <c r="C307">
         <v>255754</v>
       </c>
       <c r="D307">
-        <v>141025</v>
+        <v>141034</v>
       </c>
       <c r="E307">
         <v>843</v>
@@ -10761,13 +10776,13 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>12313630</v>
+        <v>12313295</v>
       </c>
       <c r="C308">
         <v>256597</v>
       </c>
       <c r="D308">
-        <v>179301</v>
+        <v>179099</v>
       </c>
       <c r="E308">
         <v>1038</v>
@@ -10778,13 +10793,13 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492931</v>
+        <v>12492394</v>
       </c>
       <c r="C309">
         <v>257635</v>
       </c>
       <c r="D309">
-        <v>177753</v>
+        <v>178290</v>
       </c>
       <c r="E309">
         <v>2209</v>
@@ -10818,7 +10833,7 @@
         <v>262157</v>
       </c>
       <c r="D311">
-        <v>103597</v>
+        <v>103104</v>
       </c>
       <c r="E311">
         <v>1179</v>
@@ -10829,13 +10844,13 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>12954817</v>
+        <v>12954324</v>
       </c>
       <c r="C312">
         <v>263336</v>
       </c>
       <c r="D312">
-        <v>205667</v>
+        <v>205462</v>
       </c>
       <c r="E312">
         <v>1412</v>
@@ -10846,13 +10861,13 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>13160484</v>
+        <v>13159786</v>
       </c>
       <c r="C313">
         <v>264748</v>
       </c>
       <c r="D313">
-        <v>151232</v>
+        <v>151245</v>
       </c>
       <c r="E313">
         <v>1192</v>
@@ -10863,13 +10878,13 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>13311716</v>
+        <v>13311031</v>
       </c>
       <c r="C314">
         <v>265940</v>
       </c>
       <c r="D314">
-        <v>136286</v>
+        <v>136338</v>
       </c>
       <c r="E314">
         <v>818</v>
@@ -10880,13 +10895,13 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>13448002</v>
+        <v>13447369</v>
       </c>
       <c r="C315">
         <v>266758</v>
       </c>
       <c r="D315">
-        <v>167804</v>
+        <v>167760</v>
       </c>
       <c r="E315">
         <v>1265</v>
@@ -10897,13 +10912,13 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>13615806</v>
+        <v>13615129</v>
       </c>
       <c r="C316">
         <v>268023</v>
       </c>
       <c r="D316">
-        <v>184280</v>
+        <v>184286</v>
       </c>
       <c r="E316">
         <v>2610</v>
@@ -10914,13 +10929,13 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>13800086</v>
+        <v>13799415</v>
       </c>
       <c r="C317">
         <v>270633</v>
       </c>
       <c r="D317">
-        <v>200472</v>
+        <v>200334</v>
       </c>
       <c r="E317">
         <v>2885</v>
@@ -10931,16 +10946,33 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>14000558</v>
+        <v>13999749</v>
       </c>
       <c r="C318">
         <v>273518</v>
       </c>
       <c r="D318">
-        <v>216548</v>
+        <v>217357</v>
       </c>
       <c r="E318">
         <v>2857</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>322</v>
+      </c>
+      <c r="B319">
+        <v>14217106</v>
+      </c>
+      <c r="C319">
+        <v>276375</v>
+      </c>
+      <c r="D319">
+        <v>229077</v>
+      </c>
+      <c r="E319">
+        <v>2637</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504BF96-D108-401E-BE80-A6D7FD0A8B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B69D04-6C05-4930-8439-11E88D18D08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$319</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$320</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>date</t>
   </si>
@@ -1002,6 +1002,9 @@
   </si>
   <si>
     <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>12/04/2020</t>
   </si>
 </sst>
 </file>
@@ -1087,9 +1090,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$319</c:f>
+              <c:f>data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2043,16 +2046,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>12/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$319</c:f>
+              <c:f>data!$D$2:$D$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3006,6 +3012,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>229077</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>205513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,9 +3121,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$319</c:f>
+              <c:f>data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4068,16 +4077,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>12/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$319</c:f>
+              <c:f>data!$E$2:$E$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5031,6 +5043,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,8 +5218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E319" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E320" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5537,7 +5552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10973,6 +10988,23 @@
       </c>
       <c r="E319">
         <v>2637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320">
+        <v>14446183</v>
+      </c>
+      <c r="C320">
+        <v>279012</v>
+      </c>
+      <c r="D320">
+        <v>205513</v>
+      </c>
+      <c r="E320">
+        <v>2190</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B69D04-6C05-4930-8439-11E88D18D08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775BA16-3E4F-4E7B-98AE-F8120CF7207E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$320</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$321</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>date</t>
   </si>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t>12/04/2020</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
   </si>
 </sst>
 </file>
@@ -1090,9 +1093,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$320</c:f>
+              <c:f>data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2049,16 +2052,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>12/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$320</c:f>
+              <c:f>data!$D$2:$D$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3015,6 +3021,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>205513</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>173459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3121,9 +3130,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$320</c:f>
+              <c:f>data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4080,16 +4089,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>12/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$320</c:f>
+              <c:f>data!$E$2:$E$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5046,6 +5058,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5218,8 +5233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E320" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E321" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E321" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5552,7 +5567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11005,6 +11020,23 @@
       </c>
       <c r="E320">
         <v>2190</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>324</v>
+      </c>
+      <c r="B321">
+        <v>14651696</v>
+      </c>
+      <c r="C321">
+        <v>281202</v>
+      </c>
+      <c r="D321">
+        <v>173459</v>
+      </c>
+      <c r="E321">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775BA16-3E4F-4E7B-98AE-F8120CF7207E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0167F46F-5EF7-4113-8197-06955ACA1F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$321</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$322</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>date</t>
   </si>
@@ -1008,6 +1008,9 @@
   </si>
   <si>
     <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
   </si>
 </sst>
 </file>
@@ -1093,9 +1096,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$321</c:f>
+              <c:f>data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2055,16 +2058,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>12/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$321</c:f>
+              <c:f>data!$D$2:$D$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3023,7 +3029,10 @@
                   <c:v>205513</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>173459</c:v>
+                  <c:v>173457</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>202268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,9 +3139,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$321</c:f>
+              <c:f>data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4092,16 +4101,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>12/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$321</c:f>
+              <c:f>data!$E$2:$E$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5061,6 +5073,9 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,8 +5248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E321" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E321" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E322" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E322" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5567,7 +5582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11033,10 +11048,27 @@
         <v>281202</v>
       </c>
       <c r="D321">
-        <v>173459</v>
+        <v>173457</v>
       </c>
       <c r="E321">
         <v>1111</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322">
+        <v>14825153</v>
+      </c>
+      <c r="C322">
+        <v>282313</v>
+      </c>
+      <c r="D322">
+        <v>202268</v>
+      </c>
+      <c r="E322">
+        <v>1522</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0167F46F-5EF7-4113-8197-06955ACA1F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39CBACF-9C05-4DDA-89A3-854620761E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$322</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$323</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
     <t>date</t>
   </si>
@@ -1011,6 +1011,9 @@
   </si>
   <si>
     <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
   </si>
 </sst>
 </file>
@@ -1096,9 +1099,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$322</c:f>
+              <c:f>data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2061,16 +2064,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>12/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$322</c:f>
+              <c:f>data!$D$2:$D$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3023,16 +3029,19 @@
                   <c:v>217357</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>229077</c:v>
+                  <c:v>229243</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>205513</c:v>
+                  <c:v>205662</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>173457</c:v>
+                  <c:v>173142</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>202268</c:v>
+                  <c:v>203485</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>220225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,9 +3148,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$322</c:f>
+              <c:f>data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4104,16 +4113,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>12/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$322</c:f>
+              <c:f>data!$E$2:$E$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5075,7 +5087,10 @@
                   <c:v>1111</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1522</c:v>
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5248,8 +5263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E322" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E322" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E323" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E323" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5582,7 +5597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11014,7 +11029,7 @@
         <v>276375</v>
       </c>
       <c r="D319">
-        <v>229077</v>
+        <v>229243</v>
       </c>
       <c r="E319">
         <v>2637</v>
@@ -11025,13 +11040,13 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>14446183</v>
+        <v>14446349</v>
       </c>
       <c r="C320">
         <v>279012</v>
       </c>
       <c r="D320">
-        <v>205513</v>
+        <v>205662</v>
       </c>
       <c r="E320">
         <v>2190</v>
@@ -11042,13 +11057,13 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>14651696</v>
+        <v>14652011</v>
       </c>
       <c r="C321">
         <v>281202</v>
       </c>
       <c r="D321">
-        <v>173457</v>
+        <v>173142</v>
       </c>
       <c r="E321">
         <v>1111</v>
@@ -11065,10 +11080,27 @@
         <v>282313</v>
       </c>
       <c r="D322">
-        <v>202268</v>
+        <v>203485</v>
       </c>
       <c r="E322">
-        <v>1522</v>
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>326</v>
+      </c>
+      <c r="B323">
+        <v>15028638</v>
+      </c>
+      <c r="C323">
+        <v>283846</v>
+      </c>
+      <c r="D323">
+        <v>220225</v>
+      </c>
+      <c r="E323">
+        <v>2597</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39CBACF-9C05-4DDA-89A3-854620761E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697859C-0F6A-4F37-8769-AEDDC75F9E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$323</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$324</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>date</t>
   </si>
@@ -1014,6 +1014,9 @@
   </si>
   <si>
     <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
   </si>
 </sst>
 </file>
@@ -1099,9 +1102,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$323</c:f>
+              <c:f>data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2067,16 +2070,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>12/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$323</c:f>
+              <c:f>data!$D$2:$D$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3041,7 +3047,10 @@
                   <c:v>203485</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>220225</c:v>
+                  <c:v>221480</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>218473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,9 +3157,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$323</c:f>
+              <c:f>data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4116,16 +4125,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>12/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$323</c:f>
+              <c:f>data!$E$2:$E$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5090,7 +5102,10 @@
                   <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>2597</c:v>
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5263,8 +5278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E323" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E323" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E324" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E324" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5597,7 +5612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11097,10 +11112,27 @@
         <v>283846</v>
       </c>
       <c r="D323">
-        <v>220225</v>
+        <v>221480</v>
       </c>
       <c r="E323">
-        <v>2597</v>
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>327</v>
+      </c>
+      <c r="B324">
+        <v>15250118</v>
+      </c>
+      <c r="C324">
+        <v>286476</v>
+      </c>
+      <c r="D324">
+        <v>218473</v>
+      </c>
+      <c r="E324">
+        <v>3053</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697859C-0F6A-4F37-8769-AEDDC75F9E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976A9AB-A586-48BA-88C2-BDC4E727F3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3050,7 +3050,7 @@
                   <c:v>221480</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>218473</c:v>
+                  <c:v>218667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5105,7 +5105,7 @@
                   <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3053</c:v>
+                  <c:v>3055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11129,10 +11129,10 @@
         <v>286476</v>
       </c>
       <c r="D324">
-        <v>218473</v>
+        <v>218667</v>
       </c>
       <c r="E324">
-        <v>3053</v>
+        <v>3055</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976A9AB-A586-48BA-88C2-BDC4E727F3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CF6D8-A500-439F-85E3-50A99DD4D278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$324</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$325</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t>date</t>
   </si>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>12/09/2020</t>
   </si>
 </sst>
 </file>
@@ -1102,9 +1105,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$324</c:f>
+              <c:f>data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2073,16 +2076,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>12/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$324</c:f>
+              <c:f>data!$D$2:$D$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3029,28 +3035,31 @@
                   <c:v>184286</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>200334</c:v>
+                  <c:v>201186</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>217357</c:v>
+                  <c:v>217959</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>229243</c:v>
+                  <c:v>231181</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>205662</c:v>
+                  <c:v>205757</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>173142</c:v>
+                  <c:v>172159</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>203485</c:v>
+                  <c:v>204142</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>221480</c:v>
+                  <c:v>221623</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>218667</c:v>
+                  <c:v>219459</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>223570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,9 +3166,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$324</c:f>
+              <c:f>data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4128,16 +4137,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>12/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$324</c:f>
+              <c:f>data!$E$2:$E$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5102,10 +5114,13 @@
                   <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>2630</c:v>
+                  <c:v>2821</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3055</c:v>
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5278,8 +5293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E324" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E324" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E325" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5612,7 +5627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11010,7 +11025,7 @@
         <v>270633</v>
       </c>
       <c r="D317">
-        <v>200334</v>
+        <v>201186</v>
       </c>
       <c r="E317">
         <v>2885</v>
@@ -11021,13 +11036,13 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>13999749</v>
+        <v>14000601</v>
       </c>
       <c r="C318">
         <v>273518</v>
       </c>
       <c r="D318">
-        <v>217357</v>
+        <v>217959</v>
       </c>
       <c r="E318">
         <v>2857</v>
@@ -11038,13 +11053,13 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>14217106</v>
+        <v>14218560</v>
       </c>
       <c r="C319">
         <v>276375</v>
       </c>
       <c r="D319">
-        <v>229243</v>
+        <v>231181</v>
       </c>
       <c r="E319">
         <v>2637</v>
@@ -11055,13 +11070,13 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>14446349</v>
+        <v>14449741</v>
       </c>
       <c r="C320">
         <v>279012</v>
       </c>
       <c r="D320">
-        <v>205662</v>
+        <v>205757</v>
       </c>
       <c r="E320">
         <v>2190</v>
@@ -11072,13 +11087,13 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>14652011</v>
+        <v>14655498</v>
       </c>
       <c r="C321">
         <v>281202</v>
       </c>
       <c r="D321">
-        <v>173142</v>
+        <v>172159</v>
       </c>
       <c r="E321">
         <v>1111</v>
@@ -11089,13 +11104,13 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>14825153</v>
+        <v>14827657</v>
       </c>
       <c r="C322">
         <v>282313</v>
       </c>
       <c r="D322">
-        <v>203485</v>
+        <v>204142</v>
       </c>
       <c r="E322">
         <v>1533</v>
@@ -11106,16 +11121,16 @@
         <v>326</v>
       </c>
       <c r="B323">
-        <v>15028638</v>
+        <v>15031799</v>
       </c>
       <c r="C323">
         <v>283846</v>
       </c>
       <c r="D323">
-        <v>221480</v>
+        <v>221623</v>
       </c>
       <c r="E323">
-        <v>2630</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -11123,16 +11138,33 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>15250118</v>
+        <v>15253422</v>
       </c>
       <c r="C324">
-        <v>286476</v>
+        <v>286667</v>
       </c>
       <c r="D324">
-        <v>218667</v>
+        <v>219459</v>
       </c>
       <c r="E324">
-        <v>3055</v>
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>328</v>
+      </c>
+      <c r="B325">
+        <v>15472881</v>
+      </c>
+      <c r="C325">
+        <v>289824</v>
+      </c>
+      <c r="D325">
+        <v>223570</v>
+      </c>
+      <c r="E325">
+        <v>2923</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CF6D8-A500-439F-85E3-50A99DD4D278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80591B1E-AB50-4B0C-A2F0-F04569E63389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$325</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$326</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>date</t>
   </si>
@@ -1020,6 +1020,9 @@
   </si>
   <si>
     <t>12/09/2020</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
   </si>
 </sst>
 </file>
@@ -1105,9 +1108,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$325</c:f>
+              <c:f>data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2079,16 +2082,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>12/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>12/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$325</c:f>
+              <c:f>data!$D$2:$D$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3053,13 +3059,16 @@
                   <c:v>204142</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>221623</c:v>
+                  <c:v>219905</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>219459</c:v>
+                  <c:v>219678</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>223570</c:v>
+                  <c:v>225252</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>280514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,9 +3175,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$325</c:f>
+              <c:f>data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4140,16 +4149,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>12/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>12/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$325</c:f>
+              <c:f>data!$E$2:$E$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5120,7 +5132,10 @@
                   <c:v>3157</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>2923</c:v>
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5293,8 +5308,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E325" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E326" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E326" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5627,7 +5642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11127,7 +11142,7 @@
         <v>283846</v>
       </c>
       <c r="D323">
-        <v>221623</v>
+        <v>219905</v>
       </c>
       <c r="E323">
         <v>2821</v>
@@ -11138,13 +11153,13 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>15253422</v>
+        <v>15251704</v>
       </c>
       <c r="C324">
         <v>286667</v>
       </c>
       <c r="D324">
-        <v>219459</v>
+        <v>219678</v>
       </c>
       <c r="E324">
         <v>3157</v>
@@ -11155,16 +11170,33 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>15472881</v>
+        <v>15471382</v>
       </c>
       <c r="C325">
         <v>289824</v>
       </c>
       <c r="D325">
-        <v>223570</v>
+        <v>225252</v>
       </c>
       <c r="E325">
-        <v>2923</v>
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>329</v>
+      </c>
+      <c r="B326">
+        <v>15696634</v>
+      </c>
+      <c r="C326">
+        <v>292761</v>
+      </c>
+      <c r="D326">
+        <v>280514</v>
+      </c>
+      <c r="E326">
+        <v>2951</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80591B1E-AB50-4B0C-A2F0-F04569E63389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8A843B-0273-4985-A8A3-CE2080B54CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8A843B-0273-4985-A8A3-CE2080B54CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467949A5-2917-4EA9-B319-420C48F26A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$326</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$327</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>date</t>
   </si>
@@ -1023,6 +1023,9 @@
   </si>
   <si>
     <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1108,9 +1111,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$326</c:f>
+              <c:f>data!$A$2:$A$327</c:f>
               <c:strCache>
-                <c:ptCount val="325"/>
+                <c:ptCount val="326"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2085,16 +2088,19 @@
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>12/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$326</c:f>
+              <c:f>data!$D$2:$D$327</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="325"/>
+                <c:ptCount val="326"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3069,6 +3075,9 @@
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>280514</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>207444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,9 +3184,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$326</c:f>
+              <c:f>data!$A$2:$A$327</c:f>
               <c:strCache>
-                <c:ptCount val="325"/>
+                <c:ptCount val="326"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4152,16 +4161,19 @@
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>12/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$326</c:f>
+              <c:f>data!$E$2:$E$327</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="325"/>
+                <c:ptCount val="326"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5136,6 +5148,9 @@
                 </c:pt>
                 <c:pt idx="324">
                   <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5308,8 +5323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E326" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E326" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E327" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E327" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5642,7 +5657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11197,6 +11212,23 @@
       </c>
       <c r="E326">
         <v>2951</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>330</v>
+      </c>
+      <c r="B327">
+        <v>15977148</v>
+      </c>
+      <c r="C327">
+        <v>295712</v>
+      </c>
+      <c r="D327">
+        <v>207444</v>
+      </c>
+      <c r="E327">
+        <v>2259</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467949A5-2917-4EA9-B319-420C48F26A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA21C659-FB45-400E-BA91-570FD77CA767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$327</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$328</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t>date</t>
   </si>
@@ -1026,6 +1026,9 @@
   </si>
   <si>
     <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
   </si>
 </sst>
 </file>
@@ -1111,9 +1114,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$327</c:f>
+              <c:f>data!$A$2:$A$328</c:f>
               <c:strCache>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2091,16 +2094,19 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>12/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$327</c:f>
+              <c:f>data!$D$2:$D$328</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3078,6 +3084,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>207444</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>183814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,9 +3193,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$327</c:f>
+              <c:f>data!$A$2:$A$328</c:f>
               <c:strCache>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4164,16 +4173,19 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>12/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$327</c:f>
+              <c:f>data!$E$2:$E$328</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5151,6 +5163,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>2259</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5323,8 +5338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E327" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E327" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E328" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E328" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5657,7 +5672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11229,6 +11244,23 @@
       </c>
       <c r="E327">
         <v>2259</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>331</v>
+      </c>
+      <c r="B328">
+        <v>16184592</v>
+      </c>
+      <c r="C328">
+        <v>297971</v>
+      </c>
+      <c r="D328">
+        <v>183814</v>
+      </c>
+      <c r="E328">
+        <v>1357</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA21C659-FB45-400E-BA91-570FD77CA767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614DF795-748B-43CF-ADC4-736298FBD198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$328</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$329</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>date</t>
   </si>
@@ -1029,6 +1029,9 @@
   </si>
   <si>
     <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>12/13/2020</t>
   </si>
 </sst>
 </file>
@@ -1114,9 +1117,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$328</c:f>
+              <c:f>data!$A$2:$A$329</c:f>
               <c:strCache>
-                <c:ptCount val="327"/>
+                <c:ptCount val="328"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2097,16 +2100,19 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>12/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>12/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$328</c:f>
+              <c:f>data!$D$2:$D$329</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="328"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3086,7 +3092,10 @@
                   <c:v>207444</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>183814</c:v>
+                  <c:v>184248</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>201073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,9 +3202,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$328</c:f>
+              <c:f>data!$A$2:$A$329</c:f>
               <c:strCache>
-                <c:ptCount val="327"/>
+                <c:ptCount val="328"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4176,16 +4185,19 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>12/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>12/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$328</c:f>
+              <c:f>data!$E$2:$E$329</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="328"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5166,6 +5178,9 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,8 +5353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E328" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E328" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E329" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E329" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5672,7 +5687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11257,10 +11272,27 @@
         <v>297971</v>
       </c>
       <c r="D328">
-        <v>183814</v>
+        <v>184248</v>
       </c>
       <c r="E328">
         <v>1357</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>332</v>
+      </c>
+      <c r="B329">
+        <v>16368840</v>
+      </c>
+      <c r="C329">
+        <v>299328</v>
+      </c>
+      <c r="D329">
+        <v>201073</v>
+      </c>
+      <c r="E329">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614DF795-748B-43CF-ADC4-736298FBD198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA58609B-641F-4111-A03E-ED1A49A68644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$329</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$330</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>date</t>
   </si>
@@ -1032,6 +1032,9 @@
   </si>
   <si>
     <t>12/13/2020</t>
+  </si>
+  <si>
+    <t>12/14/2020</t>
   </si>
 </sst>
 </file>
@@ -1117,9 +1120,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$329</c:f>
+              <c:f>data!$A$2:$A$330</c:f>
               <c:strCache>
-                <c:ptCount val="328"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2103,16 +2106,19 @@
                 </c:pt>
                 <c:pt idx="327">
                   <c:v>12/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>12/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$329</c:f>
+              <c:f>data!$D$2:$D$330</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="328"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3096,6 +3102,9 @@
                 </c:pt>
                 <c:pt idx="327">
                   <c:v>201073</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>201649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,9 +3211,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$329</c:f>
+              <c:f>data!$A$2:$A$330</c:f>
               <c:strCache>
-                <c:ptCount val="328"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4188,16 +4197,19 @@
                 </c:pt>
                 <c:pt idx="327">
                   <c:v>12/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>12/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$329</c:f>
+              <c:f>data!$E$2:$E$330</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="328"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5181,6 +5193,9 @@
                 </c:pt>
                 <c:pt idx="327">
                   <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5353,8 +5368,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E329" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E329" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E330" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E330" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5687,7 +5702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11293,6 +11308,23 @@
       </c>
       <c r="E329">
         <v>1678</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>333</v>
+      </c>
+      <c r="B330">
+        <v>16569913</v>
+      </c>
+      <c r="C330">
+        <v>301006</v>
+      </c>
+      <c r="D330">
+        <v>201649</v>
+      </c>
+      <c r="E330">
+        <v>2957</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA58609B-641F-4111-A03E-ED1A49A68644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A498EF-1A0F-4F2B-A0A0-0D5B01143345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$330</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$331</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>date</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>12/14/2020</t>
+  </si>
+  <si>
+    <t>12/15/2020</t>
   </si>
 </sst>
 </file>
@@ -1120,9 +1123,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$330</c:f>
+              <c:f>data!$A$2:$A$331</c:f>
               <c:strCache>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2109,16 +2112,19 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>12/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>12/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$330</c:f>
+              <c:f>data!$D$2:$D$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3104,7 +3110,10 @@
                   <c:v>201073</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>201649</c:v>
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>245033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3211,9 +3220,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$330</c:f>
+              <c:f>data!$A$2:$A$331</c:f>
               <c:strCache>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4200,16 +4209,19 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>12/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>12/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$330</c:f>
+              <c:f>data!$E$2:$E$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5195,7 +5207,10 @@
                   <c:v>1678</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>2957</c:v>
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5368,8 +5383,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E330" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E330" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E331" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E331" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5702,7 +5717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11321,10 +11336,27 @@
         <v>301006</v>
       </c>
       <c r="D330">
-        <v>201649</v>
+        <v>203000</v>
       </c>
       <c r="E330">
-        <v>2957</v>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>334</v>
+      </c>
+      <c r="B331">
+        <v>16772913</v>
+      </c>
+      <c r="C331">
+        <v>304031</v>
+      </c>
+      <c r="D331">
+        <v>245033</v>
+      </c>
+      <c r="E331">
+        <v>3611</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A498EF-1A0F-4F2B-A0A0-0D5B01143345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C929DE-3F10-4F0E-9024-F03776820189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$331</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$332</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>date</t>
   </si>
@@ -1038,6 +1038,9 @@
   </si>
   <si>
     <t>12/15/2020</t>
+  </si>
+  <si>
+    <t>12/16/2020</t>
   </si>
 </sst>
 </file>
@@ -1123,9 +1126,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$331</c:f>
+              <c:f>data!$A$2:$A$332</c:f>
               <c:strCache>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2115,16 +2118,19 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>12/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>12/16/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$331</c:f>
+              <c:f>data!$D$2:$D$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3114,6 +3120,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>245033</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>238189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,9 +3229,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$331</c:f>
+              <c:f>data!$A$2:$A$332</c:f>
               <c:strCache>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4212,16 +4221,19 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>12/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>12/16/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$331</c:f>
+              <c:f>data!$E$2:$E$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5211,6 +5223,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>3611</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,8 +5398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E331" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E331" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E332" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E332" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5717,7 +5732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11357,6 +11372,23 @@
       </c>
       <c r="E331">
         <v>3611</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>335</v>
+      </c>
+      <c r="B332">
+        <v>17017946</v>
+      </c>
+      <c r="C332">
+        <v>307642</v>
+      </c>
+      <c r="D332">
+        <v>238189</v>
+      </c>
+      <c r="E332">
+        <v>3293</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C929DE-3F10-4F0E-9024-F03776820189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069FA79-B45C-40DE-B597-D205BFB646AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$332</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$333</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t>date</t>
   </si>
@@ -1041,6 +1041,9 @@
   </si>
   <si>
     <t>12/16/2020</t>
+  </si>
+  <si>
+    <t>12/17/2020</t>
   </si>
 </sst>
 </file>
@@ -1126,9 +1129,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$332</c:f>
+              <c:f>data!$A$2:$A$333</c:f>
               <c:strCache>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2121,16 +2124,19 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>12/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>12/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$332</c:f>
+              <c:f>data!$D$2:$D$333</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3123,6 +3129,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>238189</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>251343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,9 +3238,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$332</c:f>
+              <c:f>data!$A$2:$A$333</c:f>
               <c:strCache>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4224,16 +4233,19 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>12/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>12/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$332</c:f>
+              <c:f>data!$E$2:$E$333</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5226,6 +5238,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5398,8 +5413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E332" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E332" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E333" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E333" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5732,7 +5747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11389,6 +11404,23 @@
       </c>
       <c r="E332">
         <v>3293</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>336</v>
+      </c>
+      <c r="B333">
+        <v>17256135</v>
+      </c>
+      <c r="C333">
+        <v>310935</v>
+      </c>
+      <c r="D333">
+        <v>251343</v>
+      </c>
+      <c r="E333">
+        <v>2805</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069FA79-B45C-40DE-B597-D205BFB646AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6266A-3905-4281-8255-654EAE313B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$333</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$334</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t>date</t>
   </si>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>12/17/2020</t>
+  </si>
+  <si>
+    <t>12/18/2020</t>
   </si>
 </sst>
 </file>
@@ -1129,9 +1132,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$333</c:f>
+              <c:f>data!$A$2:$A$334</c:f>
               <c:strCache>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2127,16 +2130,19 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>12/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>12/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$333</c:f>
+              <c:f>data!$D$2:$D$334</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3131,7 +3137,10 @@
                   <c:v>238189</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>251343</c:v>
+                  <c:v>251447</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>193947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3238,9 +3247,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$333</c:f>
+              <c:f>data!$A$2:$A$334</c:f>
               <c:strCache>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4236,16 +4245,19 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>12/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>12/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$333</c:f>
+              <c:f>data!$E$2:$E$334</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5240,7 +5252,10 @@
                   <c:v>3293</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>2805</c:v>
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,8 +5428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E333" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E333" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E334" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E334" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5747,7 +5762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11417,10 +11432,27 @@
         <v>310935</v>
       </c>
       <c r="D333">
-        <v>251343</v>
+        <v>251447</v>
       </c>
       <c r="E333">
-        <v>2805</v>
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>337</v>
+      </c>
+      <c r="B334">
+        <v>17507582</v>
+      </c>
+      <c r="C334">
+        <v>313750</v>
+      </c>
+      <c r="D334">
+        <v>193947</v>
+      </c>
+      <c r="E334">
+        <v>2628</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6266A-3905-4281-8255-654EAE313B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673D9EE-6C4C-4D91-9D3D-BD57A2A99ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$334</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$335</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>date</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>12/18/2020</t>
+  </si>
+  <si>
+    <t>12/19/2020</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1135,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$334</c:f>
+              <c:f>data!$A$2:$A$335</c:f>
               <c:strCache>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2133,16 +2136,19 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>12/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>12/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$334</c:f>
+              <c:f>data!$D$2:$D$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3141,6 +3147,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>193947</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>179803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,9 +3256,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$334</c:f>
+              <c:f>data!$A$2:$A$335</c:f>
               <c:strCache>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4248,16 +4257,19 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>12/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>12/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$334</c:f>
+              <c:f>data!$E$2:$E$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5256,6 +5268,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,8 +5443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E334" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E334" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E335" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E335" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5762,7 +5777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E334"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11453,6 +11468,23 @@
       </c>
       <c r="E334">
         <v>2628</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>338</v>
+      </c>
+      <c r="B335">
+        <v>17701529</v>
+      </c>
+      <c r="C335">
+        <v>316378</v>
+      </c>
+      <c r="D335">
+        <v>179803</v>
+      </c>
+      <c r="E335">
+        <v>1422</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673D9EE-6C4C-4D91-9D3D-BD57A2A99ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30A59EA-173B-4729-A8EF-803C8D6C5355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$335</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$336</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>date</t>
   </si>
@@ -1050,6 +1050,9 @@
   </si>
   <si>
     <t>12/19/2020</t>
+  </si>
+  <si>
+    <t>12/20/2020</t>
   </si>
 </sst>
 </file>
@@ -1135,9 +1138,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$335</c:f>
+              <c:f>data!$A$2:$A$336</c:f>
               <c:strCache>
-                <c:ptCount val="334"/>
+                <c:ptCount val="335"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2139,16 +2142,19 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>12/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>12/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$335</c:f>
+              <c:f>data!$D$2:$D$336</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:ptCount val="335"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3150,6 +3156,9 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>179803</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>201723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,9 +3265,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$335</c:f>
+              <c:f>data!$A$2:$A$336</c:f>
               <c:strCache>
-                <c:ptCount val="334"/>
+                <c:ptCount val="335"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4260,16 +4269,19 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>12/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>12/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$335</c:f>
+              <c:f>data!$E$2:$E$336</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:ptCount val="335"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5271,6 +5283,9 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5443,8 +5458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E335" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E335" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E336" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E336" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5777,7 +5792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11485,6 +11500,23 @@
       </c>
       <c r="E335">
         <v>1422</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>339</v>
+      </c>
+      <c r="B336">
+        <v>17881332</v>
+      </c>
+      <c r="C336">
+        <v>317800</v>
+      </c>
+      <c r="D336">
+        <v>201723</v>
+      </c>
+      <c r="E336">
+        <v>1963</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30A59EA-173B-4729-A8EF-803C8D6C5355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E49378E-9D56-421A-8DAC-460E4E4ED8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21135" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$336</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$337</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t>date</t>
   </si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>12/20/2020</t>
+  </si>
+  <si>
+    <t>12/21/2020</t>
   </si>
 </sst>
 </file>
@@ -1138,9 +1141,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$336</c:f>
+              <c:f>data!$A$2:$A$337</c:f>
               <c:strCache>
-                <c:ptCount val="335"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2145,16 +2148,19 @@
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>12/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>12/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$336</c:f>
+              <c:f>data!$D$2:$D$337</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="335"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3159,6 +3165,9 @@
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>201723</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>201674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3265,9 +3274,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$336</c:f>
+              <c:f>data!$A$2:$A$337</c:f>
               <c:strCache>
-                <c:ptCount val="335"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4272,16 +4281,19 @@
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>12/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>12/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$336</c:f>
+              <c:f>data!$E$2:$E$337</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="335"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5286,6 +5298,9 @@
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5458,8 +5473,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E336" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E336" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E337" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E337" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5792,7 +5807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11517,6 +11532,23 @@
       </c>
       <c r="E336">
         <v>1963</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>340</v>
+      </c>
+      <c r="B337">
+        <v>18083055</v>
+      </c>
+      <c r="C337">
+        <v>319763</v>
+      </c>
+      <c r="D337">
+        <v>201674</v>
+      </c>
+      <c r="E337">
+        <v>3239</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E49378E-9D56-421A-8DAC-460E4E4ED8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC644C-11E4-485A-86D1-F8D030385660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$337</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$338</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>date</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>12/21/2020</t>
+  </si>
+  <si>
+    <t>12/22/2020</t>
   </si>
 </sst>
 </file>
@@ -1141,9 +1144,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$337</c:f>
+              <c:f>data!$A$2:$A$338</c:f>
               <c:strCache>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2151,16 +2154,19 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>12/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>12/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$337</c:f>
+              <c:f>data!$D$2:$D$338</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3168,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>201674</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>227750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3274,9 +3283,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$337</c:f>
+              <c:f>data!$A$2:$A$338</c:f>
               <c:strCache>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4284,16 +4293,19 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>12/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>12/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$337</c:f>
+              <c:f>data!$E$2:$E$338</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5301,6 +5313,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,8 +5488,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E337" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E337" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E338" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E338" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5807,7 +5822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11549,6 +11564,23 @@
       </c>
       <c r="E337">
         <v>3239</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>341</v>
+      </c>
+      <c r="B338">
+        <v>18284729</v>
+      </c>
+      <c r="C338">
+        <v>323002</v>
+      </c>
+      <c r="D338">
+        <v>227750</v>
+      </c>
+      <c r="E338">
+        <v>3411</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC644C-11E4-485A-86D1-F8D030385660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F4B0C8-9CF6-4217-8C71-7D10878972D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$338</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$339</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t>date</t>
   </si>
@@ -1059,6 +1059,9 @@
   </si>
   <si>
     <t>12/22/2020</t>
+  </si>
+  <si>
+    <t>12/23/2020</t>
   </si>
 </sst>
 </file>
@@ -1144,9 +1147,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$338</c:f>
+              <c:f>data!$A$2:$A$339</c:f>
               <c:strCache>
-                <c:ptCount val="337"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2157,16 +2160,19 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>12/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>12/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$338</c:f>
+              <c:f>data!$D$2:$D$339</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3177,6 +3183,9 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>227750</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>193557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,9 +3292,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$338</c:f>
+              <c:f>data!$A$2:$A$339</c:f>
               <c:strCache>
-                <c:ptCount val="337"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4296,16 +4305,19 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>12/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>12/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$338</c:f>
+              <c:f>data!$E$2:$E$339</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5316,6 +5328,9 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>3411</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5488,8 +5503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E338" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E338" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E339" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E339" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5822,7 +5837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11581,6 +11596,23 @@
       </c>
       <c r="E338">
         <v>3411</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>342</v>
+      </c>
+      <c r="B339">
+        <v>18512479</v>
+      </c>
+      <c r="C339">
+        <v>326413</v>
+      </c>
+      <c r="D339">
+        <v>193557</v>
+      </c>
+      <c r="E339">
+        <v>2824</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F4B0C8-9CF6-4217-8C71-7D10878972D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF998045-931B-44CF-9E86-EE709A45DC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$339</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$340</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
     <t>date</t>
   </si>
@@ -1062,6 +1062,9 @@
   </si>
   <si>
     <t>12/23/2020</t>
+  </si>
+  <si>
+    <t>12/24/2020</t>
   </si>
 </sst>
 </file>
@@ -1147,9 +1150,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$339</c:f>
+              <c:f>data!$A$2:$A$340</c:f>
               <c:strCache>
-                <c:ptCount val="338"/>
+                <c:ptCount val="339"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2163,16 +2166,19 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>12/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>12/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$339</c:f>
+              <c:f>data!$D$2:$D$340</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="338"/>
+                <c:ptCount val="339"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3186,6 +3192,9 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>193557</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>91922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,9 +3301,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$339</c:f>
+              <c:f>data!$A$2:$A$340</c:f>
               <c:strCache>
-                <c:ptCount val="338"/>
+                <c:ptCount val="339"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4308,16 +4317,19 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>12/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>12/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$339</c:f>
+              <c:f>data!$E$2:$E$340</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="338"/>
+                <c:ptCount val="339"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5331,6 +5343,9 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5503,8 +5518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E339" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E339" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E340" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E340" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5837,7 +5852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11613,6 +11628,23 @@
       </c>
       <c r="E339">
         <v>2824</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>343</v>
+      </c>
+      <c r="B340">
+        <v>18706036</v>
+      </c>
+      <c r="C340">
+        <v>329237</v>
+      </c>
+      <c r="D340">
+        <v>91922</v>
+      </c>
+      <c r="E340">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF998045-931B-44CF-9E86-EE709A45DC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13305D9F-3F10-4BFF-A39B-536CAE56E9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$340</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$341</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>date</t>
   </si>
@@ -1065,6 +1065,9 @@
   </si>
   <si>
     <t>12/24/2020</t>
+  </si>
+  <si>
+    <t>12/25/2020</t>
   </si>
 </sst>
 </file>
@@ -1150,9 +1153,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$340</c:f>
+              <c:f>data!$A$2:$A$341</c:f>
               <c:strCache>
-                <c:ptCount val="339"/>
+                <c:ptCount val="340"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2169,16 +2172,19 @@
                 </c:pt>
                 <c:pt idx="338">
                   <c:v>12/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>12/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$340</c:f>
+              <c:f>data!$D$2:$D$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="339"/>
+                <c:ptCount val="340"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3195,6 +3201,9 @@
                 </c:pt>
                 <c:pt idx="338">
                   <c:v>91922</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>225818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,9 +3310,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$340</c:f>
+              <c:f>data!$A$2:$A$341</c:f>
               <c:strCache>
-                <c:ptCount val="339"/>
+                <c:ptCount val="340"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4320,16 +4329,19 @@
                 </c:pt>
                 <c:pt idx="338">
                   <c:v>12/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>12/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$340</c:f>
+              <c:f>data!$E$2:$E$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="339"/>
+                <c:ptCount val="340"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5346,6 +5358,9 @@
                 </c:pt>
                 <c:pt idx="338">
                   <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5518,8 +5533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E340" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E340" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E341" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E341" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5852,7 +5867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11645,6 +11660,23 @@
       </c>
       <c r="E340">
         <v>1129</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>344</v>
+      </c>
+      <c r="B341">
+        <v>18797958</v>
+      </c>
+      <c r="C341">
+        <v>330366</v>
+      </c>
+      <c r="D341">
+        <v>225818</v>
+      </c>
+      <c r="E341">
+        <v>1645</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13305D9F-3F10-4BFF-A39B-536CAE56E9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643A2D57-E26D-4CF6-93B6-F2F8FBD31FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$341</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$342</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>date</t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t>12/25/2020</t>
+  </si>
+  <si>
+    <t>12/26/2020</t>
   </si>
 </sst>
 </file>
@@ -1153,9 +1156,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$341</c:f>
+              <c:f>data!$A$2:$A$342</c:f>
               <c:strCache>
-                <c:ptCount val="340"/>
+                <c:ptCount val="341"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2175,16 +2178,19 @@
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>12/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>12/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$341</c:f>
+              <c:f>data!$D$2:$D$342</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="340"/>
+                <c:ptCount val="341"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3203,7 +3209,10 @@
                   <c:v>91922</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>225818</c:v>
+                  <c:v>225930</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>152102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,9 +3319,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$341</c:f>
+              <c:f>data!$A$2:$A$342</c:f>
               <c:strCache>
-                <c:ptCount val="340"/>
+                <c:ptCount val="341"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4332,16 +4341,19 @@
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>12/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>12/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$341</c:f>
+              <c:f>data!$E$2:$E$342</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="340"/>
+                <c:ptCount val="341"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5360,7 +5372,10 @@
                   <c:v>1129</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1645</c:v>
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,8 +5548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E341" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E341" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E342" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E342" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5867,7 +5882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11673,10 +11688,27 @@
         <v>330366</v>
       </c>
       <c r="D341">
-        <v>225818</v>
+        <v>225930</v>
       </c>
       <c r="E341">
-        <v>1645</v>
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>345</v>
+      </c>
+      <c r="B342">
+        <v>19023888</v>
+      </c>
+      <c r="C342">
+        <v>332012</v>
+      </c>
+      <c r="D342">
+        <v>152102</v>
+      </c>
+      <c r="E342">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643A2D57-E26D-4CF6-93B6-F2F8FBD31FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D60AB4-E824-4BBE-956D-9A15002F0D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$342</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$343</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>date</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t>12/26/2020</t>
+  </si>
+  <si>
+    <t>12/27/2020</t>
   </si>
 </sst>
 </file>
@@ -1156,9 +1159,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$342</c:f>
+              <c:f>data!$A$2:$A$343</c:f>
               <c:strCache>
-                <c:ptCount val="341"/>
+                <c:ptCount val="342"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2181,16 +2184,19 @@
                 </c:pt>
                 <c:pt idx="340">
                   <c:v>12/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>12/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$342</c:f>
+              <c:f>data!$D$2:$D$343</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="341"/>
+                <c:ptCount val="342"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3182,19 +3188,19 @@
                   <c:v>245033</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>238189</c:v>
+                  <c:v>238445</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>251447</c:v>
+                  <c:v>251191</c:v>
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>193947</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>179803</c:v>
+                  <c:v>179956</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>201723</c:v>
+                  <c:v>201570</c:v>
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>201674</c:v>
@@ -3206,13 +3212,16 @@
                   <c:v>193557</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>91922</c:v>
+                  <c:v>100994</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>225930</c:v>
+                  <c:v>216858</c:v>
                 </c:pt>
                 <c:pt idx="340">
                   <c:v>152102</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>189044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,9 +3328,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$342</c:f>
+              <c:f>data!$A$2:$A$343</c:f>
               <c:strCache>
-                <c:ptCount val="341"/>
+                <c:ptCount val="342"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4344,16 +4353,19 @@
                 </c:pt>
                 <c:pt idx="340">
                   <c:v>12/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>12/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$342</c:f>
+              <c:f>data!$E$2:$E$343</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="341"/>
+                <c:ptCount val="342"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5345,16 +5357,16 @@
                   <c:v>3611</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>3293</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>2815</c:v>
+                  <c:v>2870</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>2628</c:v>
+                  <c:v>2561</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1422</c:v>
+                  <c:v>1429</c:v>
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>1963</c:v>
@@ -5376,6 +5388,9 @@
                 </c:pt>
                 <c:pt idx="340">
                   <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5548,8 +5563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E342" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E342" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E343" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E343" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5882,7 +5897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E343"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11535,10 +11550,10 @@
         <v>307642</v>
       </c>
       <c r="D332">
-        <v>238189</v>
+        <v>238445</v>
       </c>
       <c r="E332">
-        <v>3293</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -11546,16 +11561,16 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>17256135</v>
+        <v>17256391</v>
       </c>
       <c r="C333">
-        <v>310935</v>
+        <v>310940</v>
       </c>
       <c r="D333">
-        <v>251447</v>
+        <v>251191</v>
       </c>
       <c r="E333">
-        <v>2815</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -11566,13 +11581,13 @@
         <v>17507582</v>
       </c>
       <c r="C334">
-        <v>313750</v>
+        <v>313810</v>
       </c>
       <c r="D334">
         <v>193947</v>
       </c>
       <c r="E334">
-        <v>2628</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -11583,13 +11598,13 @@
         <v>17701529</v>
       </c>
       <c r="C335">
-        <v>316378</v>
+        <v>316371</v>
       </c>
       <c r="D335">
-        <v>179803</v>
+        <v>179956</v>
       </c>
       <c r="E335">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -11597,13 +11612,13 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>17881332</v>
+        <v>17881485</v>
       </c>
       <c r="C336">
         <v>317800</v>
       </c>
       <c r="D336">
-        <v>201723</v>
+        <v>201570</v>
       </c>
       <c r="E336">
         <v>1963</v>
@@ -11671,7 +11686,7 @@
         <v>329237</v>
       </c>
       <c r="D340">
-        <v>91922</v>
+        <v>100994</v>
       </c>
       <c r="E340">
         <v>1129</v>
@@ -11682,13 +11697,13 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>18797958</v>
+        <v>18807030</v>
       </c>
       <c r="C341">
         <v>330366</v>
       </c>
       <c r="D341">
-        <v>225930</v>
+        <v>216858</v>
       </c>
       <c r="E341">
         <v>1646</v>
@@ -11709,6 +11724,23 @@
       </c>
       <c r="E342">
         <v>1230</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>346</v>
+      </c>
+      <c r="B343">
+        <v>19175990</v>
+      </c>
+      <c r="C343">
+        <v>333242</v>
+      </c>
+      <c r="D343">
+        <v>189044</v>
+      </c>
+      <c r="E343">
+        <v>1899</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D60AB4-E824-4BBE-956D-9A15002F0D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24D3B15-FC52-40AD-8769-FA2E89700476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$343</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$344</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>date</t>
   </si>
@@ -1074,6 +1074,9 @@
   </si>
   <si>
     <t>12/27/2020</t>
+  </si>
+  <si>
+    <t>12/28/2020</t>
   </si>
 </sst>
 </file>
@@ -1159,9 +1162,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$343</c:f>
+              <c:f>data!$A$2:$A$344</c:f>
               <c:strCache>
-                <c:ptCount val="342"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2187,16 +2190,19 @@
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>12/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>12/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$343</c:f>
+              <c:f>data!$D$2:$D$344</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="342"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3222,6 +3228,9 @@
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>189044</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>201106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,9 +3337,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$343</c:f>
+              <c:f>data!$A$2:$A$344</c:f>
               <c:strCache>
-                <c:ptCount val="342"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4356,16 +4365,19 @@
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>12/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>12/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$343</c:f>
+              <c:f>data!$E$2:$E$344</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="342"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5391,6 +5403,9 @@
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,8 +5578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E343" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E343" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E344" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E344" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5897,7 +5912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E343"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11741,6 +11756,23 @@
       </c>
       <c r="E343">
         <v>1899</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>347</v>
+      </c>
+      <c r="B344">
+        <v>19365034</v>
+      </c>
+      <c r="C344">
+        <v>335141</v>
+      </c>
+      <c r="D344">
+        <v>201106</v>
+      </c>
+      <c r="E344">
+        <v>3628</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24D3B15-FC52-40AD-8769-FA2E89700476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7A3E4-A47B-49D9-B2CA-A5D3A0E95058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$344</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$345</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>date</t>
   </si>
@@ -1077,6 +1077,9 @@
   </si>
   <si>
     <t>12/28/2020</t>
+  </si>
+  <si>
+    <t>12/29/2020</t>
   </si>
 </sst>
 </file>
@@ -1162,9 +1165,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$344</c:f>
+              <c:f>data!$A$2:$A$345</c:f>
               <c:strCache>
-                <c:ptCount val="343"/>
+                <c:ptCount val="344"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2193,16 +2196,19 @@
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>12/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>12/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$344</c:f>
+              <c:f>data!$D$2:$D$345</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="343"/>
+                <c:ptCount val="344"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3231,6 +3237,9 @@
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>201106</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>229349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,9 +3346,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$344</c:f>
+              <c:f>data!$A$2:$A$345</c:f>
               <c:strCache>
-                <c:ptCount val="343"/>
+                <c:ptCount val="344"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4368,16 +4377,19 @@
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>12/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>12/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$344</c:f>
+              <c:f>data!$E$2:$E$345</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="343"/>
+                <c:ptCount val="344"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5406,6 +5418,9 @@
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>3628</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5578,8 +5593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E344" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E344" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E345" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E345" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5912,7 +5927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E344"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11773,6 +11788,23 @@
       </c>
       <c r="E344">
         <v>3628</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>348</v>
+      </c>
+      <c r="B345">
+        <v>19566140</v>
+      </c>
+      <c r="C345">
+        <v>338769</v>
+      </c>
+      <c r="D345">
+        <v>229349</v>
+      </c>
+      <c r="E345">
+        <v>3808</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7A3E4-A47B-49D9-B2CA-A5D3A0E95058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032D7C5-4251-4301-9A4D-36DC3B195A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$345</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$346</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>date</t>
   </si>
@@ -1080,6 +1080,9 @@
   </si>
   <si>
     <t>12/29/2020</t>
+  </si>
+  <si>
+    <t>12/30/2020</t>
   </si>
 </sst>
 </file>
@@ -1165,9 +1168,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$345</c:f>
+              <c:f>data!$A$2:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="344"/>
+                <c:ptCount val="345"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2199,16 +2202,19 @@
                 </c:pt>
                 <c:pt idx="343">
                   <c:v>12/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>12/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$345</c:f>
+              <c:f>data!$D$2:$D$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="344"/>
+                <c:ptCount val="345"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3240,6 +3246,9 @@
                 </c:pt>
                 <c:pt idx="343">
                   <c:v>229349</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>230982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,9 +3355,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$345</c:f>
+              <c:f>data!$A$2:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="344"/>
+                <c:ptCount val="345"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4380,16 +4389,19 @@
                 </c:pt>
                 <c:pt idx="343">
                   <c:v>12/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>12/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$345</c:f>
+              <c:f>data!$E$2:$E$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="344"/>
+                <c:ptCount val="345"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5421,6 +5433,9 @@
                 </c:pt>
                 <c:pt idx="343">
                   <c:v>3808</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5593,8 +5608,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E345" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E345" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E346" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E346" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5927,7 +5942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11805,6 +11820,23 @@
       </c>
       <c r="E345">
         <v>3808</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>349</v>
+      </c>
+      <c r="B346">
+        <v>19795489</v>
+      </c>
+      <c r="C346">
+        <v>342577</v>
+      </c>
+      <c r="D346">
+        <v>230982</v>
+      </c>
+      <c r="E346">
+        <v>3460</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032D7C5-4251-4301-9A4D-36DC3B195A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F670C4A-5D2D-4E52-B558-B7FC2A5744DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$346</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$347</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>date</t>
   </si>
@@ -1083,6 +1083,9 @@
   </si>
   <si>
     <t>12/30/2020</t>
+  </si>
+  <si>
+    <t>12/31/2020</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1171,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$346</c:f>
+              <c:f>data!$A$2:$A$347</c:f>
               <c:strCache>
-                <c:ptCount val="345"/>
+                <c:ptCount val="346"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2205,16 +2208,19 @@
                 </c:pt>
                 <c:pt idx="344">
                   <c:v>12/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>12/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$346</c:f>
+              <c:f>data!$D$2:$D$347</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="345"/>
+                <c:ptCount val="346"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3245,10 +3251,13 @@
                   <c:v>201106</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>229349</c:v>
+                  <c:v>229038</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>230982</c:v>
+                  <c:v>231045</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>147159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,9 +3364,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$346</c:f>
+              <c:f>data!$A$2:$A$347</c:f>
               <c:strCache>
-                <c:ptCount val="345"/>
+                <c:ptCount val="346"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4392,16 +4401,19 @@
                 </c:pt>
                 <c:pt idx="344">
                   <c:v>12/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>12/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$346</c:f>
+              <c:f>data!$E$2:$E$347</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="345"/>
+                <c:ptCount val="346"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5435,7 +5447,10 @@
                   <c:v>3808</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>3460</c:v>
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5608,8 +5623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E346" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E346" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E347" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E347" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5942,7 +5957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11816,7 +11831,7 @@
         <v>338769</v>
       </c>
       <c r="D345">
-        <v>229349</v>
+        <v>229038</v>
       </c>
       <c r="E345">
         <v>3808</v>
@@ -11827,16 +11842,33 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>19795489</v>
+        <v>19795178</v>
       </c>
       <c r="C346">
         <v>342577</v>
       </c>
       <c r="D346">
-        <v>230982</v>
+        <v>231045</v>
       </c>
       <c r="E346">
-        <v>3460</v>
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>350</v>
+      </c>
+      <c r="B347">
+        <v>20026223</v>
+      </c>
+      <c r="C347">
+        <v>346039</v>
+      </c>
+      <c r="D347">
+        <v>147159</v>
+      </c>
+      <c r="E347">
+        <v>1917</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F670C4A-5D2D-4E52-B558-B7FC2A5744DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDEA19F-255F-47F6-A195-A5F5FDDCD477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$347</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$348</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t>date</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>12/31/2020</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
   </si>
 </sst>
 </file>
@@ -1171,9 +1174,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$347</c:f>
+              <c:f>data!$A$2:$A$348</c:f>
               <c:strCache>
-                <c:ptCount val="346"/>
+                <c:ptCount val="347"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2211,16 +2214,19 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>12/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>01/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$347</c:f>
+              <c:f>data!$D$2:$D$348</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="346"/>
+                <c:ptCount val="347"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3258,6 +3264,9 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>147159</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>291384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,9 +3373,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$347</c:f>
+              <c:f>data!$A$2:$A$348</c:f>
               <c:strCache>
-                <c:ptCount val="346"/>
+                <c:ptCount val="347"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4404,16 +4413,19 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>12/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>01/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$347</c:f>
+              <c:f>data!$E$2:$E$348</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="346"/>
+                <c:ptCount val="347"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5451,6 +5463,9 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,8 +5638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E347" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E347" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E348" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E348" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5957,7 +5972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E347"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11869,6 +11884,23 @@
       </c>
       <c r="E347">
         <v>1917</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>351</v>
+      </c>
+      <c r="B348">
+        <v>20173382</v>
+      </c>
+      <c r="C348">
+        <v>347956</v>
+      </c>
+      <c r="D348">
+        <v>291384</v>
+      </c>
+      <c r="E348">
+        <v>2373</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDEA19F-255F-47F6-A195-A5F5FDDCD477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922DED0B-487D-4ED4-978C-778AA05EFE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$348</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$349</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>date</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
   </si>
 </sst>
 </file>
@@ -1174,9 +1177,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$348</c:f>
+              <c:f>data!$A$2:$A$349</c:f>
               <c:strCache>
-                <c:ptCount val="347"/>
+                <c:ptCount val="348"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2217,16 +2220,19 @@
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>01/01/2021</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$348</c:f>
+              <c:f>data!$D$2:$D$349</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="347"/>
+                <c:ptCount val="348"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3267,6 +3273,9 @@
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>291384</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>201476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3373,9 +3382,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$348</c:f>
+              <c:f>data!$A$2:$A$349</c:f>
               <c:strCache>
-                <c:ptCount val="347"/>
+                <c:ptCount val="348"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4416,16 +4425,19 @@
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>01/01/2021</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$348</c:f>
+              <c:f>data!$E$2:$E$349</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="347"/>
+                <c:ptCount val="348"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5466,6 +5478,9 @@
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>2373</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5638,8 +5653,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E348" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E348" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E349" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E349" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5972,7 +5987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11901,6 +11916,23 @@
       </c>
       <c r="E348">
         <v>2373</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B349">
+        <v>20464766</v>
+      </c>
+      <c r="C349">
+        <v>350329</v>
+      </c>
+      <c r="D349">
+        <v>201476</v>
+      </c>
+      <c r="E349">
+        <v>1353</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922DED0B-487D-4ED4-978C-778AA05EFE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519CC05-2A49-4911-836B-C594482272C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3275,7 +3275,7 @@
                   <c:v>291384</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>201476</c:v>
+                  <c:v>201980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11929,7 +11929,7 @@
         <v>350329</v>
       </c>
       <c r="D349">
-        <v>201476</v>
+        <v>201980</v>
       </c>
       <c r="E349">
         <v>1353</v>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519CC05-2A49-4911-836B-C594482272C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522B420-EF04-4B31-BC7F-0DF4B171FACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$349</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$350</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t>date</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
   </si>
 </sst>
 </file>
@@ -1177,9 +1180,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$349</c:f>
+              <c:f>data!$A$2:$A$350</c:f>
               <c:strCache>
-                <c:ptCount val="348"/>
+                <c:ptCount val="349"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2223,16 +2226,19 @@
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>01/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$349</c:f>
+              <c:f>data!$D$2:$D$350</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="348"/>
+                <c:ptCount val="349"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3276,6 +3282,9 @@
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>201980</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>198181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3382,9 +3391,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$349</c:f>
+              <c:f>data!$A$2:$A$350</c:f>
               <c:strCache>
-                <c:ptCount val="348"/>
+                <c:ptCount val="349"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4428,16 +4437,19 @@
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>01/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$349</c:f>
+              <c:f>data!$E$2:$E$350</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="348"/>
+                <c:ptCount val="349"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5481,6 +5493,9 @@
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5653,8 +5668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E349" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E349" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E350" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E350" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -5987,7 +6002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11933,6 +11948,23 @@
       </c>
       <c r="E349">
         <v>1353</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350">
+        <v>20666746</v>
+      </c>
+      <c r="C350">
+        <v>351682</v>
+      </c>
+      <c r="D350">
+        <v>198181</v>
+      </c>
+      <c r="E350">
+        <v>2048</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522B420-EF04-4B31-BC7F-0DF4B171FACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D2A4B-1D3B-438F-9A56-902E092287E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$350</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$351</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t>date</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
   </si>
 </sst>
 </file>
@@ -1180,9 +1183,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$350</c:f>
+              <c:f>data!$A$2:$A$351</c:f>
               <c:strCache>
-                <c:ptCount val="349"/>
+                <c:ptCount val="350"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2229,16 +2232,19 @@
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>01/03/2021</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>01/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$350</c:f>
+              <c:f>data!$D$2:$D$351</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="349"/>
+                <c:ptCount val="350"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3285,6 +3291,9 @@
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>198181</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>238999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3391,9 +3400,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$350</c:f>
+              <c:f>data!$A$2:$A$351</c:f>
               <c:strCache>
-                <c:ptCount val="349"/>
+                <c:ptCount val="350"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4440,16 +4449,19 @@
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>01/03/2021</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>01/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$350</c:f>
+              <c:f>data!$E$2:$E$351</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="349"/>
+                <c:ptCount val="350"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5496,6 +5508,9 @@
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5668,8 +5683,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E350" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E350" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E351" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E351" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6002,7 +6017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11965,6 +11980,23 @@
       </c>
       <c r="E350">
         <v>2048</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351">
+        <v>20864927</v>
+      </c>
+      <c r="C351">
+        <v>353730</v>
+      </c>
+      <c r="D351">
+        <v>238999</v>
+      </c>
+      <c r="E351">
+        <v>3664</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D2A4B-1D3B-438F-9A56-902E092287E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E3E59-5C1C-4F94-A50A-57A9F2A393A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$351</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$352</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>date</t>
   </si>
@@ -1098,6 +1098,9 @@
   </si>
   <si>
     <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
   </si>
 </sst>
 </file>
@@ -1183,9 +1186,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$351</c:f>
+              <c:f>data!$A$2:$A$352</c:f>
               <c:strCache>
-                <c:ptCount val="350"/>
+                <c:ptCount val="351"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2235,16 +2238,19 @@
                 </c:pt>
                 <c:pt idx="349">
                   <c:v>01/04/2021</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>01/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$351</c:f>
+              <c:f>data!$D$2:$D$352</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="350"/>
+                <c:ptCount val="351"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3290,10 +3296,13 @@
                   <c:v>201980</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>198181</c:v>
+                  <c:v>251918</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>238999</c:v>
+                  <c:v>235051</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>255728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,9 +3409,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$351</c:f>
+              <c:f>data!$A$2:$A$352</c:f>
               <c:strCache>
-                <c:ptCount val="350"/>
+                <c:ptCount val="351"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4452,16 +4461,19 @@
                 </c:pt>
                 <c:pt idx="349">
                   <c:v>01/04/2021</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>01/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$351</c:f>
+              <c:f>data!$E$2:$E$352</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="350"/>
+                <c:ptCount val="351"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5510,7 +5522,10 @@
                   <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>3664</c:v>
+                  <c:v>3689</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,8 +5698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E351" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E351" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E352" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6017,7 +6032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E351"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11976,7 +11991,7 @@
         <v>351682</v>
       </c>
       <c r="D350">
-        <v>198181</v>
+        <v>251918</v>
       </c>
       <c r="E350">
         <v>2048</v>
@@ -11987,16 +12002,33 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>20864927</v>
+        <v>20918664</v>
       </c>
       <c r="C351">
         <v>353730</v>
       </c>
       <c r="D351">
-        <v>238999</v>
+        <v>235051</v>
       </c>
       <c r="E351">
-        <v>3664</v>
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352">
+        <v>21153715</v>
+      </c>
+      <c r="C352">
+        <v>357419</v>
+      </c>
+      <c r="D352">
+        <v>255728</v>
+      </c>
+      <c r="E352">
+        <v>3964</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E3E59-5C1C-4F94-A50A-57A9F2A393A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8AABC-0539-4E20-8B26-481E379507FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$352</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$353</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>date</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
   </si>
 </sst>
 </file>
@@ -1186,9 +1189,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$352</c:f>
+              <c:f>data!$A$2:$A$353</c:f>
               <c:strCache>
-                <c:ptCount val="351"/>
+                <c:ptCount val="352"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2241,16 +2244,19 @@
                 </c:pt>
                 <c:pt idx="350">
                   <c:v>01/05/2021</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$352</c:f>
+              <c:f>data!$D$2:$D$353</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="351"/>
+                <c:ptCount val="352"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3303,6 +3309,9 @@
                 </c:pt>
                 <c:pt idx="350">
                   <c:v>255728</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>280292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,9 +3418,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$352</c:f>
+              <c:f>data!$A$2:$A$353</c:f>
               <c:strCache>
-                <c:ptCount val="351"/>
+                <c:ptCount val="352"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4464,16 +4473,19 @@
                 </c:pt>
                 <c:pt idx="350">
                   <c:v>01/05/2021</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$352</c:f>
+              <c:f>data!$E$2:$E$353</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="351"/>
+                <c:ptCount val="352"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5526,6 +5538,9 @@
                 </c:pt>
                 <c:pt idx="350">
                   <c:v>3964</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>4112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5698,8 +5713,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E352" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E353" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E353" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6032,7 +6047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E352"/>
+  <dimension ref="A1:E353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12029,6 +12044,23 @@
       </c>
       <c r="E352">
         <v>3964</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>356</v>
+      </c>
+      <c r="B353">
+        <v>21409443</v>
+      </c>
+      <c r="C353">
+        <v>361383</v>
+      </c>
+      <c r="D353">
+        <v>280292</v>
+      </c>
+      <c r="E353">
+        <v>4112</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8AABC-0539-4E20-8B26-481E379507FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A94213-6541-4941-9AF5-D699A5EF98D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$353</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$354</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>date</t>
   </si>
@@ -1104,6 +1104,9 @@
   </si>
   <si>
     <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
   </si>
 </sst>
 </file>
@@ -1189,9 +1192,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$353</c:f>
+              <c:f>data!$A$2:$A$354</c:f>
               <c:strCache>
-                <c:ptCount val="352"/>
+                <c:ptCount val="353"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2247,16 +2250,19 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>01/06/2021</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>01/07/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$353</c:f>
+              <c:f>data!$D$2:$D$354</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="352"/>
+                <c:ptCount val="353"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3312,6 +3318,9 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>280292</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>300594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,9 +3427,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$353</c:f>
+              <c:f>data!$A$2:$A$354</c:f>
               <c:strCache>
-                <c:ptCount val="352"/>
+                <c:ptCount val="353"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4476,16 +4485,19 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>01/06/2021</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>01/07/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$353</c:f>
+              <c:f>data!$E$2:$E$354</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="352"/>
+                <c:ptCount val="353"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5541,6 +5553,9 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>4112</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,8 +5728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E353" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E353" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E354" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E354" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6047,7 +6062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E353"/>
+  <dimension ref="A1:E354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12061,6 +12076,23 @@
       </c>
       <c r="E353">
         <v>4112</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>357</v>
+      </c>
+      <c r="B354">
+        <v>21689735</v>
+      </c>
+      <c r="C354">
+        <v>365495</v>
+      </c>
+      <c r="D354">
+        <v>300594</v>
+      </c>
+      <c r="E354">
+        <v>3895</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A94213-6541-4941-9AF5-D699A5EF98D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B569BA-1DB5-463E-99D5-3A3E52EE88F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$354</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$355</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
   <si>
     <t>date</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
   </si>
 </sst>
 </file>
@@ -1192,9 +1195,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$354</c:f>
+              <c:f>data!$A$2:$A$355</c:f>
               <c:strCache>
-                <c:ptCount val="353"/>
+                <c:ptCount val="354"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2253,16 +2256,19 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>01/07/2021</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>01/08/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$354</c:f>
+              <c:f>data!$D$2:$D$355</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="354"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3321,6 +3327,9 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>300594</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>252056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,9 +3436,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$354</c:f>
+              <c:f>data!$A$2:$A$355</c:f>
               <c:strCache>
-                <c:ptCount val="353"/>
+                <c:ptCount val="354"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4488,16 +4497,19 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>01/07/2021</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>01/08/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$354</c:f>
+              <c:f>data!$E$2:$E$355</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="353"/>
+                <c:ptCount val="354"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5556,6 +5568,9 @@
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>3895</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,8 +5743,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E354" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E354" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E355" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E355" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6062,7 +6077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E354"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12093,6 +12108,23 @@
       </c>
       <c r="E354">
         <v>3895</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
+      <c r="B355">
+        <v>21990329</v>
+      </c>
+      <c r="C355">
+        <v>369390</v>
+      </c>
+      <c r="D355">
+        <v>252056</v>
+      </c>
+      <c r="E355">
+        <v>3261</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B569BA-1DB5-463E-99D5-3A3E52EE88F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68035237-5D03-43FE-9F1D-3EBB2F822C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$355</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$356</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t>date</t>
   </si>
@@ -1110,6 +1110,9 @@
   </si>
   <si>
     <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
   </si>
 </sst>
 </file>
@@ -1195,9 +1198,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$355</c:f>
+              <c:f>data!$A$2:$A$356</c:f>
               <c:strCache>
-                <c:ptCount val="354"/>
+                <c:ptCount val="355"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2259,16 +2262,19 @@
                 </c:pt>
                 <c:pt idx="353">
                   <c:v>01/08/2021</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>01/09/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$355</c:f>
+              <c:f>data!$D$2:$D$356</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="354"/>
+                <c:ptCount val="355"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3329,7 +3335,10 @@
                   <c:v>300594</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>252056</c:v>
+                  <c:v>252142</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>208338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,9 +3445,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$355</c:f>
+              <c:f>data!$A$2:$A$356</c:f>
               <c:strCache>
-                <c:ptCount val="354"/>
+                <c:ptCount val="355"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4500,16 +4509,19 @@
                 </c:pt>
                 <c:pt idx="353">
                   <c:v>01/08/2021</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>01/09/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$355</c:f>
+              <c:f>data!$E$2:$E$356</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="354"/>
+                <c:ptCount val="355"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5571,6 +5583,9 @@
                 </c:pt>
                 <c:pt idx="353">
                   <c:v>3261</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5743,8 +5758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E355" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E355" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E356" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E356" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6077,7 +6092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12121,10 +12136,27 @@
         <v>369390</v>
       </c>
       <c r="D355">
-        <v>252056</v>
+        <v>252142</v>
       </c>
       <c r="E355">
         <v>3261</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>359</v>
+      </c>
+      <c r="B356">
+        <v>22242471</v>
+      </c>
+      <c r="C356">
+        <v>372651</v>
+      </c>
+      <c r="D356">
+        <v>208338</v>
+      </c>
+      <c r="E356">
+        <v>1777</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68035237-5D03-43FE-9F1D-3EBB2F822C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3565AD95-CC22-4938-9FA2-9299C81C350B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$356</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$357</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>date</t>
   </si>
@@ -1113,6 +1113,9 @@
   </si>
   <si>
     <t>01/09/2021</t>
+  </si>
+  <si>
+    <t>01/10/2021</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1201,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$356</c:f>
+              <c:f>data!$A$2:$A$357</c:f>
               <c:strCache>
-                <c:ptCount val="355"/>
+                <c:ptCount val="356"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2265,16 +2268,19 @@
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>01/09/2021</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>01/10/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$356</c:f>
+              <c:f>data!$D$2:$D$357</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="355"/>
+                <c:ptCount val="356"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3339,6 +3345,9 @@
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>208338</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>222902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3445,9 +3454,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$356</c:f>
+              <c:f>data!$A$2:$A$357</c:f>
               <c:strCache>
-                <c:ptCount val="355"/>
+                <c:ptCount val="356"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4512,16 +4521,19 @@
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>01/09/2021</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>01/10/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$356</c:f>
+              <c:f>data!$E$2:$E$357</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="355"/>
+                <c:ptCount val="356"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5586,6 +5598,9 @@
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,8 +5773,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E356" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E356" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6092,7 +6107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12157,6 +12172,23 @@
       </c>
       <c r="E356">
         <v>1777</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>360</v>
+      </c>
+      <c r="B357">
+        <v>22450809</v>
+      </c>
+      <c r="C357">
+        <v>374428</v>
+      </c>
+      <c r="D357">
+        <v>222902</v>
+      </c>
+      <c r="E357">
+        <v>2048</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3565AD95-CC22-4938-9FA2-9299C81C350B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D233D-39DE-44B0-AE3A-E14F1B898379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$357</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$358</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t>date</t>
   </si>
@@ -1116,6 +1116,9 @@
   </si>
   <si>
     <t>01/10/2021</t>
+  </si>
+  <si>
+    <t>01/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1201,9 +1204,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$357</c:f>
+              <c:f>data!$A$2:$A$358</c:f>
               <c:strCache>
-                <c:ptCount val="356"/>
+                <c:ptCount val="357"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2271,16 +2274,19 @@
                 </c:pt>
                 <c:pt idx="355">
                   <c:v>01/10/2021</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>01/11/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$357</c:f>
+              <c:f>data!$D$2:$D$358</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="356"/>
+                <c:ptCount val="357"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3347,7 +3353,10 @@
                   <c:v>208338</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>222902</c:v>
+                  <c:v>222921</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>229712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,9 +3463,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$357</c:f>
+              <c:f>data!$A$2:$A$358</c:f>
               <c:strCache>
-                <c:ptCount val="356"/>
+                <c:ptCount val="357"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4524,16 +4533,19 @@
                 </c:pt>
                 <c:pt idx="355">
                   <c:v>01/10/2021</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>01/11/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$357</c:f>
+              <c:f>data!$E$2:$E$358</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="356"/>
+                <c:ptCount val="357"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5601,6 +5613,9 @@
                 </c:pt>
                 <c:pt idx="355">
                   <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5773,8 +5788,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E358" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E358" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6107,7 +6122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12185,10 +12200,27 @@
         <v>374428</v>
       </c>
       <c r="D357">
-        <v>222902</v>
+        <v>222921</v>
       </c>
       <c r="E357">
         <v>2048</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358">
+        <v>22673730</v>
+      </c>
+      <c r="C358">
+        <v>376476</v>
+      </c>
+      <c r="D358">
+        <v>229712</v>
+      </c>
+      <c r="E358">
+        <v>4406</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D233D-39DE-44B0-AE3A-E14F1B898379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350CFE00-A222-437C-A2E5-0C53775179AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$358</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$359</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>date</t>
   </si>
@@ -1119,6 +1119,9 @@
   </si>
   <si>
     <t>01/11/2021</t>
+  </si>
+  <si>
+    <t>01/12/2021</t>
   </si>
 </sst>
 </file>
@@ -1204,9 +1207,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$358</c:f>
+              <c:f>data!$A$2:$A$359</c:f>
               <c:strCache>
-                <c:ptCount val="357"/>
+                <c:ptCount val="358"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2277,16 +2280,19 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>01/11/2021</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>01/12/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$358</c:f>
+              <c:f>data!$D$2:$D$359</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="358"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3357,6 +3363,9 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>229712</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>230476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3463,9 +3472,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$358</c:f>
+              <c:f>data!$A$2:$A$359</c:f>
               <c:strCache>
-                <c:ptCount val="357"/>
+                <c:ptCount val="358"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4536,16 +4545,19 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>01/11/2021</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>01/12/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$358</c:f>
+              <c:f>data!$E$2:$E$359</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="358"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5616,6 +5628,9 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>4406</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5788,8 +5803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E358" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E358" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E359" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E359" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6122,7 +6137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12221,6 +12236,23 @@
       </c>
       <c r="E358">
         <v>4406</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B359">
+        <v>22903442</v>
+      </c>
+      <c r="C359">
+        <v>380882</v>
+      </c>
+      <c r="D359">
+        <v>230476</v>
+      </c>
+      <c r="E359">
+        <v>3922</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350CFE00-A222-437C-A2E5-0C53775179AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9433E613-913D-4101-A215-C76661559730}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$359</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$360</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>date</t>
   </si>
@@ -1122,6 +1122,9 @@
   </si>
   <si>
     <t>01/12/2021</t>
+  </si>
+  <si>
+    <t>01/13/2021</t>
   </si>
 </sst>
 </file>
@@ -1207,9 +1210,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$359</c:f>
+              <c:f>data!$A$2:$A$360</c:f>
               <c:strCache>
-                <c:ptCount val="358"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2283,16 +2286,19 @@
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>01/12/2021</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>01/13/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$359</c:f>
+              <c:f>data!$D$2:$D$360</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="358"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3365,7 +3371,10 @@
                   <c:v>229712</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>230476</c:v>
+                  <c:v>229298</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>238390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,9 +3481,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$359</c:f>
+              <c:f>data!$A$2:$A$360</c:f>
               <c:strCache>
-                <c:ptCount val="358"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4548,16 +4557,19 @@
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>01/12/2021</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>01/13/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$359</c:f>
+              <c:f>data!$E$2:$E$360</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="358"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5630,7 +5642,10 @@
                   <c:v>4406</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>3922</c:v>
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5803,8 +5818,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E359" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E359" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E360" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E360" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6137,7 +6152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E359"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12249,10 +12264,27 @@
         <v>380882</v>
       </c>
       <c r="D359">
-        <v>230476</v>
+        <v>229298</v>
       </c>
       <c r="E359">
-        <v>3922</v>
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>363</v>
+      </c>
+      <c r="B360">
+        <v>23132740</v>
+      </c>
+      <c r="C360">
+        <v>384812</v>
+      </c>
+      <c r="D360">
+        <v>238390</v>
+      </c>
+      <c r="E360">
+        <v>3973</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9433E613-913D-4101-A215-C76661559730}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8261EE3C-EB4F-4635-AE65-134C6DD10386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$360</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$361</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>date</t>
   </si>
@@ -1125,6 +1125,9 @@
   </si>
   <si>
     <t>01/13/2021</t>
+  </si>
+  <si>
+    <t>01/14/2021</t>
   </si>
 </sst>
 </file>
@@ -1210,9 +1213,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$360</c:f>
+              <c:f>data!$A$2:$A$361</c:f>
               <c:strCache>
-                <c:ptCount val="359"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2289,16 +2292,19 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>01/13/2021</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>01/14/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$360</c:f>
+              <c:f>data!$D$2:$D$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="359"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3375,6 +3381,9 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>238390</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>240925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,9 +3490,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$360</c:f>
+              <c:f>data!$A$2:$A$361</c:f>
               <c:strCache>
-                <c:ptCount val="359"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4560,16 +4569,19 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>01/13/2021</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>01/14/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$360</c:f>
+              <c:f>data!$E$2:$E$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="359"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5646,6 +5658,9 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,8 +5833,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E360" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E360" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E361" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E361" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6152,7 +6167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12285,6 +12300,23 @@
       </c>
       <c r="E360">
         <v>3973</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>364</v>
+      </c>
+      <c r="B361">
+        <v>23371130</v>
+      </c>
+      <c r="C361">
+        <v>388785</v>
+      </c>
+      <c r="D361">
+        <v>240925</v>
+      </c>
+      <c r="E361">
+        <v>3744</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8261EE3C-EB4F-4635-AE65-134C6DD10386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CFE54A-752A-47AB-BD20-936ABEAED9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$361</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$362</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>date</t>
   </si>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t>01/14/2021</t>
+  </si>
+  <si>
+    <t>01/15/2021</t>
   </si>
 </sst>
 </file>
@@ -1213,9 +1216,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$361</c:f>
+              <c:f>data!$A$2:$A$362</c:f>
               <c:strCache>
-                <c:ptCount val="360"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2295,16 +2298,19 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>01/14/2021</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>01/15/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$361</c:f>
+              <c:f>data!$D$2:$D$362</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3383,7 +3389,10 @@
                   <c:v>238390</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>240925</c:v>
+                  <c:v>241104</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>201732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,9 +3499,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$361</c:f>
+              <c:f>data!$A$2:$A$362</c:f>
               <c:strCache>
-                <c:ptCount val="360"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4572,16 +4581,19 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>01/14/2021</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>01/15/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$361</c:f>
+              <c:f>data!$E$2:$E$362</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5661,6 +5673,9 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,8 +5848,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E361" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E361" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E362" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E362" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6167,7 +6182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12313,10 +12328,27 @@
         <v>388785</v>
       </c>
       <c r="D361">
-        <v>240925</v>
+        <v>241104</v>
       </c>
       <c r="E361">
         <v>3744</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B362">
+        <v>23612234</v>
+      </c>
+      <c r="C362">
+        <v>392529</v>
+      </c>
+      <c r="D362">
+        <v>201732</v>
+      </c>
+      <c r="E362">
+        <v>3353</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CFE54A-752A-47AB-BD20-936ABEAED9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0216075A-F33D-47FB-9BD1-3CF70790C965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$362</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$363</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>date</t>
   </si>
@@ -1131,6 +1131,9 @@
   </si>
   <si>
     <t>01/15/2021</t>
+  </si>
+  <si>
+    <t>01/16/2021</t>
   </si>
 </sst>
 </file>
@@ -1216,9 +1219,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$362</c:f>
+              <c:f>data!$A$2:$A$363</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="362"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2301,16 +2304,19 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>01/15/2021</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>01/16/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$362</c:f>
+              <c:f>data!$D$2:$D$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="362"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3393,6 +3399,9 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>201732</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>169641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,9 +3508,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$362</c:f>
+              <c:f>data!$A$2:$A$363</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="362"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4584,16 +4593,19 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>01/15/2021</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>01/16/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$362</c:f>
+              <c:f>data!$E$2:$E$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="362"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5676,6 +5688,9 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,8 +5863,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E362" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E362" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E363" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6182,7 +6197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12349,6 +12364,23 @@
       </c>
       <c r="E362">
         <v>3353</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363">
+        <v>23813966</v>
+      </c>
+      <c r="C363">
+        <v>395882</v>
+      </c>
+      <c r="D363">
+        <v>169641</v>
+      </c>
+      <c r="E363">
+        <v>1730</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0216075A-F33D-47FB-9BD1-3CF70790C965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79777C76-A5A5-40BD-9B82-B62ADD721465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$363</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$364</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>date</t>
   </si>
@@ -1134,6 +1134,9 @@
   </si>
   <si>
     <t>01/16/2021</t>
+  </si>
+  <si>
+    <t>01/17/2021</t>
   </si>
 </sst>
 </file>
@@ -1219,9 +1222,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$363</c:f>
+              <c:f>data!$A$2:$A$364</c:f>
               <c:strCache>
-                <c:ptCount val="362"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2307,16 +2310,19 @@
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>01/16/2021</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>01/17/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$363</c:f>
+              <c:f>data!$D$2:$D$364</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="362"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3402,6 +3408,9 @@
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>169641</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>142587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,9 +3517,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$363</c:f>
+              <c:f>data!$A$2:$A$364</c:f>
               <c:strCache>
-                <c:ptCount val="362"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4596,16 +4605,19 @@
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>01/16/2021</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>01/17/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$363</c:f>
+              <c:f>data!$E$2:$E$364</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="362"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5691,6 +5703,9 @@
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,8 +5878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E363" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E364" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E364" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6197,7 +6212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E363"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12381,6 +12396,23 @@
       </c>
       <c r="E363">
         <v>1730</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364">
+        <v>23983607</v>
+      </c>
+      <c r="C364">
+        <v>397612</v>
+      </c>
+      <c r="D364">
+        <v>142587</v>
+      </c>
+      <c r="E364">
+        <v>1441</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79777C76-A5A5-40BD-9B82-B62ADD721465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33B966-2C28-45DA-965A-6AB131AE7BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$364</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$365</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>date</t>
   </si>
@@ -1137,6 +1137,9 @@
   </si>
   <si>
     <t>01/17/2021</t>
+  </si>
+  <si>
+    <t>01/18/2021</t>
   </si>
 </sst>
 </file>
@@ -1222,9 +1225,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$364</c:f>
+              <c:f>data!$A$2:$A$365</c:f>
               <c:strCache>
-                <c:ptCount val="363"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2313,16 +2316,19 @@
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>01/17/2021</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>01/18/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$364</c:f>
+              <c:f>data!$D$2:$D$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="363"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3411,6 +3417,9 @@
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>142587</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>185070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,9 +3526,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$364</c:f>
+              <c:f>data!$A$2:$A$365</c:f>
               <c:strCache>
-                <c:ptCount val="363"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4608,16 +4617,19 @@
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>01/17/2021</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>01/18/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$364</c:f>
+              <c:f>data!$E$2:$E$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="363"/>
+                <c:ptCount val="364"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5706,6 +5718,9 @@
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,8 +5893,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E364" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E364" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E365" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E365" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6212,7 +6227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12413,6 +12428,23 @@
       </c>
       <c r="E364">
         <v>1441</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365">
+        <v>24126194</v>
+      </c>
+      <c r="C365">
+        <v>399053</v>
+      </c>
+      <c r="D365">
+        <v>185070</v>
+      </c>
+      <c r="E365">
+        <v>2770</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33B966-2C28-45DA-965A-6AB131AE7BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1BB61-FD25-4EBA-951A-3F312139F7C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$365</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$366</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>date</t>
   </si>
@@ -1140,6 +1140,9 @@
   </si>
   <si>
     <t>01/18/2021</t>
+  </si>
+  <si>
+    <t>01/19/2021</t>
   </si>
 </sst>
 </file>
@@ -1225,9 +1228,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$365</c:f>
+              <c:f>data!$A$2:$A$366</c:f>
               <c:strCache>
-                <c:ptCount val="364"/>
+                <c:ptCount val="365"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2319,16 +2322,19 @@
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>01/18/2021</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>01/19/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$365</c:f>
+              <c:f>data!$D$2:$D$366</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="364"/>
+                <c:ptCount val="365"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3420,6 +3426,9 @@
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>185070</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>184754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,9 +3535,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$365</c:f>
+              <c:f>data!$A$2:$A$366</c:f>
               <c:strCache>
-                <c:ptCount val="364"/>
+                <c:ptCount val="365"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4620,16 +4629,19 @@
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>01/18/2021</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>01/19/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$365</c:f>
+              <c:f>data!$E$2:$E$366</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="364"/>
+                <c:ptCount val="365"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5721,6 +5733,9 @@
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>4367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5893,8 +5908,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E365" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E365" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E366" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E366" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6227,7 +6242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12445,6 +12460,23 @@
       </c>
       <c r="E365">
         <v>2770</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>369</v>
+      </c>
+      <c r="B366">
+        <v>24311264</v>
+      </c>
+      <c r="C366">
+        <v>401823</v>
+      </c>
+      <c r="D366">
+        <v>184754</v>
+      </c>
+      <c r="E366">
+        <v>4367</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1BB61-FD25-4EBA-951A-3F312139F7C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F5C55-E791-4955-9F05-7FF31569E53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$366</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$367</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>date</t>
   </si>
@@ -1143,6 +1143,9 @@
   </si>
   <si>
     <t>01/19/2021</t>
+  </si>
+  <si>
+    <t>01/20/2021</t>
   </si>
 </sst>
 </file>
@@ -1228,9 +1231,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$366</c:f>
+              <c:f>data!$A$2:$A$367</c:f>
               <c:strCache>
-                <c:ptCount val="365"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2325,16 +2328,19 @@
                 </c:pt>
                 <c:pt idx="364">
                   <c:v>01/19/2021</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>01/20/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$366</c:f>
+              <c:f>data!$D$2:$D$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="365"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3410,13 +3416,13 @@
                   <c:v>229298</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>238390</c:v>
+                  <c:v>238620</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>241104</c:v>
+                  <c:v>240947</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>201732</c:v>
+                  <c:v>201659</c:v>
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>169641</c:v>
@@ -3428,7 +3434,10 @@
                   <c:v>185070</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>184754</c:v>
+                  <c:v>186235</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>190630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,9 +3544,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$366</c:f>
+              <c:f>data!$A$2:$A$367</c:f>
               <c:strCache>
-                <c:ptCount val="365"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4632,16 +4641,19 @@
                 </c:pt>
                 <c:pt idx="364">
                   <c:v>01/19/2021</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>01/20/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$366</c:f>
+              <c:f>data!$E$2:$E$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="365"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5717,13 +5729,13 @@
                   <c:v>3930</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>3973</c:v>
+                  <c:v>3980</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>3744</c:v>
+                  <c:v>3749</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>3353</c:v>
+                  <c:v>3341</c:v>
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>1730</c:v>
@@ -5732,10 +5744,13 @@
                   <c:v>1441</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>2770</c:v>
+                  <c:v>2771</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>4367</c:v>
+                  <c:v>4370</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>4142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5908,8 +5923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E366" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E366" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E367" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E367" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6242,7 +6257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12371,10 +12386,10 @@
         <v>384812</v>
       </c>
       <c r="D360">
-        <v>238390</v>
+        <v>238620</v>
       </c>
       <c r="E360">
-        <v>3973</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -12382,16 +12397,16 @@
         <v>364</v>
       </c>
       <c r="B361">
-        <v>23371130</v>
+        <v>23371360</v>
       </c>
       <c r="C361">
-        <v>388785</v>
+        <v>388792</v>
       </c>
       <c r="D361">
-        <v>241104</v>
+        <v>240947</v>
       </c>
       <c r="E361">
-        <v>3744</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -12399,16 +12414,16 @@
         <v>365</v>
       </c>
       <c r="B362">
-        <v>23612234</v>
+        <v>23612307</v>
       </c>
       <c r="C362">
-        <v>392529</v>
+        <v>392541</v>
       </c>
       <c r="D362">
-        <v>201732</v>
+        <v>201659</v>
       </c>
       <c r="E362">
-        <v>3353</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -12459,7 +12474,7 @@
         <v>185070</v>
       </c>
       <c r="E365">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -12470,13 +12485,30 @@
         <v>24311264</v>
       </c>
       <c r="C366">
-        <v>401823</v>
+        <v>401824</v>
       </c>
       <c r="D366">
-        <v>184754</v>
+        <v>186235</v>
       </c>
       <c r="E366">
-        <v>4367</v>
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>370</v>
+      </c>
+      <c r="B367">
+        <v>24497499</v>
+      </c>
+      <c r="C367">
+        <v>406194</v>
+      </c>
+      <c r="D367">
+        <v>190630</v>
+      </c>
+      <c r="E367">
+        <v>4142</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F5C55-E791-4955-9F05-7FF31569E53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A229493C-2F32-4BEE-96D7-02786571EF31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$367</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$368</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>date</t>
   </si>
@@ -1146,6 +1146,9 @@
   </si>
   <si>
     <t>01/20/2021</t>
+  </si>
+  <si>
+    <t>01/21/2021</t>
   </si>
 </sst>
 </file>
@@ -1231,9 +1234,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$367</c:f>
+              <c:f>data!$A$2:$A$368</c:f>
               <c:strCache>
-                <c:ptCount val="366"/>
+                <c:ptCount val="367"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2331,16 +2334,19 @@
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>01/20/2021</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>01/21/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$367</c:f>
+              <c:f>data!$D$2:$D$368</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:ptCount val="367"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3438,6 +3444,9 @@
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>190630</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>191912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,9 +3553,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$367</c:f>
+              <c:f>data!$A$2:$A$368</c:f>
               <c:strCache>
-                <c:ptCount val="366"/>
+                <c:ptCount val="367"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4644,16 +4653,19 @@
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>01/20/2021</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>01/21/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$367</c:f>
+              <c:f>data!$E$2:$E$368</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:ptCount val="367"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5751,6 +5763,9 @@
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>4142</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5923,8 +5938,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E367" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E367" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E368" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E368" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6257,7 +6272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12509,6 +12524,23 @@
       </c>
       <c r="E367">
         <v>4142</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>371</v>
+      </c>
+      <c r="B368">
+        <v>24688129</v>
+      </c>
+      <c r="C368">
+        <v>410336</v>
+      </c>
+      <c r="D368">
+        <v>191912</v>
+      </c>
+      <c r="E368">
+        <v>3734</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A229493C-2F32-4BEE-96D7-02786571EF31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5E076-3036-4125-A58B-32CB5EAA84B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$368</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$369</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>date</t>
   </si>
@@ -1149,6 +1149,9 @@
   </si>
   <si>
     <t>01/21/2021</t>
+  </si>
+  <si>
+    <t>01/22/2021</t>
   </si>
 </sst>
 </file>
@@ -1234,9 +1237,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$368</c:f>
+              <c:f>data!$A$2:$A$369</c:f>
               <c:strCache>
-                <c:ptCount val="367"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2337,16 +2340,19 @@
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>01/21/2021</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>01/22/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$368</c:f>
+              <c:f>data!$D$2:$D$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="367"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3447,6 +3453,9 @@
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>191912</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>167852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,9 +3562,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$368</c:f>
+              <c:f>data!$A$2:$A$369</c:f>
               <c:strCache>
-                <c:ptCount val="367"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4656,16 +4665,19 @@
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>01/21/2021</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>01/22/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$368</c:f>
+              <c:f>data!$E$2:$E$369</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="367"/>
+                <c:ptCount val="368"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5766,6 +5778,9 @@
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>3734</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,8 +5953,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E368" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E368" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E369" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E369" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6272,7 +6287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E368"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12541,6 +12556,23 @@
       </c>
       <c r="E368">
         <v>3734</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>372</v>
+      </c>
+      <c r="B369">
+        <v>24880041</v>
+      </c>
+      <c r="C369">
+        <v>414070</v>
+      </c>
+      <c r="D369">
+        <v>167852</v>
+      </c>
+      <c r="E369">
+        <v>3320</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5E076-3036-4125-A58B-32CB5EAA84B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B80CB7-615F-4816-AF06-25D5BB90604D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$369</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$370</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>date</t>
   </si>
@@ -1152,6 +1152,9 @@
   </si>
   <si>
     <t>01/22/2021</t>
+  </si>
+  <si>
+    <t>01/23/2021</t>
   </si>
 </sst>
 </file>
@@ -1237,9 +1240,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$369</c:f>
+              <c:f>data!$A$2:$A$370</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="369"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2343,16 +2346,19 @@
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>01/22/2021</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>01/23/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$369</c:f>
+              <c:f>data!$D$2:$D$370</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="368"/>
+                <c:ptCount val="369"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3455,7 +3461,10 @@
                   <c:v>191912</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>167852</c:v>
+                  <c:v>167954</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>129527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,9 +3571,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$369</c:f>
+              <c:f>data!$A$2:$A$370</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="369"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4668,16 +4677,19 @@
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>01/22/2021</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>01/23/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$369</c:f>
+              <c:f>data!$E$2:$E$370</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="368"/>
+                <c:ptCount val="369"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5780,7 +5792,10 @@
                   <c:v>3734</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>3320</c:v>
+                  <c:v>3322</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,8 +5968,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E369" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E369" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E370" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E370" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6287,7 +6302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E369"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12569,10 +12584,27 @@
         <v>414070</v>
       </c>
       <c r="D369">
-        <v>167852</v>
+        <v>167954</v>
       </c>
       <c r="E369">
-        <v>3320</v>
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>373</v>
+      </c>
+      <c r="B370">
+        <v>25047995</v>
+      </c>
+      <c r="C370">
+        <v>417392</v>
+      </c>
+      <c r="D370">
+        <v>129527</v>
+      </c>
+      <c r="E370">
+        <v>1815</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B80CB7-615F-4816-AF06-25D5BB90604D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDC53E-B7F8-4021-9D09-0EC506CF0311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$370</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$371</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>date</t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t>01/23/2021</t>
+  </si>
+  <si>
+    <t>01/24/2021</t>
   </si>
 </sst>
 </file>
@@ -1240,9 +1243,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$370</c:f>
+              <c:f>data!$A$2:$A$371</c:f>
               <c:strCache>
-                <c:ptCount val="369"/>
+                <c:ptCount val="370"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2349,16 +2352,19 @@
                 </c:pt>
                 <c:pt idx="368">
                   <c:v>01/23/2021</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>01/24/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$370</c:f>
+              <c:f>data!$D$2:$D$371</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="369"/>
+                <c:ptCount val="370"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3465,6 +3471,9 @@
                 </c:pt>
                 <c:pt idx="368">
                   <c:v>129527</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>155677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,9 +3580,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$370</c:f>
+              <c:f>data!$A$2:$A$371</c:f>
               <c:strCache>
-                <c:ptCount val="369"/>
+                <c:ptCount val="370"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4680,16 +4689,19 @@
                 </c:pt>
                 <c:pt idx="368">
                   <c:v>01/23/2021</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>01/24/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$370</c:f>
+              <c:f>data!$E$2:$E$371</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="369"/>
+                <c:ptCount val="370"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5796,6 +5808,9 @@
                 </c:pt>
                 <c:pt idx="368">
                   <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,8 +5983,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E370" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E370" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E371" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E371" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6302,7 +6317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12605,6 +12620,23 @@
       </c>
       <c r="E370">
         <v>1815</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371">
+        <v>25177522</v>
+      </c>
+      <c r="C371">
+        <v>419207</v>
+      </c>
+      <c r="D371">
+        <v>155677</v>
+      </c>
+      <c r="E371">
+        <v>1796</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDC53E-B7F8-4021-9D09-0EC506CF0311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780D1D0-444B-4FC4-862A-F6B84A89276B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$371</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$372</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t>date</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>01/24/2021</t>
+  </si>
+  <si>
+    <t>01/25/2021</t>
   </si>
 </sst>
 </file>
@@ -1243,9 +1246,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$371</c:f>
+              <c:f>data!$A$2:$A$372</c:f>
               <c:strCache>
-                <c:ptCount val="370"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2355,16 +2358,19 @@
                 </c:pt>
                 <c:pt idx="369">
                   <c:v>01/24/2021</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>01/25/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$371</c:f>
+              <c:f>data!$D$2:$D$372</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="370"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3458,13 +3464,13 @@
                   <c:v>185070</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>186235</c:v>
+                  <c:v>186912</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>190630</c:v>
+                  <c:v>190160</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>191912</c:v>
+                  <c:v>191705</c:v>
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>167954</c:v>
@@ -3473,7 +3479,10 @@
                   <c:v>129527</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>155677</c:v>
+                  <c:v>155682</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>151616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,9 +3589,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$371</c:f>
+              <c:f>data!$A$2:$A$372</c:f>
               <c:strCache>
-                <c:ptCount val="370"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4692,16 +4701,19 @@
                 </c:pt>
                 <c:pt idx="369">
                   <c:v>01/24/2021</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>01/25/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$371</c:f>
+              <c:f>data!$E$2:$E$372</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="370"/>
+                <c:ptCount val="371"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5795,13 +5807,13 @@
                   <c:v>2771</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>4370</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>4142</c:v>
+                  <c:v>4135</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>3734</c:v>
+                  <c:v>3731</c:v>
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>3322</c:v>
@@ -5811,6 +5823,9 @@
                 </c:pt>
                 <c:pt idx="369">
                   <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>4205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,8 +5998,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E371" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E371" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E372" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E372" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6317,7 +6332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E371"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12548,10 +12563,10 @@
         <v>401824</v>
       </c>
       <c r="D366">
-        <v>186235</v>
+        <v>186912</v>
       </c>
       <c r="E366">
-        <v>4370</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -12559,16 +12574,16 @@
         <v>370</v>
       </c>
       <c r="B367">
-        <v>24497499</v>
+        <v>24498176</v>
       </c>
       <c r="C367">
-        <v>406194</v>
+        <v>406204</v>
       </c>
       <c r="D367">
-        <v>190630</v>
+        <v>190160</v>
       </c>
       <c r="E367">
-        <v>4142</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -12576,16 +12591,16 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>24688129</v>
+        <v>24688336</v>
       </c>
       <c r="C368">
-        <v>410336</v>
+        <v>410339</v>
       </c>
       <c r="D368">
-        <v>191912</v>
+        <v>191705</v>
       </c>
       <c r="E368">
-        <v>3734</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -12633,10 +12648,27 @@
         <v>419207</v>
       </c>
       <c r="D371">
-        <v>155677</v>
+        <v>155682</v>
       </c>
       <c r="E371">
         <v>1796</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372">
+        <v>25333204</v>
+      </c>
+      <c r="C372">
+        <v>421003</v>
+      </c>
+      <c r="D372">
+        <v>151616</v>
+      </c>
+      <c r="E372">
+        <v>4205</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780D1D0-444B-4FC4-862A-F6B84A89276B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B46707-3CB4-4E27-BFB3-5BFCE4220E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$372</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$373</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>date</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t>01/25/2021</t>
+  </si>
+  <si>
+    <t>01/26/2021</t>
   </si>
 </sst>
 </file>
@@ -1246,9 +1249,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$372</c:f>
+              <c:f>data!$A$2:$A$373</c:f>
               <c:strCache>
-                <c:ptCount val="371"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2361,16 +2364,19 @@
                 </c:pt>
                 <c:pt idx="370">
                   <c:v>01/25/2021</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>01/26/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$372</c:f>
+              <c:f>data!$D$2:$D$373</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3483,6 +3489,9 @@
                 </c:pt>
                 <c:pt idx="370">
                   <c:v>151616</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>155629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,9 +3598,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$372</c:f>
+              <c:f>data!$A$2:$A$373</c:f>
               <c:strCache>
-                <c:ptCount val="371"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4704,16 +4713,19 @@
                 </c:pt>
                 <c:pt idx="370">
                   <c:v>01/25/2021</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>01/26/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$372</c:f>
+              <c:f>data!$E$2:$E$373</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="371"/>
+                <c:ptCount val="372"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5822,10 +5834,13 @@
                   <c:v>1815</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1796</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>4205</c:v>
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5998,8 +6013,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E372" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E372" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E373" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E373" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6332,7 +6347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12651,7 +12666,7 @@
         <v>155682</v>
       </c>
       <c r="E371">
-        <v>1796</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -12662,13 +12677,30 @@
         <v>25333204</v>
       </c>
       <c r="C372">
-        <v>421003</v>
+        <v>421114</v>
       </c>
       <c r="D372">
         <v>151616</v>
       </c>
       <c r="E372">
-        <v>4205</v>
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373">
+        <v>25484820</v>
+      </c>
+      <c r="C373">
+        <v>425211</v>
+      </c>
+      <c r="D373">
+        <v>155629</v>
+      </c>
+      <c r="E373">
+        <v>4101</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B46707-3CB4-4E27-BFB3-5BFCE4220E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C9329-1467-4D61-8CF4-85CE8AF4943C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$373</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$374</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>date</t>
   </si>
@@ -1164,6 +1164,9 @@
   </si>
   <si>
     <t>01/26/2021</t>
+  </si>
+  <si>
+    <t>01/27/2021</t>
   </si>
 </sst>
 </file>
@@ -1249,9 +1252,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$373</c:f>
+              <c:f>data!$A$2:$A$374</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="373"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2367,16 +2370,19 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>01/26/2021</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>01/27/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$373</c:f>
+              <c:f>data!$D$2:$D$374</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="373"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3492,6 +3498,9 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>155629</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>165264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,9 +3607,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$373</c:f>
+              <c:f>data!$A$2:$A$374</c:f>
               <c:strCache>
-                <c:ptCount val="372"/>
+                <c:ptCount val="373"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4716,16 +4725,19 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>01/26/2021</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>01/27/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$373</c:f>
+              <c:f>data!$E$2:$E$374</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="372"/>
+                <c:ptCount val="373"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5841,6 +5853,9 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,8 +6028,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E373" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E373" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E374" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E374" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6347,7 +6362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12701,6 +12716,23 @@
       </c>
       <c r="E373">
         <v>4101</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374">
+        <v>25640449</v>
+      </c>
+      <c r="C374">
+        <v>429312</v>
+      </c>
+      <c r="D374">
+        <v>165264</v>
+      </c>
+      <c r="E374">
+        <v>3868</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C9329-1467-4D61-8CF4-85CE8AF4943C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E05CC-6EF2-46EE-A453-947B1024D61B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$374</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$375</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>date</t>
   </si>
@@ -1167,6 +1167,9 @@
   </si>
   <si>
     <t>01/27/2021</t>
+  </si>
+  <si>
+    <t>01/28/2021</t>
   </si>
 </sst>
 </file>
@@ -1252,9 +1255,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$374</c:f>
+              <c:f>data!$A$2:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="373"/>
+                <c:ptCount val="374"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2373,16 +2376,19 @@
                 </c:pt>
                 <c:pt idx="372">
                   <c:v>01/27/2021</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>01/28/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$374</c:f>
+              <c:f>data!$D$2:$D$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="373"/>
+                <c:ptCount val="374"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3501,6 +3507,9 @@
                 </c:pt>
                 <c:pt idx="372">
                   <c:v>165264</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>165636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,9 +3616,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$374</c:f>
+              <c:f>data!$A$2:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="373"/>
+                <c:ptCount val="374"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4728,16 +4737,19 @@
                 </c:pt>
                 <c:pt idx="372">
                   <c:v>01/27/2021</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>01/28/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$374</c:f>
+              <c:f>data!$E$2:$E$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="373"/>
+                <c:ptCount val="374"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5856,6 +5868,9 @@
                 </c:pt>
                 <c:pt idx="372">
                   <c:v>3868</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6028,8 +6043,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E374" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E374" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E375" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E375" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6362,7 +6377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12733,6 +12748,23 @@
       </c>
       <c r="E374">
         <v>3868</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375">
+        <v>25805713</v>
+      </c>
+      <c r="C375">
+        <v>433180</v>
+      </c>
+      <c r="D375">
+        <v>165636</v>
+      </c>
+      <c r="E375">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E05CC-6EF2-46EE-A453-947B1024D61B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A3903-585A-4B95-8166-304E8EAC5768}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$375</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$376</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>date</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t>01/28/2021</t>
+  </si>
+  <si>
+    <t>01/29/2021</t>
   </si>
 </sst>
 </file>
@@ -1255,9 +1258,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$375</c:f>
+              <c:f>data!$A$2:$A$376</c:f>
               <c:strCache>
-                <c:ptCount val="374"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2379,16 +2382,19 @@
                 </c:pt>
                 <c:pt idx="373">
                   <c:v>01/28/2021</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>01/29/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$375</c:f>
+              <c:f>data!$D$2:$D$376</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="374"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3510,6 +3516,9 @@
                 </c:pt>
                 <c:pt idx="373">
                   <c:v>165636</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>133747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,9 +3625,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$375</c:f>
+              <c:f>data!$A$2:$A$376</c:f>
               <c:strCache>
-                <c:ptCount val="374"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4740,16 +4749,19 @@
                 </c:pt>
                 <c:pt idx="373">
                   <c:v>01/28/2021</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>01/29/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$375</c:f>
+              <c:f>data!$E$2:$E$376</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="374"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5871,6 +5883,9 @@
                 </c:pt>
                 <c:pt idx="373">
                   <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6043,8 +6058,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E375" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E375" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E376" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E376" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6377,7 +6392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12765,6 +12780,23 @@
       </c>
       <c r="E375">
         <v>3600</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376">
+        <v>25971349</v>
+      </c>
+      <c r="C376">
+        <v>436780</v>
+      </c>
+      <c r="D376">
+        <v>133747</v>
+      </c>
+      <c r="E376">
+        <v>2641</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A3903-585A-4B95-8166-304E8EAC5768}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2004B12B-9DFA-4E2E-B7E5-F9BF34768F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$376</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$377</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>date</t>
   </si>
@@ -1173,6 +1173,9 @@
   </si>
   <si>
     <t>01/29/2021</t>
+  </si>
+  <si>
+    <t>01/30/2021</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1261,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$376</c:f>
+              <c:f>data!$A$2:$A$377</c:f>
               <c:strCache>
-                <c:ptCount val="375"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2385,16 +2388,19 @@
                 </c:pt>
                 <c:pt idx="374">
                   <c:v>01/29/2021</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>01/30/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$376</c:f>
+              <c:f>data!$D$2:$D$377</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="375"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3518,7 +3524,10 @@
                   <c:v>165636</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>133747</c:v>
+                  <c:v>133914</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>111478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,9 +3634,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$376</c:f>
+              <c:f>data!$A$2:$A$377</c:f>
               <c:strCache>
-                <c:ptCount val="375"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4752,16 +4761,19 @@
                 </c:pt>
                 <c:pt idx="374">
                   <c:v>01/29/2021</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>01/30/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$376</c:f>
+              <c:f>data!$E$2:$E$377</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="375"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5886,6 +5898,9 @@
                 </c:pt>
                 <c:pt idx="374">
                   <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,8 +6073,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E376" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E376" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E377" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E377" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6392,7 +6407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E376"/>
+  <dimension ref="A1:E377"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12793,10 +12808,27 @@
         <v>436780</v>
       </c>
       <c r="D376">
-        <v>133747</v>
+        <v>133914</v>
       </c>
       <c r="E376">
         <v>2641</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377">
+        <v>26105263</v>
+      </c>
+      <c r="C377">
+        <v>439421</v>
+      </c>
+      <c r="D377">
+        <v>111478</v>
+      </c>
+      <c r="E377">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2004B12B-9DFA-4E2E-B7E5-F9BF34768F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF0CD05-DF08-4466-8780-1C668FB8E3C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$377</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$378</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>date</t>
   </si>
@@ -1176,6 +1176,9 @@
   </si>
   <si>
     <t>01/30/2021</t>
+  </si>
+  <si>
+    <t>01/31/2021</t>
   </si>
 </sst>
 </file>
@@ -1261,9 +1264,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$377</c:f>
+              <c:f>data!$A$2:$A$378</c:f>
               <c:strCache>
-                <c:ptCount val="376"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2391,16 +2394,19 @@
                 </c:pt>
                 <c:pt idx="375">
                   <c:v>01/30/2021</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>01/31/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$377</c:f>
+              <c:f>data!$D$2:$D$378</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3527,7 +3533,10 @@
                   <c:v>133914</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>111478</c:v>
+                  <c:v>113512</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>139830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,9 +3643,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$377</c:f>
+              <c:f>data!$A$2:$A$378</c:f>
               <c:strCache>
-                <c:ptCount val="376"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4764,16 +4773,19 @@
                 </c:pt>
                 <c:pt idx="375">
                   <c:v>01/30/2021</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>01/31/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$377</c:f>
+              <c:f>data!$E$2:$E$378</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5900,7 +5912,10 @@
                   <c:v>2641</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1875</c:v>
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6073,8 +6088,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E377" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E377" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E378" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E378" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6407,7 +6422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E377"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12825,10 +12840,27 @@
         <v>439421</v>
       </c>
       <c r="D377">
-        <v>111478</v>
+        <v>113512</v>
       </c>
       <c r="E377">
-        <v>1875</v>
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378">
+        <v>26218775</v>
+      </c>
+      <c r="C378">
+        <v>441285</v>
+      </c>
+      <c r="D378">
+        <v>139830</v>
+      </c>
+      <c r="E378">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF0CD05-DF08-4466-8780-1C668FB8E3C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE189EFA-E2D0-4880-A5B7-C528E8A4D548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$378</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$379</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>date</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>01/31/2021</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
   </si>
 </sst>
 </file>
@@ -1264,9 +1267,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$378</c:f>
+              <c:f>data!$A$2:$A$379</c:f>
               <c:strCache>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2397,16 +2400,19 @@
                 </c:pt>
                 <c:pt idx="376">
                   <c:v>01/31/2021</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>02/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$378</c:f>
+              <c:f>data!$D$2:$D$379</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3536,7 +3542,10 @@
                   <c:v>113512</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>139830</c:v>
+                  <c:v>139832</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>114173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,9 +3652,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$378</c:f>
+              <c:f>data!$A$2:$A$379</c:f>
               <c:strCache>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4776,16 +4785,19 @@
                 </c:pt>
                 <c:pt idx="376">
                   <c:v>01/31/2021</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>02/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$378</c:f>
+              <c:f>data!$E$2:$E$379</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5915,7 +5927,10 @@
                   <c:v>1864</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>2010</c:v>
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6088,8 +6103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E378" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E378" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E379" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E379" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6422,7 +6437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12857,10 +12872,27 @@
         <v>441285</v>
       </c>
       <c r="D378">
-        <v>139830</v>
+        <v>139832</v>
       </c>
       <c r="E378">
-        <v>2010</v>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379">
+        <v>26358607</v>
+      </c>
+      <c r="C379">
+        <v>443235</v>
+      </c>
+      <c r="D379">
+        <v>114173</v>
+      </c>
+      <c r="E379">
+        <v>3406</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE189EFA-E2D0-4880-A5B7-C528E8A4D548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030850A-364F-429D-8D16-01C29C188CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$379</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$380</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>date</t>
   </si>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
   </si>
 </sst>
 </file>
@@ -1267,9 +1270,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$379</c:f>
+              <c:f>data!$A$2:$A$380</c:f>
               <c:strCache>
-                <c:ptCount val="378"/>
+                <c:ptCount val="379"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2403,16 +2406,19 @@
                 </c:pt>
                 <c:pt idx="377">
                   <c:v>02/01/2021</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$379</c:f>
+              <c:f>data!$D$2:$D$380</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="379"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3545,7 +3551,10 @@
                   <c:v>139832</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>114173</c:v>
+                  <c:v>117919</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>119014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,9 +3661,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$379</c:f>
+              <c:f>data!$A$2:$A$380</c:f>
               <c:strCache>
-                <c:ptCount val="378"/>
+                <c:ptCount val="379"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4788,16 +4797,19 @@
                 </c:pt>
                 <c:pt idx="377">
                   <c:v>02/01/2021</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$379</c:f>
+              <c:f>data!$E$2:$E$380</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="379"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5930,7 +5942,10 @@
                   <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>3406</c:v>
+                  <c:v>3611</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,8 +6118,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E379" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E379" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E380" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E380" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6437,7 +6452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12889,10 +12904,27 @@
         <v>443235</v>
       </c>
       <c r="D379">
-        <v>114173</v>
+        <v>117919</v>
       </c>
       <c r="E379">
-        <v>3406</v>
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380">
+        <v>26476526</v>
+      </c>
+      <c r="C380">
+        <v>446846</v>
+      </c>
+      <c r="D380">
+        <v>119014</v>
+      </c>
+      <c r="E380">
+        <v>3843</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030850A-364F-429D-8D16-01C29C188CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA988BC-9597-4C20-8528-0E7928824CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$380</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$381</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>date</t>
   </si>
@@ -1185,6 +1185,9 @@
   </si>
   <si>
     <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>02/03/2021</t>
   </si>
 </sst>
 </file>
@@ -1270,9 +1273,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$380</c:f>
+              <c:f>data!$A$2:$A$381</c:f>
               <c:strCache>
-                <c:ptCount val="379"/>
+                <c:ptCount val="380"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2409,16 +2412,19 @@
                 </c:pt>
                 <c:pt idx="378">
                   <c:v>02/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$380</c:f>
+              <c:f>data!$D$2:$D$381</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="379"/>
+                <c:ptCount val="380"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3555,6 +3561,9 @@
                 </c:pt>
                 <c:pt idx="378">
                   <c:v>119014</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>126842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,9 +3670,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$380</c:f>
+              <c:f>data!$A$2:$A$381</c:f>
               <c:strCache>
-                <c:ptCount val="379"/>
+                <c:ptCount val="380"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4800,16 +4809,19 @@
                 </c:pt>
                 <c:pt idx="378">
                   <c:v>02/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$380</c:f>
+              <c:f>data!$E$2:$E$381</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="379"/>
+                <c:ptCount val="380"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5946,6 +5958,9 @@
                 </c:pt>
                 <c:pt idx="378">
                   <c:v>3843</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>5116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6118,8 +6133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E380" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E380" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E381" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E381" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6452,7 +6467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12925,6 +12940,23 @@
       </c>
       <c r="E380">
         <v>3843</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381">
+        <v>26595540</v>
+      </c>
+      <c r="C381">
+        <v>450689</v>
+      </c>
+      <c r="D381">
+        <v>126842</v>
+      </c>
+      <c r="E381">
+        <v>5116</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA988BC-9597-4C20-8528-0E7928824CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923B32C-9FC7-42E5-BCDC-3D2EDD1D6A94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$381</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$382</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>date</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>02/03/2021</t>
+  </si>
+  <si>
+    <t>02/04/2021</t>
   </si>
 </sst>
 </file>
@@ -1273,9 +1276,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$381</c:f>
+              <c:f>data!$A$2:$A$382</c:f>
               <c:strCache>
-                <c:ptCount val="380"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2415,16 +2418,19 @@
                 </c:pt>
                 <c:pt idx="379">
                   <c:v>02/03/2021</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$381</c:f>
+              <c:f>data!$D$2:$D$382</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="380"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3564,6 +3570,9 @@
                 </c:pt>
                 <c:pt idx="379">
                   <c:v>126842</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>129592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,9 +3679,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$381</c:f>
+              <c:f>data!$A$2:$A$382</c:f>
               <c:strCache>
-                <c:ptCount val="380"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4812,16 +4821,19 @@
                 </c:pt>
                 <c:pt idx="379">
                   <c:v>02/03/2021</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>02/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$381</c:f>
+              <c:f>data!$E$2:$E$382</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="380"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5961,6 +5973,9 @@
                 </c:pt>
                 <c:pt idx="379">
                   <c:v>5116</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6133,8 +6148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E381" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E381" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E382" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E382" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6467,7 +6482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12957,6 +12972,23 @@
       </c>
       <c r="E381">
         <v>5116</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382">
+        <v>26722382</v>
+      </c>
+      <c r="C382">
+        <v>455805</v>
+      </c>
+      <c r="D382">
+        <v>129592</v>
+      </c>
+      <c r="E382">
+        <v>3570</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923B32C-9FC7-42E5-BCDC-3D2EDD1D6A94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA1651-3096-44DC-8355-0E447F7B7B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$382</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$383</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>date</t>
   </si>
@@ -1191,6 +1191,9 @@
   </si>
   <si>
     <t>02/04/2021</t>
+  </si>
+  <si>
+    <t>02/05/2021</t>
   </si>
 </sst>
 </file>
@@ -1276,9 +1279,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$382</c:f>
+              <c:f>data!$A$2:$A$383</c:f>
               <c:strCache>
-                <c:ptCount val="381"/>
+                <c:ptCount val="382"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2421,16 +2424,19 @@
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>02/04/2021</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>02/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$382</c:f>
+              <c:f>data!$D$2:$D$383</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="382"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3573,6 +3579,9 @@
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>129592</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>105027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,9 +3688,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$382</c:f>
+              <c:f>data!$A$2:$A$383</c:f>
               <c:strCache>
-                <c:ptCount val="381"/>
+                <c:ptCount val="382"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4824,16 +4833,19 @@
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>02/04/2021</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>02/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$382</c:f>
+              <c:f>data!$E$2:$E$383</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="381"/>
+                <c:ptCount val="382"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5976,6 +5988,9 @@
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6148,8 +6163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E382" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E382" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E383" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E383" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6482,7 +6497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12989,6 +13004,23 @@
       </c>
       <c r="E382">
         <v>3570</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>386</v>
+      </c>
+      <c r="B383">
+        <v>26851974</v>
+      </c>
+      <c r="C383">
+        <v>459375</v>
+      </c>
+      <c r="D383">
+        <v>105027</v>
+      </c>
+      <c r="E383">
+        <v>2662</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA1651-3096-44DC-8355-0E447F7B7B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A58032-A2E0-45E0-95CC-5F1BFAAFCC5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$383</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$384</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>date</t>
   </si>
@@ -1194,6 +1194,9 @@
   </si>
   <si>
     <t>02/05/2021</t>
+  </si>
+  <si>
+    <t>02/06/2021</t>
   </si>
 </sst>
 </file>
@@ -1279,9 +1282,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$383</c:f>
+              <c:f>data!$A$2:$A$384</c:f>
               <c:strCache>
-                <c:ptCount val="382"/>
+                <c:ptCount val="383"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2427,16 +2430,19 @@
                 </c:pt>
                 <c:pt idx="381">
                   <c:v>02/05/2021</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$383</c:f>
+              <c:f>data!$D$2:$D$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="382"/>
+                <c:ptCount val="383"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3582,6 +3588,9 @@
                 </c:pt>
                 <c:pt idx="381">
                   <c:v>105027</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>87889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,9 +3697,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$383</c:f>
+              <c:f>data!$A$2:$A$384</c:f>
               <c:strCache>
-                <c:ptCount val="382"/>
+                <c:ptCount val="383"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4836,16 +4845,19 @@
                 </c:pt>
                 <c:pt idx="381">
                   <c:v>02/05/2021</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$383</c:f>
+              <c:f>data!$E$2:$E$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="382"/>
+                <c:ptCount val="383"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5987,10 +5999,13 @@
                   <c:v>5116</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>3570</c:v>
+                  <c:v>3620</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>2662</c:v>
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6163,8 +6178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E383" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E383" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E384" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E384" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6497,7 +6512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13003,7 +13018,7 @@
         <v>129592</v>
       </c>
       <c r="E382">
-        <v>3570</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -13014,13 +13029,30 @@
         <v>26851974</v>
       </c>
       <c r="C383">
-        <v>459375</v>
+        <v>459425</v>
       </c>
       <c r="D383">
         <v>105027</v>
       </c>
       <c r="E383">
-        <v>2662</v>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>387</v>
+      </c>
+      <c r="B384">
+        <v>26957001</v>
+      </c>
+      <c r="C384">
+        <v>462037</v>
+      </c>
+      <c r="D384">
+        <v>87889</v>
+      </c>
+      <c r="E384">
+        <v>1301</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A58032-A2E0-45E0-95CC-5F1BFAAFCC5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A1A134-EE9E-48AB-8CF1-2E1553423455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$384</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$385</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>date</t>
   </si>
@@ -1197,6 +1197,9 @@
   </si>
   <si>
     <t>02/06/2021</t>
+  </si>
+  <si>
+    <t>02/07/2021</t>
   </si>
 </sst>
 </file>
@@ -1282,9 +1285,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$384</c:f>
+              <c:f>data!$A$2:$A$385</c:f>
               <c:strCache>
-                <c:ptCount val="383"/>
+                <c:ptCount val="384"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2433,16 +2436,19 @@
                 </c:pt>
                 <c:pt idx="382">
                   <c:v>02/06/2021</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>02/07/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$384</c:f>
+              <c:f>data!$D$2:$D$385</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="383"/>
+                <c:ptCount val="384"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3578,10 +3584,10 @@
                   <c:v>117919</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>119014</c:v>
+                  <c:v>120014</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>126842</c:v>
+                  <c:v>125842</c:v>
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>129592</c:v>
@@ -3590,7 +3596,10 @@
                   <c:v>105027</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>87889</c:v>
+                  <c:v>87334</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>92739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,9 +3706,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$384</c:f>
+              <c:f>data!$A$2:$A$385</c:f>
               <c:strCache>
-                <c:ptCount val="383"/>
+                <c:ptCount val="384"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4848,16 +4857,19 @@
                 </c:pt>
                 <c:pt idx="382">
                   <c:v>02/06/2021</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>02/07/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$384</c:f>
+              <c:f>data!$E$2:$E$385</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="383"/>
+                <c:ptCount val="384"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6005,7 +6017,10 @@
                   <c:v>2612</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1301</c:v>
+                  <c:v>1337</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6178,8 +6193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E384" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E384" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E385" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E385" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6512,7 +6527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -12981,7 +12996,7 @@
         <v>446846</v>
       </c>
       <c r="D380">
-        <v>119014</v>
+        <v>120014</v>
       </c>
       <c r="E380">
         <v>3843</v>
@@ -12992,13 +13007,13 @@
         <v>384</v>
       </c>
       <c r="B381">
-        <v>26595540</v>
+        <v>26596540</v>
       </c>
       <c r="C381">
         <v>450689</v>
       </c>
       <c r="D381">
-        <v>126842</v>
+        <v>125842</v>
       </c>
       <c r="E381">
         <v>5116</v>
@@ -13049,10 +13064,27 @@
         <v>462037</v>
       </c>
       <c r="D384">
-        <v>87889</v>
+        <v>87334</v>
       </c>
       <c r="E384">
-        <v>1301</v>
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>388</v>
+      </c>
+      <c r="B385">
+        <v>27044335</v>
+      </c>
+      <c r="C385">
+        <v>463374</v>
+      </c>
+      <c r="D385">
+        <v>92739</v>
+      </c>
+      <c r="E385">
+        <v>1547</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A1A134-EE9E-48AB-8CF1-2E1553423455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBFF84-86FE-400D-B547-F5FC18B3D577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$385</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$386</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>date</t>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t>02/07/2021</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
   </si>
 </sst>
 </file>
@@ -1285,9 +1288,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$385</c:f>
+              <c:f>data!$A$2:$A$386</c:f>
               <c:strCache>
-                <c:ptCount val="384"/>
+                <c:ptCount val="385"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2439,16 +2442,19 @@
                 </c:pt>
                 <c:pt idx="383">
                   <c:v>02/07/2021</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>02/08/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$385</c:f>
+              <c:f>data!$D$2:$D$386</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="384"/>
+                <c:ptCount val="385"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3017,10 +3023,10 @@
                   <c:v>63116</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>66616</c:v>
+                  <c:v>66782</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>69114</c:v>
+                  <c:v>68948</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>69088</c:v>
@@ -3167,7 +3173,7 @@
                   <c:v>39268</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>45310</c:v>
+                  <c:v>45308</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>48887</c:v>
@@ -3600,6 +3606,9 @@
                 </c:pt>
                 <c:pt idx="383">
                   <c:v>92739</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>96460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,9 +3715,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$385</c:f>
+              <c:f>data!$A$2:$A$386</c:f>
               <c:strCache>
-                <c:ptCount val="384"/>
+                <c:ptCount val="385"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4860,16 +4869,19 @@
                 </c:pt>
                 <c:pt idx="383">
                   <c:v>02/07/2021</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>02/08/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$385</c:f>
+              <c:f>data!$E$2:$E$386</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="384"/>
+                <c:ptCount val="385"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6011,16 +6023,19 @@
                   <c:v>5116</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>3620</c:v>
+                  <c:v>3570</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>2612</c:v>
+                  <c:v>2662</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1337</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1547</c:v>
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6193,8 +6208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E385" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E385" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E386" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6527,7 +6542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -9783,7 +9798,7 @@
         <v>149776</v>
       </c>
       <c r="D191">
-        <v>66616</v>
+        <v>66782</v>
       </c>
       <c r="E191">
         <v>1396</v>
@@ -9794,13 +9809,13 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>4433467</v>
+        <v>4433633</v>
       </c>
       <c r="C192">
         <v>151172</v>
       </c>
       <c r="D192">
-        <v>69114</v>
+        <v>68948</v>
       </c>
       <c r="E192">
         <v>1261</v>
@@ -10633,7 +10648,7 @@
         <v>196686</v>
       </c>
       <c r="D241">
-        <v>45310</v>
+        <v>45308</v>
       </c>
       <c r="E241">
         <v>849</v>
@@ -10644,7 +10659,7 @@
         <v>245</v>
       </c>
       <c r="B242">
-        <v>6698895</v>
+        <v>6698893</v>
       </c>
       <c r="C242">
         <v>197535</v>
@@ -10661,7 +10676,7 @@
         <v>246</v>
       </c>
       <c r="B243">
-        <v>6747782</v>
+        <v>6747780</v>
       </c>
       <c r="C243">
         <v>198484</v>
@@ -10678,7 +10693,7 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>6789593</v>
+        <v>6789591</v>
       </c>
       <c r="C244">
         <v>199154</v>
@@ -10695,7 +10710,7 @@
         <v>248</v>
       </c>
       <c r="B245">
-        <v>6825949</v>
+        <v>6825947</v>
       </c>
       <c r="C245">
         <v>199367</v>
@@ -10712,7 +10727,7 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>6880899</v>
+        <v>6880897</v>
       </c>
       <c r="C246">
         <v>199797</v>
@@ -10729,7 +10744,7 @@
         <v>250</v>
       </c>
       <c r="B247">
-        <v>6918290</v>
+        <v>6918288</v>
       </c>
       <c r="C247">
         <v>200738</v>
@@ -10746,7 +10761,7 @@
         <v>251</v>
       </c>
       <c r="B248">
-        <v>6959841</v>
+        <v>6959839</v>
       </c>
       <c r="C248">
         <v>201828</v>
@@ -10763,7 +10778,7 @@
         <v>252</v>
       </c>
       <c r="B249">
-        <v>7005043</v>
+        <v>7005041</v>
       </c>
       <c r="C249">
         <v>202713</v>
@@ -10780,7 +10795,7 @@
         <v>253</v>
       </c>
       <c r="B250">
-        <v>7059624</v>
+        <v>7059622</v>
       </c>
       <c r="C250">
         <v>203566</v>
@@ -10797,7 +10812,7 @@
         <v>254</v>
       </c>
       <c r="B251">
-        <v>7102321</v>
+        <v>7102319</v>
       </c>
       <c r="C251">
         <v>204335</v>
@@ -10814,7 +10829,7 @@
         <v>255</v>
       </c>
       <c r="B252">
-        <v>7139619</v>
+        <v>7139617</v>
       </c>
       <c r="C252">
         <v>204602</v>
@@ -10831,7 +10846,7 @@
         <v>256</v>
       </c>
       <c r="B253">
-        <v>7176979</v>
+        <v>7176977</v>
       </c>
       <c r="C253">
         <v>204952</v>
@@ -10848,7 +10863,7 @@
         <v>257</v>
       </c>
       <c r="B254">
-        <v>7220676</v>
+        <v>7220674</v>
       </c>
       <c r="C254">
         <v>205878</v>
@@ -10865,7 +10880,7 @@
         <v>258</v>
       </c>
       <c r="B255">
-        <v>7262734</v>
+        <v>7262732</v>
       </c>
       <c r="C255">
         <v>206852</v>
@@ -10882,7 +10897,7 @@
         <v>259</v>
       </c>
       <c r="B256">
-        <v>7309152</v>
+        <v>7309150</v>
       </c>
       <c r="C256">
         <v>207699</v>
@@ -10899,7 +10914,7 @@
         <v>260</v>
       </c>
       <c r="B257">
-        <v>7362732</v>
+        <v>7362730</v>
       </c>
       <c r="C257">
         <v>208564</v>
@@ -10916,7 +10931,7 @@
         <v>261</v>
       </c>
       <c r="B258">
-        <v>7410511</v>
+        <v>7410509</v>
       </c>
       <c r="C258">
         <v>209273</v>
@@ -10933,7 +10948,7 @@
         <v>262</v>
       </c>
       <c r="B259">
-        <v>7445574</v>
+        <v>7445572</v>
       </c>
       <c r="C259">
         <v>209606</v>
@@ -10950,7 +10965,7 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>7507986</v>
+        <v>7507984</v>
       </c>
       <c r="C260">
         <v>210035</v>
@@ -10967,7 +10982,7 @@
         <v>264</v>
       </c>
       <c r="B261">
-        <v>7550848</v>
+        <v>7550846</v>
       </c>
       <c r="C261">
         <v>210756</v>
@@ -10984,7 +10999,7 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>7603865</v>
+        <v>7603863</v>
       </c>
       <c r="C262">
         <v>211752</v>
@@ -11001,7 +11016,7 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>7660248</v>
+        <v>7660246</v>
       </c>
       <c r="C263">
         <v>212680</v>
@@ -11018,7 +11033,7 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>7719210</v>
+        <v>7719208</v>
       </c>
       <c r="C264">
         <v>213595</v>
@@ -11035,7 +11050,7 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>7770858</v>
+        <v>7770856</v>
       </c>
       <c r="C265">
         <v>214187</v>
@@ -11052,7 +11067,7 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>7815641</v>
+        <v>7815639</v>
       </c>
       <c r="C266">
         <v>214606</v>
@@ -11069,7 +11084,7 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>7863657</v>
+        <v>7863655</v>
       </c>
       <c r="C267">
         <v>214957</v>
@@ -11086,7 +11101,7 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>7918051</v>
+        <v>7918049</v>
       </c>
       <c r="C268">
         <v>215783</v>
@@ -11103,7 +11118,7 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>7977904</v>
+        <v>7977902</v>
       </c>
       <c r="C269">
         <v>216792</v>
@@ -11120,7 +11135,7 @@
         <v>273</v>
       </c>
       <c r="B270">
-        <v>8043257</v>
+        <v>8043255</v>
       </c>
       <c r="C270">
         <v>217585</v>
@@ -11137,7 +11152,7 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>8113720</v>
+        <v>8113718</v>
       </c>
       <c r="C271">
         <v>218476</v>
@@ -11154,7 +11169,7 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>8166481</v>
+        <v>8166479</v>
       </c>
       <c r="C272">
         <v>219154</v>
@@ -11171,7 +11186,7 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>8214363</v>
+        <v>8214361</v>
       </c>
       <c r="C273">
         <v>219541</v>
@@ -11188,7 +11203,7 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>8279803</v>
+        <v>8279801</v>
       </c>
       <c r="C274">
         <v>220058</v>
@@ -11205,7 +11220,7 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>8340397</v>
+        <v>8340395</v>
       </c>
       <c r="C275">
         <v>220987</v>
@@ -11222,7 +11237,7 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>8404634</v>
+        <v>8404632</v>
       </c>
       <c r="C276">
         <v>222195</v>
@@ -11239,7 +11254,7 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>8479762</v>
+        <v>8479760</v>
       </c>
       <c r="C277">
         <v>223023</v>
@@ -11256,7 +11271,7 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>8564893</v>
+        <v>8564891</v>
       </c>
       <c r="C278">
         <v>223949</v>
@@ -11273,7 +11288,7 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>8643591</v>
+        <v>8643589</v>
       </c>
       <c r="C279">
         <v>224821</v>
@@ -11290,7 +11305,7 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>8703303</v>
+        <v>8703301</v>
       </c>
       <c r="C280">
         <v>225160</v>
@@ -11307,7 +11322,7 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>8777800</v>
+        <v>8777798</v>
       </c>
       <c r="C281">
         <v>225698</v>
@@ -11324,7 +11339,7 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>8852197</v>
+        <v>8852195</v>
       </c>
       <c r="C282">
         <v>226681</v>
@@ -11341,7 +11356,7 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>8934121</v>
+        <v>8934119</v>
       </c>
       <c r="C283">
         <v>227697</v>
@@ -11358,7 +11373,7 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>9024915</v>
+        <v>9024913</v>
       </c>
       <c r="C284">
         <v>228701</v>
@@ -11375,7 +11390,7 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>9124729</v>
+        <v>9124727</v>
       </c>
       <c r="C285">
         <v>229672</v>
@@ -11392,7 +11407,7 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>9208964</v>
+        <v>9208962</v>
       </c>
       <c r="C286">
         <v>230510</v>
@@ -11409,7 +11424,7 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>9283188</v>
+        <v>9283186</v>
       </c>
       <c r="C287">
         <v>230937</v>
@@ -11426,7 +11441,7 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>9376927</v>
+        <v>9376925</v>
       </c>
       <c r="C288">
         <v>231477</v>
@@ -11443,7 +11458,7 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>9469557</v>
+        <v>9469555</v>
       </c>
       <c r="C289">
         <v>232607</v>
@@ -11460,7 +11475,7 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>9577440</v>
+        <v>9577438</v>
       </c>
       <c r="C290">
         <v>234223</v>
@@ -11477,7 +11492,7 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>9698981</v>
+        <v>9698979</v>
       </c>
       <c r="C291">
         <v>235331</v>
@@ -11494,7 +11509,7 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>9831853</v>
+        <v>9831851</v>
       </c>
       <c r="C292">
         <v>236577</v>
@@ -11511,7 +11526,7 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>9957785</v>
+        <v>9957783</v>
       </c>
       <c r="C293">
         <v>237584</v>
@@ -11528,7 +11543,7 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>10061201</v>
+        <v>10061199</v>
       </c>
       <c r="C294">
         <v>238048</v>
@@ -11545,7 +11560,7 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>10191642</v>
+        <v>10191640</v>
       </c>
       <c r="C295">
         <v>238793</v>
@@ -11562,7 +11577,7 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>10331382</v>
+        <v>10331380</v>
       </c>
       <c r="C296">
         <v>240258</v>
@@ -11579,7 +11594,7 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>10474242</v>
+        <v>10474240</v>
       </c>
       <c r="C297">
         <v>241689</v>
@@ -11596,7 +11611,7 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637733</v>
+        <v>10637731</v>
       </c>
       <c r="C298">
         <v>242861</v>
@@ -11613,7 +11628,7 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10819326</v>
+        <v>10819324</v>
       </c>
       <c r="C299">
         <v>244250</v>
@@ -11630,7 +11645,7 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10978447</v>
+        <v>10978445</v>
       </c>
       <c r="C300">
         <v>245460</v>
@@ -11647,7 +11662,7 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>11113634</v>
+        <v>11113632</v>
       </c>
       <c r="C301">
         <v>246083</v>
@@ -11664,7 +11679,7 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11280088</v>
+        <v>11280086</v>
       </c>
       <c r="C302">
         <v>246879</v>
@@ -11681,7 +11696,7 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>11441833</v>
+        <v>11441831</v>
       </c>
       <c r="C303">
         <v>248486</v>
@@ -11698,7 +11713,7 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>11614116</v>
+        <v>11614114</v>
       </c>
       <c r="C304">
         <v>250411</v>
@@ -11715,7 +11730,7 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801586</v>
+        <v>11801584</v>
       </c>
       <c r="C305">
         <v>252373</v>
@@ -11732,7 +11747,7 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000258</v>
+        <v>12000256</v>
       </c>
       <c r="C306">
         <v>254325</v>
@@ -11749,7 +11764,7 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172261</v>
+        <v>12172259</v>
       </c>
       <c r="C307">
         <v>255754</v>
@@ -11766,7 +11781,7 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>12313295</v>
+        <v>12313293</v>
       </c>
       <c r="C308">
         <v>256597</v>
@@ -11783,7 +11798,7 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492394</v>
+        <v>12492392</v>
       </c>
       <c r="C309">
         <v>257635</v>
@@ -11800,7 +11815,7 @@
         <v>313</v>
       </c>
       <c r="B310">
-        <v>12670684</v>
+        <v>12670682</v>
       </c>
       <c r="C310">
         <v>259844</v>
@@ -11817,7 +11832,7 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>12851220</v>
+        <v>12851218</v>
       </c>
       <c r="C311">
         <v>262157</v>
@@ -11834,7 +11849,7 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>12954324</v>
+        <v>12954322</v>
       </c>
       <c r="C312">
         <v>263336</v>
@@ -11851,7 +11866,7 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>13159786</v>
+        <v>13159784</v>
       </c>
       <c r="C313">
         <v>264748</v>
@@ -11868,7 +11883,7 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>13311031</v>
+        <v>13311029</v>
       </c>
       <c r="C314">
         <v>265940</v>
@@ -11885,7 +11900,7 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>13447369</v>
+        <v>13447367</v>
       </c>
       <c r="C315">
         <v>266758</v>
@@ -11902,7 +11917,7 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>13615129</v>
+        <v>13615127</v>
       </c>
       <c r="C316">
         <v>268023</v>
@@ -11919,7 +11934,7 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>13799415</v>
+        <v>13799413</v>
       </c>
       <c r="C317">
         <v>270633</v>
@@ -11936,7 +11951,7 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>14000601</v>
+        <v>14000599</v>
       </c>
       <c r="C318">
         <v>273518</v>
@@ -11953,7 +11968,7 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>14218560</v>
+        <v>14218558</v>
       </c>
       <c r="C319">
         <v>276375</v>
@@ -11970,7 +11985,7 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>14449741</v>
+        <v>14449739</v>
       </c>
       <c r="C320">
         <v>279012</v>
@@ -11987,7 +12002,7 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>14655498</v>
+        <v>14655496</v>
       </c>
       <c r="C321">
         <v>281202</v>
@@ -12004,7 +12019,7 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>14827657</v>
+        <v>14827655</v>
       </c>
       <c r="C322">
         <v>282313</v>
@@ -12021,7 +12036,7 @@
         <v>326</v>
       </c>
       <c r="B323">
-        <v>15031799</v>
+        <v>15031797</v>
       </c>
       <c r="C323">
         <v>283846</v>
@@ -12038,7 +12053,7 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>15251704</v>
+        <v>15251702</v>
       </c>
       <c r="C324">
         <v>286667</v>
@@ -12055,7 +12070,7 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>15471382</v>
+        <v>15471380</v>
       </c>
       <c r="C325">
         <v>289824</v>
@@ -12072,7 +12087,7 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>15696634</v>
+        <v>15696632</v>
       </c>
       <c r="C326">
         <v>292761</v>
@@ -12089,7 +12104,7 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>15977148</v>
+        <v>15977146</v>
       </c>
       <c r="C327">
         <v>295712</v>
@@ -12106,7 +12121,7 @@
         <v>331</v>
       </c>
       <c r="B328">
-        <v>16184592</v>
+        <v>16184590</v>
       </c>
       <c r="C328">
         <v>297971</v>
@@ -12123,7 +12138,7 @@
         <v>332</v>
       </c>
       <c r="B329">
-        <v>16368840</v>
+        <v>16368838</v>
       </c>
       <c r="C329">
         <v>299328</v>
@@ -12140,7 +12155,7 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>16569913</v>
+        <v>16569911</v>
       </c>
       <c r="C330">
         <v>301006</v>
@@ -12157,7 +12172,7 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>16772913</v>
+        <v>16772911</v>
       </c>
       <c r="C331">
         <v>304031</v>
@@ -12174,7 +12189,7 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>17017946</v>
+        <v>17017944</v>
       </c>
       <c r="C332">
         <v>307642</v>
@@ -12191,7 +12206,7 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>17256391</v>
+        <v>17256389</v>
       </c>
       <c r="C333">
         <v>310940</v>
@@ -12208,7 +12223,7 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>17507582</v>
+        <v>17507580</v>
       </c>
       <c r="C334">
         <v>313810</v>
@@ -12225,7 +12240,7 @@
         <v>338</v>
       </c>
       <c r="B335">
-        <v>17701529</v>
+        <v>17701527</v>
       </c>
       <c r="C335">
         <v>316371</v>
@@ -12242,7 +12257,7 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>17881485</v>
+        <v>17881483</v>
       </c>
       <c r="C336">
         <v>317800</v>
@@ -12259,7 +12274,7 @@
         <v>340</v>
       </c>
       <c r="B337">
-        <v>18083055</v>
+        <v>18083053</v>
       </c>
       <c r="C337">
         <v>319763</v>
@@ -12276,7 +12291,7 @@
         <v>341</v>
       </c>
       <c r="B338">
-        <v>18284729</v>
+        <v>18284727</v>
       </c>
       <c r="C338">
         <v>323002</v>
@@ -12293,7 +12308,7 @@
         <v>342</v>
       </c>
       <c r="B339">
-        <v>18512479</v>
+        <v>18512477</v>
       </c>
       <c r="C339">
         <v>326413</v>
@@ -12310,7 +12325,7 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>18706036</v>
+        <v>18706034</v>
       </c>
       <c r="C340">
         <v>329237</v>
@@ -12327,7 +12342,7 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>18807030</v>
+        <v>18807028</v>
       </c>
       <c r="C341">
         <v>330366</v>
@@ -12344,7 +12359,7 @@
         <v>345</v>
       </c>
       <c r="B342">
-        <v>19023888</v>
+        <v>19023886</v>
       </c>
       <c r="C342">
         <v>332012</v>
@@ -12361,7 +12376,7 @@
         <v>346</v>
       </c>
       <c r="B343">
-        <v>19175990</v>
+        <v>19175988</v>
       </c>
       <c r="C343">
         <v>333242</v>
@@ -12378,7 +12393,7 @@
         <v>347</v>
       </c>
       <c r="B344">
-        <v>19365034</v>
+        <v>19365032</v>
       </c>
       <c r="C344">
         <v>335141</v>
@@ -12395,7 +12410,7 @@
         <v>348</v>
       </c>
       <c r="B345">
-        <v>19566140</v>
+        <v>19566138</v>
       </c>
       <c r="C345">
         <v>338769</v>
@@ -12412,7 +12427,7 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>19795178</v>
+        <v>19795176</v>
       </c>
       <c r="C346">
         <v>342577</v>
@@ -12429,7 +12444,7 @@
         <v>350</v>
       </c>
       <c r="B347">
-        <v>20026223</v>
+        <v>20026221</v>
       </c>
       <c r="C347">
         <v>346039</v>
@@ -12446,7 +12461,7 @@
         <v>351</v>
       </c>
       <c r="B348">
-        <v>20173382</v>
+        <v>20173380</v>
       </c>
       <c r="C348">
         <v>347956</v>
@@ -12463,7 +12478,7 @@
         <v>352</v>
       </c>
       <c r="B349">
-        <v>20464766</v>
+        <v>20464764</v>
       </c>
       <c r="C349">
         <v>350329</v>
@@ -12480,7 +12495,7 @@
         <v>353</v>
       </c>
       <c r="B350">
-        <v>20666746</v>
+        <v>20666744</v>
       </c>
       <c r="C350">
         <v>351682</v>
@@ -12497,7 +12512,7 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>20918664</v>
+        <v>20918662</v>
       </c>
       <c r="C351">
         <v>353730</v>
@@ -12514,7 +12529,7 @@
         <v>355</v>
       </c>
       <c r="B352">
-        <v>21153715</v>
+        <v>21153713</v>
       </c>
       <c r="C352">
         <v>357419</v>
@@ -12531,7 +12546,7 @@
         <v>356</v>
       </c>
       <c r="B353">
-        <v>21409443</v>
+        <v>21409441</v>
       </c>
       <c r="C353">
         <v>361383</v>
@@ -12548,7 +12563,7 @@
         <v>357</v>
       </c>
       <c r="B354">
-        <v>21689735</v>
+        <v>21689733</v>
       </c>
       <c r="C354">
         <v>365495</v>
@@ -12565,7 +12580,7 @@
         <v>358</v>
       </c>
       <c r="B355">
-        <v>21990329</v>
+        <v>21990327</v>
       </c>
       <c r="C355">
         <v>369390</v>
@@ -12582,7 +12597,7 @@
         <v>359</v>
       </c>
       <c r="B356">
-        <v>22242471</v>
+        <v>22242469</v>
       </c>
       <c r="C356">
         <v>372651</v>
@@ -12599,7 +12614,7 @@
         <v>360</v>
       </c>
       <c r="B357">
-        <v>22450809</v>
+        <v>22450807</v>
       </c>
       <c r="C357">
         <v>374428</v>
@@ -12616,7 +12631,7 @@
         <v>361</v>
       </c>
       <c r="B358">
-        <v>22673730</v>
+        <v>22673728</v>
       </c>
       <c r="C358">
         <v>376476</v>
@@ -12633,7 +12648,7 @@
         <v>362</v>
       </c>
       <c r="B359">
-        <v>22903442</v>
+        <v>22903440</v>
       </c>
       <c r="C359">
         <v>380882</v>
@@ -12650,7 +12665,7 @@
         <v>363</v>
       </c>
       <c r="B360">
-        <v>23132740</v>
+        <v>23132738</v>
       </c>
       <c r="C360">
         <v>384812</v>
@@ -12667,7 +12682,7 @@
         <v>364</v>
       </c>
       <c r="B361">
-        <v>23371360</v>
+        <v>23371358</v>
       </c>
       <c r="C361">
         <v>388792</v>
@@ -12684,7 +12699,7 @@
         <v>365</v>
       </c>
       <c r="B362">
-        <v>23612307</v>
+        <v>23612305</v>
       </c>
       <c r="C362">
         <v>392541</v>
@@ -12701,7 +12716,7 @@
         <v>366</v>
       </c>
       <c r="B363">
-        <v>23813966</v>
+        <v>23813964</v>
       </c>
       <c r="C363">
         <v>395882</v>
@@ -12718,7 +12733,7 @@
         <v>367</v>
       </c>
       <c r="B364">
-        <v>23983607</v>
+        <v>23983605</v>
       </c>
       <c r="C364">
         <v>397612</v>
@@ -12735,7 +12750,7 @@
         <v>368</v>
       </c>
       <c r="B365">
-        <v>24126194</v>
+        <v>24126192</v>
       </c>
       <c r="C365">
         <v>399053</v>
@@ -12752,7 +12767,7 @@
         <v>369</v>
       </c>
       <c r="B366">
-        <v>24311264</v>
+        <v>24311262</v>
       </c>
       <c r="C366">
         <v>401824</v>
@@ -12769,7 +12784,7 @@
         <v>370</v>
       </c>
       <c r="B367">
-        <v>24498176</v>
+        <v>24498174</v>
       </c>
       <c r="C367">
         <v>406204</v>
@@ -12786,7 +12801,7 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>24688336</v>
+        <v>24688334</v>
       </c>
       <c r="C368">
         <v>410339</v>
@@ -12803,7 +12818,7 @@
         <v>372</v>
       </c>
       <c r="B369">
-        <v>24880041</v>
+        <v>24880039</v>
       </c>
       <c r="C369">
         <v>414070</v>
@@ -12820,7 +12835,7 @@
         <v>373</v>
       </c>
       <c r="B370">
-        <v>25047995</v>
+        <v>25047993</v>
       </c>
       <c r="C370">
         <v>417392</v>
@@ -12837,7 +12852,7 @@
         <v>374</v>
       </c>
       <c r="B371">
-        <v>25177522</v>
+        <v>25177520</v>
       </c>
       <c r="C371">
         <v>419207</v>
@@ -12854,7 +12869,7 @@
         <v>375</v>
       </c>
       <c r="B372">
-        <v>25333204</v>
+        <v>25333202</v>
       </c>
       <c r="C372">
         <v>421114</v>
@@ -12871,7 +12886,7 @@
         <v>376</v>
       </c>
       <c r="B373">
-        <v>25484820</v>
+        <v>25484818</v>
       </c>
       <c r="C373">
         <v>425211</v>
@@ -12888,7 +12903,7 @@
         <v>377</v>
       </c>
       <c r="B374">
-        <v>25640449</v>
+        <v>25640447</v>
       </c>
       <c r="C374">
         <v>429312</v>
@@ -12905,7 +12920,7 @@
         <v>378</v>
       </c>
       <c r="B375">
-        <v>25805713</v>
+        <v>25805711</v>
       </c>
       <c r="C375">
         <v>433180</v>
@@ -12922,7 +12937,7 @@
         <v>379</v>
       </c>
       <c r="B376">
-        <v>25971349</v>
+        <v>25971347</v>
       </c>
       <c r="C376">
         <v>436780</v>
@@ -12939,7 +12954,7 @@
         <v>380</v>
       </c>
       <c r="B377">
-        <v>26105263</v>
+        <v>26105261</v>
       </c>
       <c r="C377">
         <v>439421</v>
@@ -12956,7 +12971,7 @@
         <v>381</v>
       </c>
       <c r="B378">
-        <v>26218775</v>
+        <v>26218773</v>
       </c>
       <c r="C378">
         <v>441285</v>
@@ -12973,7 +12988,7 @@
         <v>382</v>
       </c>
       <c r="B379">
-        <v>26358607</v>
+        <v>26358605</v>
       </c>
       <c r="C379">
         <v>443235</v>
@@ -12990,7 +13005,7 @@
         <v>383</v>
       </c>
       <c r="B380">
-        <v>26476526</v>
+        <v>26476524</v>
       </c>
       <c r="C380">
         <v>446846</v>
@@ -13007,7 +13022,7 @@
         <v>384</v>
       </c>
       <c r="B381">
-        <v>26596540</v>
+        <v>26596538</v>
       </c>
       <c r="C381">
         <v>450689</v>
@@ -13024,7 +13039,7 @@
         <v>385</v>
       </c>
       <c r="B382">
-        <v>26722382</v>
+        <v>26722380</v>
       </c>
       <c r="C382">
         <v>455805</v>
@@ -13033,7 +13048,7 @@
         <v>129592</v>
       </c>
       <c r="E382">
-        <v>3620</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -13041,16 +13056,16 @@
         <v>386</v>
       </c>
       <c r="B383">
-        <v>26851974</v>
+        <v>26851972</v>
       </c>
       <c r="C383">
-        <v>459425</v>
+        <v>459375</v>
       </c>
       <c r="D383">
         <v>105027</v>
       </c>
       <c r="E383">
-        <v>2612</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -13058,7 +13073,7 @@
         <v>387</v>
       </c>
       <c r="B384">
-        <v>26957001</v>
+        <v>26956999</v>
       </c>
       <c r="C384">
         <v>462037</v>
@@ -13067,7 +13082,7 @@
         <v>87334</v>
       </c>
       <c r="E384">
-        <v>1337</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -13075,16 +13090,33 @@
         <v>388</v>
       </c>
       <c r="B385">
-        <v>27044335</v>
+        <v>27044333</v>
       </c>
       <c r="C385">
-        <v>463374</v>
+        <v>463338</v>
       </c>
       <c r="D385">
         <v>92739</v>
       </c>
       <c r="E385">
-        <v>1547</v>
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386">
+        <v>27137072</v>
+      </c>
+      <c r="C386">
+        <v>464921</v>
+      </c>
+      <c r="D386">
+        <v>96460</v>
+      </c>
+      <c r="E386">
+        <v>3167</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBFF84-86FE-400D-B547-F5FC18B3D577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E3B6B-42F2-4EC6-ADC4-5BC891025E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$386</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$387</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>date</t>
   </si>
@@ -1203,6 +1203,9 @@
   </si>
   <si>
     <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>02/09/2021</t>
   </si>
 </sst>
 </file>
@@ -1288,9 +1291,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$386</c:f>
+              <c:f>data!$A$2:$A$387</c:f>
               <c:strCache>
-                <c:ptCount val="385"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2445,16 +2448,19 @@
                 </c:pt>
                 <c:pt idx="384">
                   <c:v>02/08/2021</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>02/09/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$386</c:f>
+              <c:f>data!$D$2:$D$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="385"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3173,7 +3179,7 @@
                   <c:v>39268</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>45308</c:v>
+                  <c:v>45310</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>48887</c:v>
@@ -3608,7 +3614,10 @@
                   <c:v>92739</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>96460</c:v>
+                  <c:v>96488</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>94893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,9 +3724,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$386</c:f>
+              <c:f>data!$A$2:$A$387</c:f>
               <c:strCache>
-                <c:ptCount val="385"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4872,16 +4881,19 @@
                 </c:pt>
                 <c:pt idx="384">
                   <c:v>02/08/2021</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>02/09/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$386</c:f>
+              <c:f>data!$E$2:$E$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="385"/>
+                <c:ptCount val="386"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6035,7 +6047,10 @@
                   <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>3167</c:v>
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6208,8 +6223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E386" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E387" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E387" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6542,7 +6557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E386"/>
+  <dimension ref="A1:E387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -10648,7 +10663,7 @@
         <v>196686</v>
       </c>
       <c r="D241">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="E241">
         <v>849</v>
@@ -10659,7 +10674,7 @@
         <v>245</v>
       </c>
       <c r="B242">
-        <v>6698893</v>
+        <v>6698895</v>
       </c>
       <c r="C242">
         <v>197535</v>
@@ -10676,7 +10691,7 @@
         <v>246</v>
       </c>
       <c r="B243">
-        <v>6747780</v>
+        <v>6747782</v>
       </c>
       <c r="C243">
         <v>198484</v>
@@ -10693,7 +10708,7 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>6789591</v>
+        <v>6789593</v>
       </c>
       <c r="C244">
         <v>199154</v>
@@ -10710,7 +10725,7 @@
         <v>248</v>
       </c>
       <c r="B245">
-        <v>6825947</v>
+        <v>6825949</v>
       </c>
       <c r="C245">
         <v>199367</v>
@@ -10727,7 +10742,7 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>6880897</v>
+        <v>6880899</v>
       </c>
       <c r="C246">
         <v>199797</v>
@@ -10744,7 +10759,7 @@
         <v>250</v>
       </c>
       <c r="B247">
-        <v>6918288</v>
+        <v>6918290</v>
       </c>
       <c r="C247">
         <v>200738</v>
@@ -10761,7 +10776,7 @@
         <v>251</v>
       </c>
       <c r="B248">
-        <v>6959839</v>
+        <v>6959841</v>
       </c>
       <c r="C248">
         <v>201828</v>
@@ -10778,7 +10793,7 @@
         <v>252</v>
       </c>
       <c r="B249">
-        <v>7005041</v>
+        <v>7005043</v>
       </c>
       <c r="C249">
         <v>202713</v>
@@ -10795,7 +10810,7 @@
         <v>253</v>
       </c>
       <c r="B250">
-        <v>7059622</v>
+        <v>7059624</v>
       </c>
       <c r="C250">
         <v>203566</v>
@@ -10812,7 +10827,7 @@
         <v>254</v>
       </c>
       <c r="B251">
-        <v>7102319</v>
+        <v>7102321</v>
       </c>
       <c r="C251">
         <v>204335</v>
@@ -10829,7 +10844,7 @@
         <v>255</v>
       </c>
       <c r="B252">
-        <v>7139617</v>
+        <v>7139619</v>
       </c>
       <c r="C252">
         <v>204602</v>
@@ -10846,7 +10861,7 @@
         <v>256</v>
       </c>
       <c r="B253">
-        <v>7176977</v>
+        <v>7176979</v>
       </c>
       <c r="C253">
         <v>204952</v>
@@ -10863,7 +10878,7 @@
         <v>257</v>
       </c>
       <c r="B254">
-        <v>7220674</v>
+        <v>7220676</v>
       </c>
       <c r="C254">
         <v>205878</v>
@@ -10880,7 +10895,7 @@
         <v>258</v>
       </c>
       <c r="B255">
-        <v>7262732</v>
+        <v>7262734</v>
       </c>
       <c r="C255">
         <v>206852</v>
@@ -10897,7 +10912,7 @@
         <v>259</v>
       </c>
       <c r="B256">
-        <v>7309150</v>
+        <v>7309152</v>
       </c>
       <c r="C256">
         <v>207699</v>
@@ -10914,7 +10929,7 @@
         <v>260</v>
       </c>
       <c r="B257">
-        <v>7362730</v>
+        <v>7362732</v>
       </c>
       <c r="C257">
         <v>208564</v>
@@ -10931,7 +10946,7 @@
         <v>261</v>
       </c>
       <c r="B258">
-        <v>7410509</v>
+        <v>7410511</v>
       </c>
       <c r="C258">
         <v>209273</v>
@@ -10948,7 +10963,7 @@
         <v>262</v>
       </c>
       <c r="B259">
-        <v>7445572</v>
+        <v>7445574</v>
       </c>
       <c r="C259">
         <v>209606</v>
@@ -10965,7 +10980,7 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>7507984</v>
+        <v>7507986</v>
       </c>
       <c r="C260">
         <v>210035</v>
@@ -10982,7 +10997,7 @@
         <v>264</v>
       </c>
       <c r="B261">
-        <v>7550846</v>
+        <v>7550848</v>
       </c>
       <c r="C261">
         <v>210756</v>
@@ -10999,7 +11014,7 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>7603863</v>
+        <v>7603865</v>
       </c>
       <c r="C262">
         <v>211752</v>
@@ -11016,7 +11031,7 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>7660246</v>
+        <v>7660248</v>
       </c>
       <c r="C263">
         <v>212680</v>
@@ -11033,7 +11048,7 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>7719208</v>
+        <v>7719210</v>
       </c>
       <c r="C264">
         <v>213595</v>
@@ -11050,7 +11065,7 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>7770856</v>
+        <v>7770858</v>
       </c>
       <c r="C265">
         <v>214187</v>
@@ -11067,7 +11082,7 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>7815639</v>
+        <v>7815641</v>
       </c>
       <c r="C266">
         <v>214606</v>
@@ -11084,7 +11099,7 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>7863655</v>
+        <v>7863657</v>
       </c>
       <c r="C267">
         <v>214957</v>
@@ -11101,7 +11116,7 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>7918049</v>
+        <v>7918051</v>
       </c>
       <c r="C268">
         <v>215783</v>
@@ -11118,7 +11133,7 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>7977902</v>
+        <v>7977904</v>
       </c>
       <c r="C269">
         <v>216792</v>
@@ -11135,7 +11150,7 @@
         <v>273</v>
       </c>
       <c r="B270">
-        <v>8043255</v>
+        <v>8043257</v>
       </c>
       <c r="C270">
         <v>217585</v>
@@ -11152,7 +11167,7 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>8113718</v>
+        <v>8113720</v>
       </c>
       <c r="C271">
         <v>218476</v>
@@ -11169,7 +11184,7 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>8166479</v>
+        <v>8166481</v>
       </c>
       <c r="C272">
         <v>219154</v>
@@ -11186,7 +11201,7 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>8214361</v>
+        <v>8214363</v>
       </c>
       <c r="C273">
         <v>219541</v>
@@ -11203,7 +11218,7 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>8279801</v>
+        <v>8279803</v>
       </c>
       <c r="C274">
         <v>220058</v>
@@ -11220,7 +11235,7 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>8340395</v>
+        <v>8340397</v>
       </c>
       <c r="C275">
         <v>220987</v>
@@ -11237,7 +11252,7 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>8404632</v>
+        <v>8404634</v>
       </c>
       <c r="C276">
         <v>222195</v>
@@ -11254,7 +11269,7 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>8479760</v>
+        <v>8479762</v>
       </c>
       <c r="C277">
         <v>223023</v>
@@ -11271,7 +11286,7 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>8564891</v>
+        <v>8564893</v>
       </c>
       <c r="C278">
         <v>223949</v>
@@ -11288,7 +11303,7 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>8643589</v>
+        <v>8643591</v>
       </c>
       <c r="C279">
         <v>224821</v>
@@ -11305,7 +11320,7 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>8703301</v>
+        <v>8703303</v>
       </c>
       <c r="C280">
         <v>225160</v>
@@ -11322,7 +11337,7 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>8777798</v>
+        <v>8777800</v>
       </c>
       <c r="C281">
         <v>225698</v>
@@ -11339,7 +11354,7 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>8852195</v>
+        <v>8852197</v>
       </c>
       <c r="C282">
         <v>226681</v>
@@ -11356,7 +11371,7 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>8934119</v>
+        <v>8934121</v>
       </c>
       <c r="C283">
         <v>227697</v>
@@ -11373,7 +11388,7 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>9024913</v>
+        <v>9024915</v>
       </c>
       <c r="C284">
         <v>228701</v>
@@ -11390,7 +11405,7 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>9124727</v>
+        <v>9124729</v>
       </c>
       <c r="C285">
         <v>229672</v>
@@ -11407,7 +11422,7 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>9208962</v>
+        <v>9208964</v>
       </c>
       <c r="C286">
         <v>230510</v>
@@ -11424,7 +11439,7 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>9283186</v>
+        <v>9283188</v>
       </c>
       <c r="C287">
         <v>230937</v>
@@ -11441,7 +11456,7 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>9376925</v>
+        <v>9376927</v>
       </c>
       <c r="C288">
         <v>231477</v>
@@ -11458,7 +11473,7 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>9469555</v>
+        <v>9469557</v>
       </c>
       <c r="C289">
         <v>232607</v>
@@ -11475,7 +11490,7 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>9577438</v>
+        <v>9577440</v>
       </c>
       <c r="C290">
         <v>234223</v>
@@ -11492,7 +11507,7 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>9698979</v>
+        <v>9698981</v>
       </c>
       <c r="C291">
         <v>235331</v>
@@ -11509,7 +11524,7 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>9831851</v>
+        <v>9831853</v>
       </c>
       <c r="C292">
         <v>236577</v>
@@ -11526,7 +11541,7 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>9957783</v>
+        <v>9957785</v>
       </c>
       <c r="C293">
         <v>237584</v>
@@ -11543,7 +11558,7 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>10061199</v>
+        <v>10061201</v>
       </c>
       <c r="C294">
         <v>238048</v>
@@ -11560,7 +11575,7 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>10191640</v>
+        <v>10191642</v>
       </c>
       <c r="C295">
         <v>238793</v>
@@ -11577,7 +11592,7 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>10331380</v>
+        <v>10331382</v>
       </c>
       <c r="C296">
         <v>240258</v>
@@ -11594,7 +11609,7 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>10474240</v>
+        <v>10474242</v>
       </c>
       <c r="C297">
         <v>241689</v>
@@ -11611,7 +11626,7 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637731</v>
+        <v>10637733</v>
       </c>
       <c r="C298">
         <v>242861</v>
@@ -11628,7 +11643,7 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10819324</v>
+        <v>10819326</v>
       </c>
       <c r="C299">
         <v>244250</v>
@@ -11645,7 +11660,7 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>10978445</v>
+        <v>10978447</v>
       </c>
       <c r="C300">
         <v>245460</v>
@@ -11662,7 +11677,7 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>11113632</v>
+        <v>11113634</v>
       </c>
       <c r="C301">
         <v>246083</v>
@@ -11679,7 +11694,7 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11280086</v>
+        <v>11280088</v>
       </c>
       <c r="C302">
         <v>246879</v>
@@ -11696,7 +11711,7 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>11441831</v>
+        <v>11441833</v>
       </c>
       <c r="C303">
         <v>248486</v>
@@ -11713,7 +11728,7 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>11614114</v>
+        <v>11614116</v>
       </c>
       <c r="C304">
         <v>250411</v>
@@ -11730,7 +11745,7 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801584</v>
+        <v>11801586</v>
       </c>
       <c r="C305">
         <v>252373</v>
@@ -11747,7 +11762,7 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000256</v>
+        <v>12000258</v>
       </c>
       <c r="C306">
         <v>254325</v>
@@ -11764,7 +11779,7 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172259</v>
+        <v>12172261</v>
       </c>
       <c r="C307">
         <v>255754</v>
@@ -11781,7 +11796,7 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>12313293</v>
+        <v>12313295</v>
       </c>
       <c r="C308">
         <v>256597</v>
@@ -11798,7 +11813,7 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492392</v>
+        <v>12492394</v>
       </c>
       <c r="C309">
         <v>257635</v>
@@ -11815,7 +11830,7 @@
         <v>313</v>
       </c>
       <c r="B310">
-        <v>12670682</v>
+        <v>12670684</v>
       </c>
       <c r="C310">
         <v>259844</v>
@@ -11832,7 +11847,7 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>12851218</v>
+        <v>12851220</v>
       </c>
       <c r="C311">
         <v>262157</v>
@@ -11849,7 +11864,7 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>12954322</v>
+        <v>12954324</v>
       </c>
       <c r="C312">
         <v>263336</v>
@@ -11866,7 +11881,7 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>13159784</v>
+        <v>13159786</v>
       </c>
       <c r="C313">
         <v>264748</v>
@@ -11883,7 +11898,7 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>13311029</v>
+        <v>13311031</v>
       </c>
       <c r="C314">
         <v>265940</v>
@@ -11900,7 +11915,7 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>13447367</v>
+        <v>13447369</v>
       </c>
       <c r="C315">
         <v>266758</v>
@@ -11917,7 +11932,7 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>13615127</v>
+        <v>13615129</v>
       </c>
       <c r="C316">
         <v>268023</v>
@@ -11934,7 +11949,7 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>13799413</v>
+        <v>13799415</v>
       </c>
       <c r="C317">
         <v>270633</v>
@@ -11951,7 +11966,7 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>14000599</v>
+        <v>14000601</v>
       </c>
       <c r="C318">
         <v>273518</v>
@@ -11968,7 +11983,7 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>14218558</v>
+        <v>14218560</v>
       </c>
       <c r="C319">
         <v>276375</v>
@@ -11985,7 +12000,7 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>14449739</v>
+        <v>14449741</v>
       </c>
       <c r="C320">
         <v>279012</v>
@@ -12002,7 +12017,7 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>14655496</v>
+        <v>14655498</v>
       </c>
       <c r="C321">
         <v>281202</v>
@@ -12019,7 +12034,7 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>14827655</v>
+        <v>14827657</v>
       </c>
       <c r="C322">
         <v>282313</v>
@@ -12036,7 +12051,7 @@
         <v>326</v>
       </c>
       <c r="B323">
-        <v>15031797</v>
+        <v>15031799</v>
       </c>
       <c r="C323">
         <v>283846</v>
@@ -12053,7 +12068,7 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>15251702</v>
+        <v>15251704</v>
       </c>
       <c r="C324">
         <v>286667</v>
@@ -12070,7 +12085,7 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>15471380</v>
+        <v>15471382</v>
       </c>
       <c r="C325">
         <v>289824</v>
@@ -12087,7 +12102,7 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>15696632</v>
+        <v>15696634</v>
       </c>
       <c r="C326">
         <v>292761</v>
@@ -12104,7 +12119,7 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>15977146</v>
+        <v>15977148</v>
       </c>
       <c r="C327">
         <v>295712</v>
@@ -12121,7 +12136,7 @@
         <v>331</v>
       </c>
       <c r="B328">
-        <v>16184590</v>
+        <v>16184592</v>
       </c>
       <c r="C328">
         <v>297971</v>
@@ -12138,7 +12153,7 @@
         <v>332</v>
       </c>
       <c r="B329">
-        <v>16368838</v>
+        <v>16368840</v>
       </c>
       <c r="C329">
         <v>299328</v>
@@ -12155,7 +12170,7 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>16569911</v>
+        <v>16569913</v>
       </c>
       <c r="C330">
         <v>301006</v>
@@ -12172,7 +12187,7 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>16772911</v>
+        <v>16772913</v>
       </c>
       <c r="C331">
         <v>304031</v>
@@ -12189,7 +12204,7 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>17017944</v>
+        <v>17017946</v>
       </c>
       <c r="C332">
         <v>307642</v>
@@ -12206,7 +12221,7 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>17256389</v>
+        <v>17256391</v>
       </c>
       <c r="C333">
         <v>310940</v>
@@ -12223,7 +12238,7 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>17507580</v>
+        <v>17507582</v>
       </c>
       <c r="C334">
         <v>313810</v>
@@ -12240,7 +12255,7 @@
         <v>338</v>
       </c>
       <c r="B335">
-        <v>17701527</v>
+        <v>17701529</v>
       </c>
       <c r="C335">
         <v>316371</v>
@@ -12257,7 +12272,7 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>17881483</v>
+        <v>17881485</v>
       </c>
       <c r="C336">
         <v>317800</v>
@@ -12274,7 +12289,7 @@
         <v>340</v>
       </c>
       <c r="B337">
-        <v>18083053</v>
+        <v>18083055</v>
       </c>
       <c r="C337">
         <v>319763</v>
@@ -12291,7 +12306,7 @@
         <v>341</v>
       </c>
       <c r="B338">
-        <v>18284727</v>
+        <v>18284729</v>
       </c>
       <c r="C338">
         <v>323002</v>
@@ -12308,7 +12323,7 @@
         <v>342</v>
       </c>
       <c r="B339">
-        <v>18512477</v>
+        <v>18512479</v>
       </c>
       <c r="C339">
         <v>326413</v>
@@ -12325,7 +12340,7 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>18706034</v>
+        <v>18706036</v>
       </c>
       <c r="C340">
         <v>329237</v>
@@ -12342,7 +12357,7 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>18807028</v>
+        <v>18807030</v>
       </c>
       <c r="C341">
         <v>330366</v>
@@ -12359,7 +12374,7 @@
         <v>345</v>
       </c>
       <c r="B342">
-        <v>19023886</v>
+        <v>19023888</v>
       </c>
       <c r="C342">
         <v>332012</v>
@@ -12376,7 +12391,7 @@
         <v>346</v>
       </c>
       <c r="B343">
-        <v>19175988</v>
+        <v>19175990</v>
       </c>
       <c r="C343">
         <v>333242</v>
@@ -12393,7 +12408,7 @@
         <v>347</v>
       </c>
       <c r="B344">
-        <v>19365032</v>
+        <v>19365034</v>
       </c>
       <c r="C344">
         <v>335141</v>
@@ -12410,7 +12425,7 @@
         <v>348</v>
       </c>
       <c r="B345">
-        <v>19566138</v>
+        <v>19566140</v>
       </c>
       <c r="C345">
         <v>338769</v>
@@ -12427,7 +12442,7 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>19795176</v>
+        <v>19795178</v>
       </c>
       <c r="C346">
         <v>342577</v>
@@ -12444,7 +12459,7 @@
         <v>350</v>
       </c>
       <c r="B347">
-        <v>20026221</v>
+        <v>20026223</v>
       </c>
       <c r="C347">
         <v>346039</v>
@@ -12461,7 +12476,7 @@
         <v>351</v>
       </c>
       <c r="B348">
-        <v>20173380</v>
+        <v>20173382</v>
       </c>
       <c r="C348">
         <v>347956</v>
@@ -12478,7 +12493,7 @@
         <v>352</v>
       </c>
       <c r="B349">
-        <v>20464764</v>
+        <v>20464766</v>
       </c>
       <c r="C349">
         <v>350329</v>
@@ -12495,7 +12510,7 @@
         <v>353</v>
       </c>
       <c r="B350">
-        <v>20666744</v>
+        <v>20666746</v>
       </c>
       <c r="C350">
         <v>351682</v>
@@ -12512,7 +12527,7 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>20918662</v>
+        <v>20918664</v>
       </c>
       <c r="C351">
         <v>353730</v>
@@ -12529,7 +12544,7 @@
         <v>355</v>
       </c>
       <c r="B352">
-        <v>21153713</v>
+        <v>21153715</v>
       </c>
       <c r="C352">
         <v>357419</v>
@@ -12546,7 +12561,7 @@
         <v>356</v>
       </c>
       <c r="B353">
-        <v>21409441</v>
+        <v>21409443</v>
       </c>
       <c r="C353">
         <v>361383</v>
@@ -12563,7 +12578,7 @@
         <v>357</v>
       </c>
       <c r="B354">
-        <v>21689733</v>
+        <v>21689735</v>
       </c>
       <c r="C354">
         <v>365495</v>
@@ -12580,7 +12595,7 @@
         <v>358</v>
       </c>
       <c r="B355">
-        <v>21990327</v>
+        <v>21990329</v>
       </c>
       <c r="C355">
         <v>369390</v>
@@ -12597,7 +12612,7 @@
         <v>359</v>
       </c>
       <c r="B356">
-        <v>22242469</v>
+        <v>22242471</v>
       </c>
       <c r="C356">
         <v>372651</v>
@@ -12614,7 +12629,7 @@
         <v>360</v>
       </c>
       <c r="B357">
-        <v>22450807</v>
+        <v>22450809</v>
       </c>
       <c r="C357">
         <v>374428</v>
@@ -12631,7 +12646,7 @@
         <v>361</v>
       </c>
       <c r="B358">
-        <v>22673728</v>
+        <v>22673730</v>
       </c>
       <c r="C358">
         <v>376476</v>
@@ -12648,7 +12663,7 @@
         <v>362</v>
       </c>
       <c r="B359">
-        <v>22903440</v>
+        <v>22903442</v>
       </c>
       <c r="C359">
         <v>380882</v>
@@ -12665,7 +12680,7 @@
         <v>363</v>
       </c>
       <c r="B360">
-        <v>23132738</v>
+        <v>23132740</v>
       </c>
       <c r="C360">
         <v>384812</v>
@@ -12682,7 +12697,7 @@
         <v>364</v>
       </c>
       <c r="B361">
-        <v>23371358</v>
+        <v>23371360</v>
       </c>
       <c r="C361">
         <v>388792</v>
@@ -12699,7 +12714,7 @@
         <v>365</v>
       </c>
       <c r="B362">
-        <v>23612305</v>
+        <v>23612307</v>
       </c>
       <c r="C362">
         <v>392541</v>
@@ -12716,7 +12731,7 @@
         <v>366</v>
       </c>
       <c r="B363">
-        <v>23813964</v>
+        <v>23813966</v>
       </c>
       <c r="C363">
         <v>395882</v>
@@ -12733,7 +12748,7 @@
         <v>367</v>
       </c>
       <c r="B364">
-        <v>23983605</v>
+        <v>23983607</v>
       </c>
       <c r="C364">
         <v>397612</v>
@@ -12750,7 +12765,7 @@
         <v>368</v>
       </c>
       <c r="B365">
-        <v>24126192</v>
+        <v>24126194</v>
       </c>
       <c r="C365">
         <v>399053</v>
@@ -12767,7 +12782,7 @@
         <v>369</v>
       </c>
       <c r="B366">
-        <v>24311262</v>
+        <v>24311264</v>
       </c>
       <c r="C366">
         <v>401824</v>
@@ -12784,7 +12799,7 @@
         <v>370</v>
       </c>
       <c r="B367">
-        <v>24498174</v>
+        <v>24498176</v>
       </c>
       <c r="C367">
         <v>406204</v>
@@ -12801,7 +12816,7 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>24688334</v>
+        <v>24688336</v>
       </c>
       <c r="C368">
         <v>410339</v>
@@ -12818,7 +12833,7 @@
         <v>372</v>
       </c>
       <c r="B369">
-        <v>24880039</v>
+        <v>24880041</v>
       </c>
       <c r="C369">
         <v>414070</v>
@@ -12835,7 +12850,7 @@
         <v>373</v>
       </c>
       <c r="B370">
-        <v>25047993</v>
+        <v>25047995</v>
       </c>
       <c r="C370">
         <v>417392</v>
@@ -12852,7 +12867,7 @@
         <v>374</v>
       </c>
       <c r="B371">
-        <v>25177520</v>
+        <v>25177522</v>
       </c>
       <c r="C371">
         <v>419207</v>
@@ -12869,7 +12884,7 @@
         <v>375</v>
       </c>
       <c r="B372">
-        <v>25333202</v>
+        <v>25333204</v>
       </c>
       <c r="C372">
         <v>421114</v>
@@ -12886,7 +12901,7 @@
         <v>376</v>
       </c>
       <c r="B373">
-        <v>25484818</v>
+        <v>25484820</v>
       </c>
       <c r="C373">
         <v>425211</v>
@@ -12903,7 +12918,7 @@
         <v>377</v>
       </c>
       <c r="B374">
-        <v>25640447</v>
+        <v>25640449</v>
       </c>
       <c r="C374">
         <v>429312</v>
@@ -12920,7 +12935,7 @@
         <v>378</v>
       </c>
       <c r="B375">
-        <v>25805711</v>
+        <v>25805713</v>
       </c>
       <c r="C375">
         <v>433180</v>
@@ -12937,7 +12952,7 @@
         <v>379</v>
       </c>
       <c r="B376">
-        <v>25971347</v>
+        <v>25971349</v>
       </c>
       <c r="C376">
         <v>436780</v>
@@ -12954,7 +12969,7 @@
         <v>380</v>
       </c>
       <c r="B377">
-        <v>26105261</v>
+        <v>26105263</v>
       </c>
       <c r="C377">
         <v>439421</v>
@@ -12971,7 +12986,7 @@
         <v>381</v>
       </c>
       <c r="B378">
-        <v>26218773</v>
+        <v>26218775</v>
       </c>
       <c r="C378">
         <v>441285</v>
@@ -12988,7 +13003,7 @@
         <v>382</v>
       </c>
       <c r="B379">
-        <v>26358605</v>
+        <v>26358607</v>
       </c>
       <c r="C379">
         <v>443235</v>
@@ -13005,7 +13020,7 @@
         <v>383</v>
       </c>
       <c r="B380">
-        <v>26476524</v>
+        <v>26476526</v>
       </c>
       <c r="C380">
         <v>446846</v>
@@ -13022,7 +13037,7 @@
         <v>384</v>
       </c>
       <c r="B381">
-        <v>26596538</v>
+        <v>26596540</v>
       </c>
       <c r="C381">
         <v>450689</v>
@@ -13039,7 +13054,7 @@
         <v>385</v>
       </c>
       <c r="B382">
-        <v>26722380</v>
+        <v>26722382</v>
       </c>
       <c r="C382">
         <v>455805</v>
@@ -13056,7 +13071,7 @@
         <v>386</v>
       </c>
       <c r="B383">
-        <v>26851972</v>
+        <v>26851974</v>
       </c>
       <c r="C383">
         <v>459375</v>
@@ -13073,7 +13088,7 @@
         <v>387</v>
       </c>
       <c r="B384">
-        <v>26956999</v>
+        <v>26957001</v>
       </c>
       <c r="C384">
         <v>462037</v>
@@ -13090,7 +13105,7 @@
         <v>388</v>
       </c>
       <c r="B385">
-        <v>27044333</v>
+        <v>27044335</v>
       </c>
       <c r="C385">
         <v>463338</v>
@@ -13107,16 +13122,33 @@
         <v>389</v>
       </c>
       <c r="B386">
-        <v>27137072</v>
+        <v>27137074</v>
       </c>
       <c r="C386">
         <v>464921</v>
       </c>
       <c r="D386">
-        <v>96460</v>
+        <v>96488</v>
       </c>
       <c r="E386">
-        <v>3167</v>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>390</v>
+      </c>
+      <c r="B387">
+        <v>27233562</v>
+      </c>
+      <c r="C387">
+        <v>468091</v>
+      </c>
+      <c r="D387">
+        <v>94893</v>
+      </c>
+      <c r="E387">
+        <v>3255</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E3B6B-42F2-4EC6-ADC4-5BC891025E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FED1B3-BBAC-47B3-A8DF-86A430C4716A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$387</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$388</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>date</t>
   </si>
@@ -1206,6 +1206,9 @@
   </si>
   <si>
     <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>02/10/2021</t>
   </si>
 </sst>
 </file>
@@ -1291,9 +1294,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$387</c:f>
+              <c:f>data!$A$2:$A$388</c:f>
               <c:strCache>
-                <c:ptCount val="386"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2451,16 +2454,19 @@
                 </c:pt>
                 <c:pt idx="385">
                   <c:v>02/09/2021</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>02/10/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$387</c:f>
+              <c:f>data!$D$2:$D$388</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3618,6 +3624,9 @@
                 </c:pt>
                 <c:pt idx="385">
                   <c:v>94893</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>105600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,9 +3733,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$387</c:f>
+              <c:f>data!$A$2:$A$388</c:f>
               <c:strCache>
-                <c:ptCount val="386"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4884,16 +4893,19 @@
                 </c:pt>
                 <c:pt idx="385">
                   <c:v>02/09/2021</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>02/10/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$387</c:f>
+              <c:f>data!$E$2:$E$388</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="386"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6051,6 +6063,9 @@
                 </c:pt>
                 <c:pt idx="385">
                   <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,8 +6238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E387" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E387" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E388" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E388" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6557,9 +6572,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E387"/>
+  <dimension ref="A1:E388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -13151,6 +13166,23 @@
         <v>3255</v>
       </c>
     </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388">
+        <v>27328455</v>
+      </c>
+      <c r="C388">
+        <v>471346</v>
+      </c>
+      <c r="D388">
+        <v>105600</v>
+      </c>
+      <c r="E388">
+        <v>3878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13163,7 +13195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FED1B3-BBAC-47B3-A8DF-86A430C4716A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFFA8C-12FC-4D48-84E7-C2F1EC77E120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$388</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$389</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>date</t>
   </si>
@@ -1209,6 +1209,9 @@
   </si>
   <si>
     <t>02/10/2021</t>
+  </si>
+  <si>
+    <t>02/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1294,9 +1297,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$388</c:f>
+              <c:f>data!$A$2:$A$389</c:f>
               <c:strCache>
-                <c:ptCount val="387"/>
+                <c:ptCount val="388"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2457,16 +2460,19 @@
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>02/10/2021</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>02/11/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$388</c:f>
+              <c:f>data!$D$2:$D$389</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="388"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3627,6 +3633,9 @@
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>105600</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>99565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,9 +3742,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$388</c:f>
+              <c:f>data!$A$2:$A$389</c:f>
               <c:strCache>
-                <c:ptCount val="387"/>
+                <c:ptCount val="388"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4896,16 +4905,19 @@
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>02/10/2021</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>02/11/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$388</c:f>
+              <c:f>data!$E$2:$E$389</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="387"/>
+                <c:ptCount val="388"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6066,6 +6078,9 @@
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>3878</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>5463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6238,8 +6253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E388" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E388" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E389" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E389" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6572,7 +6587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E388"/>
+  <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13181,6 +13196,23 @@
       </c>
       <c r="E388">
         <v>3878</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389">
+        <v>27434055</v>
+      </c>
+      <c r="C389">
+        <v>475224</v>
+      </c>
+      <c r="D389">
+        <v>99565</v>
+      </c>
+      <c r="E389">
+        <v>5463</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFFA8C-12FC-4D48-84E7-C2F1EC77E120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6A4BB3-6FCE-4360-B4C8-44C2C1F2274F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$389</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$390</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>date</t>
   </si>
@@ -1212,6 +1212,9 @@
   </si>
   <si>
     <t>02/11/2021</t>
+  </si>
+  <si>
+    <t>02/12/2021</t>
   </si>
 </sst>
 </file>
@@ -1297,9 +1300,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$389</c:f>
+              <c:f>data!$A$2:$A$390</c:f>
               <c:strCache>
-                <c:ptCount val="388"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2463,16 +2466,19 @@
                 </c:pt>
                 <c:pt idx="387">
                   <c:v>02/11/2021</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>02/12/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$389</c:f>
+              <c:f>data!$D$2:$D$390</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="388"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3299,49 +3305,49 @@
                   <c:v>75128</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>85131</c:v>
+                  <c:v>85297</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>78698</c:v>
+                  <c:v>78581</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>59712</c:v>
+                  <c:v>59715</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>74497</c:v>
+                  <c:v>74631</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>74397</c:v>
+                  <c:v>74387</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>81924</c:v>
+                  <c:v>81885</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>90794</c:v>
+                  <c:v>90657</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>99814</c:v>
+                  <c:v>99868</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>84235</c:v>
+                  <c:v>84210</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>74224</c:v>
+                  <c:v>74195</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>93739</c:v>
+                  <c:v>94013</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>92630</c:v>
+                  <c:v>92416</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>107883</c:v>
+                  <c:v>108080</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>121541</c:v>
+                  <c:v>121333</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>132872</c:v>
+                  <c:v>132823</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>125932</c:v>
@@ -3353,289 +3359,292 @@
                   <c:v>130441</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>139740</c:v>
+                  <c:v>139750</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>142860</c:v>
+                  <c:v>142885</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>163491</c:v>
+                  <c:v>163640</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>181593</c:v>
+                  <c:v>181497</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>159121</c:v>
+                  <c:v>159033</c:v>
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>135187</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>166454</c:v>
+                  <c:v>166560</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>161745</c:v>
+                  <c:v>161639</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>172283</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>187470</c:v>
+                  <c:v>187515</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>198672</c:v>
+                  <c:v>198881</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>172003</c:v>
+                  <c:v>171945</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>141034</c:v>
+                  <c:v>140838</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>179099</c:v>
+                  <c:v>179612</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>178290</c:v>
+                  <c:v>178024</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>180536</c:v>
+                  <c:v>180672</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>103104</c:v>
+                  <c:v>102893</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>205462</c:v>
+                  <c:v>205886</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>151245</c:v>
+                  <c:v>151146</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>136338</c:v>
+                  <c:v>136372</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>167760</c:v>
+                  <c:v>167839</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>184286</c:v>
+                  <c:v>184260</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>201186</c:v>
+                  <c:v>201211</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>217959</c:v>
+                  <c:v>217763</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>231181</c:v>
+                  <c:v>231387</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>205757</c:v>
+                  <c:v>205673</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>172159</c:v>
+                  <c:v>172108</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>204142</c:v>
+                  <c:v>204292</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>219905</c:v>
+                  <c:v>219881</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>219678</c:v>
+                  <c:v>219736</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>225252</c:v>
+                  <c:v>225221</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>280514</c:v>
+                  <c:v>280567</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>207444</c:v>
+                  <c:v>207429</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>184248</c:v>
+                  <c:v>184224</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>201073</c:v>
+                  <c:v>201124</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>203000</c:v>
+                  <c:v>202971</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>245033</c:v>
+                  <c:v>245042</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>238445</c:v>
+                  <c:v>238427</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>251191</c:v>
+                  <c:v>251223</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>193947</c:v>
+                  <c:v>193919</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>179956</c:v>
+                  <c:v>179946</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>201570</c:v>
+                  <c:v>201613</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>201674</c:v>
+                  <c:v>201660</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>227750</c:v>
+                  <c:v>227788</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>193557</c:v>
+                  <c:v>193548</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>100994</c:v>
+                  <c:v>100973</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>216858</c:v>
+                  <c:v>216856</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>152102</c:v>
+                  <c:v>152093</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>189044</c:v>
+                  <c:v>189066</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>201106</c:v>
+                  <c:v>201092</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>229038</c:v>
+                  <c:v>229023</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>231045</c:v>
+                  <c:v>231035</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>147159</c:v>
+                  <c:v>147260</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>291384</c:v>
+                  <c:v>291382</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>201980</c:v>
+                  <c:v>201967</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>251918</c:v>
+                  <c:v>251962</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>235051</c:v>
+                  <c:v>235027</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>255728</c:v>
+                  <c:v>255760</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>280292</c:v>
+                  <c:v>280278</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>300594</c:v>
+                  <c:v>300619</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>252142</c:v>
+                  <c:v>252129</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>208338</c:v>
+                  <c:v>208336</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>222921</c:v>
+                  <c:v>222944</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>229712</c:v>
+                  <c:v>229695</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>229298</c:v>
+                  <c:v>229318</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>238620</c:v>
+                  <c:v>238599</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>240947</c:v>
+                  <c:v>240935</c:v>
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>201659</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>169641</c:v>
+                  <c:v>169622</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>142587</c:v>
+                  <c:v>142647</c:v>
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>185070</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>186912</c:v>
+                  <c:v>186916</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>190160</c:v>
+                  <c:v>190134</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>191705</c:v>
+                  <c:v>191742</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>167954</c:v>
+                  <c:v>167943</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>129527</c:v>
+                  <c:v>129522</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>155682</c:v>
+                  <c:v>155705</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>151616</c:v>
+                  <c:v>151617</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>155629</c:v>
+                  <c:v>155639</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>165264</c:v>
+                  <c:v>165250</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>165636</c:v>
+                  <c:v>165664</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>133914</c:v>
+                  <c:v>133905</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>113512</c:v>
+                  <c:v>113511</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>139832</c:v>
+                  <c:v>139851</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>117919</c:v>
+                  <c:v>117903</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>120014</c:v>
+                  <c:v>120039</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>125842</c:v>
+                  <c:v>125837</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>129592</c:v>
+                  <c:v>129574</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>105027</c:v>
+                  <c:v>105025</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>87334</c:v>
+                  <c:v>87329</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>92739</c:v>
+                  <c:v>92780</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>96488</c:v>
+                  <c:v>96480</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>94893</c:v>
+                  <c:v>94917</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>105600</c:v>
+                  <c:v>105599</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>99565</c:v>
+                  <c:v>99558</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>84727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,9 +3751,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$389</c:f>
+              <c:f>data!$A$2:$A$390</c:f>
               <c:strCache>
-                <c:ptCount val="388"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4908,16 +4917,19 @@
                 </c:pt>
                 <c:pt idx="387">
                   <c:v>02/11/2021</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>02/12/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$389</c:f>
+              <c:f>data!$E$2:$E$390</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="388"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5744,7 +5756,7 @@
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>926</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>872</c:v>
@@ -5753,25 +5765,25 @@
                   <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>538</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1016</c:v>
+                  <c:v>1018</c:v>
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>971</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>427</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>540</c:v>
@@ -5786,7 +5798,7 @@
                   <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1246</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>1007</c:v>
@@ -5798,7 +5810,7 @@
                   <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1465</c:v>
+                  <c:v>1464</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>1431</c:v>
@@ -5807,7 +5819,7 @@
                   <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1389</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>1210</c:v>
@@ -5822,16 +5834,16 @@
                   <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1925</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1962</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1952</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1429</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>843</c:v>
@@ -5846,7 +5858,7 @@
                   <c:v>2313</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1179</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>1412</c:v>
@@ -5858,16 +5870,16 @@
                   <c:v>818</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1265</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>2610</c:v>
+                  <c:v>2608</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>2885</c:v>
+                  <c:v>2886</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>2857</c:v>
+                  <c:v>2856</c:v>
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2637</c:v>
@@ -5879,22 +5891,22 @@
                   <c:v>1111</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1533</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2821</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3157</c:v>
+                  <c:v>3156</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>2937</c:v>
+                  <c:v>2941</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>2951</c:v>
+                  <c:v>2955</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>2259</c:v>
+                  <c:v>2255</c:v>
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>1357</c:v>
@@ -5927,7 +5939,7 @@
                   <c:v>3239</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>3411</c:v>
+                  <c:v>3412</c:v>
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>2824</c:v>
@@ -5954,16 +5966,16 @@
                   <c:v>3462</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1917</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>2373</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1353</c:v>
+                  <c:v>1351</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="349">
                   <c:v>3689</c:v>
@@ -5972,7 +5984,7 @@
                   <c:v>3964</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>4112</c:v>
+                  <c:v>4111</c:v>
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>3895</c:v>
@@ -6032,7 +6044,7 @@
                   <c:v>4097</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>4101</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="372">
                   <c:v>3868</c:v>
@@ -6056,7 +6068,7 @@
                   <c:v>3843</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>5116</c:v>
+                  <c:v>5117</c:v>
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>3570</c:v>
@@ -6074,13 +6086,16 @@
                   <c:v>3170</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>3255</c:v>
+                  <c:v>3254</c:v>
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>3878</c:v>
                 </c:pt>
                 <c:pt idx="387">
                   <c:v>5463</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6253,8 +6268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E389" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E389" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E390" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6587,7 +6602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E389"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11305,10 +11320,10 @@
         <v>223023</v>
       </c>
       <c r="D277">
-        <v>85131</v>
+        <v>85297</v>
       </c>
       <c r="E277">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -11316,13 +11331,13 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>8564893</v>
+        <v>8565059</v>
       </c>
       <c r="C278">
-        <v>223949</v>
+        <v>223953</v>
       </c>
       <c r="D278">
-        <v>78698</v>
+        <v>78581</v>
       </c>
       <c r="E278">
         <v>872</v>
@@ -11333,13 +11348,13 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>8643591</v>
+        <v>8643640</v>
       </c>
       <c r="C279">
-        <v>224821</v>
+        <v>224825</v>
       </c>
       <c r="D279">
-        <v>59712</v>
+        <v>59715</v>
       </c>
       <c r="E279">
         <v>339</v>
@@ -11350,16 +11365,16 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>8703303</v>
+        <v>8703355</v>
       </c>
       <c r="C280">
-        <v>225160</v>
+        <v>225164</v>
       </c>
       <c r="D280">
-        <v>74497</v>
+        <v>74631</v>
       </c>
       <c r="E280">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -11367,13 +11382,13 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>8777800</v>
+        <v>8777986</v>
       </c>
       <c r="C281">
-        <v>225698</v>
+        <v>225701</v>
       </c>
       <c r="D281">
-        <v>74397</v>
+        <v>74387</v>
       </c>
       <c r="E281">
         <v>983</v>
@@ -11384,16 +11399,16 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>8852197</v>
+        <v>8852373</v>
       </c>
       <c r="C282">
-        <v>226681</v>
+        <v>226684</v>
       </c>
       <c r="D282">
-        <v>81924</v>
+        <v>81885</v>
       </c>
       <c r="E282">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -11401,13 +11416,13 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>8934121</v>
+        <v>8934258</v>
       </c>
       <c r="C283">
-        <v>227697</v>
+        <v>227702</v>
       </c>
       <c r="D283">
-        <v>90794</v>
+        <v>90657</v>
       </c>
       <c r="E283">
         <v>1004</v>
@@ -11421,13 +11436,13 @@
         <v>9024915</v>
       </c>
       <c r="C284">
-        <v>228701</v>
+        <v>228706</v>
       </c>
       <c r="D284">
-        <v>99814</v>
+        <v>99868</v>
       </c>
       <c r="E284">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -11435,13 +11450,13 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>9124729</v>
+        <v>9124783</v>
       </c>
       <c r="C285">
-        <v>229672</v>
+        <v>229674</v>
       </c>
       <c r="D285">
-        <v>84235</v>
+        <v>84210</v>
       </c>
       <c r="E285">
         <v>838</v>
@@ -11452,16 +11467,16 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>9208964</v>
+        <v>9208993</v>
       </c>
       <c r="C286">
-        <v>230510</v>
+        <v>230512</v>
       </c>
       <c r="D286">
-        <v>74224</v>
+        <v>74195</v>
       </c>
       <c r="E286">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -11472,10 +11487,10 @@
         <v>9283188</v>
       </c>
       <c r="C287">
-        <v>230937</v>
+        <v>230940</v>
       </c>
       <c r="D287">
-        <v>93739</v>
+        <v>94013</v>
       </c>
       <c r="E287">
         <v>540</v>
@@ -11486,13 +11501,13 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>9376927</v>
+        <v>9377201</v>
       </c>
       <c r="C288">
-        <v>231477</v>
+        <v>231480</v>
       </c>
       <c r="D288">
-        <v>92630</v>
+        <v>92416</v>
       </c>
       <c r="E288">
         <v>1130</v>
@@ -11503,13 +11518,13 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>9469557</v>
+        <v>9469617</v>
       </c>
       <c r="C289">
-        <v>232607</v>
+        <v>232610</v>
       </c>
       <c r="D289">
-        <v>107883</v>
+        <v>108080</v>
       </c>
       <c r="E289">
         <v>1616</v>
@@ -11520,13 +11535,13 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>9577440</v>
+        <v>9577697</v>
       </c>
       <c r="C290">
-        <v>234223</v>
+        <v>234226</v>
       </c>
       <c r="D290">
-        <v>121541</v>
+        <v>121333</v>
       </c>
       <c r="E290">
         <v>1108</v>
@@ -11537,16 +11552,16 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>9698981</v>
+        <v>9699030</v>
       </c>
       <c r="C291">
-        <v>235331</v>
+        <v>235334</v>
       </c>
       <c r="D291">
-        <v>132872</v>
+        <v>132823</v>
       </c>
       <c r="E291">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -11557,7 +11572,7 @@
         <v>9831853</v>
       </c>
       <c r="C292">
-        <v>236577</v>
+        <v>236582</v>
       </c>
       <c r="D292">
         <v>125932</v>
@@ -11574,7 +11589,7 @@
         <v>9957785</v>
       </c>
       <c r="C293">
-        <v>237584</v>
+        <v>237589</v>
       </c>
       <c r="D293">
         <v>103416</v>
@@ -11591,7 +11606,7 @@
         <v>10061201</v>
       </c>
       <c r="C294">
-        <v>238048</v>
+        <v>238053</v>
       </c>
       <c r="D294">
         <v>130441</v>
@@ -11608,13 +11623,13 @@
         <v>10191642</v>
       </c>
       <c r="C295">
-        <v>238793</v>
+        <v>238798</v>
       </c>
       <c r="D295">
-        <v>139740</v>
+        <v>139750</v>
       </c>
       <c r="E295">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -11622,13 +11637,13 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>10331382</v>
+        <v>10331392</v>
       </c>
       <c r="C296">
-        <v>240258</v>
+        <v>240262</v>
       </c>
       <c r="D296">
-        <v>142860</v>
+        <v>142885</v>
       </c>
       <c r="E296">
         <v>1431</v>
@@ -11639,13 +11654,13 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>10474242</v>
+        <v>10474277</v>
       </c>
       <c r="C297">
-        <v>241689</v>
+        <v>241693</v>
       </c>
       <c r="D297">
-        <v>163491</v>
+        <v>163640</v>
       </c>
       <c r="E297">
         <v>1172</v>
@@ -11656,16 +11671,16 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>10637733</v>
+        <v>10637917</v>
       </c>
       <c r="C298">
-        <v>242861</v>
+        <v>242865</v>
       </c>
       <c r="D298">
-        <v>181593</v>
+        <v>181497</v>
       </c>
       <c r="E298">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -11673,13 +11688,13 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>10819326</v>
+        <v>10819414</v>
       </c>
       <c r="C299">
-        <v>244250</v>
+        <v>244255</v>
       </c>
       <c r="D299">
-        <v>159121</v>
+        <v>159033</v>
       </c>
       <c r="E299">
         <v>1210</v>
@@ -11693,7 +11708,7 @@
         <v>10978447</v>
       </c>
       <c r="C300">
-        <v>245460</v>
+        <v>245465</v>
       </c>
       <c r="D300">
         <v>135187</v>
@@ -11710,10 +11725,10 @@
         <v>11113634</v>
       </c>
       <c r="C301">
-        <v>246083</v>
+        <v>246088</v>
       </c>
       <c r="D301">
-        <v>166454</v>
+        <v>166560</v>
       </c>
       <c r="E301">
         <v>796</v>
@@ -11724,13 +11739,13 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>11280088</v>
+        <v>11280194</v>
       </c>
       <c r="C302">
-        <v>246879</v>
+        <v>246884</v>
       </c>
       <c r="D302">
-        <v>161745</v>
+        <v>161639</v>
       </c>
       <c r="E302">
         <v>1607</v>
@@ -11744,13 +11759,13 @@
         <v>11441833</v>
       </c>
       <c r="C303">
-        <v>248486</v>
+        <v>248491</v>
       </c>
       <c r="D303">
         <v>172283</v>
       </c>
       <c r="E303">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -11761,13 +11776,13 @@
         <v>11614116</v>
       </c>
       <c r="C304">
-        <v>250411</v>
+        <v>250415</v>
       </c>
       <c r="D304">
-        <v>187470</v>
+        <v>187515</v>
       </c>
       <c r="E304">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -11775,16 +11790,16 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>11801586</v>
+        <v>11801631</v>
       </c>
       <c r="C305">
-        <v>252373</v>
+        <v>252376</v>
       </c>
       <c r="D305">
-        <v>198672</v>
+        <v>198881</v>
       </c>
       <c r="E305">
-        <v>1952</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -11792,16 +11807,16 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>12000258</v>
+        <v>12000512</v>
       </c>
       <c r="C306">
-        <v>254325</v>
+        <v>254333</v>
       </c>
       <c r="D306">
-        <v>172003</v>
+        <v>171945</v>
       </c>
       <c r="E306">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -11809,13 +11824,13 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>12172261</v>
+        <v>12172457</v>
       </c>
       <c r="C307">
-        <v>255754</v>
+        <v>255758</v>
       </c>
       <c r="D307">
-        <v>141034</v>
+        <v>140838</v>
       </c>
       <c r="E307">
         <v>843</v>
@@ -11829,10 +11844,10 @@
         <v>12313295</v>
       </c>
       <c r="C308">
-        <v>256597</v>
+        <v>256601</v>
       </c>
       <c r="D308">
-        <v>179099</v>
+        <v>179612</v>
       </c>
       <c r="E308">
         <v>1038</v>
@@ -11843,13 +11858,13 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492394</v>
+        <v>12492907</v>
       </c>
       <c r="C309">
-        <v>257635</v>
+        <v>257639</v>
       </c>
       <c r="D309">
-        <v>178290</v>
+        <v>178024</v>
       </c>
       <c r="E309">
         <v>2209</v>
@@ -11860,13 +11875,13 @@
         <v>313</v>
       </c>
       <c r="B310">
-        <v>12670684</v>
+        <v>12670931</v>
       </c>
       <c r="C310">
-        <v>259844</v>
+        <v>259848</v>
       </c>
       <c r="D310">
-        <v>180536</v>
+        <v>180672</v>
       </c>
       <c r="E310">
         <v>2313</v>
@@ -11877,16 +11892,16 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>12851220</v>
+        <v>12851603</v>
       </c>
       <c r="C311">
-        <v>262157</v>
+        <v>262161</v>
       </c>
       <c r="D311">
-        <v>103104</v>
+        <v>102893</v>
       </c>
       <c r="E311">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -11894,13 +11909,13 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>12954324</v>
+        <v>12954496</v>
       </c>
       <c r="C312">
-        <v>263336</v>
+        <v>263339</v>
       </c>
       <c r="D312">
-        <v>205462</v>
+        <v>205886</v>
       </c>
       <c r="E312">
         <v>1412</v>
@@ -11911,13 +11926,13 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>13159786</v>
+        <v>13160382</v>
       </c>
       <c r="C313">
-        <v>264748</v>
+        <v>264751</v>
       </c>
       <c r="D313">
-        <v>151245</v>
+        <v>151146</v>
       </c>
       <c r="E313">
         <v>1192</v>
@@ -11928,13 +11943,13 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>13311031</v>
+        <v>13311528</v>
       </c>
       <c r="C314">
-        <v>265940</v>
+        <v>265943</v>
       </c>
       <c r="D314">
-        <v>136338</v>
+        <v>136372</v>
       </c>
       <c r="E314">
         <v>818</v>
@@ -11945,16 +11960,16 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>13447369</v>
+        <v>13447900</v>
       </c>
       <c r="C315">
-        <v>266758</v>
+        <v>266761</v>
       </c>
       <c r="D315">
-        <v>167760</v>
+        <v>167839</v>
       </c>
       <c r="E315">
-        <v>1265</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -11962,16 +11977,16 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>13615129</v>
+        <v>13615739</v>
       </c>
       <c r="C316">
-        <v>268023</v>
+        <v>268031</v>
       </c>
       <c r="D316">
-        <v>184286</v>
+        <v>184260</v>
       </c>
       <c r="E316">
-        <v>2610</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -11979,16 +11994,16 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>13799415</v>
+        <v>13799999</v>
       </c>
       <c r="C317">
-        <v>270633</v>
+        <v>270639</v>
       </c>
       <c r="D317">
-        <v>201186</v>
+        <v>201211</v>
       </c>
       <c r="E317">
-        <v>2885</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -11996,16 +12011,16 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>14000601</v>
+        <v>14001210</v>
       </c>
       <c r="C318">
-        <v>273518</v>
+        <v>273525</v>
       </c>
       <c r="D318">
-        <v>217959</v>
+        <v>217763</v>
       </c>
       <c r="E318">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -12013,13 +12028,13 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>14218560</v>
+        <v>14218973</v>
       </c>
       <c r="C319">
-        <v>276375</v>
+        <v>276381</v>
       </c>
       <c r="D319">
-        <v>231181</v>
+        <v>231387</v>
       </c>
       <c r="E319">
         <v>2637</v>
@@ -12030,13 +12045,13 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>14449741</v>
+        <v>14450360</v>
       </c>
       <c r="C320">
-        <v>279012</v>
+        <v>279018</v>
       </c>
       <c r="D320">
-        <v>205757</v>
+        <v>205673</v>
       </c>
       <c r="E320">
         <v>2190</v>
@@ -12047,13 +12062,13 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>14655498</v>
+        <v>14656033</v>
       </c>
       <c r="C321">
-        <v>281202</v>
+        <v>281208</v>
       </c>
       <c r="D321">
-        <v>172159</v>
+        <v>172108</v>
       </c>
       <c r="E321">
         <v>1111</v>
@@ -12064,16 +12079,16 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>14827657</v>
+        <v>14828141</v>
       </c>
       <c r="C322">
-        <v>282313</v>
+        <v>282319</v>
       </c>
       <c r="D322">
-        <v>204142</v>
+        <v>204292</v>
       </c>
       <c r="E322">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -12081,13 +12096,13 @@
         <v>326</v>
       </c>
       <c r="B323">
-        <v>15031799</v>
+        <v>15032433</v>
       </c>
       <c r="C323">
-        <v>283846</v>
+        <v>283853</v>
       </c>
       <c r="D323">
-        <v>219905</v>
+        <v>219881</v>
       </c>
       <c r="E323">
         <v>2821</v>
@@ -12098,16 +12113,16 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>15251704</v>
+        <v>15252314</v>
       </c>
       <c r="C324">
-        <v>286667</v>
+        <v>286674</v>
       </c>
       <c r="D324">
-        <v>219678</v>
+        <v>219736</v>
       </c>
       <c r="E324">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -12115,16 +12130,16 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>15471382</v>
+        <v>15472050</v>
       </c>
       <c r="C325">
-        <v>289824</v>
+        <v>289830</v>
       </c>
       <c r="D325">
-        <v>225252</v>
+        <v>225221</v>
       </c>
       <c r="E325">
-        <v>2937</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -12132,16 +12147,16 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>15696634</v>
+        <v>15697271</v>
       </c>
       <c r="C326">
-        <v>292761</v>
+        <v>292771</v>
       </c>
       <c r="D326">
-        <v>280514</v>
+        <v>280567</v>
       </c>
       <c r="E326">
-        <v>2951</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -12149,16 +12164,16 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>15977148</v>
+        <v>15977838</v>
       </c>
       <c r="C327">
-        <v>295712</v>
+        <v>295726</v>
       </c>
       <c r="D327">
-        <v>207444</v>
+        <v>207429</v>
       </c>
       <c r="E327">
-        <v>2259</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -12166,13 +12181,13 @@
         <v>331</v>
       </c>
       <c r="B328">
-        <v>16184592</v>
+        <v>16185267</v>
       </c>
       <c r="C328">
-        <v>297971</v>
+        <v>297981</v>
       </c>
       <c r="D328">
-        <v>184248</v>
+        <v>184224</v>
       </c>
       <c r="E328">
         <v>1357</v>
@@ -12183,13 +12198,13 @@
         <v>332</v>
       </c>
       <c r="B329">
-        <v>16368840</v>
+        <v>16369491</v>
       </c>
       <c r="C329">
-        <v>299328</v>
+        <v>299338</v>
       </c>
       <c r="D329">
-        <v>201073</v>
+        <v>201124</v>
       </c>
       <c r="E329">
         <v>1678</v>
@@ -12200,13 +12215,13 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>16569913</v>
+        <v>16570615</v>
       </c>
       <c r="C330">
-        <v>301006</v>
+        <v>301016</v>
       </c>
       <c r="D330">
-        <v>203000</v>
+        <v>202971</v>
       </c>
       <c r="E330">
         <v>3025</v>
@@ -12217,13 +12232,13 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>16772913</v>
+        <v>16773586</v>
       </c>
       <c r="C331">
-        <v>304031</v>
+        <v>304041</v>
       </c>
       <c r="D331">
-        <v>245033</v>
+        <v>245042</v>
       </c>
       <c r="E331">
         <v>3611</v>
@@ -12234,13 +12249,13 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>17017946</v>
+        <v>17018628</v>
       </c>
       <c r="C332">
-        <v>307642</v>
+        <v>307652</v>
       </c>
       <c r="D332">
-        <v>238445</v>
+        <v>238427</v>
       </c>
       <c r="E332">
         <v>3298</v>
@@ -12251,13 +12266,13 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>17256391</v>
+        <v>17257055</v>
       </c>
       <c r="C333">
-        <v>310940</v>
+        <v>310950</v>
       </c>
       <c r="D333">
-        <v>251191</v>
+        <v>251223</v>
       </c>
       <c r="E333">
         <v>2870</v>
@@ -12268,13 +12283,13 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>17507582</v>
+        <v>17508278</v>
       </c>
       <c r="C334">
-        <v>313810</v>
+        <v>313820</v>
       </c>
       <c r="D334">
-        <v>193947</v>
+        <v>193919</v>
       </c>
       <c r="E334">
         <v>2561</v>
@@ -12285,13 +12300,13 @@
         <v>338</v>
       </c>
       <c r="B335">
-        <v>17701529</v>
+        <v>17702197</v>
       </c>
       <c r="C335">
-        <v>316371</v>
+        <v>316381</v>
       </c>
       <c r="D335">
-        <v>179956</v>
+        <v>179946</v>
       </c>
       <c r="E335">
         <v>1429</v>
@@ -12302,13 +12317,13 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>17881485</v>
+        <v>17882143</v>
       </c>
       <c r="C336">
-        <v>317800</v>
+        <v>317810</v>
       </c>
       <c r="D336">
-        <v>201570</v>
+        <v>201613</v>
       </c>
       <c r="E336">
         <v>1963</v>
@@ -12319,13 +12334,13 @@
         <v>340</v>
       </c>
       <c r="B337">
-        <v>18083055</v>
+        <v>18083756</v>
       </c>
       <c r="C337">
-        <v>319763</v>
+        <v>319773</v>
       </c>
       <c r="D337">
-        <v>201674</v>
+        <v>201660</v>
       </c>
       <c r="E337">
         <v>3239</v>
@@ -12336,16 +12351,16 @@
         <v>341</v>
       </c>
       <c r="B338">
-        <v>18284729</v>
+        <v>18285416</v>
       </c>
       <c r="C338">
-        <v>323002</v>
+        <v>323012</v>
       </c>
       <c r="D338">
-        <v>227750</v>
+        <v>227788</v>
       </c>
       <c r="E338">
-        <v>3411</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -12353,13 +12368,13 @@
         <v>342</v>
       </c>
       <c r="B339">
-        <v>18512479</v>
+        <v>18513204</v>
       </c>
       <c r="C339">
-        <v>326413</v>
+        <v>326424</v>
       </c>
       <c r="D339">
-        <v>193557</v>
+        <v>193548</v>
       </c>
       <c r="E339">
         <v>2824</v>
@@ -12370,13 +12385,13 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>18706036</v>
+        <v>18706752</v>
       </c>
       <c r="C340">
-        <v>329237</v>
+        <v>329248</v>
       </c>
       <c r="D340">
-        <v>100994</v>
+        <v>100973</v>
       </c>
       <c r="E340">
         <v>1129</v>
@@ -12387,13 +12402,13 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>18807030</v>
+        <v>18807725</v>
       </c>
       <c r="C341">
-        <v>330366</v>
+        <v>330377</v>
       </c>
       <c r="D341">
-        <v>216858</v>
+        <v>216856</v>
       </c>
       <c r="E341">
         <v>1646</v>
@@ -12404,13 +12419,13 @@
         <v>345</v>
       </c>
       <c r="B342">
-        <v>19023888</v>
+        <v>19024581</v>
       </c>
       <c r="C342">
-        <v>332012</v>
+        <v>332023</v>
       </c>
       <c r="D342">
-        <v>152102</v>
+        <v>152093</v>
       </c>
       <c r="E342">
         <v>1230</v>
@@ -12421,13 +12436,13 @@
         <v>346</v>
       </c>
       <c r="B343">
-        <v>19175990</v>
+        <v>19176674</v>
       </c>
       <c r="C343">
-        <v>333242</v>
+        <v>333253</v>
       </c>
       <c r="D343">
-        <v>189044</v>
+        <v>189066</v>
       </c>
       <c r="E343">
         <v>1899</v>
@@ -12438,13 +12453,13 @@
         <v>347</v>
       </c>
       <c r="B344">
-        <v>19365034</v>
+        <v>19365740</v>
       </c>
       <c r="C344">
-        <v>335141</v>
+        <v>335152</v>
       </c>
       <c r="D344">
-        <v>201106</v>
+        <v>201092</v>
       </c>
       <c r="E344">
         <v>3628</v>
@@ -12455,13 +12470,13 @@
         <v>348</v>
       </c>
       <c r="B345">
-        <v>19566140</v>
+        <v>19566832</v>
       </c>
       <c r="C345">
-        <v>338769</v>
+        <v>338780</v>
       </c>
       <c r="D345">
-        <v>229038</v>
+        <v>229023</v>
       </c>
       <c r="E345">
         <v>3808</v>
@@ -12472,13 +12487,13 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>19795178</v>
+        <v>19795855</v>
       </c>
       <c r="C346">
-        <v>342577</v>
+        <v>342588</v>
       </c>
       <c r="D346">
-        <v>231045</v>
+        <v>231035</v>
       </c>
       <c r="E346">
         <v>3462</v>
@@ -12489,16 +12504,16 @@
         <v>350</v>
       </c>
       <c r="B347">
-        <v>20026223</v>
+        <v>20026890</v>
       </c>
       <c r="C347">
-        <v>346039</v>
+        <v>346050</v>
       </c>
       <c r="D347">
-        <v>147159</v>
+        <v>147260</v>
       </c>
       <c r="E347">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -12506,13 +12521,13 @@
         <v>351</v>
       </c>
       <c r="B348">
-        <v>20173382</v>
+        <v>20174150</v>
       </c>
       <c r="C348">
-        <v>347956</v>
+        <v>347970</v>
       </c>
       <c r="D348">
-        <v>291384</v>
+        <v>291382</v>
       </c>
       <c r="E348">
         <v>2373</v>
@@ -12523,16 +12538,16 @@
         <v>352</v>
       </c>
       <c r="B349">
-        <v>20464766</v>
+        <v>20465532</v>
       </c>
       <c r="C349">
-        <v>350329</v>
+        <v>350343</v>
       </c>
       <c r="D349">
-        <v>201980</v>
+        <v>201967</v>
       </c>
       <c r="E349">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -12540,16 +12555,16 @@
         <v>353</v>
       </c>
       <c r="B350">
-        <v>20666746</v>
+        <v>20667499</v>
       </c>
       <c r="C350">
-        <v>351682</v>
+        <v>351694</v>
       </c>
       <c r="D350">
-        <v>251918</v>
+        <v>251962</v>
       </c>
       <c r="E350">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -12557,13 +12572,13 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>20918664</v>
+        <v>20919461</v>
       </c>
       <c r="C351">
-        <v>353730</v>
+        <v>353743</v>
       </c>
       <c r="D351">
-        <v>235051</v>
+        <v>235027</v>
       </c>
       <c r="E351">
         <v>3689</v>
@@ -12574,13 +12589,13 @@
         <v>355</v>
       </c>
       <c r="B352">
-        <v>21153715</v>
+        <v>21154488</v>
       </c>
       <c r="C352">
-        <v>357419</v>
+        <v>357432</v>
       </c>
       <c r="D352">
-        <v>255728</v>
+        <v>255760</v>
       </c>
       <c r="E352">
         <v>3964</v>
@@ -12591,16 +12606,16 @@
         <v>356</v>
       </c>
       <c r="B353">
-        <v>21409443</v>
+        <v>21410248</v>
       </c>
       <c r="C353">
-        <v>361383</v>
+        <v>361396</v>
       </c>
       <c r="D353">
-        <v>280292</v>
+        <v>280278</v>
       </c>
       <c r="E353">
-        <v>4112</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -12608,13 +12623,13 @@
         <v>357</v>
       </c>
       <c r="B354">
-        <v>21689735</v>
+        <v>21690526</v>
       </c>
       <c r="C354">
-        <v>365495</v>
+        <v>365507</v>
       </c>
       <c r="D354">
-        <v>300594</v>
+        <v>300619</v>
       </c>
       <c r="E354">
         <v>3895</v>
@@ -12625,13 +12640,13 @@
         <v>358</v>
       </c>
       <c r="B355">
-        <v>21990329</v>
+        <v>21991145</v>
       </c>
       <c r="C355">
-        <v>369390</v>
+        <v>369402</v>
       </c>
       <c r="D355">
-        <v>252142</v>
+        <v>252129</v>
       </c>
       <c r="E355">
         <v>3261</v>
@@ -12642,13 +12657,13 @@
         <v>359</v>
       </c>
       <c r="B356">
-        <v>22242471</v>
+        <v>22243274</v>
       </c>
       <c r="C356">
-        <v>372651</v>
+        <v>372663</v>
       </c>
       <c r="D356">
-        <v>208338</v>
+        <v>208336</v>
       </c>
       <c r="E356">
         <v>1777</v>
@@ -12659,13 +12674,13 @@
         <v>360</v>
       </c>
       <c r="B357">
-        <v>22450809</v>
+        <v>22451610</v>
       </c>
       <c r="C357">
-        <v>374428</v>
+        <v>374440</v>
       </c>
       <c r="D357">
-        <v>222921</v>
+        <v>222944</v>
       </c>
       <c r="E357">
         <v>2048</v>
@@ -12676,13 +12691,13 @@
         <v>361</v>
       </c>
       <c r="B358">
-        <v>22673730</v>
+        <v>22674554</v>
       </c>
       <c r="C358">
-        <v>376476</v>
+        <v>376488</v>
       </c>
       <c r="D358">
-        <v>229712</v>
+        <v>229695</v>
       </c>
       <c r="E358">
         <v>4406</v>
@@ -12693,13 +12708,13 @@
         <v>362</v>
       </c>
       <c r="B359">
-        <v>22903442</v>
+        <v>22904249</v>
       </c>
       <c r="C359">
-        <v>380882</v>
+        <v>380894</v>
       </c>
       <c r="D359">
-        <v>229298</v>
+        <v>229318</v>
       </c>
       <c r="E359">
         <v>3930</v>
@@ -12710,13 +12725,13 @@
         <v>363</v>
       </c>
       <c r="B360">
-        <v>23132740</v>
+        <v>23133567</v>
       </c>
       <c r="C360">
-        <v>384812</v>
+        <v>384824</v>
       </c>
       <c r="D360">
-        <v>238620</v>
+        <v>238599</v>
       </c>
       <c r="E360">
         <v>3980</v>
@@ -12727,13 +12742,13 @@
         <v>364</v>
       </c>
       <c r="B361">
-        <v>23371360</v>
+        <v>23372166</v>
       </c>
       <c r="C361">
-        <v>388792</v>
+        <v>388804</v>
       </c>
       <c r="D361">
-        <v>240947</v>
+        <v>240935</v>
       </c>
       <c r="E361">
         <v>3749</v>
@@ -12744,10 +12759,10 @@
         <v>365</v>
       </c>
       <c r="B362">
-        <v>23612307</v>
+        <v>23613101</v>
       </c>
       <c r="C362">
-        <v>392541</v>
+        <v>392553</v>
       </c>
       <c r="D362">
         <v>201659</v>
@@ -12761,13 +12776,13 @@
         <v>366</v>
       </c>
       <c r="B363">
-        <v>23813966</v>
+        <v>23814760</v>
       </c>
       <c r="C363">
-        <v>395882</v>
+        <v>395894</v>
       </c>
       <c r="D363">
-        <v>169641</v>
+        <v>169622</v>
       </c>
       <c r="E363">
         <v>1730</v>
@@ -12778,13 +12793,13 @@
         <v>367</v>
       </c>
       <c r="B364">
-        <v>23983607</v>
+        <v>23984382</v>
       </c>
       <c r="C364">
-        <v>397612</v>
+        <v>397624</v>
       </c>
       <c r="D364">
-        <v>142587</v>
+        <v>142647</v>
       </c>
       <c r="E364">
         <v>1441</v>
@@ -12795,10 +12810,10 @@
         <v>368</v>
       </c>
       <c r="B365">
-        <v>24126194</v>
+        <v>24127029</v>
       </c>
       <c r="C365">
-        <v>399053</v>
+        <v>399065</v>
       </c>
       <c r="D365">
         <v>185070</v>
@@ -12812,13 +12827,13 @@
         <v>369</v>
       </c>
       <c r="B366">
-        <v>24311264</v>
+        <v>24312099</v>
       </c>
       <c r="C366">
-        <v>401824</v>
+        <v>401836</v>
       </c>
       <c r="D366">
-        <v>186912</v>
+        <v>186916</v>
       </c>
       <c r="E366">
         <v>4380</v>
@@ -12829,13 +12844,13 @@
         <v>370</v>
       </c>
       <c r="B367">
-        <v>24498176</v>
+        <v>24499015</v>
       </c>
       <c r="C367">
-        <v>406204</v>
+        <v>406216</v>
       </c>
       <c r="D367">
-        <v>190160</v>
+        <v>190134</v>
       </c>
       <c r="E367">
         <v>4135</v>
@@ -12846,13 +12861,13 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>24688336</v>
+        <v>24689149</v>
       </c>
       <c r="C368">
-        <v>410339</v>
+        <v>410351</v>
       </c>
       <c r="D368">
-        <v>191705</v>
+        <v>191742</v>
       </c>
       <c r="E368">
         <v>3731</v>
@@ -12863,13 +12878,13 @@
         <v>372</v>
       </c>
       <c r="B369">
-        <v>24880041</v>
+        <v>24880891</v>
       </c>
       <c r="C369">
-        <v>414070</v>
+        <v>414082</v>
       </c>
       <c r="D369">
-        <v>167954</v>
+        <v>167943</v>
       </c>
       <c r="E369">
         <v>3322</v>
@@ -12880,13 +12895,13 @@
         <v>373</v>
       </c>
       <c r="B370">
-        <v>25047995</v>
+        <v>25048834</v>
       </c>
       <c r="C370">
-        <v>417392</v>
+        <v>417404</v>
       </c>
       <c r="D370">
-        <v>129527</v>
+        <v>129522</v>
       </c>
       <c r="E370">
         <v>1815</v>
@@ -12897,13 +12912,13 @@
         <v>374</v>
       </c>
       <c r="B371">
-        <v>25177522</v>
+        <v>25178356</v>
       </c>
       <c r="C371">
-        <v>419207</v>
+        <v>419219</v>
       </c>
       <c r="D371">
-        <v>155682</v>
+        <v>155705</v>
       </c>
       <c r="E371">
         <v>1907</v>
@@ -12914,13 +12929,13 @@
         <v>375</v>
       </c>
       <c r="B372">
-        <v>25333204</v>
+        <v>25334061</v>
       </c>
       <c r="C372">
-        <v>421114</v>
+        <v>421126</v>
       </c>
       <c r="D372">
-        <v>151616</v>
+        <v>151617</v>
       </c>
       <c r="E372">
         <v>4097</v>
@@ -12931,16 +12946,16 @@
         <v>376</v>
       </c>
       <c r="B373">
-        <v>25484820</v>
+        <v>25485678</v>
       </c>
       <c r="C373">
-        <v>425211</v>
+        <v>425223</v>
       </c>
       <c r="D373">
-        <v>155629</v>
+        <v>155639</v>
       </c>
       <c r="E373">
-        <v>4101</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -12948,13 +12963,13 @@
         <v>377</v>
       </c>
       <c r="B374">
-        <v>25640449</v>
+        <v>25641317</v>
       </c>
       <c r="C374">
-        <v>429312</v>
+        <v>429326</v>
       </c>
       <c r="D374">
-        <v>165264</v>
+        <v>165250</v>
       </c>
       <c r="E374">
         <v>3868</v>
@@ -12965,13 +12980,13 @@
         <v>378</v>
       </c>
       <c r="B375">
-        <v>25805713</v>
+        <v>25806567</v>
       </c>
       <c r="C375">
-        <v>433180</v>
+        <v>433194</v>
       </c>
       <c r="D375">
-        <v>165636</v>
+        <v>165664</v>
       </c>
       <c r="E375">
         <v>3600</v>
@@ -12982,13 +12997,13 @@
         <v>379</v>
       </c>
       <c r="B376">
-        <v>25971349</v>
+        <v>25972231</v>
       </c>
       <c r="C376">
-        <v>436780</v>
+        <v>436794</v>
       </c>
       <c r="D376">
-        <v>133914</v>
+        <v>133905</v>
       </c>
       <c r="E376">
         <v>2641</v>
@@ -12999,13 +13014,13 @@
         <v>380</v>
       </c>
       <c r="B377">
-        <v>26105263</v>
+        <v>26106136</v>
       </c>
       <c r="C377">
-        <v>439421</v>
+        <v>439435</v>
       </c>
       <c r="D377">
-        <v>113512</v>
+        <v>113511</v>
       </c>
       <c r="E377">
         <v>1864</v>
@@ -13016,13 +13031,13 @@
         <v>381</v>
       </c>
       <c r="B378">
-        <v>26218775</v>
+        <v>26219647</v>
       </c>
       <c r="C378">
-        <v>441285</v>
+        <v>441299</v>
       </c>
       <c r="D378">
-        <v>139832</v>
+        <v>139851</v>
       </c>
       <c r="E378">
         <v>1950</v>
@@ -13033,13 +13048,13 @@
         <v>382</v>
       </c>
       <c r="B379">
-        <v>26358607</v>
+        <v>26359498</v>
       </c>
       <c r="C379">
-        <v>443235</v>
+        <v>443249</v>
       </c>
       <c r="D379">
-        <v>117919</v>
+        <v>117903</v>
       </c>
       <c r="E379">
         <v>3611</v>
@@ -13050,13 +13065,13 @@
         <v>383</v>
       </c>
       <c r="B380">
-        <v>26476526</v>
+        <v>26477401</v>
       </c>
       <c r="C380">
-        <v>446846</v>
+        <v>446860</v>
       </c>
       <c r="D380">
-        <v>120014</v>
+        <v>120039</v>
       </c>
       <c r="E380">
         <v>3843</v>
@@ -13067,16 +13082,16 @@
         <v>384</v>
       </c>
       <c r="B381">
-        <v>26596540</v>
+        <v>26597440</v>
       </c>
       <c r="C381">
-        <v>450689</v>
+        <v>450703</v>
       </c>
       <c r="D381">
-        <v>125842</v>
+        <v>125837</v>
       </c>
       <c r="E381">
-        <v>5116</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -13084,13 +13099,13 @@
         <v>385</v>
       </c>
       <c r="B382">
-        <v>26722382</v>
+        <v>26723277</v>
       </c>
       <c r="C382">
-        <v>455805</v>
+        <v>455820</v>
       </c>
       <c r="D382">
-        <v>129592</v>
+        <v>129574</v>
       </c>
       <c r="E382">
         <v>3570</v>
@@ -13101,13 +13116,13 @@
         <v>386</v>
       </c>
       <c r="B383">
-        <v>26851974</v>
+        <v>26852851</v>
       </c>
       <c r="C383">
-        <v>459375</v>
+        <v>459390</v>
       </c>
       <c r="D383">
-        <v>105027</v>
+        <v>105025</v>
       </c>
       <c r="E383">
         <v>2662</v>
@@ -13118,13 +13133,13 @@
         <v>387</v>
       </c>
       <c r="B384">
-        <v>26957001</v>
+        <v>26957876</v>
       </c>
       <c r="C384">
-        <v>462037</v>
+        <v>462052</v>
       </c>
       <c r="D384">
-        <v>87334</v>
+        <v>87329</v>
       </c>
       <c r="E384">
         <v>1301</v>
@@ -13135,13 +13150,13 @@
         <v>388</v>
       </c>
       <c r="B385">
-        <v>27044335</v>
+        <v>27045205</v>
       </c>
       <c r="C385">
-        <v>463338</v>
+        <v>463353</v>
       </c>
       <c r="D385">
-        <v>92739</v>
+        <v>92780</v>
       </c>
       <c r="E385">
         <v>1583</v>
@@ -13152,13 +13167,13 @@
         <v>389</v>
       </c>
       <c r="B386">
-        <v>27137074</v>
+        <v>27137985</v>
       </c>
       <c r="C386">
-        <v>464921</v>
+        <v>464936</v>
       </c>
       <c r="D386">
-        <v>96488</v>
+        <v>96480</v>
       </c>
       <c r="E386">
         <v>3170</v>
@@ -13169,16 +13184,16 @@
         <v>390</v>
       </c>
       <c r="B387">
-        <v>27233562</v>
+        <v>27234465</v>
       </c>
       <c r="C387">
-        <v>468091</v>
+        <v>468106</v>
       </c>
       <c r="D387">
-        <v>94893</v>
+        <v>94917</v>
       </c>
       <c r="E387">
-        <v>3255</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -13186,13 +13201,13 @@
         <v>391</v>
       </c>
       <c r="B388">
-        <v>27328455</v>
+        <v>27329382</v>
       </c>
       <c r="C388">
-        <v>471346</v>
+        <v>471360</v>
       </c>
       <c r="D388">
-        <v>105600</v>
+        <v>105599</v>
       </c>
       <c r="E388">
         <v>3878</v>
@@ -13203,16 +13218,33 @@
         <v>392</v>
       </c>
       <c r="B389">
-        <v>27434055</v>
+        <v>27434981</v>
       </c>
       <c r="C389">
-        <v>475224</v>
+        <v>475238</v>
       </c>
       <c r="D389">
-        <v>99565</v>
+        <v>99558</v>
       </c>
       <c r="E389">
         <v>5463</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390">
+        <v>27534539</v>
+      </c>
+      <c r="C390">
+        <v>480701</v>
+      </c>
+      <c r="D390">
+        <v>84727</v>
+      </c>
+      <c r="E390">
+        <v>3373</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6A4BB3-6FCE-4360-B4C8-44C2C1F2274F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66052B12-28E7-4CFD-AFB5-813E65A6E827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$390</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$391</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>date</t>
   </si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>02/12/2021</t>
+  </si>
+  <si>
+    <t>02/13/2021</t>
   </si>
 </sst>
 </file>
@@ -1300,9 +1303,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$390</c:f>
+              <c:f>data!$A$2:$A$391</c:f>
               <c:strCache>
-                <c:ptCount val="389"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2469,16 +2472,19 @@
                 </c:pt>
                 <c:pt idx="388">
                   <c:v>02/12/2021</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>02/13/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$390</c:f>
+              <c:f>data!$D$2:$D$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3645,6 +3651,9 @@
                 </c:pt>
                 <c:pt idx="388">
                   <c:v>84727</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>63850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,9 +3760,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$390</c:f>
+              <c:f>data!$A$2:$A$391</c:f>
               <c:strCache>
-                <c:ptCount val="389"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4920,16 +4929,19 @@
                 </c:pt>
                 <c:pt idx="388">
                   <c:v>02/12/2021</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>02/13/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$390</c:f>
+              <c:f>data!$E$2:$E$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="389"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6096,6 +6108,9 @@
                 </c:pt>
                 <c:pt idx="388">
                   <c:v>3373</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6268,8 +6283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E390" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E391" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E391" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6602,7 +6617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13245,6 +13260,23 @@
       </c>
       <c r="E390">
         <v>3373</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391">
+        <v>27619266</v>
+      </c>
+      <c r="C391">
+        <v>484074</v>
+      </c>
+      <c r="D391">
+        <v>63850</v>
+      </c>
+      <c r="E391">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66052B12-28E7-4CFD-AFB5-813E65A6E827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E425A1-F47C-48D1-ADD1-127F55E6D65A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E425A1-F47C-48D1-ADD1-127F55E6D65A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81C6557-B956-4A68-B528-109929AB0081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$391</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$392</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t>date</t>
   </si>
@@ -1218,6 +1218,9 @@
   </si>
   <si>
     <t>02/13/2021</t>
+  </si>
+  <si>
+    <t>02/14/2021</t>
   </si>
 </sst>
 </file>
@@ -1303,9 +1306,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$391</c:f>
+              <c:f>data!$A$2:$A$392</c:f>
               <c:strCache>
-                <c:ptCount val="390"/>
+                <c:ptCount val="391"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2475,16 +2478,19 @@
                 </c:pt>
                 <c:pt idx="389">
                   <c:v>02/13/2021</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>02/14/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$391</c:f>
+              <c:f>data!$D$2:$D$392</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="391"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3654,6 +3660,9 @@
                 </c:pt>
                 <c:pt idx="389">
                   <c:v>63850</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>55552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3760,9 +3769,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$391</c:f>
+              <c:f>data!$A$2:$A$392</c:f>
               <c:strCache>
-                <c:ptCount val="390"/>
+                <c:ptCount val="391"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4932,16 +4941,19 @@
                 </c:pt>
                 <c:pt idx="389">
                   <c:v>02/13/2021</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>02/14/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$391</c:f>
+              <c:f>data!$E$2:$E$392</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="391"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6111,6 +6123,9 @@
                 </c:pt>
                 <c:pt idx="389">
                   <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6283,8 +6298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E391" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E391" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E392" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E392" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6617,7 +6632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13277,6 +13292,23 @@
       </c>
       <c r="E391">
         <v>1080</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392">
+        <v>27683116</v>
+      </c>
+      <c r="C392">
+        <v>485154</v>
+      </c>
+      <c r="D392">
+        <v>55552</v>
+      </c>
+      <c r="E392">
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81C6557-B956-4A68-B528-109929AB0081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B296D2-5AF6-4DBB-BDFC-61B17B29E7A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$392</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$393</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>date</t>
   </si>
@@ -1221,6 +1221,9 @@
   </si>
   <si>
     <t>02/14/2021</t>
+  </si>
+  <si>
+    <t>02/15/2021</t>
   </si>
 </sst>
 </file>
@@ -1306,9 +1309,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$392</c:f>
+              <c:f>data!$A$2:$A$393</c:f>
               <c:strCache>
-                <c:ptCount val="391"/>
+                <c:ptCount val="392"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2481,16 +2484,19 @@
                 </c:pt>
                 <c:pt idx="390">
                   <c:v>02/14/2021</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>02/15/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$392</c:f>
+              <c:f>data!$D$2:$D$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="391"/>
+                <c:ptCount val="392"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3410,10 +3416,10 @@
                   <c:v>140838</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>179612</c:v>
+                  <c:v>179733</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>178024</c:v>
+                  <c:v>177903</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>180672</c:v>
@@ -3662,7 +3668,10 @@
                   <c:v>63850</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>55552</c:v>
+                  <c:v>55372</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>64376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,9 +3778,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$392</c:f>
+              <c:f>data!$A$2:$A$393</c:f>
               <c:strCache>
-                <c:ptCount val="391"/>
+                <c:ptCount val="392"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4944,16 +4953,19 @@
                 </c:pt>
                 <c:pt idx="390">
                   <c:v>02/14/2021</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>02/15/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$392</c:f>
+              <c:f>data!$E$2:$E$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="391"/>
+                <c:ptCount val="392"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6126,6 +6138,9 @@
                 </c:pt>
                 <c:pt idx="390">
                   <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6298,8 +6313,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E392" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E392" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E393" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E393" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6632,7 +6647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E392"/>
+  <dimension ref="A1:E393"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -11877,7 +11892,7 @@
         <v>256601</v>
       </c>
       <c r="D308">
-        <v>179612</v>
+        <v>179733</v>
       </c>
       <c r="E308">
         <v>1038</v>
@@ -11888,13 +11903,13 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>12492907</v>
+        <v>12493028</v>
       </c>
       <c r="C309">
         <v>257639</v>
       </c>
       <c r="D309">
-        <v>178024</v>
+        <v>177903</v>
       </c>
       <c r="E309">
         <v>2209</v>
@@ -13305,10 +13320,27 @@
         <v>485154</v>
       </c>
       <c r="D392">
-        <v>55552</v>
+        <v>55372</v>
       </c>
       <c r="E392">
         <v>994</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>396</v>
+      </c>
+      <c r="B393">
+        <v>27738488</v>
+      </c>
+      <c r="C393">
+        <v>486148</v>
+      </c>
+      <c r="D393">
+        <v>64376</v>
+      </c>
+      <c r="E393">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B296D2-5AF6-4DBB-BDFC-61B17B29E7A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A085EEC7-7A55-4B9A-BAE0-844DAFC6A393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$393</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$394</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>date</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>02/15/2021</t>
+  </si>
+  <si>
+    <t>02/16/2021</t>
   </si>
 </sst>
 </file>
@@ -1309,9 +1312,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$393</c:f>
+              <c:f>data!$A$2:$A$394</c:f>
               <c:strCache>
-                <c:ptCount val="392"/>
+                <c:ptCount val="393"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2487,16 +2490,19 @@
                 </c:pt>
                 <c:pt idx="391">
                   <c:v>02/15/2021</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>02/16/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$393</c:f>
+              <c:f>data!$D$2:$D$394</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="392"/>
+                <c:ptCount val="393"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3672,6 +3678,9 @@
                 </c:pt>
                 <c:pt idx="391">
                   <c:v>64376</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>70176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3778,9 +3787,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$393</c:f>
+              <c:f>data!$A$2:$A$394</c:f>
               <c:strCache>
-                <c:ptCount val="392"/>
+                <c:ptCount val="393"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4956,16 +4965,19 @@
                 </c:pt>
                 <c:pt idx="391">
                   <c:v>02/15/2021</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>02/16/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$393</c:f>
+              <c:f>data!$E$2:$E$394</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="392"/>
+                <c:ptCount val="393"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6141,6 +6153,9 @@
                 </c:pt>
                 <c:pt idx="391">
                   <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,8 +6328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E393" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E393" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E394" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E394" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6647,7 +6662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E393"/>
+  <dimension ref="A1:E394"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13341,6 +13356,23 @@
       </c>
       <c r="E393">
         <v>1707</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394">
+        <v>27802864</v>
+      </c>
+      <c r="C394">
+        <v>487855</v>
+      </c>
+      <c r="D394">
+        <v>70176</v>
+      </c>
+      <c r="E394">
+        <v>2471</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A085EEC7-7A55-4B9A-BAE0-844DAFC6A393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9884381-A4FF-4258-8B84-A69673DCD88C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$394</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$395</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>date</t>
   </si>
@@ -1227,6 +1227,9 @@
   </si>
   <si>
     <t>02/16/2021</t>
+  </si>
+  <si>
+    <t>02/17/2021</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1315,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$394</c:f>
+              <c:f>data!$A$2:$A$395</c:f>
               <c:strCache>
-                <c:ptCount val="393"/>
+                <c:ptCount val="394"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2493,16 +2496,19 @@
                 </c:pt>
                 <c:pt idx="392">
                   <c:v>02/16/2021</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>02/17/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$394</c:f>
+              <c:f>data!$D$2:$D$395</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="393"/>
+                <c:ptCount val="394"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3681,6 +3687,9 @@
                 </c:pt>
                 <c:pt idx="392">
                   <c:v>70176</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>71874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,9 +3796,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$394</c:f>
+              <c:f>data!$A$2:$A$395</c:f>
               <c:strCache>
-                <c:ptCount val="393"/>
+                <c:ptCount val="394"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4968,16 +4977,19 @@
                 </c:pt>
                 <c:pt idx="392">
                   <c:v>02/16/2021</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>02/17/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$394</c:f>
+              <c:f>data!$E$2:$E$395</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="393"/>
+                <c:ptCount val="394"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6156,6 +6168,9 @@
                 </c:pt>
                 <c:pt idx="392">
                   <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,8 +6343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E394" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E394" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E395" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E395" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6662,7 +6677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E394"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13373,6 +13388,23 @@
       </c>
       <c r="E394">
         <v>2471</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395">
+        <v>27873040</v>
+      </c>
+      <c r="C395">
+        <v>490326</v>
+      </c>
+      <c r="D395">
+        <v>71874</v>
+      </c>
+      <c r="E395">
+        <v>2620</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9884381-A4FF-4258-8B84-A69673DCD88C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F174EC-1ABA-490B-A787-3989A5CA0D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$395</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$396</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t>date</t>
   </si>
@@ -1230,6 +1230,9 @@
   </si>
   <si>
     <t>02/17/2021</t>
+  </si>
+  <si>
+    <t>02/18/2021</t>
   </si>
 </sst>
 </file>
@@ -1315,9 +1318,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$395</c:f>
+              <c:f>data!$A$2:$A$396</c:f>
               <c:strCache>
-                <c:ptCount val="394"/>
+                <c:ptCount val="395"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2499,16 +2502,19 @@
                 </c:pt>
                 <c:pt idx="393">
                   <c:v>02/17/2021</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>02/18/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$395</c:f>
+              <c:f>data!$D$2:$D$396</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="394"/>
+                <c:ptCount val="395"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3690,6 +3696,9 @@
                 </c:pt>
                 <c:pt idx="393">
                   <c:v>71874</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>78018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,9 +3805,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$395</c:f>
+              <c:f>data!$A$2:$A$396</c:f>
               <c:strCache>
-                <c:ptCount val="394"/>
+                <c:ptCount val="395"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4980,16 +4989,19 @@
                 </c:pt>
                 <c:pt idx="393">
                   <c:v>02/17/2021</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>02/18/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$395</c:f>
+              <c:f>data!$E$2:$E$396</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="394"/>
+                <c:ptCount val="395"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6171,6 +6183,9 @@
                 </c:pt>
                 <c:pt idx="393">
                   <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,8 +6358,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E395" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E395" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E396" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E396" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6677,7 +6692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E395"/>
+  <dimension ref="A1:E396"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13405,6 +13420,23 @@
       </c>
       <c r="E395">
         <v>2620</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>399</v>
+      </c>
+      <c r="B396">
+        <v>27944914</v>
+      </c>
+      <c r="C396">
+        <v>492946</v>
+      </c>
+      <c r="D396">
+        <v>78018</v>
+      </c>
+      <c r="E396">
+        <v>2626</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F174EC-1ABA-490B-A787-3989A5CA0D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BA96B-CFE9-42F8-92A2-4850AB1E2A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$396</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$397</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t>date</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>02/18/2021</t>
+  </si>
+  <si>
+    <t>02/19/2021</t>
   </si>
 </sst>
 </file>
@@ -1318,9 +1321,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$396</c:f>
+              <c:f>data!$A$2:$A$397</c:f>
               <c:strCache>
-                <c:ptCount val="395"/>
+                <c:ptCount val="396"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2505,16 +2508,19 @@
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>02/18/2021</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>02/19/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$396</c:f>
+              <c:f>data!$D$2:$D$397</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="395"/>
+                <c:ptCount val="396"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3699,6 +3705,9 @@
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>78018</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>69740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3805,9 +3814,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$396</c:f>
+              <c:f>data!$A$2:$A$397</c:f>
               <c:strCache>
-                <c:ptCount val="395"/>
+                <c:ptCount val="396"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -4992,16 +5001,19 @@
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>02/18/2021</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>02/19/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$396</c:f>
+              <c:f>data!$E$2:$E$397</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="395"/>
+                <c:ptCount val="396"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6186,6 +6198,9 @@
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6358,8 +6373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E396" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E396" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E397" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E397" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6692,7 +6707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13437,6 +13452,23 @@
       </c>
       <c r="E396">
         <v>2626</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>400</v>
+      </c>
+      <c r="B397">
+        <v>28022932</v>
+      </c>
+      <c r="C397">
+        <v>495572</v>
+      </c>
+      <c r="D397">
+        <v>69740</v>
+      </c>
+      <c r="E397">
+        <v>1831</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BA96B-CFE9-42F8-92A2-4850AB1E2A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A85B1D-4B08-4296-9F37-05D469DDE7AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$397</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$398</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t>date</t>
   </si>
@@ -1236,6 +1236,9 @@
   </si>
   <si>
     <t>02/19/2021</t>
+  </si>
+  <si>
+    <t>02/20/2021</t>
   </si>
 </sst>
 </file>
@@ -1321,9 +1324,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$397</c:f>
+              <c:f>data!$A$2:$A$398</c:f>
               <c:strCache>
-                <c:ptCount val="396"/>
+                <c:ptCount val="397"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2511,16 +2514,19 @@
                 </c:pt>
                 <c:pt idx="395">
                   <c:v>02/19/2021</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>02/20/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$397</c:f>
+              <c:f>data!$D$2:$D$398</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="396"/>
+                <c:ptCount val="397"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3708,6 +3714,9 @@
                 </c:pt>
                 <c:pt idx="395">
                   <c:v>69740</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>55195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,9 +3823,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$397</c:f>
+              <c:f>data!$A$2:$A$398</c:f>
               <c:strCache>
-                <c:ptCount val="396"/>
+                <c:ptCount val="397"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5004,16 +5013,19 @@
                 </c:pt>
                 <c:pt idx="395">
                   <c:v>02/19/2021</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>02/20/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$397</c:f>
+              <c:f>data!$E$2:$E$398</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="396"/>
+                <c:ptCount val="397"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6201,6 +6213,9 @@
                 </c:pt>
                 <c:pt idx="395">
                   <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6373,8 +6388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E397" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E397" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E398" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E398" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6707,7 +6722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E397"/>
+  <dimension ref="A1:E398"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13469,6 +13484,23 @@
       </c>
       <c r="E397">
         <v>1831</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>401</v>
+      </c>
+      <c r="B398">
+        <v>28092672</v>
+      </c>
+      <c r="C398">
+        <v>497403</v>
+      </c>
+      <c r="D398">
+        <v>55195</v>
+      </c>
+      <c r="E398">
+        <v>1247</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A85B1D-4B08-4296-9F37-05D469DDE7AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3745A-1662-4B45-9DAD-87CD2C64518A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$398</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$399</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>date</t>
   </si>
@@ -1239,6 +1239,9 @@
   </si>
   <si>
     <t>02/20/2021</t>
+  </si>
+  <si>
+    <t>02/21/2021</t>
   </si>
 </sst>
 </file>
@@ -1324,9 +1327,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$398</c:f>
+              <c:f>data!$A$2:$A$399</c:f>
               <c:strCache>
-                <c:ptCount val="397"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2517,16 +2520,19 @@
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>02/20/2021</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>02/21/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$398</c:f>
+              <c:f>data!$D$2:$D$399</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="397"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3717,6 +3723,9 @@
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>55195</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>59462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,9 +3832,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$398</c:f>
+              <c:f>data!$A$2:$A$399</c:f>
               <c:strCache>
-                <c:ptCount val="397"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5016,16 +5025,19 @@
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>02/20/2021</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>02/21/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$398</c:f>
+              <c:f>data!$E$2:$E$399</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="397"/>
+                <c:ptCount val="398"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6216,6 +6228,9 @@
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6388,8 +6403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E398" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E398" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E399" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E399" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6722,7 +6737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E398"/>
+  <dimension ref="A1:E399"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13501,6 +13516,23 @@
       </c>
       <c r="E398">
         <v>1247</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>402</v>
+      </c>
+      <c r="B399">
+        <v>28147867</v>
+      </c>
+      <c r="C399">
+        <v>498650</v>
+      </c>
+      <c r="D399">
+        <v>59462</v>
+      </c>
+      <c r="E399">
+        <v>1454</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3745A-1662-4B45-9DAD-87CD2C64518A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D81173-5363-420A-A0B1-C7303D5A9BD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$399</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$400</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>date</t>
   </si>
@@ -1242,6 +1242,9 @@
   </si>
   <si>
     <t>02/21/2021</t>
+  </si>
+  <si>
+    <t>02/22/2021</t>
   </si>
 </sst>
 </file>
@@ -1327,9 +1330,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$399</c:f>
+              <c:f>data!$A$2:$A$400</c:f>
               <c:strCache>
-                <c:ptCount val="398"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2523,16 +2526,19 @@
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>02/21/2021</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>02/22/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$399</c:f>
+              <c:f>data!$D$2:$D$400</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3726,6 +3732,9 @@
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>59462</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>71802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,9 +3841,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$399</c:f>
+              <c:f>data!$A$2:$A$400</c:f>
               <c:strCache>
-                <c:ptCount val="398"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5028,16 +5037,19 @@
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>02/21/2021</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>02/22/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$399</c:f>
+              <c:f>data!$E$2:$E$400</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="398"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6231,6 +6243,9 @@
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6403,8 +6418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E399" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E399" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E400" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E400" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6737,7 +6752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E399"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13533,6 +13548,23 @@
       </c>
       <c r="E399">
         <v>1454</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400">
+        <v>28207329</v>
+      </c>
+      <c r="C400">
+        <v>500104</v>
+      </c>
+      <c r="D400">
+        <v>71802</v>
+      </c>
+      <c r="E400">
+        <v>2328</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D81173-5363-420A-A0B1-C7303D5A9BD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48595BA2-7C37-42A1-89EE-45FA0C042894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$400</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$401</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t>date</t>
   </si>
@@ -1245,6 +1245,9 @@
   </si>
   <si>
     <t>02/22/2021</t>
+  </si>
+  <si>
+    <t>02/23/2021</t>
   </si>
 </sst>
 </file>
@@ -1330,9 +1333,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$400</c:f>
+              <c:f>data!$A$2:$A$401</c:f>
               <c:strCache>
-                <c:ptCount val="399"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2529,16 +2532,19 @@
                 </c:pt>
                 <c:pt idx="398">
                   <c:v>02/22/2021</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>02/23/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$400</c:f>
+              <c:f>data!$D$2:$D$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3735,6 +3741,9 @@
                 </c:pt>
                 <c:pt idx="398">
                   <c:v>71802</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>70768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,9 +3850,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$400</c:f>
+              <c:f>data!$A$2:$A$401</c:f>
               <c:strCache>
-                <c:ptCount val="399"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5040,16 +5049,19 @@
                 </c:pt>
                 <c:pt idx="398">
                   <c:v>02/22/2021</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>02/23/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$400</c:f>
+              <c:f>data!$E$2:$E$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6246,6 +6258,9 @@
                 </c:pt>
                 <c:pt idx="398">
                   <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>3210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6418,8 +6433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E400" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E400" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E401" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E401" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6752,7 +6767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13565,6 +13580,23 @@
       </c>
       <c r="E400">
         <v>2328</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>404</v>
+      </c>
+      <c r="B401">
+        <v>28279131</v>
+      </c>
+      <c r="C401">
+        <v>502432</v>
+      </c>
+      <c r="D401">
+        <v>70768</v>
+      </c>
+      <c r="E401">
+        <v>3210</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48595BA2-7C37-42A1-89EE-45FA0C042894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B87FB-B35B-4A55-A37C-29D7D09211D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$401</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$402</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
   <si>
     <t>date</t>
   </si>
@@ -1248,6 +1248,9 @@
   </si>
   <si>
     <t>02/23/2021</t>
+  </si>
+  <si>
+    <t>02/24/2021</t>
   </si>
 </sst>
 </file>
@@ -1333,9 +1336,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$401</c:f>
+              <c:f>data!$A$2:$A$402</c:f>
               <c:strCache>
-                <c:ptCount val="400"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2535,16 +2538,19 @@
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>02/23/2021</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>02/24/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$401</c:f>
+              <c:f>data!$D$2:$D$402</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3728,10 +3734,10 @@
                   <c:v>71874</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>78018</c:v>
+                  <c:v>78035</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>69740</c:v>
+                  <c:v>69723</c:v>
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>55195</c:v>
@@ -3743,7 +3749,10 @@
                   <c:v>71802</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>70768</c:v>
+                  <c:v>74130</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>77804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3850,9 +3859,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$401</c:f>
+              <c:f>data!$A$2:$A$402</c:f>
               <c:strCache>
-                <c:ptCount val="400"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5052,16 +5061,19 @@
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>02/23/2021</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>02/24/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$401</c:f>
+              <c:f>data!$E$2:$E$402</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="400"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6242,10 +6254,10 @@
                   <c:v>2471</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>2620</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>2626</c:v>
+                  <c:v>2621</c:v>
                 </c:pt>
                 <c:pt idx="395">
                   <c:v>1831</c:v>
@@ -6261,6 +6273,9 @@
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6433,8 +6448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E401" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E401" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E402" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E402" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6767,7 +6782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E401"/>
+  <dimension ref="A1:E402"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13494,7 +13509,7 @@
         <v>71874</v>
       </c>
       <c r="E395">
-        <v>2620</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -13505,13 +13520,13 @@
         <v>27944914</v>
       </c>
       <c r="C396">
-        <v>492946</v>
+        <v>492951</v>
       </c>
       <c r="D396">
-        <v>78018</v>
+        <v>78035</v>
       </c>
       <c r="E396">
-        <v>2626</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -13519,13 +13534,13 @@
         <v>400</v>
       </c>
       <c r="B397">
-        <v>28022932</v>
+        <v>28022949</v>
       </c>
       <c r="C397">
         <v>495572</v>
       </c>
       <c r="D397">
-        <v>69740</v>
+        <v>69723</v>
       </c>
       <c r="E397">
         <v>1831</v>
@@ -13593,10 +13608,27 @@
         <v>502432</v>
       </c>
       <c r="D401">
-        <v>70768</v>
+        <v>74130</v>
       </c>
       <c r="E401">
         <v>3210</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>405</v>
+      </c>
+      <c r="B402">
+        <v>28353261</v>
+      </c>
+      <c r="C402">
+        <v>505642</v>
+      </c>
+      <c r="D402">
+        <v>77804</v>
+      </c>
+      <c r="E402">
+        <v>2465</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B87FB-B35B-4A55-A37C-29D7D09211D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585085B2-82D1-4D24-A8FB-5E3C3CA2B221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$402</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$403</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t>date</t>
   </si>
@@ -1251,6 +1251,9 @@
   </si>
   <si>
     <t>02/24/2021</t>
+  </si>
+  <si>
+    <t>02/25/2021</t>
   </si>
 </sst>
 </file>
@@ -1336,9 +1339,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$402</c:f>
+              <c:f>data!$A$2:$A$403</c:f>
               <c:strCache>
-                <c:ptCount val="401"/>
+                <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2541,16 +2544,19 @@
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>02/24/2021</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>02/25/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$402</c:f>
+              <c:f>data!$D$2:$D$403</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="401"/>
+                <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3753,6 +3759,9 @@
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>77804</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>78262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,9 +3868,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$402</c:f>
+              <c:f>data!$A$2:$A$403</c:f>
               <c:strCache>
-                <c:ptCount val="401"/>
+                <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5064,16 +5073,19 @@
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>02/24/2021</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>02/25/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$402</c:f>
+              <c:f>data!$E$2:$E$403</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="401"/>
+                <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6276,6 +6288,9 @@
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6448,8 +6463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E402" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E402" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E403" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E403" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6782,7 +6797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E402"/>
+  <dimension ref="A1:E403"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13629,6 +13644,23 @@
       </c>
       <c r="E402">
         <v>2465</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403">
+        <v>28431065</v>
+      </c>
+      <c r="C403">
+        <v>508107</v>
+      </c>
+      <c r="D403">
+        <v>78262</v>
+      </c>
+      <c r="E403">
+        <v>2266</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585085B2-82D1-4D24-A8FB-5E3C3CA2B221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2995E-9159-448B-AAB9-0DCBF254A27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$403</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$404</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>date</t>
   </si>
@@ -1254,6 +1254,9 @@
   </si>
   <si>
     <t>02/25/2021</t>
+  </si>
+  <si>
+    <t>02/26/2021</t>
   </si>
 </sst>
 </file>
@@ -1339,9 +1342,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$403</c:f>
+              <c:f>data!$A$2:$A$404</c:f>
               <c:strCache>
-                <c:ptCount val="402"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2547,16 +2550,19 @@
                 </c:pt>
                 <c:pt idx="401">
                   <c:v>02/25/2021</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>02/26/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$403</c:f>
+              <c:f>data!$D$2:$D$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="402"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3762,6 +3768,9 @@
                 </c:pt>
                 <c:pt idx="401">
                   <c:v>78262</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>62694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,9 +3877,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$403</c:f>
+              <c:f>data!$A$2:$A$404</c:f>
               <c:strCache>
-                <c:ptCount val="402"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5076,16 +5085,19 @@
                 </c:pt>
                 <c:pt idx="401">
                   <c:v>02/25/2021</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>02/26/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$403</c:f>
+              <c:f>data!$E$2:$E$404</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="402"/>
+                <c:ptCount val="403"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6290,7 +6302,10 @@
                   <c:v>2465</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>2266</c:v>
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6463,8 +6478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E403" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E403" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E404" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E404" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6797,7 +6812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E403"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13660,7 +13675,24 @@
         <v>78262</v>
       </c>
       <c r="E403">
-        <v>2266</v>
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404">
+        <v>28509327</v>
+      </c>
+      <c r="C404">
+        <v>510283</v>
+      </c>
+      <c r="D404">
+        <v>62694</v>
+      </c>
+      <c r="E404">
+        <v>1567</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2995E-9159-448B-AAB9-0DCBF254A27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31AEE1-B92C-4629-ACEA-3DBB097BFDDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$404</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$405</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t>date</t>
   </si>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>02/26/2021</t>
+  </si>
+  <si>
+    <t>02/27/2021</t>
   </si>
 </sst>
 </file>
@@ -1342,9 +1345,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$404</c:f>
+              <c:f>data!$A$2:$A$405</c:f>
               <c:strCache>
-                <c:ptCount val="403"/>
+                <c:ptCount val="404"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2553,16 +2556,19 @@
                 </c:pt>
                 <c:pt idx="402">
                   <c:v>02/26/2021</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>02/27/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$404</c:f>
+              <c:f>data!$D$2:$D$405</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="403"/>
+                <c:ptCount val="404"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3771,6 +3777,9 @@
                 </c:pt>
                 <c:pt idx="402">
                   <c:v>62694</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>50925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,9 +3886,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$404</c:f>
+              <c:f>data!$A$2:$A$405</c:f>
               <c:strCache>
-                <c:ptCount val="403"/>
+                <c:ptCount val="404"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5088,16 +5097,19 @@
                 </c:pt>
                 <c:pt idx="402">
                   <c:v>02/26/2021</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>02/27/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$404</c:f>
+              <c:f>data!$E$2:$E$405</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="403"/>
+                <c:ptCount val="404"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6306,6 +6318,9 @@
                 </c:pt>
                 <c:pt idx="402">
                   <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6478,8 +6493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E404" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E404" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E405" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E405" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6812,7 +6827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E404"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13693,6 +13708,23 @@
       </c>
       <c r="E404">
         <v>1567</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>408</v>
+      </c>
+      <c r="B405">
+        <v>28572021</v>
+      </c>
+      <c r="C405">
+        <v>511850</v>
+      </c>
+      <c r="D405">
+        <v>50925</v>
+      </c>
+      <c r="E405">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31AEE1-B92C-4629-ACEA-3DBB097BFDDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78D544-45A0-430F-A8C5-4088C212789E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$405</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$406</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t>date</t>
   </si>
@@ -1260,6 +1260,9 @@
   </si>
   <si>
     <t>02/27/2021</t>
+  </si>
+  <si>
+    <t>02/28/2021</t>
   </si>
 </sst>
 </file>
@@ -1345,9 +1348,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$405</c:f>
+              <c:f>data!$A$2:$A$406</c:f>
               <c:strCache>
-                <c:ptCount val="404"/>
+                <c:ptCount val="405"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2559,16 +2562,19 @@
                 </c:pt>
                 <c:pt idx="403">
                   <c:v>02/27/2021</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>02/28/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$405</c:f>
+              <c:f>data!$D$2:$D$406</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="404"/>
+                <c:ptCount val="405"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3780,6 +3786,9 @@
                 </c:pt>
                 <c:pt idx="403">
                   <c:v>50925</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>56672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,9 +3895,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$405</c:f>
+              <c:f>data!$A$2:$A$406</c:f>
               <c:strCache>
-                <c:ptCount val="404"/>
+                <c:ptCount val="405"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5100,16 +5109,19 @@
                 </c:pt>
                 <c:pt idx="403">
                   <c:v>02/27/2021</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>02/28/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$405</c:f>
+              <c:f>data!$E$2:$E$406</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="404"/>
+                <c:ptCount val="405"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6321,6 +6333,9 @@
                 </c:pt>
                 <c:pt idx="403">
                   <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,8 +6508,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E405" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E405" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E406" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E406" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6827,7 +6842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13725,6 +13740,23 @@
       </c>
       <c r="E405">
         <v>1129</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406">
+        <v>28622946</v>
+      </c>
+      <c r="C406">
+        <v>512979</v>
+      </c>
+      <c r="D406">
+        <v>56672</v>
+      </c>
+      <c r="E406">
+        <v>1425</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78D544-45A0-430F-A8C5-4088C212789E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276A577-20BD-415E-8AD6-CB03C80A2B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$406</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$407</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t>date</t>
   </si>
@@ -1263,6 +1263,9 @@
   </si>
   <si>
     <t>02/28/2021</t>
+  </si>
+  <si>
+    <t>03/01/2021</t>
   </si>
 </sst>
 </file>
@@ -1348,9 +1351,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$406</c:f>
+              <c:f>data!$A$2:$A$407</c:f>
               <c:strCache>
-                <c:ptCount val="405"/>
+                <c:ptCount val="406"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2565,16 +2568,19 @@
                 </c:pt>
                 <c:pt idx="404">
                   <c:v>02/28/2021</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>03/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$406</c:f>
+              <c:f>data!$D$2:$D$407</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="405"/>
+                <c:ptCount val="406"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3789,6 +3795,9 @@
                 </c:pt>
                 <c:pt idx="404">
                   <c:v>56672</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>57789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,9 +3904,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$406</c:f>
+              <c:f>data!$A$2:$A$407</c:f>
               <c:strCache>
-                <c:ptCount val="405"/>
+                <c:ptCount val="406"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5112,16 +5121,19 @@
                 </c:pt>
                 <c:pt idx="404">
                   <c:v>02/28/2021</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>03/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$406</c:f>
+              <c:f>data!$E$2:$E$407</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="405"/>
+                <c:ptCount val="406"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6336,6 +6348,9 @@
                 </c:pt>
                 <c:pt idx="404">
                   <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6508,8 +6523,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E406" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E406" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E407" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E407" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6842,7 +6857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E406"/>
+  <dimension ref="A1:E407"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13757,6 +13772,23 @@
       </c>
       <c r="E406">
         <v>1425</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407">
+        <v>28679618</v>
+      </c>
+      <c r="C407">
+        <v>514404</v>
+      </c>
+      <c r="D407">
+        <v>57789</v>
+      </c>
+      <c r="E407">
+        <v>1306</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276A577-20BD-415E-8AD6-CB03C80A2B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F543A3BA-FBE9-47D4-87B2-CA77B50E93C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$407</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$408</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>date</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
   </si>
 </sst>
 </file>
@@ -1351,9 +1354,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$407</c:f>
+              <c:f>data!$A$2:$A$408</c:f>
               <c:strCache>
-                <c:ptCount val="406"/>
+                <c:ptCount val="407"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2571,16 +2574,19 @@
                 </c:pt>
                 <c:pt idx="405">
                   <c:v>03/01/2021</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$407</c:f>
+              <c:f>data!$D$2:$D$408</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="406"/>
+                <c:ptCount val="407"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3798,6 +3804,9 @@
                 </c:pt>
                 <c:pt idx="405">
                   <c:v>57789</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>66714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,9 +3913,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$407</c:f>
+              <c:f>data!$A$2:$A$408</c:f>
               <c:strCache>
-                <c:ptCount val="406"/>
+                <c:ptCount val="407"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5124,16 +5133,19 @@
                 </c:pt>
                 <c:pt idx="405">
                   <c:v>03/01/2021</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$407</c:f>
+              <c:f>data!$E$2:$E$408</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="406"/>
+                <c:ptCount val="407"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6351,6 +6363,9 @@
                 </c:pt>
                 <c:pt idx="405">
                   <c:v>1306</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6523,8 +6538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E407" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E407" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E408" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E408" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6857,7 +6872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E407"/>
+  <dimension ref="A1:E408"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13789,6 +13804,23 @@
       </c>
       <c r="E407">
         <v>1306</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>411</v>
+      </c>
+      <c r="B408">
+        <v>28737407</v>
+      </c>
+      <c r="C408">
+        <v>515710</v>
+      </c>
+      <c r="D408">
+        <v>66714</v>
+      </c>
+      <c r="E408">
+        <v>2369</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F543A3BA-FBE9-47D4-87B2-CA77B50E93C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2EFEB-83B5-4724-8C68-C2CECB305215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$408</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$409</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t>date</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>03/03/2021</t>
   </si>
 </sst>
 </file>
@@ -1354,9 +1357,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$408</c:f>
+              <c:f>data!$A$2:$A$409</c:f>
               <c:strCache>
-                <c:ptCount val="407"/>
+                <c:ptCount val="408"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2577,16 +2580,19 @@
                 </c:pt>
                 <c:pt idx="406">
                   <c:v>03/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$408</c:f>
+              <c:f>data!$D$2:$D$409</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="407"/>
+                <c:ptCount val="408"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3807,6 +3813,9 @@
                 </c:pt>
                 <c:pt idx="406">
                   <c:v>66714</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>67415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,9 +3922,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$408</c:f>
+              <c:f>data!$A$2:$A$409</c:f>
               <c:strCache>
-                <c:ptCount val="407"/>
+                <c:ptCount val="408"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5136,16 +5145,19 @@
                 </c:pt>
                 <c:pt idx="406">
                   <c:v>03/02/2021</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$408</c:f>
+              <c:f>data!$E$2:$E$409</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="407"/>
+                <c:ptCount val="408"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6366,6 +6378,9 @@
                 </c:pt>
                 <c:pt idx="406">
                   <c:v>2369</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6538,8 +6553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E408" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E408" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E409" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E409" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6872,7 +6887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E408"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13821,6 +13836,23 @@
       </c>
       <c r="E408">
         <v>2369</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>412</v>
+      </c>
+      <c r="B409">
+        <v>28804121</v>
+      </c>
+      <c r="C409">
+        <v>518079</v>
+      </c>
+      <c r="D409">
+        <v>67415</v>
+      </c>
+      <c r="E409">
+        <v>1949</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2EFEB-83B5-4724-8C68-C2CECB305215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF9C3A8-C0AE-4C17-BAE0-5A2F33B4FAD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$409</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$410</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t>date</t>
   </si>
@@ -1272,6 +1272,9 @@
   </si>
   <si>
     <t>03/03/2021</t>
+  </si>
+  <si>
+    <t>03/04/2021</t>
   </si>
 </sst>
 </file>
@@ -1357,9 +1360,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$409</c:f>
+              <c:f>data!$A$2:$A$410</c:f>
               <c:strCache>
-                <c:ptCount val="408"/>
+                <c:ptCount val="409"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2583,16 +2586,19 @@
                 </c:pt>
                 <c:pt idx="407">
                   <c:v>03/03/2021</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>03/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$409</c:f>
+              <c:f>data!$D$2:$D$410</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="408"/>
+                <c:ptCount val="409"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3816,6 +3822,9 @@
                 </c:pt>
                 <c:pt idx="407">
                   <c:v>67415</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>65682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,9 +3931,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$409</c:f>
+              <c:f>data!$A$2:$A$410</c:f>
               <c:strCache>
-                <c:ptCount val="408"/>
+                <c:ptCount val="409"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5148,16 +5157,19 @@
                 </c:pt>
                 <c:pt idx="407">
                   <c:v>03/03/2021</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>03/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$409</c:f>
+              <c:f>data!$E$2:$E$410</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="408"/>
+                <c:ptCount val="409"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6381,6 +6393,9 @@
                 </c:pt>
                 <c:pt idx="407">
                   <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,8 +6568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E409" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E409" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E410" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E410" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6887,7 +6902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E409"/>
+  <dimension ref="A1:E410"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13853,6 +13868,23 @@
       </c>
       <c r="E409">
         <v>1949</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>413</v>
+      </c>
+      <c r="B410">
+        <v>28871536</v>
+      </c>
+      <c r="C410">
+        <v>520028</v>
+      </c>
+      <c r="D410">
+        <v>65682</v>
+      </c>
+      <c r="E410">
+        <v>2483</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF9C3A8-C0AE-4C17-BAE0-5A2F33B4FAD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8330F-54CD-40DD-91BD-2557702DBFB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$410</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$411</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t>date</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>03/04/2021</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
   </si>
 </sst>
 </file>
@@ -1360,9 +1363,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$410</c:f>
+              <c:f>data!$A$2:$A$411</c:f>
               <c:strCache>
-                <c:ptCount val="409"/>
+                <c:ptCount val="410"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2589,16 +2592,19 @@
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>03/04/2021</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$410</c:f>
+              <c:f>data!$D$2:$D$411</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="409"/>
+                <c:ptCount val="410"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3825,6 +3831,9 @@
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>65682</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>56606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,9 +3940,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$410</c:f>
+              <c:f>data!$A$2:$A$411</c:f>
               <c:strCache>
-                <c:ptCount val="409"/>
+                <c:ptCount val="410"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5160,16 +5169,19 @@
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>03/04/2021</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$410</c:f>
+              <c:f>data!$E$2:$E$411</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="409"/>
+                <c:ptCount val="410"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6396,6 +6408,9 @@
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,8 +6583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E410" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E410" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E411" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E411" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6902,7 +6917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E410"/>
+  <dimension ref="A1:E411"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13885,6 +13900,23 @@
       </c>
       <c r="E410">
         <v>2483</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>414</v>
+      </c>
+      <c r="B411">
+        <v>28937218</v>
+      </c>
+      <c r="C411">
+        <v>522511</v>
+      </c>
+      <c r="D411">
+        <v>56606</v>
+      </c>
+      <c r="E411">
+        <v>1459</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathDeltas.xlsx
+++ b/covid19/data/USCaseDeathDeltas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8330F-54CD-40DD-91BD-2557702DBFB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BFCF5-0AA8-4169-BC66-BFA7BBD712DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23055" yWindow="585" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22560" yWindow="120" windowWidth="17280" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Death Delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$411</definedName>
+    <definedName name="howe_hp_howehp_Covid19_usdeltas" localSheetId="0" hidden="1">data!$A$1:$E$412</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>date</t>
   </si>
@@ -1278,6 +1278,9 @@
   </si>
   <si>
     <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
   </si>
 </sst>
 </file>
@@ -1363,9 +1366,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$411</c:f>
+              <c:f>data!$A$2:$A$412</c:f>
               <c:strCache>
-                <c:ptCount val="410"/>
+                <c:ptCount val="411"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -2595,16 +2598,19 @@
                 </c:pt>
                 <c:pt idx="409">
                   <c:v>03/05/2021</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$411</c:f>
+              <c:f>data!$D$2:$D$412</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="410"/>
+                <c:ptCount val="411"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3834,6 +3840,9 @@
                 </c:pt>
                 <c:pt idx="409">
                   <c:v>56606</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>40336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,9 +3949,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>data!$A$2:$A$411</c:f>
+              <c:f>data!$A$2:$A$412</c:f>
               <c:strCache>
-                <c:ptCount val="410"/>
+                <c:ptCount val="411"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5172,16 +5181,19 @@
                 </c:pt>
                 <c:pt idx="409">
                   <c:v>03/05/2021</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$411</c:f>
+              <c:f>data!$E$2:$E$412</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="410"/>
+                <c:ptCount val="411"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6411,6 +6423,9 @@
                 </c:pt>
                 <c:pt idx="409">
                   <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,8 +6598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E411" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E411" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_usdeltas" displayName="Table_howe_hp_howehp_Covid19_usdeltas" ref="A1:E412" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E412" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="cases" queryTableFieldId="2"/>
@@ -6917,7 +6932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E411"/>
+  <dimension ref="A1:E412"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
@@ -13917,6 +13932,23 @@
       </c>
       <c r="E411">
         <v>1459</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>415</v>
+      </c>
+      <c r="B412">
+        <v>28993824</v>
+      </c>
+      <c r="C412">
+        <v>523970</v>
+      </c>
+      <c r="D412">
+        <v>40336</v>
+      </c>
+      <c r="E412">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
